--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0B84C0-E550-4F4C-ACDC-46203F8D81FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8830BFD1-6F30-421F-A820-407ECE66F792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00EBB926-0127-40AF-B7AF-FD3BAC47F36A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="214">
   <si>
     <t>SamJ</t>
   </si>
@@ -665,9 +665,6 @@
     <t>mmm</t>
   </si>
   <si>
-    <t>threepointers</t>
-  </si>
-  <si>
     <t>AccoladesOne</t>
   </si>
   <si>
@@ -735,6 +732,36 @@
   </si>
   <si>
     <t>../Images/Players/Sam.png</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FPG</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>Threes</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>TPG</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>MPG</t>
+  </si>
+  <si>
+    <t>Day One Array</t>
+  </si>
+  <si>
+    <t>ThreePointers</t>
   </si>
 </sst>
 </file>
@@ -2921,20 +2948,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF89EDA-C8E0-47BB-8322-EAF4F7802E47}">
-  <dimension ref="B2:R4"/>
+  <dimension ref="B1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="15" width="12.59765625" customWidth="1"/>
-    <col min="16" max="16" width="30.59765625" customWidth="1"/>
-    <col min="17" max="18" width="25.59765625" customWidth="1"/>
+    <col min="1" max="19" width="12.59765625" customWidth="1"/>
+    <col min="20" max="20" width="30.59765625" customWidth="1"/>
+    <col min="21" max="22" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>114</v>
       </c>
@@ -2945,49 +2986,61 @@
         <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="G2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L2" t="s">
         <v>181</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>182</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>183</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>184</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>185</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>186</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>187</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>188</v>
       </c>
-      <c r="O2" t="s">
-        <v>189</v>
-      </c>
-      <c r="P2" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
+        <v>195</v>
+      </c>
+      <c r="U2" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" t="s">
         <v>199</v>
       </c>
-      <c r="R2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>169</v>
       </c>
@@ -2998,49 +3051,61 @@
         <v>2.5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>4.5</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>3.5</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
         <v>170</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>171</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>172</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>173</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>174</v>
       </c>
-      <c r="M3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N3" t="s">
-        <v>195</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R3" t="s">
         <v>194</v>
       </c>
-      <c r="P3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>201</v>
-      </c>
-      <c r="R3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="S3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T3" t="s">
+        <v>196</v>
+      </c>
+      <c r="U3" t="s">
+        <v>200</v>
+      </c>
+      <c r="V3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>175</v>
       </c>
@@ -3048,49 +3113,117 @@
         <v>11</v>
       </c>
       <c r="D4">
+        <v>3.5</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4.5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5.5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>6.5</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4" t="s">
+        <v>178</v>
+      </c>
+      <c r="O4" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R4" t="s">
+        <v>191</v>
+      </c>
+      <c r="S4" t="s">
+        <v>192</v>
+      </c>
+      <c r="T4" t="s">
+        <v>197</v>
+      </c>
+      <c r="U4" t="s">
+        <v>201</v>
+      </c>
+      <c r="V4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="3">
+        <v>45013</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="3">
+        <v>45013</v>
+      </c>
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
         <v>8</v>
-      </c>
-      <c r="G4">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J4" t="s">
-        <v>178</v>
-      </c>
-      <c r="K4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" t="s">
-        <v>191</v>
-      </c>
-      <c r="N4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O4" t="s">
-        <v>193</v>
-      </c>
-      <c r="P4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>202</v>
-      </c>
-      <c r="R4" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FE9DAF-A8A8-4286-83B8-D65F0E860B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154A9379-85CB-40AE-A605-F3997BFFC2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="188">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -645,10 +645,13 @@
     <t>Finish</t>
   </si>
   <si>
-    <t>3P</t>
-  </si>
-  <si>
     <t>For Stats Page:</t>
+  </si>
+  <si>
+    <t>Nick Szogi</t>
+  </si>
+  <si>
+    <t>Three Pointer</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,6 +719,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -762,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -796,8 +806,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -808,6 +816,14 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1322,13 +1338,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2873,11 +2889,11 @@
       </c>
       <c r="D5" s="14">
         <f>'Stats Global'!R10</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="26">
         <f>'Stats Global'!Q10</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="14">
         <f>'Stats Global'!T10</f>
@@ -2897,11 +2913,11 @@
       </c>
       <c r="J5" s="14">
         <f>'Stats Global'!X10</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K5" s="26">
         <f>'Stats Global'!W10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>40</v>
@@ -2934,11 +2950,11 @@
       </c>
       <c r="D6" s="14">
         <f>'Stats Global'!R11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="26">
         <f>'Stats Global'!Q11</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" s="14">
         <f>'Stats Global'!T11</f>
@@ -2950,19 +2966,19 @@
       </c>
       <c r="H6" s="14">
         <f>'Stats Global'!V11</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="26">
         <f>'Stats Global'!U11</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="14">
         <f>'Stats Global'!X11</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K6" s="26">
         <f>'Stats Global'!W11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>40</v>
@@ -3111,19 +3127,19 @@
       </c>
       <c r="D9" s="14">
         <f>'Stats Global'!R14</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E9" s="26">
         <f>'Stats Global'!Q14</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="14">
         <f>'Stats Global'!T14</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G9" s="26">
         <f>'Stats Global'!S14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="14">
         <f>'Stats Global'!V14</f>
@@ -3135,11 +3151,11 @@
       </c>
       <c r="J9" s="14">
         <f>'Stats Global'!X14</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K9" s="26">
         <f>'Stats Global'!W14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>42</v>
@@ -3169,19 +3185,19 @@
       </c>
       <c r="D10" s="14">
         <f>'Stats Global'!R15</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E10" s="26">
         <f>'Stats Global'!Q15</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="14">
         <f>'Stats Global'!T15</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G10" s="26">
         <f>'Stats Global'!S15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="14">
         <f>'Stats Global'!V15</f>
@@ -3193,11 +3209,11 @@
       </c>
       <c r="J10" s="14">
         <f>'Stats Global'!X15</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K10" s="26">
         <f>'Stats Global'!W15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>58</v>
@@ -3407,19 +3423,19 @@
       </c>
       <c r="D14" s="14">
         <f>'Stats Global'!R19</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E14" s="26">
         <f>'Stats Global'!Q19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="14">
         <f>'Stats Global'!T19</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G14" s="26">
         <f>'Stats Global'!S19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="14">
         <f>'Stats Global'!V19</f>
@@ -3462,27 +3478,27 @@
       </c>
       <c r="D15" s="14">
         <f>'Stats Global'!R20</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E15" s="26">
         <f>'Stats Global'!Q20</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" s="14">
         <f>'Stats Global'!T20</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G15" s="26">
         <f>'Stats Global'!S20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="14">
         <f>'Stats Global'!V20</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="26">
         <f>'Stats Global'!U20</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="14">
         <f>'Stats Global'!X20</f>
@@ -4706,25 +4722,25 @@
       </c>
     </row>
     <row r="5" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="40" t="str">
+      <c r="B5" s="38" t="str">
         <f>Template!C2</f>
         <v>Insert Date Here</v>
       </c>
       <c r="C5" s="3">
-        <f>COUNT(Template!B4:B30)</f>
-        <v>12</v>
+        <f>COUNT(Template!B3:B30)</f>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
         <f>MAX(Template!K3:K5)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3">
         <f>C5-D5-F5</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
         <f>MIN(Template!K3:K5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>95</v>
@@ -4753,19 +4769,19 @@
       <c r="B6" s="4"/>
       <c r="I6" s="7">
         <f t="shared" ref="I6:L6" si="0">AVERAGE(C5:C30)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
@@ -4778,41 +4794,41 @@
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:L7" si="1">J6/$I$6</f>
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="35" t="s">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="P7" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="Q7" s="36" t="s">
+      <c r="Q7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="35" t="s">
+      <c r="R7" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="S7" s="37" t="s">
+      <c r="S7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="38" t="s">
+      <c r="T7" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="U7" s="39" t="s">
+      <c r="U7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="38" t="s">
+      <c r="V7" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="W7" s="37" t="s">
+      <c r="W7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="38" t="s">
+      <c r="X7" s="36" t="s">
         <v>94</v>
       </c>
       <c r="Y7" s="5"/>
@@ -4829,14 +4845,14 @@
     </row>
     <row r="8" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
-      <c r="P8" s="34" t="s">
+      <c r="P8" s="32" t="s">
         <v>55</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ref="Q8:Q22" si="2">Q29</f>
         <v>0</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="31">
         <f t="shared" ref="R8:R22" si="3">Q8/$Q$5</f>
         <v>0</v>
       </c>
@@ -4844,7 +4860,7 @@
         <f t="shared" ref="S8:S22" si="4">S29</f>
         <v>0</v>
       </c>
-      <c r="T8" s="32">
+      <c r="T8" s="30">
         <f t="shared" ref="T8:T22" si="5">S8/$Q$5</f>
         <v>0</v>
       </c>
@@ -4852,7 +4868,7 @@
         <f t="shared" ref="U8:U22" si="6">U29</f>
         <v>0</v>
       </c>
-      <c r="V8" s="32">
+      <c r="V8" s="30">
         <f t="shared" ref="V8:V22" si="7">U8/$Q$5</f>
         <v>0</v>
       </c>
@@ -4860,7 +4876,7 @@
         <f t="shared" ref="W8:W22" si="8">W29</f>
         <v>0</v>
       </c>
-      <c r="X8" s="32">
+      <c r="X8" s="30">
         <f t="shared" ref="X8:X22" si="9">W8/$Q$5</f>
         <v>0</v>
       </c>
@@ -4873,14 +4889,14 @@
     </row>
     <row r="9" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4"/>
-      <c r="P9" s="34" t="s">
+      <c r="P9" s="32" t="s">
         <v>59</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4888,7 +4904,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T9" s="32">
+      <c r="T9" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4896,7 +4912,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V9" s="32">
+      <c r="V9" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4904,7 +4920,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X9" s="32">
+      <c r="X9" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -4917,22 +4933,22 @@
     </row>
     <row r="10" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
-      <c r="P10" s="34" t="s">
+      <c r="P10" s="32" t="s">
         <v>62</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="R10" s="33">
+        <v>0</v>
+      </c>
+      <c r="R10" s="31">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T10" s="32">
+      <c r="T10" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4940,17 +4956,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V10" s="32">
+      <c r="V10" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X10" s="32">
+        <v>0</v>
+      </c>
+      <c r="X10" s="30">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="7"/>
       <c r="AD10" s="7"/>
@@ -4961,40 +4977,40 @@
     </row>
     <row r="11" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4"/>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="32" t="s">
         <v>65</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="R11" s="33">
+        <v>0</v>
+      </c>
+      <c r="R11" s="31">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T11" s="32">
+      <c r="T11" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="V11" s="32">
+        <v>0</v>
+      </c>
+      <c r="V11" s="30">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X11" s="32">
+        <v>0</v>
+      </c>
+      <c r="X11" s="30">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="7"/>
       <c r="AD11" s="7"/>
@@ -5005,14 +5021,14 @@
     </row>
     <row r="12" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="4"/>
-      <c r="P12" s="34" t="s">
+      <c r="P12" s="32" t="s">
         <v>68</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5020,7 +5036,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5028,7 +5044,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5036,7 +5052,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X12" s="32">
+      <c r="X12" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5049,14 +5065,14 @@
     </row>
     <row r="13" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="4"/>
-      <c r="P13" s="34" t="s">
+      <c r="P13" s="32" t="s">
         <v>71</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5064,7 +5080,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T13" s="32">
+      <c r="T13" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5072,7 +5088,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V13" s="32">
+      <c r="V13" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5080,7 +5096,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X13" s="32">
+      <c r="X13" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5093,40 +5109,40 @@
     </row>
     <row r="14" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
-      <c r="P14" s="34" t="s">
+      <c r="P14" s="32" t="s">
         <v>75</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="R14" s="33">
+        <v>0</v>
+      </c>
+      <c r="R14" s="31">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T14" s="32">
+        <v>0</v>
+      </c>
+      <c r="T14" s="30">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V14" s="32">
+      <c r="V14" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X14" s="32">
+        <v>0</v>
+      </c>
+      <c r="X14" s="30">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="7"/>
       <c r="AD14" s="7"/>
@@ -5137,40 +5153,40 @@
     </row>
     <row r="15" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="4"/>
-      <c r="P15" s="34" t="s">
+      <c r="P15" s="32" t="s">
         <v>78</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="R15" s="33">
+        <v>0</v>
+      </c>
+      <c r="R15" s="31">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="32">
+        <v>0</v>
+      </c>
+      <c r="T15" s="30">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V15" s="32">
+      <c r="V15" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X15" s="32">
+        <v>0</v>
+      </c>
+      <c r="X15" s="30">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AD15" s="7"/>
@@ -5181,14 +5197,14 @@
     </row>
     <row r="16" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="4"/>
-      <c r="P16" s="34" t="s">
+      <c r="P16" s="32" t="s">
         <v>80</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R16" s="33">
+      <c r="R16" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5196,7 +5212,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T16" s="32">
+      <c r="T16" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5204,7 +5220,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V16" s="32">
+      <c r="V16" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5212,7 +5228,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X16" s="32">
+      <c r="X16" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5225,14 +5241,14 @@
     </row>
     <row r="17" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="4"/>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="32" t="s">
         <v>81</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R17" s="33">
+      <c r="R17" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5240,7 +5256,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T17" s="32">
+      <c r="T17" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5248,7 +5264,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V17" s="32">
+      <c r="V17" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5256,7 +5272,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X17" s="32">
+      <c r="X17" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5269,14 +5285,14 @@
     </row>
     <row r="18" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="4"/>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="32" t="s">
         <v>82</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5284,7 +5300,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T18" s="32">
+      <c r="T18" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5292,7 +5308,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V18" s="32">
+      <c r="V18" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5300,7 +5316,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X18" s="32">
+      <c r="X18" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5313,30 +5329,30 @@
     </row>
     <row r="19" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="4"/>
-      <c r="P19" s="34" t="s">
+      <c r="P19" s="32" t="s">
         <v>83</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R19" s="33">
+        <v>0</v>
+      </c>
+      <c r="R19" s="31">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T19" s="32">
+        <v>0</v>
+      </c>
+      <c r="T19" s="30">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V19" s="32">
+      <c r="V19" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5344,7 +5360,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X19" s="32">
+      <c r="X19" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5357,38 +5373,38 @@
     </row>
     <row r="20" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="4"/>
-      <c r="P20" s="34" t="s">
+      <c r="P20" s="32" t="s">
         <v>86</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="R20" s="33">
+        <v>0</v>
+      </c>
+      <c r="R20" s="31">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T20" s="32">
+        <v>0</v>
+      </c>
+      <c r="T20" s="30">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="V20" s="32">
+        <v>0</v>
+      </c>
+      <c r="V20" s="30">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X20" s="32">
+      <c r="X20" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5401,14 +5417,14 @@
     </row>
     <row r="21" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="4"/>
-      <c r="P21" s="34" t="s">
+      <c r="P21" s="32" t="s">
         <v>87</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R21" s="33">
+      <c r="R21" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5416,7 +5432,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T21" s="32">
+      <c r="T21" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5424,7 +5440,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V21" s="32">
+      <c r="V21" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5432,7 +5448,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X21" s="32">
+      <c r="X21" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5444,14 +5460,14 @@
       <c r="AL21" s="11"/>
     </row>
     <row r="22" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P22" s="34" t="s">
+      <c r="P22" s="32" t="s">
         <v>88</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="33">
+      <c r="R22" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5459,7 +5475,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T22" s="32">
+      <c r="T22" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5467,7 +5483,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V22" s="32">
+      <c r="V22" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5475,7 +5491,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X22" s="32">
+      <c r="X22" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5526,441 +5542,441 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="P28" s="35" t="s">
+      <c r="P28" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="Q28" s="36" t="s">
+      <c r="Q28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="R28" s="35" t="s">
+      <c r="R28" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="T28" s="38" t="s">
+      <c r="T28" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="U28" s="39" t="s">
+      <c r="U28" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="V28" s="38" t="s">
+      <c r="V28" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="W28" s="37" t="s">
+      <c r="W28" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="X28" s="38" t="s">
+      <c r="X28" s="36" t="s">
         <v>94</v>
       </c>
       <c r="Y28" s="5"/>
     </row>
     <row r="29" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H29" s="5"/>
-      <c r="P29" s="34" t="s">
+      <c r="P29" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="Q29" s="31">
+      <c r="Q29" s="29">
         <f>Template!Q3</f>
         <v>0</v>
       </c>
-      <c r="R29" s="33">
+      <c r="R29" s="31">
         <f t="shared" ref="R29:R43" si="10">Q29/$Q$5</f>
         <v>0</v>
       </c>
-      <c r="S29" s="31">
+      <c r="S29" s="29">
         <f>Template!R3</f>
         <v>0</v>
       </c>
-      <c r="T29" s="32">
+      <c r="T29" s="30">
         <f t="shared" ref="T29:T43" si="11">S29/$Q$5</f>
         <v>0</v>
       </c>
-      <c r="U29" s="31">
+      <c r="U29" s="29">
         <f>Template!S3</f>
         <v>0</v>
       </c>
-      <c r="V29" s="32">
+      <c r="V29" s="30">
         <f t="shared" ref="V29:V43" si="12">U29/$Q$5</f>
         <v>0</v>
       </c>
-      <c r="W29" s="31">
+      <c r="W29" s="29">
         <f>Template!T3</f>
         <v>0</v>
       </c>
-      <c r="X29" s="32">
+      <c r="X29" s="30">
         <f t="shared" ref="X29:X43" si="13">W29/$Q$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H30" s="5"/>
-      <c r="P30" s="34" t="s">
+      <c r="P30" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="Q30" s="31">
+      <c r="Q30" s="29">
         <f>Template!Q4</f>
         <v>0</v>
       </c>
-      <c r="R30" s="33">
+      <c r="R30" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S30" s="31">
+      <c r="S30" s="29">
         <f>Template!R4</f>
         <v>0</v>
       </c>
-      <c r="T30" s="32">
+      <c r="T30" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U30" s="31">
+      <c r="U30" s="29">
         <f>Template!S4</f>
         <v>0</v>
       </c>
-      <c r="V30" s="32">
+      <c r="V30" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W30" s="31">
+      <c r="W30" s="29">
         <f>Template!T4</f>
         <v>0</v>
       </c>
-      <c r="X30" s="32">
+      <c r="X30" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H31" s="5"/>
-      <c r="P31" s="34" t="s">
+      <c r="P31" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="Q31" s="31">
+      <c r="Q31" s="29">
         <f>Template!Q5</f>
-        <v>2</v>
-      </c>
-      <c r="R31" s="33">
+        <v>0</v>
+      </c>
+      <c r="R31" s="31">
         <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="S31" s="31">
+        <v>0</v>
+      </c>
+      <c r="S31" s="29">
         <f>Template!R5</f>
         <v>0</v>
       </c>
-      <c r="T31" s="32">
+      <c r="T31" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U31" s="31">
+      <c r="U31" s="29">
         <f>Template!S5</f>
         <v>0</v>
       </c>
-      <c r="V31" s="32">
+      <c r="V31" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W31" s="31">
+      <c r="W31" s="29">
         <f>Template!T5</f>
-        <v>1</v>
-      </c>
-      <c r="X31" s="32">
+        <v>0</v>
+      </c>
+      <c r="X31" s="30">
         <f t="shared" si="13"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P32" s="34" t="s">
+      <c r="P32" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q32" s="29">
         <f>Template!Q6</f>
-        <v>4</v>
-      </c>
-      <c r="R32" s="33">
+        <v>0</v>
+      </c>
+      <c r="R32" s="31">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="S32" s="31">
+        <v>0</v>
+      </c>
+      <c r="S32" s="29">
         <f>Template!R6</f>
         <v>0</v>
       </c>
-      <c r="T32" s="32">
+      <c r="T32" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U32" s="31">
+      <c r="U32" s="29">
         <f>Template!S6</f>
-        <v>2</v>
-      </c>
-      <c r="V32" s="32">
+        <v>0</v>
+      </c>
+      <c r="V32" s="30">
         <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="W32" s="31">
+        <v>0</v>
+      </c>
+      <c r="W32" s="29">
         <f>Template!T6</f>
-        <v>1</v>
-      </c>
-      <c r="X32" s="32">
+        <v>0</v>
+      </c>
+      <c r="X32" s="30">
         <f t="shared" si="13"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P33" s="34" t="s">
+      <c r="P33" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="Q33" s="31">
+      <c r="Q33" s="29">
         <f>Template!Q7</f>
         <v>0</v>
       </c>
-      <c r="R33" s="33">
+      <c r="R33" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S33" s="31">
+      <c r="S33" s="29">
         <f>Template!R7</f>
         <v>0</v>
       </c>
-      <c r="T33" s="32">
+      <c r="T33" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U33" s="31">
+      <c r="U33" s="29">
         <f>Template!S7</f>
         <v>0</v>
       </c>
-      <c r="V33" s="32">
+      <c r="V33" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W33" s="31">
+      <c r="W33" s="29">
         <f>Template!T7</f>
         <v>0</v>
       </c>
-      <c r="X33" s="32">
+      <c r="X33" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P34" s="34" t="s">
+      <c r="P34" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Q34" s="31">
+      <c r="Q34" s="29">
         <f>Template!Q8</f>
         <v>0</v>
       </c>
-      <c r="R34" s="33">
+      <c r="R34" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S34" s="31">
+      <c r="S34" s="29">
         <f>Template!R8</f>
         <v>0</v>
       </c>
-      <c r="T34" s="32">
+      <c r="T34" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="29">
         <f>Template!S8</f>
         <v>0</v>
       </c>
-      <c r="V34" s="32">
+      <c r="V34" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W34" s="31">
+      <c r="W34" s="29">
         <f>Template!T8</f>
         <v>0</v>
       </c>
-      <c r="X34" s="32">
+      <c r="X34" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P35" s="34" t="s">
+      <c r="P35" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="Q35" s="31">
+      <c r="Q35" s="29">
         <f>Template!Q9</f>
-        <v>3</v>
-      </c>
-      <c r="R35" s="33">
+        <v>0</v>
+      </c>
+      <c r="R35" s="31">
         <f t="shared" si="10"/>
-        <v>0.75</v>
-      </c>
-      <c r="S35" s="31">
+        <v>0</v>
+      </c>
+      <c r="S35" s="29">
         <f>Template!R9</f>
-        <v>1</v>
-      </c>
-      <c r="T35" s="32">
+        <v>0</v>
+      </c>
+      <c r="T35" s="30">
         <f t="shared" si="11"/>
-        <v>0.25</v>
-      </c>
-      <c r="U35" s="31">
+        <v>0</v>
+      </c>
+      <c r="U35" s="29">
         <f>Template!S9</f>
         <v>0</v>
       </c>
-      <c r="V35" s="32">
+      <c r="V35" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W35" s="31">
+      <c r="W35" s="29">
         <f>Template!T9</f>
-        <v>1</v>
-      </c>
-      <c r="X35" s="32">
+        <v>0</v>
+      </c>
+      <c r="X35" s="30">
         <f t="shared" si="13"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P36" s="34" t="s">
+      <c r="P36" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="Q36" s="31">
+      <c r="Q36" s="29">
         <f>Template!Q10</f>
-        <v>3</v>
-      </c>
-      <c r="R36" s="33">
+        <v>0</v>
+      </c>
+      <c r="R36" s="31">
         <f t="shared" si="10"/>
-        <v>0.75</v>
-      </c>
-      <c r="S36" s="31">
+        <v>0</v>
+      </c>
+      <c r="S36" s="29">
         <f>Template!R10</f>
-        <v>1</v>
-      </c>
-      <c r="T36" s="32">
+        <v>0</v>
+      </c>
+      <c r="T36" s="30">
         <f t="shared" si="11"/>
-        <v>0.25</v>
-      </c>
-      <c r="U36" s="31">
+        <v>0</v>
+      </c>
+      <c r="U36" s="29">
         <f>Template!S10</f>
         <v>0</v>
       </c>
-      <c r="V36" s="32">
+      <c r="V36" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W36" s="31">
+      <c r="W36" s="29">
         <f>Template!T10</f>
-        <v>1</v>
-      </c>
-      <c r="X36" s="32">
+        <v>0</v>
+      </c>
+      <c r="X36" s="30">
         <f t="shared" si="13"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P37" s="34" t="s">
+      <c r="P37" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="Q37" s="31">
+      <c r="Q37" s="29">
         <f>Template!Q11</f>
         <v>0</v>
       </c>
-      <c r="R37" s="33">
+      <c r="R37" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S37" s="31">
+      <c r="S37" s="29">
         <f>Template!R11</f>
         <v>0</v>
       </c>
-      <c r="T37" s="32">
+      <c r="T37" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U37" s="31">
+      <c r="U37" s="29">
         <f>Template!S11</f>
         <v>0</v>
       </c>
-      <c r="V37" s="32">
+      <c r="V37" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W37" s="31">
+      <c r="W37" s="29">
         <f>Template!T11</f>
         <v>0</v>
       </c>
-      <c r="X37" s="32">
+      <c r="X37" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P38" s="34" t="s">
+      <c r="P38" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="Q38" s="31">
+      <c r="Q38" s="29">
         <f>Template!Q12</f>
         <v>0</v>
       </c>
-      <c r="R38" s="33">
+      <c r="R38" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S38" s="31">
+      <c r="S38" s="29">
         <f>Template!R12</f>
         <v>0</v>
       </c>
-      <c r="T38" s="32">
+      <c r="T38" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U38" s="31">
+      <c r="U38" s="29">
         <f>Template!S12</f>
         <v>0</v>
       </c>
-      <c r="V38" s="32">
+      <c r="V38" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W38" s="31">
+      <c r="W38" s="29">
         <f>Template!T12</f>
         <v>0</v>
       </c>
-      <c r="X38" s="32">
+      <c r="X38" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P39" s="34" t="s">
+      <c r="P39" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="Q39" s="31">
+      <c r="Q39" s="29">
         <f>Template!Q13</f>
         <v>0</v>
       </c>
-      <c r="R39" s="33">
+      <c r="R39" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S39" s="31">
+      <c r="S39" s="29">
         <f>Template!R13</f>
         <v>0</v>
       </c>
-      <c r="T39" s="32">
+      <c r="T39" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U39" s="31">
+      <c r="U39" s="29">
         <f>Template!S13</f>
         <v>0</v>
       </c>
-      <c r="V39" s="32">
+      <c r="V39" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W39" s="31">
+      <c r="W39" s="29">
         <f>Template!T13</f>
         <v>0</v>
       </c>
-      <c r="X39" s="32">
+      <c r="X39" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -5968,149 +5984,149 @@
       <c r="AA39" s="12"/>
     </row>
     <row r="40" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P40" s="34" t="s">
+      <c r="P40" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="Q40" s="31">
+      <c r="Q40" s="29">
         <f>Template!Q14</f>
-        <v>1</v>
-      </c>
-      <c r="R40" s="33">
+        <v>0</v>
+      </c>
+      <c r="R40" s="31">
         <f t="shared" si="10"/>
-        <v>0.25</v>
-      </c>
-      <c r="S40" s="31">
+        <v>0</v>
+      </c>
+      <c r="S40" s="29">
         <f>Template!R14</f>
-        <v>1</v>
-      </c>
-      <c r="T40" s="32">
+        <v>0</v>
+      </c>
+      <c r="T40" s="30">
         <f t="shared" si="11"/>
-        <v>0.25</v>
-      </c>
-      <c r="U40" s="31">
+        <v>0</v>
+      </c>
+      <c r="U40" s="29">
         <f>Template!S14</f>
         <v>0</v>
       </c>
-      <c r="V40" s="32">
+      <c r="V40" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W40" s="31">
+      <c r="W40" s="29">
         <f>Template!T14</f>
         <v>0</v>
       </c>
-      <c r="X40" s="32">
+      <c r="X40" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P41" s="34" t="s">
+      <c r="P41" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="Q41" s="31">
+      <c r="Q41" s="29">
         <f>Template!Q15</f>
-        <v>3</v>
-      </c>
-      <c r="R41" s="33">
+        <v>0</v>
+      </c>
+      <c r="R41" s="31">
         <f t="shared" si="10"/>
-        <v>0.75</v>
-      </c>
-      <c r="S41" s="31">
+        <v>0</v>
+      </c>
+      <c r="S41" s="29">
         <f>Template!R15</f>
-        <v>1</v>
-      </c>
-      <c r="T41" s="32">
+        <v>0</v>
+      </c>
+      <c r="T41" s="30">
         <f t="shared" si="11"/>
-        <v>0.25</v>
-      </c>
-      <c r="U41" s="31">
+        <v>0</v>
+      </c>
+      <c r="U41" s="29">
         <f>Template!S15</f>
-        <v>2</v>
-      </c>
-      <c r="V41" s="32">
+        <v>0</v>
+      </c>
+      <c r="V41" s="30">
         <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="W41" s="31">
+        <v>0</v>
+      </c>
+      <c r="W41" s="29">
         <f>Template!T15</f>
         <v>0</v>
       </c>
-      <c r="X41" s="32">
+      <c r="X41" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P42" s="34" t="s">
+      <c r="P42" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="Q42" s="31">
+      <c r="Q42" s="29">
         <f>Template!Q16</f>
         <v>0</v>
       </c>
-      <c r="R42" s="33">
+      <c r="R42" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S42" s="31">
+      <c r="S42" s="29">
         <f>Template!R16</f>
         <v>0</v>
       </c>
-      <c r="T42" s="32">
+      <c r="T42" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U42" s="31">
+      <c r="U42" s="29">
         <f>Template!S16</f>
         <v>0</v>
       </c>
-      <c r="V42" s="32">
+      <c r="V42" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W42" s="31">
+      <c r="W42" s="29">
         <f>Template!T16</f>
         <v>0</v>
       </c>
-      <c r="X42" s="32">
+      <c r="X42" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P43" s="34" t="s">
+      <c r="P43" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="Q43" s="31">
+      <c r="Q43" s="29">
         <f>Template!Q17</f>
         <v>0</v>
       </c>
-      <c r="R43" s="33">
+      <c r="R43" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S43" s="31">
+      <c r="S43" s="29">
         <f>Template!R17</f>
         <v>0</v>
       </c>
-      <c r="T43" s="32">
+      <c r="T43" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U43" s="31">
+      <c r="U43" s="29">
         <f>Template!S17</f>
         <v>0</v>
       </c>
-      <c r="V43" s="32">
+      <c r="V43" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W43" s="31">
+      <c r="W43" s="29">
         <f>Template!T17</f>
         <v>0</v>
       </c>
-      <c r="X43" s="32">
+      <c r="X43" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -8381,7 +8397,7 @@
       </c>
       <c r="M18" s="20">
         <f>Template!$Q$6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N18" s="20">
         <f>Template!$Q$7</f>
@@ -11295,11 +11311,11 @@
       </c>
       <c r="B18" s="21">
         <f>Template!$K$5</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="16">
         <f>Template!$L$5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="16">
         <f>Template!$N$5</f>
@@ -11311,11 +11327,11 @@
       </c>
       <c r="K18" s="20">
         <f>Template!$Q$9</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" s="20">
         <f>Template!$Q$10</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" s="20">
         <f>Template!$Q$12</f>
@@ -11323,7 +11339,7 @@
       </c>
       <c r="N18" s="20">
         <f>Template!$Q$5</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O18" s="20">
         <f>Template!$Q$11</f>
@@ -11567,14 +11583,14 @@
       <c r="AF21" s="18"/>
     </row>
     <row r="22" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
@@ -11591,12 +11607,12 @@
       <c r="AF22" s="18"/>
     </row>
     <row r="23" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
@@ -11613,12 +11629,12 @@
       <c r="AF23" s="18"/>
     </row>
     <row r="24" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
@@ -14152,23 +14168,23 @@
       </c>
       <c r="B18" s="16">
         <f>Template!$K$4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" s="16">
         <f>Template!$L$4</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" s="21">
         <f>Template!$N$4</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" s="20">
         <f>Template!$Q$14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="20">
         <f>Template!$Q$15</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>115</v>
@@ -14401,14 +14417,14 @@
       <c r="AD21" s="18"/>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
@@ -14424,12 +14440,12 @@
       <c r="AD22" s="18"/>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
@@ -14445,12 +14461,12 @@
       <c r="AD23" s="18"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
@@ -15665,7 +15681,7 @@
   <dimension ref="B1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15719,63 +15735,63 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="39" t="s">
         <v>180</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>181</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:L3" si="0">COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>6</v>
+        <f>COUNTIF(C3:C30, "Loose Gooses")</f>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D3:D30, "Loose Gooses")</f>
         <v>3</v>
       </c>
       <c r="M3" s="25">
-        <f t="shared" ref="M3:M5" si="1">K3/(K3+L3)</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="M3:M5" si="0">K3/(K3+L3)</f>
+        <v>0.25</v>
       </c>
       <c r="N3" s="1">
         <f>IF(AND(M3&gt;M4, M3&gt;M5), 3, IF(OR(M3&gt;M4, M3&gt;M5), 2, 1))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>55</v>
       </c>
       <c r="Q3" s="20">
-        <f t="shared" ref="Q3:Q17" si="2">COUNTIF($E$4:$E$27, P3)+T3</f>
+        <f>COUNTIF($E$3:$E$27, P3)+T3</f>
         <v>0</v>
       </c>
       <c r="R3" s="21">
-        <f t="shared" ref="R3:R17" si="3">COUNTIFS($E$4:$E$27, $P3,$F$4:$F$27,"Finish")</f>
+        <f>COUNTIFS($E$3:$E$27, $P3,$F$3:$F$27,"Finish")</f>
         <v>0</v>
       </c>
       <c r="S3" s="21">
-        <f t="shared" ref="S3:S17" si="4">COUNTIFS($E$4:$E$27, $P3,$F$4:$F$27,"Midrange")</f>
+        <f>COUNTIFS($E$3:$E$27, $P3,$F$3:$F$27,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="T3" s="21">
-        <f t="shared" ref="T3:T17" si="5">COUNTIFS($E$4:$E$27, $P3,$F$4:$F$27,"3P")</f>
+        <f>COUNTIFS($E$3:$E$27, $P3,$F$3:$F$27,"3P")</f>
         <v>0</v>
       </c>
       <c r="U3" s="5"/>
@@ -15790,102 +15806,114 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="3">
+      <c r="B4" s="40">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>184</v>
+      <c r="E4" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1</v>
+      </c>
+      <c r="H4" s="40">
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>183</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:L4" si="6">COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>0</v>
+        <f>COUNTIF(C3:C30, "5 Musketeers")</f>
+        <v>4</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>COUNTIF(D3:D30, "5 Musketeers")</f>
+        <v>2</v>
       </c>
       <c r="M4" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N4" s="1">
         <f>IF(AND(M4&gt;M3, M4&gt;M5), 3, IF(OR(M4&gt;M3, M4&gt;M5), 2, 1))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q4" s="20">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($E$3:$E$27, P4)+T4</f>
         <v>0</v>
       </c>
       <c r="R4" s="21">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($E$3:$E$27, $P4,$F$3:$F$27,"Finish")</f>
         <v>0</v>
       </c>
       <c r="S4" s="21">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($E$3:$E$27, $P4,$F$3:$F$27,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="T4" s="21">
-        <f t="shared" si="5"/>
+        <f>COUNTIFS($E$3:$E$27, $P4,$F$3:$F$27,"3P")</f>
         <v>0</v>
       </c>
       <c r="V4" s="1" t="str">
-        <f t="shared" ref="V4:V28" si="7">IF(AND(F4="Loose Gooses",G4="Wet Willies"),"LG/WW", IF(AND($C4="Loose Gooses",$D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/5M</v>
+        <f>IF(AND(F3="Loose Gooses",G3="Wet Willies"),"LG/WW", IF(AND($C3="Loose Gooses",$D3="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f t="shared" ref="W4:W28" si="8">IF(AND(F4="Wet Willies",G4="Loose Gooses"),"WW/LG", IF(AND($C4="Wet Willies",$D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <f>IF(AND(F3="Wet Willies",G3="Loose Gooses"),"WW/LG", IF(AND($C3="Wet Willies",$D3="5 Musketeers"),"WW/5M", "None"))</f>
         <v>None</v>
       </c>
       <c r="X4" s="1" t="str">
-        <f t="shared" ref="X4:X28" si="9">IF(AND(F4="5 Musketeers",G4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", "None"))</f>
+        <f>IF(AND(F3="5 Musketeers",G3="Loose Gooses"),"5M/LG", IF(AND($C3="5 Musketeers",$D3="Wet Willies"),"5M/WW", "None"))</f>
         <v>None</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="3">
+      <c r="B5" s="40">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>172</v>
+      </c>
+      <c r="G5" s="40">
+        <v>1</v>
+      </c>
+      <c r="H5" s="40">
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>182</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:L5" si="10">COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>6</v>
+        <f>COUNTIF(C3:C30, "Wet Willies")</f>
+        <v>2</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f>COUNTIF(D3:D30, "Wet Willies")</f>
+        <v>2</v>
       </c>
       <c r="M5" s="25">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N5" s="1">
         <f>IF(AND(M5&gt;M4, M5&gt;M3), 3, IF(OR(M5&gt;M4, M5&gt;M3), 2, 1))</f>
@@ -15895,511 +15923,486 @@
         <v>62</v>
       </c>
       <c r="Q5" s="20">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>COUNTIF($E$3:$E$27, P5)+T5</f>
+        <v>0</v>
       </c>
       <c r="R5" s="21">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($E$3:$E$27, $P5,$F$3:$F$27,"Finish")</f>
         <v>0</v>
       </c>
       <c r="S5" s="21">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($E$3:$E$27, $P5,$F$3:$F$27,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="T5" s="21">
-        <f t="shared" si="5"/>
+        <f>COUNTIFS($E$3:$E$27, $P5,$F$3:$F$27,"3P")</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f>IF(AND(F4="Loose Gooses",G4="Wet Willies"),"LG/WW", IF(AND($C4="Loose Gooses",$D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/5M</v>
+      </c>
+      <c r="W5" s="1" t="str">
+        <f>IF(AND(F4="Wet Willies",G4="Loose Gooses"),"WW/LG", IF(AND($C4="Wet Willies",$D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f>IF(AND(F4="5 Musketeers",G4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="40">
+        <v>3</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="40">
         <v>1</v>
       </c>
-      <c r="V5" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-      <c r="W5" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>None</v>
-      </c>
-      <c r="X5" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>185</v>
+      <c r="H6" s="40">
+        <v>1</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q6" s="20">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($E$3:$E$27, P6)+T6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P6,$F$3:$F$27,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P6,$F$3:$F$27,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P6,$F$3:$F$27,"3P")</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="str">
+        <f>IF(AND(F5="Loose Gooses",G5="Wet Willies"),"LG/WW", IF(AND($C5="Loose Gooses",$D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="W6" s="1" t="str">
+        <f>IF(AND(F5="Wet Willies",G5="Loose Gooses"),"WW/LG", IF(AND($C5="Wet Willies",$D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="X6" s="1" t="str">
+        <f>IF(AND(F5="5 Musketeers",G5="Loose Gooses"),"5M/LG", IF(AND($C5="5 Musketeers",$D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="40">
         <v>4</v>
       </c>
-      <c r="R6" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="21">
-        <f t="shared" si="4"/>
+      <c r="C7" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="40">
         <v>2</v>
       </c>
-      <c r="T6" s="21">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V6" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-      <c r="W6" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="X6" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>184</v>
+      <c r="H7" s="40">
+        <v>2</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q7" s="20">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($E$3:$E$27, P7)+T7</f>
         <v>0</v>
       </c>
       <c r="R7" s="21">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($E$3:$E$27, $P7,$F$3:$F$27,"Finish")</f>
         <v>0</v>
       </c>
       <c r="S7" s="21">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($E$3:$E$27, $P7,$F$3:$F$27,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="T7" s="21">
-        <f t="shared" si="5"/>
+        <f>COUNTIFS($E$3:$E$27, $P7,$F$3:$F$27,"3P")</f>
         <v>0</v>
       </c>
       <c r="V7" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND(F6="Loose Gooses",G6="Wet Willies"),"LG/WW", IF(AND($C6="Loose Gooses",$D6="5 Musketeers"),"LG/5M", "None"))</f>
         <v>None</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(F6="Wet Willies",G6="Loose Gooses"),"WW/LG", IF(AND($C6="Wet Willies",$D6="5 Musketeers"),"WW/5M", "None"))</f>
         <v>None</v>
       </c>
       <c r="X7" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>None</v>
+        <f>IF(AND(F6="5 Musketeers",G6="Loose Gooses"),"5M/LG", IF(AND($C6="5 Musketeers",$D6="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="8" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="3">
+      <c r="B8" s="40">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>172</v>
+      </c>
+      <c r="G8" s="40">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40">
+        <v>2</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="20">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($E$3:$E$27, P8)+T8</f>
         <v>0</v>
       </c>
       <c r="R8" s="21">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($E$3:$E$27, $P8,$F$3:$F$27,"Finish")</f>
         <v>0</v>
       </c>
       <c r="S8" s="21">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($E$3:$E$27, $P8,$F$3:$F$27,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="T8" s="21">
-        <f t="shared" si="5"/>
+        <f>COUNTIFS($E$3:$E$27, $P8,$F$3:$F$27,"3P")</f>
         <v>0</v>
       </c>
       <c r="V8" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>LG/5M</v>
+        <f>IF(AND(F7="Loose Gooses",G7="Wet Willies"),"LG/WW", IF(AND($C7="Loose Gooses",$D7="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(F7="Wet Willies",G7="Loose Gooses"),"WW/LG", IF(AND($C7="Wet Willies",$D7="5 Musketeers"),"WW/5M", "None"))</f>
         <v>None</v>
       </c>
       <c r="X8" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AND(F7="5 Musketeers",G7="Loose Gooses"),"5M/LG", IF(AND($C7="5 Musketeers",$D7="Wet Willies"),"5M/WW", "None"))</f>
         <v>None</v>
       </c>
     </row>
     <row r="9" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="3">
+      <c r="B9" s="40">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>185</v>
+      <c r="E9" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="40">
+        <v>4</v>
+      </c>
+      <c r="H9" s="40">
+        <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>75</v>
       </c>
       <c r="Q9" s="20">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTIF($E$3:$E$27, P9)+T9</f>
+        <v>0</v>
       </c>
       <c r="R9" s="21">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($E$3:$E$27, $P9,$F$3:$F$27,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P9,$F$3:$F$27,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P9,$F$3:$F$27,"3P")</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f>IF(AND(F8="Loose Gooses",G8="Wet Willies"),"LG/WW", IF(AND($C8="Loose Gooses",$D8="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f>IF(AND(F8="Wet Willies",G8="Loose Gooses"),"WW/LG", IF(AND($C8="Wet Willies",$D8="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f>IF(AND(F8="5 Musketeers",G8="Loose Gooses"),"5M/LG", IF(AND($C8="5 Musketeers",$D8="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="40">
+        <v>7</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="40">
         <v>1</v>
       </c>
-      <c r="S9" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="21">
-        <f t="shared" si="5"/>
+      <c r="H10" s="40">
         <v>1</v>
-      </c>
-      <c r="V9" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-      <c r="W9" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>None</v>
-      </c>
-      <c r="X9" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="3">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="Q10" s="20">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTIF($E$3:$E$27, P10)+T10</f>
+        <v>0</v>
       </c>
       <c r="R10" s="21">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>COUNTIFS($E$3:$E$27, $P10,$F$3:$F$27,"Finish")</f>
+        <v>0</v>
       </c>
       <c r="S10" s="21">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($E$3:$E$27, $P10,$F$3:$F$27,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="T10" s="21">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>COUNTIFS($E$3:$E$27, $P10,$F$3:$F$27,"3P")</f>
+        <v>0</v>
       </c>
       <c r="V10" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND(F9="Loose Gooses",G9="Wet Willies"),"LG/WW", IF(AND($C9="Loose Gooses",$D9="5 Musketeers"),"LG/5M", "None"))</f>
         <v>None</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>WW/5M</v>
+        <f>IF(AND(F9="Wet Willies",G9="Loose Gooses"),"WW/LG", IF(AND($C9="Wet Willies",$D9="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
       </c>
       <c r="X10" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AND(F9="5 Musketeers",G9="Loose Gooses"),"5M/LG", IF(AND($C9="5 Musketeers",$D9="Wet Willies"),"5M/WW", "None"))</f>
         <v>None</v>
       </c>
     </row>
     <row r="11" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="3">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="P11" s="3" t="s">
         <v>80</v>
       </c>
       <c r="Q11" s="20">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($E$3:$E$27, P11)+T11</f>
         <v>0</v>
       </c>
       <c r="R11" s="21">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($E$3:$E$27, $P11,$F$3:$F$27,"Finish")</f>
         <v>0</v>
       </c>
       <c r="S11" s="21">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($E$3:$E$27, $P11,$F$3:$F$27,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="T11" s="21">
-        <f t="shared" si="5"/>
+        <f>COUNTIFS($E$3:$E$27, $P11,$F$3:$F$27,"3P")</f>
         <v>0</v>
       </c>
       <c r="V11" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND(F10="Loose Gooses",G10="Wet Willies"),"LG/WW", IF(AND($C10="Loose Gooses",$D10="5 Musketeers"),"LG/5M", "None"))</f>
         <v>None</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(F10="Wet Willies",G10="Loose Gooses"),"WW/LG", IF(AND($C10="Wet Willies",$D10="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>WW/5M</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <f>IF(AND(F10="5 Musketeers",G10="Loose Gooses"),"5M/LG", IF(AND($C10="5 Musketeers",$D10="Wet Willies"),"5M/WW", "None"))</f>
         <v>None</v>
       </c>
-      <c r="X11" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>None</v>
-      </c>
     </row>
     <row r="12" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="3">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="P12" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Q12" s="20">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($E$3:$E$27, P12)+T12</f>
         <v>0</v>
       </c>
       <c r="R12" s="21">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($E$3:$E$27, $P12,$F$3:$F$27,"Finish")</f>
         <v>0</v>
       </c>
       <c r="S12" s="21">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($E$3:$E$27, $P12,$F$3:$F$27,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="T12" s="21">
-        <f t="shared" si="5"/>
+        <f>COUNTIFS($E$3:$E$27, $P12,$F$3:$F$27,"3P")</f>
         <v>0</v>
       </c>
       <c r="V12" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>LG/5M</v>
+        <f t="shared" ref="V4:V28" si="1">IF(AND(F12="Loose Gooses",G12="Wet Willies"),"LG/WW", IF(AND($C12="Loose Gooses",$D12="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="W4:W28" si="2">IF(AND(F12="Wet Willies",G12="Loose Gooses"),"WW/LG", IF(AND($C12="Wet Willies",$D12="5 Musketeers"),"WW/5M", "None"))</f>
         <v>None</v>
       </c>
       <c r="X12" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="X4:X28" si="3">IF(AND(F12="5 Musketeers",G12="Loose Gooses"),"5M/LG", IF(AND($C12="5 Musketeers",$D12="Wet Willies"),"5M/WW", "None"))</f>
         <v>None</v>
       </c>
     </row>
     <row r="13" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="3">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="P13" s="3" t="s">
         <v>82</v>
       </c>
       <c r="Q13" s="20">
+        <f>COUNTIF($E$3:$E$27, P13)+T13</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P13,$F$3:$F$27,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P13,$F$3:$F$27,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P13,$F$3:$F$27,"3P")</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>None</v>
+      </c>
+      <c r="W13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="21">
+        <v>None</v>
+      </c>
+      <c r="X13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>None</v>
       </c>
-      <c r="W13" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>None</v>
-      </c>
-      <c r="X13" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>None</v>
-      </c>
     </row>
     <row r="14" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="3">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="P14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="Q14" s="20">
+        <f>COUNTIF($E$3:$E$27, P14)+T14</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P14,$F$3:$F$27,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P14,$F$3:$F$27,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P14,$F$3:$F$27,"3P")</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>None</v>
+      </c>
+      <c r="W14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="21">
+        <v>None</v>
+      </c>
+      <c r="X14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>None</v>
       </c>
-      <c r="W14" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="X14" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>None</v>
-      </c>
     </row>
     <row r="15" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="3">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="P15" s="3" t="s">
         <v>86</v>
       </c>
       <c r="Q15" s="20">
+        <f>COUNTIF($E$3:$E$27, P15)+T15</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P15,$F$3:$F$27,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P15,$F$3:$F$27,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P15,$F$3:$F$27,"3P")</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>None</v>
+      </c>
+      <c r="W15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="R15" s="21">
+        <v>None</v>
+      </c>
+      <c r="X15" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S15" s="21">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="T15" s="21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-      <c r="W15" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>None</v>
-      </c>
-      <c r="X15" s="1" t="str">
-        <f t="shared" si="9"/>
         <v>None</v>
       </c>
     </row>
@@ -16408,31 +16411,31 @@
         <v>87</v>
       </c>
       <c r="Q16" s="20">
+        <f>COUNTIF($E$3:$E$27, P16)+T16</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P16,$F$3:$F$27,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P16,$F$3:$F$27,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P16,$F$3:$F$27,"3P")</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>None</v>
+      </c>
+      <c r="W16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="21">
+        <v>None</v>
+      </c>
+      <c r="X16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-      <c r="W16" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>None</v>
-      </c>
-      <c r="X16" s="1" t="str">
-        <f t="shared" si="9"/>
         <v>None</v>
       </c>
     </row>
@@ -16441,31 +16444,31 @@
         <v>88</v>
       </c>
       <c r="Q17" s="20">
+        <f>COUNTIF($E$3:$E$27, P17)+T17</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P17,$F$3:$F$27,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P17,$F$3:$F$27,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="21">
+        <f>COUNTIFS($E$3:$E$27, $P17,$F$3:$F$27,"3P")</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>None</v>
+      </c>
+      <c r="W17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="21">
+        <v>None</v>
+      </c>
+      <c r="X17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-      <c r="W17" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>None</v>
-      </c>
-      <c r="X17" s="1" t="str">
-        <f t="shared" si="9"/>
         <v>None</v>
       </c>
     </row>
@@ -16474,15 +16477,15 @@
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
       <c r="V18" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>None</v>
       </c>
       <c r="W18" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="X18" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
     </row>
@@ -16491,57 +16494,57 @@
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
       <c r="V19" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>None</v>
       </c>
       <c r="W19" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="X19" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
     </row>
     <row r="20" spans="5:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="V20" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>None</v>
       </c>
       <c r="W20" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="X20" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
     </row>
     <row r="21" spans="5:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="V21" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>None</v>
       </c>
       <c r="W21" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="X21" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
     </row>
     <row r="22" spans="5:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="V22" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>None</v>
       </c>
       <c r="W22" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="X22" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
     </row>
@@ -16552,18 +16555,18 @@
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
       <c r="P23" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V23" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>None</v>
       </c>
       <c r="W23" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="X23" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
     </row>
@@ -16574,15 +16577,15 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="V24" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>None</v>
       </c>
       <c r="W24" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="X24" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
     </row>
@@ -16608,15 +16611,15 @@
         <v>85</v>
       </c>
       <c r="V25" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>None</v>
       </c>
       <c r="W25" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="X25" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
     </row>
@@ -16631,31 +16634,31 @@
         <v>Insert Date Here</v>
       </c>
       <c r="Q26" s="20">
-        <f t="shared" ref="Q26:T26" si="11">Q3</f>
+        <f t="shared" ref="Q26:T26" si="4">Q3</f>
         <v>0</v>
       </c>
       <c r="R26" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S26" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T26" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>None</v>
       </c>
       <c r="W26" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="X26" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
     </row>
@@ -16666,31 +16669,31 @@
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="Q27" s="20">
-        <f t="shared" ref="Q27:T27" si="12">Q4</f>
+        <f t="shared" ref="Q27:T27" si="5">Q4</f>
         <v>0</v>
       </c>
       <c r="R27" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S27" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T27" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V27" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>None</v>
       </c>
       <c r="W27" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="X27" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
     </row>
@@ -16701,31 +16704,31 @@
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
       <c r="Q28" s="20">
-        <f t="shared" ref="Q28:T28" si="13">Q5</f>
-        <v>2</v>
+        <f t="shared" ref="Q28:T28" si="6">Q5</f>
+        <v>0</v>
       </c>
       <c r="R28" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S28" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T28" s="20">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="V28" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>None</v>
       </c>
       <c r="W28" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="X28" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
     </row>
@@ -16736,20 +16739,20 @@
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="Q29" s="20">
-        <f t="shared" ref="Q29:T29" si="14">Q6</f>
-        <v>4</v>
+        <f t="shared" ref="Q29:T29" si="7">Q6</f>
+        <v>0</v>
       </c>
       <c r="R29" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S29" s="20">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="T29" s="20">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="5:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -16759,199 +16762,199 @@
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="Q30" s="20">
-        <f t="shared" ref="Q30:T30" si="15">Q7</f>
+        <f t="shared" ref="Q30:T30" si="8">Q7</f>
         <v>0</v>
       </c>
       <c r="R30" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S30" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T30" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="5:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q31" s="20">
-        <f t="shared" ref="Q31:T31" si="16">Q8</f>
+        <f t="shared" ref="Q31:T31" si="9">Q8</f>
         <v>0</v>
       </c>
       <c r="R31" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S31" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T31" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="5:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q32" s="20">
-        <f t="shared" ref="Q32:T32" si="17">Q9</f>
-        <v>3</v>
+        <f t="shared" ref="Q32:T32" si="10">Q9</f>
+        <v>0</v>
       </c>
       <c r="R32" s="20">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="S32" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T32" s="20">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q33" s="20">
-        <f t="shared" ref="Q33:T33" si="18">Q10</f>
-        <v>3</v>
+        <f t="shared" ref="Q33:T33" si="11">Q10</f>
+        <v>0</v>
       </c>
       <c r="R33" s="20">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S33" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T33" s="20">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q34" s="20">
-        <f t="shared" ref="Q34:T34" si="19">Q11</f>
+        <f t="shared" ref="Q34:T34" si="12">Q11</f>
         <v>0</v>
       </c>
       <c r="R34" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S34" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T34" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q35" s="20">
-        <f t="shared" ref="Q35:T35" si="20">Q12</f>
+        <f t="shared" ref="Q35:T35" si="13">Q12</f>
         <v>0</v>
       </c>
       <c r="R35" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S35" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T35" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q36" s="20">
-        <f t="shared" ref="Q36:T36" si="21">Q13</f>
+        <f t="shared" ref="Q36:T36" si="14">Q13</f>
         <v>0</v>
       </c>
       <c r="R36" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S36" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T36" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q37" s="20">
-        <f t="shared" ref="Q37:T37" si="22">Q14</f>
-        <v>1</v>
+        <f t="shared" ref="Q37:T37" si="15">Q14</f>
+        <v>0</v>
       </c>
       <c r="R37" s="20">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="S37" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T37" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q38" s="20">
-        <f t="shared" ref="Q38:T38" si="23">Q15</f>
-        <v>3</v>
+        <f t="shared" ref="Q38:T38" si="16">Q15</f>
+        <v>0</v>
       </c>
       <c r="R38" s="20">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="S38" s="20">
-        <f t="shared" si="23"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="T38" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q39" s="20">
-        <f t="shared" ref="Q39:T39" si="24">Q16</f>
+        <f t="shared" ref="Q39:T39" si="17">Q16</f>
         <v>0</v>
       </c>
       <c r="R39" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S39" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T39" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q40" s="20">
-        <f t="shared" ref="Q40:T40" si="25">Q17</f>
+        <f t="shared" ref="Q40:T40" si="18">Q17</f>
         <v>0</v>
       </c>
       <c r="R40" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S40" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T40" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154A9379-85CB-40AE-A605-F3997BFFC2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A45927-0CC0-4FE2-9152-1075EAD80DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="189">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -652,6 +652,9 @@
   </si>
   <si>
     <t>Three Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -822,8 +825,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2683,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3658,6 +3663,13 @@
     </row>
     <row r="20" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
+      <c r="D20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="41"/>
       <c r="X20" s="3" t="s">
         <v>83</v>
       </c>
@@ -3665,9 +3677,14 @@
     <row r="21" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="41"/>
       <c r="X21" s="3" t="s">
         <v>86</v>
       </c>
@@ -3675,9 +3692,14 @@
     <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="4"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="41"/>
       <c r="X22" s="3" t="s">
         <v>87</v>
       </c>
@@ -3685,38 +3707,151 @@
     <row r="23" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="4"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="41"/>
       <c r="X23" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="44"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="41"/>
+    </row>
+    <row r="25" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D25" s="44"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="41"/>
+    </row>
+    <row r="26" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D26" s="44"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="41"/>
+    </row>
+    <row r="27" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D27" s="44"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="41"/>
+    </row>
+    <row r="28" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="44"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="41"/>
+    </row>
+    <row r="29" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D29" s="44"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D30" s="44"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="41"/>
+    </row>
+    <row r="31" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="44"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="41"/>
+    </row>
+    <row r="32" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D32" s="44"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="41"/>
+    </row>
+    <row r="33" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D33" s="44"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="41"/>
+    </row>
+    <row r="34" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D34" s="44"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="41"/>
+    </row>
+    <row r="35" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D35" s="41"/>
+    </row>
+    <row r="36" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D36" s="41"/>
+    </row>
+    <row r="37" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="41"/>
+      <c r="J37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11583,14 +11718,14 @@
       <c r="AF21" s="18"/>
     </row>
     <row r="22" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
@@ -11607,12 +11742,12 @@
       <c r="AF22" s="18"/>
     </row>
     <row r="23" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
@@ -11629,12 +11764,12 @@
       <c r="AF23" s="18"/>
     </row>
     <row r="24" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
@@ -14417,14 +14552,14 @@
       <c r="AD21" s="18"/>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
@@ -14440,12 +14575,12 @@
       <c r="AD22" s="18"/>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
@@ -14461,12 +14596,12 @@
       <c r="AD23" s="18"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
@@ -15680,8 +15815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15779,19 +15914,19 @@
         <v>55</v>
       </c>
       <c r="Q3" s="20">
-        <f>COUNTIF($E$3:$E$27, P3)+T3</f>
+        <f t="shared" ref="Q3:Q17" si="1">COUNTIF($E$3:$E$27, P3)+T3</f>
         <v>0</v>
       </c>
       <c r="R3" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P3,$F$3:$F$27,"Finish")</f>
+        <f t="shared" ref="R3:R17" si="2">COUNTIFS($E$3:$E$27, $P3,$F$3:$F$27,"Finish")</f>
         <v>0</v>
       </c>
       <c r="S3" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P3,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" ref="S3:S17" si="3">COUNTIFS($E$3:$E$27, $P3,$F$3:$F$27,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="T3" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P3,$F$3:$F$27,"3P")</f>
+        <f t="shared" ref="T3:T17" si="4">COUNTIFS($E$3:$E$27, $P3,$F$3:$F$27,"3P")</f>
         <v>0</v>
       </c>
       <c r="U3" s="5"/>
@@ -15850,31 +15985,31 @@
         <v>59</v>
       </c>
       <c r="Q4" s="20">
-        <f>COUNTIF($E$3:$E$27, P4)+T4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R4" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P4,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S4" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P4,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T4" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P4,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V4" s="1" t="str">
-        <f>IF(AND(F3="Loose Gooses",G3="Wet Willies"),"LG/WW", IF(AND($C3="Loose Gooses",$D3="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" ref="V4:V11" si="5">IF(AND(F3="Loose Gooses",G3="Wet Willies"),"LG/WW", IF(AND($C3="Loose Gooses",$D3="5 Musketeers"),"LG/5M", "None"))</f>
         <v>None</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f>IF(AND(F3="Wet Willies",G3="Loose Gooses"),"WW/LG", IF(AND($C3="Wet Willies",$D3="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" ref="W4:W11" si="6">IF(AND(F3="Wet Willies",G3="Loose Gooses"),"WW/LG", IF(AND($C3="Wet Willies",$D3="5 Musketeers"),"WW/5M", "None"))</f>
         <v>None</v>
       </c>
       <c r="X4" s="1" t="str">
-        <f>IF(AND(F3="5 Musketeers",G3="Loose Gooses"),"5M/LG", IF(AND($C3="5 Musketeers",$D3="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" ref="X4:X11" si="7">IF(AND(F3="5 Musketeers",G3="Loose Gooses"),"5M/LG", IF(AND($C3="5 Musketeers",$D3="Wet Willies"),"5M/WW", "None"))</f>
         <v>None</v>
       </c>
     </row>
@@ -15923,31 +16058,31 @@
         <v>62</v>
       </c>
       <c r="Q5" s="20">
-        <f>COUNTIF($E$3:$E$27, P5)+T5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P5,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S5" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P5,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T5" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P5,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V5" s="1" t="str">
-        <f>IF(AND(F4="Loose Gooses",G4="Wet Willies"),"LG/WW", IF(AND($C4="Loose Gooses",$D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" si="5"/>
         <v>LG/5M</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f>IF(AND(F4="Wet Willies",G4="Loose Gooses"),"WW/LG", IF(AND($C4="Wet Willies",$D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" si="6"/>
         <v>None</v>
       </c>
       <c r="X5" s="1" t="str">
-        <f>IF(AND(F4="5 Musketeers",G4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" si="7"/>
         <v>None</v>
       </c>
     </row>
@@ -15977,31 +16112,31 @@
         <v>65</v>
       </c>
       <c r="Q6" s="20">
-        <f>COUNTIF($E$3:$E$27, P6)+T6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R6" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P6,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S6" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P6,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T6" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P6,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V6" s="1" t="str">
-        <f>IF(AND(F5="Loose Gooses",G5="Wet Willies"),"LG/WW", IF(AND($C5="Loose Gooses",$D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" si="5"/>
         <v>None</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f>IF(AND(F5="Wet Willies",G5="Loose Gooses"),"WW/LG", IF(AND($C5="Wet Willies",$D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" si="6"/>
         <v>None</v>
       </c>
       <c r="X6" s="1" t="str">
-        <f>IF(AND(F5="5 Musketeers",G5="Loose Gooses"),"5M/LG", IF(AND($C5="5 Musketeers",$D5="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" si="7"/>
         <v>None</v>
       </c>
     </row>
@@ -16031,31 +16166,31 @@
         <v>68</v>
       </c>
       <c r="Q7" s="20">
-        <f>COUNTIF($E$3:$E$27, P7)+T7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R7" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P7,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P7,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T7" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P7,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V7" s="1" t="str">
-        <f>IF(AND(F6="Loose Gooses",G6="Wet Willies"),"LG/WW", IF(AND($C6="Loose Gooses",$D6="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" si="5"/>
         <v>None</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f>IF(AND(F6="Wet Willies",G6="Loose Gooses"),"WW/LG", IF(AND($C6="Wet Willies",$D6="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" si="6"/>
         <v>None</v>
       </c>
       <c r="X7" s="1" t="str">
-        <f>IF(AND(F6="5 Musketeers",G6="Loose Gooses"),"5M/LG", IF(AND($C6="5 Musketeers",$D6="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -16085,31 +16220,31 @@
         <v>71</v>
       </c>
       <c r="Q8" s="20">
-        <f>COUNTIF($E$3:$E$27, P8)+T8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R8" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P8,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S8" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P8,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T8" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P8,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V8" s="1" t="str">
-        <f>IF(AND(F7="Loose Gooses",G7="Wet Willies"),"LG/WW", IF(AND($C7="Loose Gooses",$D7="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" si="5"/>
         <v>None</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f>IF(AND(F7="Wet Willies",G7="Loose Gooses"),"WW/LG", IF(AND($C7="Wet Willies",$D7="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" si="6"/>
         <v>None</v>
       </c>
       <c r="X8" s="1" t="str">
-        <f>IF(AND(F7="5 Musketeers",G7="Loose Gooses"),"5M/LG", IF(AND($C7="5 Musketeers",$D7="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" si="7"/>
         <v>None</v>
       </c>
     </row>
@@ -16139,31 +16274,31 @@
         <v>75</v>
       </c>
       <c r="Q9" s="20">
-        <f>COUNTIF($E$3:$E$27, P9)+T9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P9,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S9" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P9,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T9" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P9,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V9" s="1" t="str">
-        <f>IF(AND(F8="Loose Gooses",G8="Wet Willies"),"LG/WW", IF(AND($C8="Loose Gooses",$D8="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" si="5"/>
         <v>None</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f>IF(AND(F8="Wet Willies",G8="Loose Gooses"),"WW/LG", IF(AND($C8="Wet Willies",$D8="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" si="6"/>
         <v>None</v>
       </c>
       <c r="X9" s="1" t="str">
-        <f>IF(AND(F8="5 Musketeers",G8="Loose Gooses"),"5M/LG", IF(AND($C8="5 Musketeers",$D8="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -16193,31 +16328,31 @@
         <v>78</v>
       </c>
       <c r="Q10" s="20">
-        <f>COUNTIF($E$3:$E$27, P10)+T10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R10" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P10,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S10" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P10,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T10" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P10,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V10" s="1" t="str">
-        <f>IF(AND(F9="Loose Gooses",G9="Wet Willies"),"LG/WW", IF(AND($C9="Loose Gooses",$D9="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" si="5"/>
         <v>None</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f>IF(AND(F9="Wet Willies",G9="Loose Gooses"),"WW/LG", IF(AND($C9="Wet Willies",$D9="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" si="6"/>
         <v>None</v>
       </c>
       <c r="X10" s="1" t="str">
-        <f>IF(AND(F9="5 Musketeers",G9="Loose Gooses"),"5M/LG", IF(AND($C9="5 Musketeers",$D9="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" si="7"/>
         <v>None</v>
       </c>
     </row>
@@ -16226,31 +16361,31 @@
         <v>80</v>
       </c>
       <c r="Q11" s="20">
-        <f>COUNTIF($E$3:$E$27, P11)+T11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P11,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S11" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P11,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T11" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P11,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V11" s="1" t="str">
-        <f>IF(AND(F10="Loose Gooses",G10="Wet Willies"),"LG/WW", IF(AND($C10="Loose Gooses",$D10="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" si="5"/>
         <v>None</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f>IF(AND(F10="Wet Willies",G10="Loose Gooses"),"WW/LG", IF(AND($C10="Wet Willies",$D10="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" si="6"/>
         <v>WW/5M</v>
       </c>
       <c r="X11" s="1" t="str">
-        <f>IF(AND(F10="5 Musketeers",G10="Loose Gooses"),"5M/LG", IF(AND($C10="5 Musketeers",$D10="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" si="7"/>
         <v>None</v>
       </c>
     </row>
@@ -16264,31 +16399,31 @@
         <v>81</v>
       </c>
       <c r="Q12" s="20">
-        <f>COUNTIF($E$3:$E$27, P12)+T12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R12" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P12,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S12" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P12,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T12" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P12,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V12" s="1" t="str">
-        <f t="shared" ref="V4:V28" si="1">IF(AND(F12="Loose Gooses",G12="Wet Willies"),"LG/WW", IF(AND($C12="Loose Gooses",$D12="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" ref="V12:V28" si="8">IF(AND(F12="Loose Gooses",G12="Wet Willies"),"LG/WW", IF(AND($C12="Loose Gooses",$D12="5 Musketeers"),"LG/5M", "None"))</f>
         <v>None</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f t="shared" ref="W4:W28" si="2">IF(AND(F12="Wet Willies",G12="Loose Gooses"),"WW/LG", IF(AND($C12="Wet Willies",$D12="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" ref="W12:W28" si="9">IF(AND(F12="Wet Willies",G12="Loose Gooses"),"WW/LG", IF(AND($C12="Wet Willies",$D12="5 Musketeers"),"WW/5M", "None"))</f>
         <v>None</v>
       </c>
       <c r="X12" s="1" t="str">
-        <f t="shared" ref="X4:X28" si="3">IF(AND(F12="5 Musketeers",G12="Loose Gooses"),"5M/LG", IF(AND($C12="5 Musketeers",$D12="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" ref="X12:X28" si="10">IF(AND(F12="5 Musketeers",G12="Loose Gooses"),"5M/LG", IF(AND($C12="5 Musketeers",$D12="Wet Willies"),"5M/WW", "None"))</f>
         <v>None</v>
       </c>
     </row>
@@ -16302,31 +16437,31 @@
         <v>82</v>
       </c>
       <c r="Q13" s="20">
-        <f>COUNTIF($E$3:$E$27, P13)+T13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R13" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P13,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S13" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P13,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T13" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P13,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X13" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
@@ -16340,31 +16475,31 @@
         <v>83</v>
       </c>
       <c r="Q14" s="20">
-        <f>COUNTIF($E$3:$E$27, P14)+T14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R14" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P14,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S14" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P14,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T14" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P14,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X14" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
@@ -16378,31 +16513,31 @@
         <v>86</v>
       </c>
       <c r="Q15" s="20">
-        <f>COUNTIF($E$3:$E$27, P15)+T15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R15" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P15,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S15" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P15,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T15" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P15,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X15" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
@@ -16411,31 +16546,31 @@
         <v>87</v>
       </c>
       <c r="Q16" s="20">
-        <f>COUNTIF($E$3:$E$27, P16)+T16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R16" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P16,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S16" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P16,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P16,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X16" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
@@ -16444,31 +16579,31 @@
         <v>88</v>
       </c>
       <c r="Q17" s="20">
-        <f>COUNTIF($E$3:$E$27, P17)+T17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R17" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P17,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S17" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P17,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T17" s="21">
-        <f>COUNTIFS($E$3:$E$27, $P17,$F$3:$F$27,"3P")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
@@ -16477,15 +16612,15 @@
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
       <c r="V18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
@@ -16494,57 +16629,57 @@
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
       <c r="V19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
     <row r="20" spans="5:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="V20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W20" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
     <row r="21" spans="5:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="V21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W21" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
     <row r="22" spans="5:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="V22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
@@ -16558,15 +16693,15 @@
         <v>185</v>
       </c>
       <c r="V23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
@@ -16577,15 +16712,15 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="V24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
@@ -16611,15 +16746,15 @@
         <v>85</v>
       </c>
       <c r="V25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X25" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
@@ -16634,31 +16769,31 @@
         <v>Insert Date Here</v>
       </c>
       <c r="Q26" s="20">
-        <f t="shared" ref="Q26:T26" si="4">Q3</f>
+        <f t="shared" ref="Q26:T26" si="11">Q3</f>
         <v>0</v>
       </c>
       <c r="R26" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S26" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T26" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W26" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X26" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
@@ -16669,31 +16804,31 @@
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="Q27" s="20">
-        <f t="shared" ref="Q27:T27" si="5">Q4</f>
+        <f t="shared" ref="Q27:T27" si="12">Q4</f>
         <v>0</v>
       </c>
       <c r="R27" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S27" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T27" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W27" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X27" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
@@ -16704,31 +16839,31 @@
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
       <c r="Q28" s="20">
-        <f t="shared" ref="Q28:T28" si="6">Q5</f>
+        <f t="shared" ref="Q28:T28" si="13">Q5</f>
         <v>0</v>
       </c>
       <c r="R28" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S28" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T28" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>None</v>
       </c>
       <c r="W28" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>None</v>
       </c>
       <c r="X28" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>None</v>
       </c>
     </row>
@@ -16739,19 +16874,19 @@
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="Q29" s="20">
-        <f t="shared" ref="Q29:T29" si="7">Q6</f>
+        <f t="shared" ref="Q29:T29" si="14">Q6</f>
         <v>0</v>
       </c>
       <c r="R29" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S29" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T29" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16762,199 +16897,199 @@
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="Q30" s="20">
-        <f t="shared" ref="Q30:T30" si="8">Q7</f>
+        <f t="shared" ref="Q30:T30" si="15">Q7</f>
         <v>0</v>
       </c>
       <c r="R30" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S30" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T30" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="5:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q31" s="20">
-        <f t="shared" ref="Q31:T31" si="9">Q8</f>
+        <f t="shared" ref="Q31:T31" si="16">Q8</f>
         <v>0</v>
       </c>
       <c r="R31" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S31" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T31" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="5:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q32" s="20">
-        <f t="shared" ref="Q32:T32" si="10">Q9</f>
+        <f t="shared" ref="Q32:T32" si="17">Q9</f>
         <v>0</v>
       </c>
       <c r="R32" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S32" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T32" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q33" s="20">
-        <f t="shared" ref="Q33:T33" si="11">Q10</f>
+        <f t="shared" ref="Q33:T33" si="18">Q10</f>
         <v>0</v>
       </c>
       <c r="R33" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S33" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T33" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q34" s="20">
-        <f t="shared" ref="Q34:T34" si="12">Q11</f>
+        <f t="shared" ref="Q34:T34" si="19">Q11</f>
         <v>0</v>
       </c>
       <c r="R34" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S34" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T34" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q35" s="20">
-        <f t="shared" ref="Q35:T35" si="13">Q12</f>
+        <f t="shared" ref="Q35:T35" si="20">Q12</f>
         <v>0</v>
       </c>
       <c r="R35" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S35" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T35" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q36" s="20">
-        <f t="shared" ref="Q36:T36" si="14">Q13</f>
+        <f t="shared" ref="Q36:T36" si="21">Q13</f>
         <v>0</v>
       </c>
       <c r="R36" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S36" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T36" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q37" s="20">
-        <f t="shared" ref="Q37:T37" si="15">Q14</f>
+        <f t="shared" ref="Q37:T37" si="22">Q14</f>
         <v>0</v>
       </c>
       <c r="R37" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S37" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T37" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q38" s="20">
-        <f t="shared" ref="Q38:T38" si="16">Q15</f>
+        <f t="shared" ref="Q38:T38" si="23">Q15</f>
         <v>0</v>
       </c>
       <c r="R38" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S38" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T38" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q39" s="20">
-        <f t="shared" ref="Q39:T39" si="17">Q16</f>
+        <f t="shared" ref="Q39:T39" si="24">Q16</f>
         <v>0</v>
       </c>
       <c r="R39" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S39" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T39" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="17:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q40" s="20">
-        <f t="shared" ref="Q40:T40" si="18">Q17</f>
+        <f t="shared" ref="Q40:T40" si="25">Q17</f>
         <v>0</v>
       </c>
       <c r="R40" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S40" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T40" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -17920,6 +18055,6 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFEA994-F039-4172-BBC6-239B7C6CD5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CAF8E9-4DED-4F06-8C1C-DD150E1E1859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="162">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -522,9 +522,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>=Template!Q3</t>
-  </si>
-  <si>
     <t>Finish Avg</t>
   </si>
   <si>
@@ -541,6 +538,39 @@
   </si>
   <si>
     <t>S-Streak</t>
+  </si>
+  <si>
+    <t>Steps for each day:</t>
+  </si>
+  <si>
+    <t>Put new data in new page</t>
+  </si>
+  <si>
+    <t>Update top left and formulas on Global Page</t>
+  </si>
+  <si>
+    <t>Update days played</t>
+  </si>
+  <si>
+    <t>Put new data on team page</t>
+  </si>
+  <si>
+    <t>Put streaks on team page</t>
+  </si>
+  <si>
+    <t>Put records on team page</t>
+  </si>
+  <si>
+    <t>Upload new stats to website</t>
+  </si>
+  <si>
+    <t>Upload new day stats to website</t>
+  </si>
+  <si>
+    <t>Add &lt;tr&gt; for day stats</t>
+  </si>
+  <si>
+    <t>Upload results and change ladder</t>
   </si>
 </sst>
 </file>
@@ -856,427 +886,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E4ED72E7-E964-4884-BAF1-D3A03BDB6523}"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1699,13 +1309,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1728,6 +1331,37 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1939,35 +1573,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BA5219-6DFE-46F0-966E-5F60422B7104}" name="Table1" displayName="Table1" ref="P7:Y22" totalsRowShown="0" headerRowDxfId="36" dataDxfId="50" headerRowBorderDxfId="48" tableBorderDxfId="49" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BA5219-6DFE-46F0-966E-5F60422B7104}" name="Table1" displayName="Table1" ref="P7:Y22" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="P7:Y22" xr:uid="{65BA5219-6DFE-46F0-966E-5F60422B7104}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8B9A5B7C-C49F-4129-BF1D-47938C1E98E7}" name="Scoring" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{FE454E58-6ABE-4634-8B4F-7A281F4EFD11}" name="Points" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{8B9A5B7C-C49F-4129-BF1D-47938C1E98E7}" name="Scoring" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FE454E58-6ABE-4634-8B4F-7A281F4EFD11}" name="Points" dataDxfId="8">
       <calculatedColumnFormula>Q29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{916737CE-56A3-41CA-B775-884324D94711}" name="Average" dataDxfId="44">
+    <tableColumn id="3" xr3:uid="{916737CE-56A3-41CA-B775-884324D94711}" name="Average" dataDxfId="7">
       <calculatedColumnFormula>Q8/$Q$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5AA4CB67-A535-42CA-A721-4835D4FE4579}" name="Finishes" dataDxfId="43">
+    <tableColumn id="4" xr3:uid="{5AA4CB67-A535-42CA-A721-4835D4FE4579}" name="Finishes" dataDxfId="6">
       <calculatedColumnFormula>S29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EF168122-F812-481E-9E07-71853177A285}" name="Finish Avg" dataDxfId="42">
+    <tableColumn id="5" xr3:uid="{EF168122-F812-481E-9E07-71853177A285}" name="Finish Avg" dataDxfId="5">
       <calculatedColumnFormula>S8/$Q$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FCBFC22A-B6FF-4C2F-9EC5-7886B05E89A5}" name="Midranges" dataDxfId="41">
+    <tableColumn id="6" xr3:uid="{FCBFC22A-B6FF-4C2F-9EC5-7886B05E89A5}" name="Midranges" dataDxfId="4">
       <calculatedColumnFormula>U29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5DF788EA-13E7-42F7-8FB8-D02E9139C234}" name="Mid Avg" dataDxfId="40">
+    <tableColumn id="7" xr3:uid="{5DF788EA-13E7-42F7-8FB8-D02E9139C234}" name="Mid Avg" dataDxfId="3">
       <calculatedColumnFormula>U8/$Q$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D7F0920D-8F77-4996-9F9C-D656593D74EA}" name="Threes" dataDxfId="39">
+    <tableColumn id="8" xr3:uid="{D7F0920D-8F77-4996-9F9C-D656593D74EA}" name="Threes" dataDxfId="2">
       <calculatedColumnFormula>W29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{21BA7002-8114-4C39-AAA4-DF9F1F48F5F0}" name="3 Avg" dataDxfId="38">
+    <tableColumn id="9" xr3:uid="{21BA7002-8114-4C39-AAA4-DF9F1F48F5F0}" name="3 Avg" dataDxfId="1">
       <calculatedColumnFormula>W8/$Q$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{16839C82-F55F-4C82-87DF-5566B3DAC6D9}" name="Team" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{16839C82-F55F-4C82-87DF-5566B3DAC6D9}" name="Team" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5351,8 +4985,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AL1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5493,19 +5127,19 @@
         <v>9</v>
       </c>
       <c r="T7" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U7" s="48" t="s">
         <v>10</v>
       </c>
       <c r="V7" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W7" s="47" t="s">
         <v>11</v>
       </c>
       <c r="X7" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y7" s="49" t="s">
         <v>13</v>
@@ -6259,7 +5893,9 @@
     </row>
     <row r="28" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -6296,9 +5932,10 @@
     </row>
     <row r="29" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H29" s="5"/>
-      <c r="N29" s="43" t="s">
-        <v>145</v>
-      </c>
+      <c r="I29" t="s">
+        <v>152</v>
+      </c>
+      <c r="N29" s="43"/>
       <c r="P29" s="30" t="s">
         <v>55</v>
       </c>
@@ -6337,6 +5974,9 @@
     </row>
     <row r="30" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H30" s="5"/>
+      <c r="I30" t="s">
+        <v>153</v>
+      </c>
       <c r="P30" s="30" t="s">
         <v>59</v>
       </c>
@@ -6375,6 +6015,9 @@
     </row>
     <row r="31" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H31" s="5"/>
+      <c r="I31" t="s">
+        <v>154</v>
+      </c>
       <c r="P31" s="30" t="s">
         <v>62</v>
       </c>
@@ -6412,6 +6055,9 @@
       </c>
     </row>
     <row r="32" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I32" t="s">
+        <v>155</v>
+      </c>
       <c r="N32" s="42"/>
       <c r="P32" s="30" t="s">
         <v>65</v>
@@ -6449,7 +6095,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I33" t="s">
+        <v>156</v>
+      </c>
       <c r="P33" s="30" t="s">
         <v>68</v>
       </c>
@@ -6486,7 +6135,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I34" t="s">
+        <v>157</v>
+      </c>
       <c r="P34" s="30" t="s">
         <v>71</v>
       </c>
@@ -6523,7 +6175,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I35" t="s">
+        <v>158</v>
+      </c>
       <c r="P35" s="30" t="s">
         <v>75</v>
       </c>
@@ -6560,7 +6215,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I36" t="s">
+        <v>159</v>
+      </c>
       <c r="P36" s="30" t="s">
         <v>78</v>
       </c>
@@ -6597,7 +6255,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I37" t="s">
+        <v>160</v>
+      </c>
       <c r="P37" s="30" t="s">
         <v>80</v>
       </c>
@@ -6634,7 +6295,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I38" t="s">
+        <v>161</v>
+      </c>
       <c r="P38" s="30" t="s">
         <v>81</v>
       </c>
@@ -6671,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P39" s="30" t="s">
         <v>82</v>
       </c>
@@ -6710,7 +6374,7 @@
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P40" s="30" t="s">
         <v>83</v>
       </c>
@@ -6747,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P41" s="30" t="s">
         <v>86</v>
       </c>
@@ -6784,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P42" s="30" t="s">
         <v>87</v>
       </c>
@@ -6821,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P43" s="30" t="s">
         <v>88</v>
       </c>
@@ -6858,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
       <c r="R44" s="14"/>
@@ -6866,20 +6530,20 @@
       <c r="V44" s="14"/>
       <c r="W44" s="15"/>
     </row>
-    <row r="45" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
     </row>
-    <row r="47" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
     </row>
-    <row r="48" spans="16:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P48" s="13"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
@@ -7946,7 +7610,7 @@
     <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>101</v>
@@ -11299,7 +10963,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
@@ -13059,7 +12723,7 @@
         <v>136</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>137</v>
@@ -13088,15 +12752,15 @@
         <v>1</v>
       </c>
       <c r="S3" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
+        <f t="shared" ref="S3:S17" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
         <v>0</v>
       </c>
       <c r="T3" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" ref="T3:T17" si="3">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
         <v>1</v>
       </c>
       <c r="U3" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" ref="U3:U17" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
         <v>0</v>
       </c>
       <c r="V3" s="5"/>
@@ -13159,15 +12823,15 @@
         <v>1</v>
       </c>
       <c r="S4" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q4,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T4" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q4,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U4" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q4,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W4" s="1" t="str">
@@ -13232,27 +12896,27 @@
         <v>2</v>
       </c>
       <c r="S5" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q5,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T5" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q5,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U5" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q5,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W5" s="24" t="str">
-        <f t="shared" ref="W5:W28" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" ref="W5:W28" si="5">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", ""))</f>
         <v>LG/WW</v>
       </c>
       <c r="X5" s="24" t="str">
-        <f t="shared" ref="X5:X28" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" ref="X5:X28" si="6">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Y5" s="24" t="str">
-        <f t="shared" ref="Y5:Y28" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND($C5="5 Musketeers",$D5="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" ref="Y5:Y28" si="7">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND($C5="5 Musketeers",$D5="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
     </row>
@@ -13267,7 +12931,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" s="59" t="s">
         <v>140</v>
@@ -13286,27 +12950,27 @@
         <v>2</v>
       </c>
       <c r="S6" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q6,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T6" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q6,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U6" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q6,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W6" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>LG/5M</v>
       </c>
       <c r="X6" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y6" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13340,27 +13004,27 @@
         <v>1</v>
       </c>
       <c r="S7" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q7,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q7,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U7" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q7,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W7" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>LG/WW</v>
       </c>
       <c r="X7" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y7" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13394,27 +13058,27 @@
         <v>1</v>
       </c>
       <c r="S8" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q8,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T8" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q8,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U8" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q8,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W8" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X8" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y8" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -13448,27 +13112,27 @@
         <v>2</v>
       </c>
       <c r="S9" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q9,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q9,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U9" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q9,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W9" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X9" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y9" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -13502,27 +13166,27 @@
         <v>1</v>
       </c>
       <c r="S10" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q10,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T10" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q10,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U10" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q10,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W10" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X10" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y10" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -13556,27 +13220,27 @@
         <v>2</v>
       </c>
       <c r="S11" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q11,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q11,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U11" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q11,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X11" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y11" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -13610,27 +13274,27 @@
         <v>1</v>
       </c>
       <c r="S12" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q12,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q12,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U12" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q12,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W12" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X12" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y12" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -13664,27 +13328,27 @@
         <v>2</v>
       </c>
       <c r="S13" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q13,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q13,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U13" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q13,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W13" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X13" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y13" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -13711,34 +13375,34 @@
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S14" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q14,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T14" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q14,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q14,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W14" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X14" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y14" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -13772,27 +13436,27 @@
         <v>1</v>
       </c>
       <c r="S15" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q15,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T15" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q15,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U15" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q15,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W15" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X15" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>WW/5M</v>
       </c>
       <c r="Y15" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13826,27 +13490,27 @@
         <v>2</v>
       </c>
       <c r="S16" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q16,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q16,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U16" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q16,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W16" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X16" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>WW/LG</v>
       </c>
       <c r="Y16" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13880,27 +13544,27 @@
         <v>1</v>
       </c>
       <c r="S17" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q17,$F$3:$F$27,"Finish")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T17" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q17,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U17" s="20">
-        <f>COUNTIFS($E$3:$E$27, $Q17,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W17" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X17" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>WW/5M</v>
       </c>
       <c r="Y17" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13930,15 +13594,15 @@
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
       <c r="W18" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X18" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>WW/LG</v>
       </c>
       <c r="Y18" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13968,57 +13632,57 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="W19" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X19" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>WW/5M</v>
       </c>
       <c r="Y19" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="W20" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X20" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y20" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="W21" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X21" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y21" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="W22" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X22" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y22" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -14032,15 +13696,15 @@
         <v>141</v>
       </c>
       <c r="W23" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X23" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y23" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -14051,15 +13715,15 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="W24" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X24" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y24" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -14086,15 +13750,15 @@
       </c>
       <c r="V25" s="40"/>
       <c r="W25" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X25" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y25" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -14109,31 +13773,31 @@
         <v>Insert Date Here</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" ref="R26:U26" si="5">R3</f>
+        <f t="shared" ref="R26:U26" si="8">R3</f>
         <v>1</v>
       </c>
       <c r="S26" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U26" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="19">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U26" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="24" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="X26" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y26" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -14144,31 +13808,31 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="R27" s="19">
-        <f t="shared" ref="R27:U27" si="6">R4</f>
+        <f t="shared" ref="R27:U27" si="9">R4</f>
         <v>1</v>
       </c>
       <c r="S27" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="19">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U27" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X27" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="19">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="U27" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="24" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X27" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
       <c r="Y27" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -14179,31 +13843,31 @@
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="R28" s="19">
-        <f t="shared" ref="R28:U28" si="7">R5</f>
+        <f t="shared" ref="R28:U28" si="10">R5</f>
         <v>2</v>
       </c>
       <c r="S28" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="19">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="W28" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X28" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y28" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="19">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W28" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="X28" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y28" s="24" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14214,19 +13878,19 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="R29" s="19">
-        <f t="shared" ref="R29:U29" si="8">R6</f>
+        <f t="shared" ref="R29:U29" si="11">R6</f>
         <v>2</v>
       </c>
       <c r="S29" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T29" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U29" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -14237,199 +13901,199 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="R30" s="19">
-        <f t="shared" ref="R30:U30" si="9">R7</f>
+        <f t="shared" ref="R30:U30" si="12">R7</f>
         <v>1</v>
       </c>
       <c r="S30" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T30" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R31" s="19">
-        <f t="shared" ref="R31:U31" si="10">R8</f>
+        <f t="shared" ref="R31:U31" si="13">R8</f>
         <v>1</v>
       </c>
       <c r="S31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R32" s="19">
-        <f t="shared" ref="R32:U32" si="11">R9</f>
+        <f t="shared" ref="R32:U32" si="14">R9</f>
         <v>2</v>
       </c>
       <c r="S32" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T32" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U32" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R33" s="19">
-        <f t="shared" ref="R33:U33" si="12">R10</f>
+        <f t="shared" ref="R33:U33" si="15">R10</f>
         <v>1</v>
       </c>
       <c r="S33" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="T33" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U33" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R34" s="19">
-        <f t="shared" ref="R34:U34" si="13">R11</f>
+        <f t="shared" ref="R34:U34" si="16">R11</f>
         <v>2</v>
       </c>
       <c r="S34" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T34" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="U34" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="19">
-        <f t="shared" ref="R35:U35" si="14">R12</f>
+        <f t="shared" ref="R35:U35" si="17">R12</f>
         <v>1</v>
       </c>
       <c r="S35" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T35" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U35" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="19">
-        <f t="shared" ref="R36:U36" si="15">R13</f>
+        <f t="shared" ref="R36:U36" si="18">R13</f>
         <v>2</v>
       </c>
       <c r="S36" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T36" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U36" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="19">
-        <f t="shared" ref="R37:U37" si="16">R14</f>
+        <f t="shared" ref="R37:U37" si="19">R14</f>
         <v>1</v>
       </c>
       <c r="S37" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="T37" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U37" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R38" s="19">
-        <f t="shared" ref="R38:U38" si="17">R15</f>
+        <f t="shared" ref="R38:U38" si="20">R15</f>
         <v>1</v>
       </c>
       <c r="S38" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T38" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U38" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R39" s="19">
-        <f t="shared" ref="R39:U39" si="18">R16</f>
+        <f t="shared" ref="R39:U39" si="21">R16</f>
         <v>2</v>
       </c>
       <c r="S39" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T39" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U39" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R40" s="19">
-        <f t="shared" ref="R40:U40" si="19">R17</f>
+        <f t="shared" ref="R40:U40" si="22">R17</f>
         <v>1</v>
       </c>
       <c r="S40" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="T40" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U40" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CAF8E9-4DED-4F06-8C1C-DD150E1E1859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277C80C3-BECD-4C1E-89D0-1FF182F109E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="165">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -571,6 +571,15 @@
   </si>
   <si>
     <t>Upload results and change ladder</t>
+  </si>
+  <si>
+    <t>Retained by 5 Musketeers</t>
+  </si>
+  <si>
+    <t>Retained by Wet Willies</t>
+  </si>
+  <si>
+    <t>Retained by Loose Gooses</t>
   </si>
 </sst>
 </file>
@@ -2858,8 +2867,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="D1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3103,7 +3112,9 @@
       <c r="N5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="U5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>../Images/WW_Final.png</v>
@@ -3167,7 +3178,9 @@
       <c r="O6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="U6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>../Images/WW_Final.png</v>
@@ -3399,7 +3412,9 @@
       <c r="N10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T10" s="1"/>
+      <c r="T10" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="U10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>../Images/LG_Final.png</v>
@@ -4986,7 +5001,7 @@
   <dimension ref="B1:AL1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:I32"/>
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277C80C3-BECD-4C1E-89D0-1FF182F109E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8C4351-460C-4280-9913-9F8F2912879F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Statistics WW" sheetId="5" r:id="rId5"/>
     <sheet name="Statistics 5M" sheetId="6" r:id="rId6"/>
     <sheet name="Template" sheetId="7" r:id="rId7"/>
+    <sheet name="1804" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="165">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -5000,8 +5001,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5048,15 +5049,15 @@
     </row>
     <row r="5" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="36" t="str">
-        <f>Template!C2</f>
+        <f>'1804'!C2</f>
         <v>Insert Date Here</v>
       </c>
       <c r="C5" s="3">
-        <f>COUNT(Template!B3:B30)</f>
+        <f>COUNT('1804'!B3:B30)</f>
         <v>16</v>
       </c>
       <c r="D5" s="3">
-        <f>MAX(Template!L3:L5)</f>
+        <f>MAX('1804'!L3:L5)</f>
         <v>7</v>
       </c>
       <c r="E5" s="3">
@@ -5064,7 +5065,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="3">
-        <f>MIN(Template!L3:L5)</f>
+        <f>MIN('1804'!L3:L5)</f>
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -5955,7 +5956,7 @@
         <v>55</v>
       </c>
       <c r="Q29" s="44">
-        <f>Template!R3</f>
+        <f>'1804'!R3</f>
         <v>1</v>
       </c>
       <c r="R29" s="29">
@@ -5963,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="27">
-        <f>Template!S3</f>
+        <f>'1804'!S3</f>
         <v>0</v>
       </c>
       <c r="T29" s="28">
@@ -5971,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="27">
-        <f>Template!T3</f>
+        <f>'1804'!T3</f>
         <v>1</v>
       </c>
       <c r="V29" s="28">
@@ -5979,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="W29" s="27">
-        <f>Template!U3</f>
+        <f>'1804'!U3</f>
         <v>0</v>
       </c>
       <c r="X29" s="28">
@@ -5996,7 +5997,7 @@
         <v>59</v>
       </c>
       <c r="Q30" s="44">
-        <f>Template!R4</f>
+        <f>'1804'!R4</f>
         <v>1</v>
       </c>
       <c r="R30" s="29">
@@ -6004,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="27">
-        <f>Template!S4</f>
+        <f>'1804'!S4</f>
         <v>0</v>
       </c>
       <c r="T30" s="28">
@@ -6012,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="27">
-        <f>Template!T4</f>
+        <f>'1804'!T4</f>
         <v>1</v>
       </c>
       <c r="V30" s="28">
@@ -6020,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="27">
-        <f>Template!U4</f>
+        <f>'1804'!U4</f>
         <v>0</v>
       </c>
       <c r="X30" s="28">
@@ -6037,7 +6038,7 @@
         <v>62</v>
       </c>
       <c r="Q31" s="44">
-        <f>Template!R5</f>
+        <f>'1804'!R5</f>
         <v>2</v>
       </c>
       <c r="R31" s="29">
@@ -6045,7 +6046,7 @@
         <v>2</v>
       </c>
       <c r="S31" s="27">
-        <f>Template!S5</f>
+        <f>'1804'!S5</f>
         <v>0</v>
       </c>
       <c r="T31" s="28">
@@ -6053,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="27">
-        <f>Template!T5</f>
+        <f>'1804'!T5</f>
         <v>0</v>
       </c>
       <c r="V31" s="28">
@@ -6061,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="27">
-        <f>Template!U5</f>
+        <f>'1804'!U5</f>
         <v>1</v>
       </c>
       <c r="X31" s="28">
@@ -6078,7 +6079,7 @@
         <v>65</v>
       </c>
       <c r="Q32" s="44">
-        <f>Template!R6</f>
+        <f>'1804'!R6</f>
         <v>2</v>
       </c>
       <c r="R32" s="29">
@@ -6086,7 +6087,7 @@
         <v>2</v>
       </c>
       <c r="S32" s="27">
-        <f>Template!S6</f>
+        <f>'1804'!S6</f>
         <v>0</v>
       </c>
       <c r="T32" s="28">
@@ -6094,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="27">
-        <f>Template!T6</f>
+        <f>'1804'!T6</f>
         <v>0</v>
       </c>
       <c r="V32" s="28">
@@ -6102,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="27">
-        <f>Template!U6</f>
+        <f>'1804'!U6</f>
         <v>1</v>
       </c>
       <c r="X32" s="28">
@@ -6118,7 +6119,7 @@
         <v>68</v>
       </c>
       <c r="Q33" s="44">
-        <f>Template!R7</f>
+        <f>'1804'!R7</f>
         <v>1</v>
       </c>
       <c r="R33" s="29">
@@ -6126,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="27">
-        <f>Template!S7</f>
+        <f>'1804'!S7</f>
         <v>0</v>
       </c>
       <c r="T33" s="28">
@@ -6134,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="27">
-        <f>Template!T7</f>
+        <f>'1804'!T7</f>
         <v>1</v>
       </c>
       <c r="V33" s="28">
@@ -6142,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="W33" s="27">
-        <f>Template!U7</f>
+        <f>'1804'!U7</f>
         <v>0</v>
       </c>
       <c r="X33" s="28">
@@ -6158,7 +6159,7 @@
         <v>71</v>
       </c>
       <c r="Q34" s="44">
-        <f>Template!R8</f>
+        <f>'1804'!R8</f>
         <v>1</v>
       </c>
       <c r="R34" s="29">
@@ -6166,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="27">
-        <f>Template!S8</f>
+        <f>'1804'!S8</f>
         <v>0</v>
       </c>
       <c r="T34" s="28">
@@ -6174,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="27">
-        <f>Template!T8</f>
+        <f>'1804'!T8</f>
         <v>1</v>
       </c>
       <c r="V34" s="28">
@@ -6182,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="W34" s="27">
-        <f>Template!U8</f>
+        <f>'1804'!U8</f>
         <v>0</v>
       </c>
       <c r="X34" s="28">
@@ -6198,7 +6199,7 @@
         <v>75</v>
       </c>
       <c r="Q35" s="44">
-        <f>Template!R9</f>
+        <f>'1804'!R9</f>
         <v>2</v>
       </c>
       <c r="R35" s="29">
@@ -6206,7 +6207,7 @@
         <v>2</v>
       </c>
       <c r="S35" s="27">
-        <f>Template!S9</f>
+        <f>'1804'!S9</f>
         <v>0</v>
       </c>
       <c r="T35" s="28">
@@ -6214,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="27">
-        <f>Template!T9</f>
+        <f>'1804'!T9</f>
         <v>0</v>
       </c>
       <c r="V35" s="28">
@@ -6222,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="27">
-        <f>Template!U9</f>
+        <f>'1804'!U9</f>
         <v>1</v>
       </c>
       <c r="X35" s="28">
@@ -6238,7 +6239,7 @@
         <v>78</v>
       </c>
       <c r="Q36" s="44">
-        <f>Template!R10</f>
+        <f>'1804'!R10</f>
         <v>1</v>
       </c>
       <c r="R36" s="29">
@@ -6246,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="27">
-        <f>Template!S10</f>
+        <f>'1804'!S10</f>
         <v>1</v>
       </c>
       <c r="T36" s="28">
@@ -6254,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="U36" s="27">
-        <f>Template!T10</f>
+        <f>'1804'!T10</f>
         <v>0</v>
       </c>
       <c r="V36" s="28">
@@ -6262,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="27">
-        <f>Template!U10</f>
+        <f>'1804'!U10</f>
         <v>0</v>
       </c>
       <c r="X36" s="28">
@@ -6278,7 +6279,7 @@
         <v>80</v>
       </c>
       <c r="Q37" s="44">
-        <f>Template!R11</f>
+        <f>'1804'!R11</f>
         <v>2</v>
       </c>
       <c r="R37" s="29">
@@ -6286,7 +6287,7 @@
         <v>2</v>
       </c>
       <c r="S37" s="27">
-        <f>Template!S11</f>
+        <f>'1804'!S11</f>
         <v>0</v>
       </c>
       <c r="T37" s="28">
@@ -6294,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="27">
-        <f>Template!T11</f>
+        <f>'1804'!T11</f>
         <v>2</v>
       </c>
       <c r="V37" s="28">
@@ -6302,7 +6303,7 @@
         <v>2</v>
       </c>
       <c r="W37" s="27">
-        <f>Template!U11</f>
+        <f>'1804'!U11</f>
         <v>0</v>
       </c>
       <c r="X37" s="28">
@@ -6318,7 +6319,7 @@
         <v>81</v>
       </c>
       <c r="Q38" s="44">
-        <f>Template!R12</f>
+        <f>'1804'!R12</f>
         <v>1</v>
       </c>
       <c r="R38" s="29">
@@ -6326,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="27">
-        <f>Template!S12</f>
+        <f>'1804'!S12</f>
         <v>0</v>
       </c>
       <c r="T38" s="28">
@@ -6334,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="27">
-        <f>Template!T12</f>
+        <f>'1804'!T12</f>
         <v>1</v>
       </c>
       <c r="V38" s="28">
@@ -6342,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="W38" s="27">
-        <f>Template!U12</f>
+        <f>'1804'!U12</f>
         <v>0</v>
       </c>
       <c r="X38" s="28">
@@ -6355,7 +6356,7 @@
         <v>82</v>
       </c>
       <c r="Q39" s="44">
-        <f>Template!R13</f>
+        <f>'1804'!R13</f>
         <v>2</v>
       </c>
       <c r="R39" s="29">
@@ -6363,7 +6364,7 @@
         <v>2</v>
       </c>
       <c r="S39" s="27">
-        <f>Template!S13</f>
+        <f>'1804'!S13</f>
         <v>0</v>
       </c>
       <c r="T39" s="28">
@@ -6371,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="27">
-        <f>Template!T13</f>
+        <f>'1804'!T13</f>
         <v>0</v>
       </c>
       <c r="V39" s="28">
@@ -6379,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="27">
-        <f>Template!U13</f>
+        <f>'1804'!U13</f>
         <v>1</v>
       </c>
       <c r="X39" s="28">
@@ -6394,7 +6395,7 @@
         <v>83</v>
       </c>
       <c r="Q40" s="44">
-        <f>Template!R14</f>
+        <f>'1804'!R14</f>
         <v>1</v>
       </c>
       <c r="R40" s="29">
@@ -6402,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="27">
-        <f>Template!S14</f>
+        <f>'1804'!S14</f>
         <v>1</v>
       </c>
       <c r="T40" s="28">
@@ -6410,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="U40" s="27">
-        <f>Template!T14</f>
+        <f>'1804'!T14</f>
         <v>0</v>
       </c>
       <c r="V40" s="28">
@@ -6418,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="27">
-        <f>Template!U14</f>
+        <f>'1804'!U14</f>
         <v>0</v>
       </c>
       <c r="X40" s="28">
@@ -6431,7 +6432,7 @@
         <v>86</v>
       </c>
       <c r="Q41" s="44">
-        <f>Template!R15</f>
+        <f>'1804'!R15</f>
         <v>1</v>
       </c>
       <c r="R41" s="29">
@@ -6439,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="27">
-        <f>Template!S15</f>
+        <f>'1804'!S15</f>
         <v>1</v>
       </c>
       <c r="T41" s="28">
@@ -6447,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="U41" s="27">
-        <f>Template!T15</f>
+        <f>'1804'!T15</f>
         <v>0</v>
       </c>
       <c r="V41" s="28">
@@ -6455,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="27">
-        <f>Template!U15</f>
+        <f>'1804'!U15</f>
         <v>0</v>
       </c>
       <c r="X41" s="28">
@@ -6468,7 +6469,7 @@
         <v>87</v>
       </c>
       <c r="Q42" s="44">
-        <f>Template!R16</f>
+        <f>'1804'!R16</f>
         <v>2</v>
       </c>
       <c r="R42" s="29">
@@ -6476,7 +6477,7 @@
         <v>2</v>
       </c>
       <c r="S42" s="27">
-        <f>Template!S16</f>
+        <f>'1804'!S16</f>
         <v>0</v>
       </c>
       <c r="T42" s="28">
@@ -6484,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="27">
-        <f>Template!T16</f>
+        <f>'1804'!T16</f>
         <v>0</v>
       </c>
       <c r="V42" s="28">
@@ -6492,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="27">
-        <f>Template!U16</f>
+        <f>'1804'!U16</f>
         <v>1</v>
       </c>
       <c r="X42" s="28">
@@ -6505,7 +6506,7 @@
         <v>88</v>
       </c>
       <c r="Q43" s="44">
-        <f>Template!R17</f>
+        <f>'1804'!R17</f>
         <v>1</v>
       </c>
       <c r="R43" s="29">
@@ -6513,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="27">
-        <f>Template!S17</f>
+        <f>'1804'!S17</f>
         <v>1</v>
       </c>
       <c r="T43" s="28">
@@ -6521,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="U43" s="27">
-        <f>Template!T17</f>
+        <f>'1804'!T17</f>
         <v>0</v>
       </c>
       <c r="V43" s="28">
@@ -6529,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="27">
-        <f>Template!U17</f>
+        <f>'1804'!U17</f>
         <v>0</v>
       </c>
       <c r="X43" s="28">
@@ -7614,7 +7615,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4:W4"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7703,21 +7704,33 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="4" t="str">
+        <f>'1804'!C2</f>
+        <v>Insert Date Here</v>
+      </c>
+      <c r="B4" s="16">
+        <f>'1804'!L3</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="16">
+        <f>'1804'!M3</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="16">
+        <f>'1804'!O3</f>
+        <v>1</v>
+      </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="60"/>
@@ -7726,21 +7739,21 @@
       <c r="N4" s="17"/>
       <c r="O4" s="60"/>
       <c r="Q4" s="17">
-        <f>COUNTIF(Template!W4:W26,"LG/WW")</f>
+        <f>COUNTIF('1804'!W4:W26,"LG/WW")</f>
         <v>2</v>
       </c>
       <c r="R4" s="17">
-        <f>COUNTIF(Template!X4:X26,"WW/LG")</f>
+        <f>COUNTIF('1804'!X4:X26,"WW/LG")</f>
         <v>2</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="V4" s="17">
-        <f>COUNTIF(Template!W4:W26,"LG/5M")</f>
+        <f>COUNTIF('1804'!W4:W26,"LG/5M")</f>
         <v>2</v>
       </c>
       <c r="W4" s="17">
-        <f>COUNTIF(Template!Y4:Y26,"5M/LG")</f>
+        <f>COUNTIF('1804'!Y4:Y26,"5M/LG")</f>
         <v>4</v>
       </c>
       <c r="X4" s="17"/>
@@ -9295,8 +9308,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4:W4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9386,21 +9399,33 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="4" t="str">
+        <f>'1804'!C2</f>
+        <v>Insert Date Here</v>
+      </c>
+      <c r="B4" s="16">
+        <f>'1804'!L5</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="16">
+        <f>'1804'!M5</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="16">
+        <f>'1804'!O5</f>
+        <v>2</v>
+      </c>
       <c r="F4" s="24">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="60"/>
@@ -9409,21 +9434,21 @@
       <c r="N4" s="17"/>
       <c r="O4" s="60"/>
       <c r="Q4" s="17">
-        <f>COUNTIF(Template!X4:X26,"WW/LG")</f>
+        <f>COUNTIF('1804'!X4:X26,"WW/LG")</f>
         <v>2</v>
       </c>
       <c r="R4" s="17">
-        <f>COUNTIF(Template!W4:W26,"LG/WW")</f>
+        <f>COUNTIF('1804'!W4:W26,"LG/WW")</f>
         <v>2</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="V4" s="17">
-        <f>COUNTIF(Template!X4:X26,"WW/5M")</f>
+        <f>COUNTIF('1804'!X4:X26,"WW/5M")</f>
         <v>3</v>
       </c>
       <c r="W4" s="17">
-        <f>COUNTIF(Template!Y4:Y26,"5M/WW")</f>
+        <f>COUNTIF('1804'!Y4:Y26,"5M/WW")</f>
         <v>3</v>
       </c>
       <c r="X4" s="17"/>
@@ -10978,8 +11003,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11069,21 +11094,33 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="4" t="str">
+        <f>'1804'!C2</f>
+        <v>Insert Date Here</v>
+      </c>
+      <c r="B4" s="16">
+        <f>'1804'!L4</f>
+        <v>7</v>
+      </c>
+      <c r="C4" s="16">
+        <f>'1804'!M4</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="16">
+        <f>'1804'!O4</f>
+        <v>3</v>
+      </c>
       <c r="F4" s="24">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G4" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="60"/>
@@ -11092,21 +11129,21 @@
       <c r="N4" s="17"/>
       <c r="O4" s="60"/>
       <c r="Q4" s="17">
-        <f>COUNTIF(Template!Y4:Y26,"5M/LG")</f>
+        <f>COUNTIF('1804'!Y4:Y26,"5M/LG")</f>
         <v>4</v>
       </c>
       <c r="R4" s="17">
-        <f>COUNTIF(Template!W4:W26,"LG/WW")</f>
+        <f>COUNTIF('1804'!W4:W26,"LG/WW")</f>
         <v>2</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="V4" s="17">
-        <f>COUNTIF(Template!Y4:Y26,"5M/WW")</f>
+        <f>COUNTIF('1804'!Y4:Y26,"5M/WW")</f>
         <v>3</v>
       </c>
       <c r="W4" s="17">
-        <f>COUNTIF(Template!X4:X26,"WW/5M")</f>
+        <f>COUNTIF('1804'!X4:X26,"WW/5M")</f>
         <v>3</v>
       </c>
       <c r="X4" s="17"/>
@@ -12662,7 +12699,7 @@
   <dimension ref="B1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12745,26 +12782,26 @@
       </c>
       <c r="L3" s="1">
         <f>COUNTIF(C3:C30, "Loose Gooses")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
         <f>COUNTIF(D3:D30, "Loose Gooses")</f>
-        <v>6</v>
-      </c>
-      <c r="N3" s="23">
+        <v>0</v>
+      </c>
+      <c r="N3" s="23" t="e">
         <f t="shared" ref="N3:N5" si="0">L3/(L3+M3)</f>
-        <v>0.4</v>
-      </c>
-      <c r="O3" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="1" t="e">
         <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="19">
         <f t="shared" ref="R3:R17" si="1">COUNTIF($E$3:$E$27, Q3)+U3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="20">
         <f t="shared" ref="S3:S17" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
@@ -12772,7 +12809,7 @@
       </c>
       <c r="T3" s="20">
         <f t="shared" ref="T3:T17" si="3">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="20">
         <f t="shared" ref="U3:U17" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
@@ -12790,52 +12827,38 @@
       </c>
     </row>
     <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="59">
-        <v>1</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="59">
-        <v>1</v>
-      </c>
-      <c r="H4" s="59">
-        <v>1</v>
-      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
       <c r="K4" s="1" t="s">
         <v>139</v>
       </c>
       <c r="L4" s="1">
         <f>COUNTIF(C3:C30, "5 Musketeers")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <f>COUNTIF(D3:D30, "5 Musketeers")</f>
-        <v>5</v>
-      </c>
-      <c r="N4" s="23">
+        <v>0</v>
+      </c>
+      <c r="N4" s="23" t="e">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="O4" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="1" t="e">
         <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" si="2"/>
@@ -12843,7 +12866,7 @@
       </c>
       <c r="T4" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="20">
         <f t="shared" si="4"/>
@@ -12851,7 +12874,7 @@
       </c>
       <c r="W4" s="1" t="str">
         <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="X4" s="1" t="str">
         <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
@@ -12863,52 +12886,38 @@
       </c>
     </row>
     <row r="5" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="59">
-        <v>2</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="59">
-        <v>2</v>
-      </c>
-      <c r="H5" s="59">
-        <v>1</v>
-      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
       <c r="K5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="L5" s="1">
         <f>COUNTIF(C3:C30, "Wet Willies")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
         <f>COUNTIF(D3:D30, "Wet Willies")</f>
-        <v>5</v>
-      </c>
-      <c r="N5" s="23">
+        <v>0</v>
+      </c>
+      <c r="N5" s="23" t="e">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="1" t="e">
         <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="R5" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="2"/>
@@ -12920,11 +12929,11 @@
       </c>
       <c r="U5" s="20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="24" t="str">
         <f t="shared" ref="W5:W28" si="5">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", ""))</f>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="X5" s="24" t="str">
         <f t="shared" ref="X5:X28" si="6">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", ""))</f>
@@ -12936,33 +12945,19 @@
       </c>
     </row>
     <row r="6" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="59">
-        <v>3</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="59">
-        <v>3</v>
-      </c>
-      <c r="H6" s="59">
-        <v>2</v>
-      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
       <c r="Q6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="R6" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="2"/>
@@ -12974,11 +12969,11 @@
       </c>
       <c r="U6" s="20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="X6" s="24" t="str">
         <f t="shared" si="6"/>
@@ -12990,33 +12985,19 @@
       </c>
     </row>
     <row r="7" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="59">
-        <v>4</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="59">
-        <v>4</v>
-      </c>
-      <c r="H7" s="59">
-        <v>2</v>
-      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
       <c r="Q7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="2"/>
@@ -13024,7 +13005,7 @@
       </c>
       <c r="T7" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="20">
         <f t="shared" si="4"/>
@@ -13032,7 +13013,7 @@
       </c>
       <c r="W7" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="X7" s="24" t="str">
         <f t="shared" si="6"/>
@@ -13044,33 +13025,19 @@
       </c>
     </row>
     <row r="8" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="59">
-        <v>5</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="59">
-        <v>1</v>
-      </c>
-      <c r="H8" s="59">
-        <v>1</v>
-      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
       <c r="Q8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="2"/>
@@ -13078,7 +13045,7 @@
       </c>
       <c r="T8" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="20">
         <f t="shared" si="4"/>
@@ -13094,37 +13061,23 @@
       </c>
       <c r="Y8" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="59">
-        <v>6</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="59">
-        <v>2</v>
-      </c>
-      <c r="H9" s="59">
-        <v>3</v>
-      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
       <c r="Q9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="20">
         <f t="shared" si="2"/>
@@ -13136,7 +13089,7 @@
       </c>
       <c r="U9" s="20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="24" t="str">
         <f t="shared" si="5"/>
@@ -13148,41 +13101,27 @@
       </c>
       <c r="Y9" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="59">
-        <v>7</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="59">
-        <v>3</v>
-      </c>
-      <c r="H10" s="59">
-        <v>2</v>
-      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
       <c r="Q10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="20">
         <f t="shared" si="3"/>
@@ -13202,37 +13141,23 @@
       </c>
       <c r="Y10" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="59">
-        <v>8</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="59">
-        <v>4</v>
-      </c>
-      <c r="H11" s="59">
-        <v>4</v>
-      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
       <c r="Q11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="R11" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="2"/>
@@ -13240,7 +13165,7 @@
       </c>
       <c r="T11" s="20">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="20">
         <f t="shared" si="4"/>
@@ -13256,37 +13181,23 @@
       </c>
       <c r="Y11" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="59">
-        <v>9</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="59">
-        <v>5</v>
-      </c>
-      <c r="H12" s="59">
-        <v>3</v>
-      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
       <c r="Q12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="20">
         <f t="shared" si="2"/>
@@ -13294,7 +13205,7 @@
       </c>
       <c r="T12" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="20">
         <f t="shared" si="4"/>
@@ -13310,37 +13221,23 @@
       </c>
       <c r="Y12" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="59">
-        <v>10</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="59">
-        <v>6</v>
-      </c>
-      <c r="H13" s="59">
-        <v>5</v>
-      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
       <c r="Q13" s="3" t="s">
         <v>142</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="2"/>
@@ -13352,7 +13249,7 @@
       </c>
       <c r="U13" s="20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="24" t="str">
         <f t="shared" si="5"/>
@@ -13364,41 +13261,27 @@
       </c>
       <c r="Y13" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="59">
-        <v>11</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="59">
-        <v>7</v>
-      </c>
-      <c r="H14" s="59">
-        <v>4</v>
-      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
       <c r="Q14" s="3" t="s">
         <v>148</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="20">
         <f t="shared" si="3"/>
@@ -13418,41 +13301,27 @@
       </c>
       <c r="Y14" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="59">
-        <v>12</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="59">
-        <v>1</v>
-      </c>
-      <c r="H15" s="59">
-        <v>1</v>
-      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
       <c r="Q15" s="3" t="s">
         <v>72</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="20">
         <f t="shared" si="3"/>
@@ -13468,7 +13337,7 @@
       </c>
       <c r="X15" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Y15" s="24" t="str">
         <f t="shared" si="7"/>
@@ -13476,33 +13345,19 @@
       </c>
     </row>
     <row r="16" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="59">
-        <v>13</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="59">
-        <v>2</v>
-      </c>
-      <c r="H16" s="59">
-        <v>5</v>
-      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
       <c r="Q16" s="3" t="s">
         <v>76</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16" s="20">
         <f t="shared" si="2"/>
@@ -13514,7 +13369,7 @@
       </c>
       <c r="U16" s="20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="24" t="str">
         <f t="shared" si="5"/>
@@ -13522,7 +13377,7 @@
       </c>
       <c r="X16" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/LG</v>
+        <v/>
       </c>
       <c r="Y16" s="24" t="str">
         <f t="shared" si="7"/>
@@ -13530,37 +13385,23 @@
       </c>
     </row>
     <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="59">
-        <v>14</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="59">
-        <v>3</v>
-      </c>
-      <c r="H17" s="59">
-        <v>2</v>
-      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
       <c r="Q17" s="3" t="s">
         <v>79</v>
       </c>
       <c r="R17" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="20">
         <f t="shared" si="3"/>
@@ -13576,7 +13417,7 @@
       </c>
       <c r="X17" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Y17" s="24" t="str">
         <f t="shared" si="7"/>
@@ -13584,27 +13425,13 @@
       </c>
     </row>
     <row r="18" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="59">
-        <v>15</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="59">
-        <v>4</v>
-      </c>
-      <c r="H18" s="59">
-        <v>6</v>
-      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
@@ -13614,7 +13441,7 @@
       </c>
       <c r="X18" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/LG</v>
+        <v/>
       </c>
       <c r="Y18" s="24" t="str">
         <f t="shared" si="7"/>
@@ -13622,27 +13449,13 @@
       </c>
     </row>
     <row r="19" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="59">
-        <v>16</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="59">
-        <v>5</v>
-      </c>
-      <c r="H19" s="59">
-        <v>3</v>
-      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
@@ -13652,7 +13465,7 @@
       </c>
       <c r="X19" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Y19" s="24" t="str">
         <f t="shared" si="7"/>
@@ -13789,7 +13602,7 @@
       </c>
       <c r="R26" s="19">
         <f t="shared" ref="R26:U26" si="8">R3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="19">
         <f t="shared" si="8"/>
@@ -13797,7 +13610,7 @@
       </c>
       <c r="T26" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="19">
         <f t="shared" si="8"/>
@@ -13824,7 +13637,7 @@
       <c r="I27" s="24"/>
       <c r="R27" s="19">
         <f t="shared" ref="R27:U27" si="9">R4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="19">
         <f t="shared" si="9"/>
@@ -13832,7 +13645,7 @@
       </c>
       <c r="T27" s="19">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="19">
         <f t="shared" si="9"/>
@@ -13859,7 +13672,7 @@
       <c r="I28" s="24"/>
       <c r="R28" s="19">
         <f t="shared" ref="R28:U28" si="10">R5</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S28" s="19">
         <f t="shared" si="10"/>
@@ -13871,7 +13684,7 @@
       </c>
       <c r="U28" s="19">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="24" t="str">
         <f t="shared" si="5"/>
@@ -13894,7 +13707,7 @@
       <c r="I29" s="24"/>
       <c r="R29" s="19">
         <f t="shared" ref="R29:U29" si="11">R6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S29" s="19">
         <f t="shared" si="11"/>
@@ -13906,7 +13719,7 @@
       </c>
       <c r="U29" s="19">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -13917,7 +13730,7 @@
       <c r="I30" s="24"/>
       <c r="R30" s="19">
         <f t="shared" ref="R30:U30" si="12">R7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="19">
         <f t="shared" si="12"/>
@@ -13925,7 +13738,7 @@
       </c>
       <c r="T30" s="19">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="19">
         <f t="shared" si="12"/>
@@ -13935,7 +13748,7 @@
     <row r="31" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R31" s="19">
         <f t="shared" ref="R31:U31" si="13">R8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="19">
         <f t="shared" si="13"/>
@@ -13943,7 +13756,7 @@
       </c>
       <c r="T31" s="19">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="19">
         <f t="shared" si="13"/>
@@ -13953,7 +13766,7 @@
     <row r="32" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R32" s="19">
         <f t="shared" ref="R32:U32" si="14">R9</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S32" s="19">
         <f t="shared" si="14"/>
@@ -13965,17 +13778,17 @@
       </c>
       <c r="U32" s="19">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R33" s="19">
         <f t="shared" ref="R33:U33" si="15">R10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="19">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="19">
         <f t="shared" si="15"/>
@@ -13989,7 +13802,7 @@
     <row r="34" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R34" s="19">
         <f t="shared" ref="R34:U34" si="16">R11</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S34" s="19">
         <f t="shared" si="16"/>
@@ -13997,7 +13810,7 @@
       </c>
       <c r="T34" s="19">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U34" s="19">
         <f t="shared" si="16"/>
@@ -14007,7 +13820,7 @@
     <row r="35" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="19">
         <f t="shared" ref="R35:U35" si="17">R12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="19">
         <f t="shared" si="17"/>
@@ -14015,7 +13828,7 @@
       </c>
       <c r="T35" s="19">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="19">
         <f t="shared" si="17"/>
@@ -14025,7 +13838,7 @@
     <row r="36" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="19">
         <f t="shared" ref="R36:U36" si="18">R13</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S36" s="19">
         <f t="shared" si="18"/>
@@ -14037,17 +13850,17 @@
       </c>
       <c r="U36" s="19">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="19">
         <f t="shared" ref="R37:U37" si="19">R14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="19">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="19">
         <f t="shared" si="19"/>
@@ -14061,11 +13874,11 @@
     <row r="38" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R38" s="19">
         <f t="shared" ref="R38:U38" si="20">R15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="19">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="19">
         <f t="shared" si="20"/>
@@ -14079,7 +13892,7 @@
     <row r="39" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R39" s="19">
         <f t="shared" ref="R39:U39" si="21">R16</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S39" s="19">
         <f t="shared" si="21"/>
@@ -14091,17 +13904,17 @@
       </c>
       <c r="U39" s="19">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R40" s="19">
         <f t="shared" ref="R40:U40" si="22">R17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="19">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="19">
         <f t="shared" si="22"/>
@@ -14109,6 +13922,2427 @@
       </c>
       <c r="U40" s="19">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E7D6EA-0942-4896-8FCD-5B2FCE43B119}">
+  <dimension ref="B1:Y1000"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.73046875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="14" style="40" customWidth="1"/>
+    <col min="5" max="17" width="8.73046875" style="40" customWidth="1"/>
+    <col min="18" max="18" width="10.73046875" style="40" customWidth="1"/>
+    <col min="19" max="26" width="8.73046875" style="40" customWidth="1"/>
+    <col min="27" max="16384" width="14.3984375" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="24">
+        <f>COUNTIF(C3:C30, "Loose Gooses")</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="24">
+        <f>COUNTIF(D3:D30, "Loose Gooses")</f>
+        <v>6</v>
+      </c>
+      <c r="N3" s="23">
+        <f t="shared" ref="N3:N5" si="0">L3/(L3+M3)</f>
+        <v>0.4</v>
+      </c>
+      <c r="O3" s="24">
+        <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="19">
+        <f t="shared" ref="R3:R17" si="1">COUNTIF($E$3:$E$27, Q3)+U3</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="20">
+        <f t="shared" ref="S3:S17" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="20">
+        <f t="shared" ref="T3:T17" si="3">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="20">
+        <f t="shared" ref="U3:U17" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="59">
+        <v>1</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="59">
+        <v>1</v>
+      </c>
+      <c r="H4" s="59">
+        <v>1</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="24">
+        <f>COUNTIF(C3:C30, "5 Musketeers")</f>
+        <v>7</v>
+      </c>
+      <c r="M4" s="24">
+        <f>COUNTIF(D3:D30, "5 Musketeers")</f>
+        <v>5</v>
+      </c>
+      <c r="N4" s="23">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O4" s="24">
+        <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U4" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="24" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
+        <v>LG/5M</v>
+      </c>
+      <c r="X4" s="24" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Y4" s="24" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="59">
+        <v>2</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="59">
+        <v>2</v>
+      </c>
+      <c r="H5" s="59">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="24">
+        <f>COUNTIF(C3:C30, "Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="M5" s="24">
+        <f>COUNTIF(D3:D30, "Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="N5" s="23">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="24">
+        <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S5" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W5" s="24" t="str">
+        <f t="shared" ref="W5:W28" si="5">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", ""))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="X5" s="24" t="str">
+        <f t="shared" ref="X5:X28" si="6">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Y5" s="24" t="str">
+        <f t="shared" ref="Y5:Y28" si="7">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND($C5="5 Musketeers",$D5="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="59">
+        <v>3</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="59">
+        <v>3</v>
+      </c>
+      <c r="H6" s="59">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="X6" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y6" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="59">
+        <v>4</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="59">
+        <v>4</v>
+      </c>
+      <c r="H7" s="59">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U7" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="X7" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y7" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="59">
+        <v>5</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="59">
+        <v>1</v>
+      </c>
+      <c r="H8" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X8" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y8" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="59">
+        <v>6</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="59">
+        <v>2</v>
+      </c>
+      <c r="H9" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W9" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X9" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y9" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="59">
+        <v>7</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="59">
+        <v>3</v>
+      </c>
+      <c r="H10" s="59">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X10" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y10" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="59">
+        <v>8</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="59">
+        <v>4</v>
+      </c>
+      <c r="H11" s="59">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U11" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X11" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y11" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="59">
+        <v>9</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="59">
+        <v>5</v>
+      </c>
+      <c r="H12" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X12" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y12" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="59">
+        <v>10</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="59">
+        <v>6</v>
+      </c>
+      <c r="H13" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R13" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X13" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y13" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="59">
+        <v>11</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="59">
+        <v>7</v>
+      </c>
+      <c r="H14" s="59">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="R14" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T14" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X14" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y14" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="59">
+        <v>12</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="59">
+        <v>1</v>
+      </c>
+      <c r="H15" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X15" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="Y15" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="59">
+        <v>13</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="59">
+        <v>2</v>
+      </c>
+      <c r="H16" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W16" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X16" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="Y16" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="59">
+        <v>14</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="59">
+        <v>3</v>
+      </c>
+      <c r="H17" s="59">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S17" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T17" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X17" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="Y17" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="59">
+        <v>15</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="59">
+        <v>4</v>
+      </c>
+      <c r="H18" s="59">
+        <v>6</v>
+      </c>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="W18" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X18" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="Y18" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="59">
+        <v>16</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="59">
+        <v>5</v>
+      </c>
+      <c r="H19" s="59">
+        <v>3</v>
+      </c>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="W19" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X19" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="Y19" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W20" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X20" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y20" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W21" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X21" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y21" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W22" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X22" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y22" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="Q23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="W23" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X23" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y23" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E24" s="25"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="W24" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X24" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y24" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E25" s="25"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="Q25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W25" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X25" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y25" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E26" s="25"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="Q26" s="26" t="str">
+        <f>C2</f>
+        <v>Insert Date Here</v>
+      </c>
+      <c r="R26" s="19">
+        <f t="shared" ref="R26:U40" si="8">R3</f>
+        <v>1</v>
+      </c>
+      <c r="S26" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U26" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X26" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y26" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E27" s="25"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="R27" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S27" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U27" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X27" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y27" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E28" s="25"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="R28" s="19">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S28" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="W28" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X28" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y28" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E29" s="25"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="R29" s="19">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S29" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E30" s="25"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="R30" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S30" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U30" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R31" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S31" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U31" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R32" s="19">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S32" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R33" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S33" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T33" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R34" s="19">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S34" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="19">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U34" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R35" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S35" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U35" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R36" s="19">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S36" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R37" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S37" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T37" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R38" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S38" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T38" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R39" s="19">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S39" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R40" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S40" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T40" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="19">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8C4351-460C-4280-9913-9F8F2912879F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E68673-E664-48DE-830B-32997BDF18F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -388,9 +388,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
     <t>Streak</t>
   </si>
   <si>
@@ -581,6 +578,9 @@
   </si>
   <si>
     <t>Retained by Loose Gooses</t>
+  </si>
+  <si>
+    <t>Preseason</t>
   </si>
 </sst>
 </file>
@@ -2868,8 +2868,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView zoomScale="77" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3114,7 +3114,7 @@
         <v>42</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3180,7 +3180,7 @@
         <v>42</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3414,7 +3414,7 @@
         <v>41</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4024,7 +4024,7 @@
     <row r="37" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D37" s="38"/>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5001,8 +5001,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AL1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5143,19 +5143,19 @@
         <v>9</v>
       </c>
       <c r="T7" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U7" s="48" t="s">
         <v>10</v>
       </c>
       <c r="V7" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W7" s="47" t="s">
         <v>11</v>
       </c>
       <c r="X7" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y7" s="49" t="s">
         <v>13</v>
@@ -5898,7 +5898,7 @@
     <row r="25" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P26" s="3" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -5910,7 +5910,7 @@
     <row r="28" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -5949,9 +5949,10 @@
     <row r="29" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H29" s="5"/>
       <c r="I29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
       <c r="P29" s="30" t="s">
         <v>55</v>
       </c>
@@ -5991,7 +5992,7 @@
     <row r="30" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H30" s="5"/>
       <c r="I30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P30" s="30" t="s">
         <v>59</v>
@@ -6032,7 +6033,7 @@
     <row r="31" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H31" s="5"/>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P31" s="30" t="s">
         <v>62</v>
@@ -6072,7 +6073,7 @@
     </row>
     <row r="32" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N32" s="42"/>
       <c r="P32" s="30" t="s">
@@ -6113,7 +6114,7 @@
     </row>
     <row r="33" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P33" s="30" t="s">
         <v>68</v>
@@ -6153,7 +6154,7 @@
     </row>
     <row r="34" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P34" s="30" t="s">
         <v>71</v>
@@ -6193,7 +6194,7 @@
     </row>
     <row r="35" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P35" s="30" t="s">
         <v>75</v>
@@ -6233,7 +6234,7 @@
     </row>
     <row r="36" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P36" s="30" t="s">
         <v>78</v>
@@ -6273,7 +6274,7 @@
     </row>
     <row r="37" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P37" s="30" t="s">
         <v>80</v>
@@ -6313,7 +6314,7 @@
     </row>
     <row r="38" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P38" s="30" t="s">
         <v>81</v>
@@ -7602,6 +7603,9 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="S29" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -7626,16 +7630,16 @@
     <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -7643,22 +7647,22 @@
         <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>86</v>
@@ -7667,40 +7671,40 @@
         <v>78</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="S3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="V3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="X3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -7785,7 +7789,7 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="G6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="18"/>
       <c r="J6" s="17"/>
@@ -7809,7 +7813,7 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="G7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H7" s="18"/>
       <c r="J7" s="17"/>
@@ -7833,7 +7837,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="G8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="18"/>
       <c r="J8" s="17"/>
@@ -7857,7 +7861,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="G9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="18"/>
       <c r="J9" s="17"/>
@@ -7881,7 +7885,7 @@
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="G10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="18"/>
       <c r="J10" s="17"/>
@@ -7905,7 +7909,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="G11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="18"/>
       <c r="J11" s="17"/>
@@ -7929,7 +7933,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="G12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" s="18"/>
       <c r="J12" s="17"/>
@@ -7953,7 +7957,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="G13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" s="18"/>
       <c r="J13" s="17"/>
@@ -8285,7 +8289,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
       <c r="P30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q30" s="17">
         <f t="shared" ref="Q30:R30" si="1">SUM(Q4:Q29)</f>
@@ -9321,16 +9325,16 @@
     <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>123</v>
-      </c>
       <c r="V2" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9338,22 +9342,22 @@
         <v>84</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>105</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="H3" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="J3" s="24" t="s">
         <v>86</v>
@@ -9362,40 +9366,40 @@
         <v>78</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M3" s="24" t="s">
         <v>88</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O3" s="24" t="s">
         <v>83</v>
       </c>
       <c r="Q3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="S3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="T3" s="24" t="s">
-        <v>112</v>
-      </c>
       <c r="V3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="W3" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="W3" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="X3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y3" s="24" t="s">
         <v>111</v>
-      </c>
-      <c r="Y3" s="24" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9480,7 +9484,7 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="G6" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="18"/>
       <c r="J6" s="17"/>
@@ -9504,7 +9508,7 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="G7" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H7" s="18"/>
       <c r="J7" s="17"/>
@@ -9528,7 +9532,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="G8" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="18"/>
       <c r="J8" s="17"/>
@@ -9552,7 +9556,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="G9" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="18"/>
       <c r="J9" s="17"/>
@@ -9576,7 +9580,7 @@
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="G10" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="18"/>
       <c r="J10" s="17"/>
@@ -9600,7 +9604,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="G11" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="18"/>
       <c r="J11" s="17"/>
@@ -9624,7 +9628,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="G12" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" s="18"/>
       <c r="J12" s="17"/>
@@ -9648,7 +9652,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="G13" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" s="18"/>
       <c r="J13" s="17"/>
@@ -9980,7 +9984,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
       <c r="P30" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q30" s="17">
         <f t="shared" ref="Q30:R30" si="1">SUM(Q4:Q29)</f>
@@ -11003,7 +11007,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -11016,16 +11020,16 @@
     <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="V2" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -11033,22 +11037,22 @@
         <v>84</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>105</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="H3" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="J3" s="24" t="s">
         <v>86</v>
@@ -11057,40 +11061,40 @@
         <v>78</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M3" s="24" t="s">
         <v>88</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O3" s="24" t="s">
         <v>83</v>
       </c>
       <c r="Q3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="S3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="T3" s="24" t="s">
-        <v>112</v>
-      </c>
       <c r="V3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="W3" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="W3" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="X3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y3" s="24" t="s">
         <v>111</v>
-      </c>
-      <c r="Y3" s="24" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -11175,7 +11179,7 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="G6" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="18"/>
       <c r="J6" s="17"/>
@@ -11199,7 +11203,7 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="G7" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H7" s="18"/>
       <c r="J7" s="17"/>
@@ -11223,7 +11227,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="G8" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="18"/>
       <c r="J8" s="17"/>
@@ -11247,7 +11251,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="G9" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="18"/>
       <c r="J9" s="17"/>
@@ -11271,7 +11275,7 @@
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="G10" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="18"/>
       <c r="J10" s="17"/>
@@ -11295,7 +11299,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="G11" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="18"/>
       <c r="J11" s="17"/>
@@ -11319,7 +11323,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="G12" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" s="18"/>
       <c r="J12" s="17"/>
@@ -11343,7 +11347,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="G13" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" s="18"/>
       <c r="J13" s="17"/>
@@ -11675,7 +11679,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
       <c r="P30" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q30" s="17">
         <f t="shared" ref="Q30:R30" si="1">SUM(Q4:Q29)</f>
@@ -12716,19 +12720,19 @@
     <row r="1" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="L2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>97</v>
@@ -12746,39 +12750,39 @@
         <v>9</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="G3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="I3" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="L3" s="1">
         <f>COUNTIF(C3:C30, "Loose Gooses")</f>
@@ -12817,13 +12821,13 @@
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -12835,7 +12839,7 @@
       <c r="G4" s="59"/>
       <c r="H4" s="59"/>
       <c r="K4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L4" s="1">
         <f>COUNTIF(C3:C30, "5 Musketeers")</f>
@@ -12894,7 +12898,7 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="K5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" s="1">
         <f>COUNTIF(C3:C30, "Wet Willies")</f>
@@ -13233,7 +13237,7 @@
       <c r="G13" s="59"/>
       <c r="H13" s="59"/>
       <c r="Q13" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="1"/>
@@ -13273,7 +13277,7 @@
       <c r="G14" s="59"/>
       <c r="H14" s="59"/>
       <c r="Q14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="1"/>
@@ -13521,7 +13525,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="Q23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W23" s="24" t="str">
         <f t="shared" si="5"/>
@@ -13571,7 +13575,7 @@
         <v>9</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>85</v>
@@ -14896,7 +14900,7 @@
   <dimension ref="B1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -14914,19 +14918,19 @@
     <row r="1" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="L2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>97</v>
@@ -14944,39 +14948,39 @@
         <v>9</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="G3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="I3" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>137</v>
       </c>
       <c r="L3" s="24">
         <f>COUNTIF(C3:C30, "Loose Gooses")</f>
@@ -15015,13 +15019,13 @@
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -15038,7 +15042,7 @@
         <v>72</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G4" s="59">
         <v>1</v>
@@ -15046,8 +15050,11 @@
       <c r="H4" s="59">
         <v>1</v>
       </c>
+      <c r="I4" s="40">
+        <v>1</v>
+      </c>
       <c r="K4" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L4" s="24">
         <f>COUNTIF(C3:C30, "5 Musketeers")</f>
@@ -15111,7 +15118,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="59">
         <v>2</v>
@@ -15119,8 +15126,11 @@
       <c r="H5" s="59">
         <v>1</v>
       </c>
+      <c r="I5" s="40">
+        <v>1</v>
+      </c>
       <c r="K5" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" s="24">
         <f>COUNTIF(C3:C30, "Wet Willies")</f>
@@ -15181,16 +15191,19 @@
         <v>34</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="59">
         <v>3</v>
       </c>
       <c r="H6" s="59">
         <v>2</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>44</v>
@@ -15238,13 +15251,16 @@
         <v>79</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" s="59">
         <v>4</v>
       </c>
       <c r="H7" s="59">
         <v>2</v>
+      </c>
+      <c r="I7" s="40">
+        <v>1</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>46</v>
@@ -15292,12 +15308,15 @@
         <v>60</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="59">
         <v>1</v>
       </c>
       <c r="H8" s="59">
+        <v>1</v>
+      </c>
+      <c r="I8" s="40">
         <v>1</v>
       </c>
       <c r="Q8" s="3" t="s">
@@ -15346,13 +15365,16 @@
         <v>51</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="59">
         <v>2</v>
       </c>
       <c r="H9" s="59">
         <v>3</v>
+      </c>
+      <c r="I9" s="40">
+        <v>1</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>53</v>
@@ -15400,13 +15422,16 @@
         <v>46</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="59">
         <v>3</v>
       </c>
       <c r="H10" s="59">
         <v>2</v>
+      </c>
+      <c r="I10" s="40">
+        <v>1</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>56</v>
@@ -15454,13 +15479,16 @@
         <v>63</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G11" s="59">
         <v>4</v>
       </c>
       <c r="H11" s="59">
         <v>4</v>
+      </c>
+      <c r="I11" s="40">
+        <v>1</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>60</v>
@@ -15508,13 +15536,16 @@
         <v>36</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="59">
         <v>5</v>
       </c>
       <c r="H12" s="59">
         <v>3</v>
+      </c>
+      <c r="I12" s="40">
+        <v>1</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>63</v>
@@ -15562,7 +15593,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="59">
         <v>6</v>
@@ -15570,8 +15601,11 @@
       <c r="H13" s="59">
         <v>5</v>
       </c>
+      <c r="I13" s="40">
+        <v>1</v>
+      </c>
       <c r="Q13" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="1"/>
@@ -15616,7 +15650,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" s="59">
         <v>7</v>
@@ -15624,8 +15658,11 @@
       <c r="H14" s="59">
         <v>4</v>
       </c>
+      <c r="I14" s="40">
+        <v>1</v>
+      </c>
       <c r="Q14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="1"/>
@@ -15670,12 +15707,15 @@
         <v>44</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="59">
         <v>1</v>
       </c>
       <c r="H15" s="59">
+        <v>1</v>
+      </c>
+      <c r="I15" s="40">
         <v>1</v>
       </c>
       <c r="Q15" s="3" t="s">
@@ -15724,13 +15764,16 @@
         <v>38</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="59">
         <v>2</v>
       </c>
       <c r="H16" s="59">
         <v>5</v>
+      </c>
+      <c r="I16" s="40">
+        <v>1</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>76</v>
@@ -15775,16 +15818,19 @@
         <v>34</v>
       </c>
       <c r="E17" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="59" t="s">
         <v>142</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>143</v>
       </c>
       <c r="G17" s="59">
         <v>3</v>
       </c>
       <c r="H17" s="59">
         <v>2</v>
+      </c>
+      <c r="I17" s="40">
+        <v>1</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>79</v>
@@ -15832,13 +15878,16 @@
         <v>53</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" s="59">
         <v>4</v>
       </c>
       <c r="H18" s="59">
         <v>6</v>
+      </c>
+      <c r="I18" s="40">
+        <v>1</v>
       </c>
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
@@ -15870,13 +15919,16 @@
         <v>76</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" s="59">
         <v>5</v>
       </c>
       <c r="H19" s="59">
         <v>3</v>
+      </c>
+      <c r="I19" s="40">
+        <v>1</v>
       </c>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
@@ -15943,7 +15995,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="Q23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W23" s="24" t="str">
         <f t="shared" si="5"/>
@@ -15993,7 +16045,7 @@
         <v>9</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>85</v>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E68673-E664-48DE-830B-32997BDF18F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A81EA7A-98F9-405B-B058-DA47E18C8347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="168">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -412,9 +412,6 @@
     <t>Total Points</t>
   </si>
   <si>
-    <t>Shaun</t>
-  </si>
-  <si>
     <t>SamJ</t>
   </si>
   <si>
@@ -505,16 +502,10 @@
     <t>5M</t>
   </si>
   <si>
-    <t>Finish</t>
-  </si>
-  <si>
     <t>For Stats Page:</t>
   </si>
   <si>
     <t>Nick Szogi</t>
-  </si>
-  <si>
-    <t>Three Pointer</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -581,6 +572,24 @@
   </si>
   <si>
     <t>Preseason</t>
+  </si>
+  <si>
+    <t>Sam James</t>
+  </si>
+  <si>
+    <t>Sam J</t>
+  </si>
+  <si>
+    <t>Drafted by 5 Musketeers</t>
+  </si>
+  <si>
+    <t>Drafted by Wet Willies</t>
+  </si>
+  <si>
+    <t>Drafted by Loose Gooses</t>
+  </si>
+  <si>
+    <t>Sam M</t>
   </si>
 </sst>
 </file>
@@ -694,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -773,19 +782,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -809,23 +805,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -883,14 +868,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,7 +895,8 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -915,12 +907,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1486,13 +1472,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.4375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,8 +1569,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BA5219-6DFE-46F0-966E-5F60422B7104}" name="Table1" displayName="Table1" ref="P7:Y22" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="P7:Y22" xr:uid="{65BA5219-6DFE-46F0-966E-5F60422B7104}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BA5219-6DFE-46F0-966E-5F60422B7104}" name="Table1" displayName="Table1" ref="P7:Y23" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="P7:Y23" xr:uid="{65BA5219-6DFE-46F0-966E-5F60422B7104}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P8:Y23">
+    <sortCondition ref="Y7:Y23"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{8B9A5B7C-C49F-4129-BF1D-47938C1E98E7}" name="Scoring" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{FE454E58-6ABE-4634-8B4F-7A281F4EFD11}" name="Points" dataDxfId="8">
@@ -2868,8 +2857,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2970,11 +2959,11 @@
       </c>
       <c r="D3" s="14">
         <f>'Stats Global'!R8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <f>'Stats Global'!Q8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="14">
         <f>'Stats Global'!T8</f>
@@ -2986,11 +2975,11 @@
       </c>
       <c r="H3" s="14">
         <f>'Stats Global'!V8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="24">
         <f>'Stats Global'!U8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="14">
         <f>'Stats Global'!X8</f>
@@ -3000,13 +2989,15 @@
         <f>'Stats Global'!W8</f>
         <v>0</v>
       </c>
-      <c r="T3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U17" si="0">IF(C3="5 Musketeers", $X$3, IF(C3="Loose Gooses", $X$4, $X$5))</f>
+        <f t="shared" ref="U3:U18" si="0">IF(C3="5 Musketeers", $X$3, IF(C3="Loose Gooses", $X$4, $X$5))</f>
         <v>../Images/5M_Final.png</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V17" si="1">X$7&amp;X9&amp;".png"</f>
+        <f t="shared" ref="V3:V18" si="1">X$7&amp;X9&amp;".png"</f>
         <v>../Images/Players/Jasper.png</v>
       </c>
       <c r="X3" s="3" t="s">
@@ -3018,15 +3009,15 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4" s="14">
         <f>'Stats Global'!R9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="24">
         <f>'Stats Global'!Q9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="14">
         <f>'Stats Global'!T9</f>
@@ -3038,11 +3029,11 @@
       </c>
       <c r="H4" s="14">
         <f>'Stats Global'!V9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="24">
         <f>'Stats Global'!U9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="14">
         <f>'Stats Global'!X9</f>
@@ -3052,10 +3043,12 @@
         <f>'Stats Global'!W9</f>
         <v>0</v>
       </c>
-      <c r="T4" s="1"/>
+      <c r="T4" s="24" t="s">
+        <v>165</v>
+      </c>
       <c r="U4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>../Images/5M_Final.png</v>
+        <v>../Images/WW_Final.png</v>
       </c>
       <c r="V4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3070,15 +3063,15 @@
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="14">
         <f>'Stats Global'!R10</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="24">
         <f>'Stats Global'!Q10</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="14">
         <f>'Stats Global'!T10</f>
@@ -3098,11 +3091,11 @@
       </c>
       <c r="J5" s="14">
         <f>'Stats Global'!X10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="24">
         <f>'Stats Global'!W10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>40</v>
@@ -3114,11 +3107,11 @@
         <v>42</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="U5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>../Images/WW_Final.png</v>
+        <v>../Images/5M_Final.png</v>
       </c>
       <c r="V5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3137,11 +3130,11 @@
       </c>
       <c r="D6" s="14">
         <f>'Stats Global'!R11</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="24">
         <f>'Stats Global'!Q11</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="14">
         <f>'Stats Global'!T11</f>
@@ -3161,11 +3154,11 @@
       </c>
       <c r="J6" s="14">
         <f>'Stats Global'!X11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="24">
         <f>'Stats Global'!W11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>40</v>
@@ -3180,7 +3173,7 @@
         <v>42</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="U6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3196,15 +3189,15 @@
         <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D7" s="14">
         <f>'Stats Global'!R12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="24">
         <f>'Stats Global'!Q12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="14">
         <f>'Stats Global'!T12</f>
@@ -3216,11 +3209,11 @@
       </c>
       <c r="H7" s="14">
         <f>'Stats Global'!V12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="24">
         <f>'Stats Global'!U12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="14">
         <f>'Stats Global'!X12</f>
@@ -3239,10 +3232,10 @@
       <c r="N7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="1"/>
+      <c r="T7" s="24"/>
       <c r="U7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>../Images/5M_Final.png</v>
+        <v>../Images/WW_Final.png</v>
       </c>
       <c r="V7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3257,15 +3250,15 @@
         <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D8" s="14">
         <f>'Stats Global'!R13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="24">
         <f>'Stats Global'!Q13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="14">
         <f>'Stats Global'!T13</f>
@@ -3277,11 +3270,11 @@
       </c>
       <c r="H8" s="14">
         <f>'Stats Global'!V13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="24">
         <f>'Stats Global'!U13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="14">
         <f>'Stats Global'!X13</f>
@@ -3297,10 +3290,12 @@
       <c r="M8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="1"/>
+      <c r="T8" s="24" t="s">
+        <v>165</v>
+      </c>
       <c r="U8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>../Images/5M_Final.png</v>
+        <v>../Images/WW_Final.png</v>
       </c>
       <c r="V8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3312,15 +3307,15 @@
         <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D9" s="14">
         <f>'Stats Global'!R14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="24">
         <f>'Stats Global'!Q14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="14">
         <f>'Stats Global'!T14</f>
@@ -3340,11 +3335,11 @@
       </c>
       <c r="J9" s="14">
         <f>'Stats Global'!X14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="24">
         <f>'Stats Global'!W14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>42</v>
@@ -3352,10 +3347,12 @@
       <c r="M9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="T9" s="1"/>
+      <c r="T9" s="24" t="s">
+        <v>166</v>
+      </c>
       <c r="U9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>../Images/WW_Final.png</v>
+        <v>../Images/LG_Final.png</v>
       </c>
       <c r="V9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3374,19 +3371,19 @@
       </c>
       <c r="D10" s="14">
         <f>'Stats Global'!R15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="24">
         <f>'Stats Global'!Q15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="14">
         <f>'Stats Global'!T15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="24">
         <f>'Stats Global'!S15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="14">
         <f>'Stats Global'!V15</f>
@@ -3414,7 +3411,7 @@
         <v>41</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3437,11 +3434,11 @@
       </c>
       <c r="D11" s="14">
         <f>'Stats Global'!R16</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="24">
         <f>'Stats Global'!Q16</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="14">
         <f>'Stats Global'!T16</f>
@@ -3453,11 +3450,11 @@
       </c>
       <c r="H11" s="14">
         <f>'Stats Global'!V16</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="24">
         <f>'Stats Global'!U16</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="14">
         <f>'Stats Global'!X16</f>
@@ -3476,7 +3473,7 @@
       <c r="N11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="T11" s="1"/>
+      <c r="T11" s="24"/>
       <c r="U11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>../Images/5M_Final.png</v>
@@ -3494,15 +3491,15 @@
         <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D12" s="14">
         <f>'Stats Global'!R17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="24">
         <f>'Stats Global'!Q17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="14">
         <f>'Stats Global'!T17</f>
@@ -3514,11 +3511,11 @@
       </c>
       <c r="H12" s="14">
         <f>'Stats Global'!V17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="24">
         <f>'Stats Global'!U17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="14">
         <f>'Stats Global'!X17</f>
@@ -3534,10 +3531,12 @@
       <c r="M12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T12" s="1"/>
+      <c r="T12" s="24" t="s">
+        <v>164</v>
+      </c>
       <c r="U12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>../Images/WW_Final.png</v>
+        <v>../Images/5M_Final.png</v>
       </c>
       <c r="V12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3552,15 +3551,15 @@
         <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D13" s="14">
         <f>'Stats Global'!R18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="24">
         <f>'Stats Global'!Q18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="14">
         <f>'Stats Global'!T18</f>
@@ -3580,11 +3579,11 @@
       </c>
       <c r="J13" s="14">
         <f>'Stats Global'!X18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="24">
         <f>'Stats Global'!W18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>67</v>
@@ -3592,10 +3591,12 @@
       <c r="M13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T13" s="1"/>
+      <c r="T13" s="24" t="s">
+        <v>164</v>
+      </c>
       <c r="U13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>../Images/WW_Final.png</v>
+        <v>../Images/5M_Final.png</v>
       </c>
       <c r="V13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3614,19 +3615,19 @@
       </c>
       <c r="D14" s="14">
         <f>'Stats Global'!R19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="24">
         <f>'Stats Global'!Q19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="14">
         <f>'Stats Global'!T19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="24">
         <f>'Stats Global'!S19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="14">
         <f>'Stats Global'!V19</f>
@@ -3647,7 +3648,9 @@
       <c r="L14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T14" s="1"/>
+      <c r="T14" s="24" t="s">
+        <v>166</v>
+      </c>
       <c r="U14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>../Images/LG_Final.png</v>
@@ -3669,19 +3672,19 @@
       </c>
       <c r="D15" s="14">
         <f>'Stats Global'!R20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="24">
         <f>'Stats Global'!Q20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="14">
         <f>'Stats Global'!T20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="24">
         <f>'Stats Global'!S20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="14">
         <f>'Stats Global'!V20</f>
@@ -3714,7 +3717,7 @@
       <c r="P15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="T15" s="1"/>
+      <c r="T15" s="24"/>
       <c r="U15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>../Images/LG_Final.png</v>
@@ -3736,11 +3739,11 @@
       </c>
       <c r="D16" s="14">
         <f>'Stats Global'!R21</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="24">
         <f>'Stats Global'!Q21</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="14">
         <f>'Stats Global'!T21</f>
@@ -3760,11 +3763,11 @@
       </c>
       <c r="J16" s="14">
         <f>'Stats Global'!X21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="24">
         <f>'Stats Global'!W21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>77</v>
@@ -3772,7 +3775,9 @@
       <c r="M16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="1"/>
+      <c r="T16" s="24" t="s">
+        <v>165</v>
+      </c>
       <c r="U16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>../Images/WW_Final.png</v>
@@ -3794,19 +3799,19 @@
       </c>
       <c r="D17" s="14">
         <f>'Stats Global'!R22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="24">
         <f>'Stats Global'!Q22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="14">
         <f>'Stats Global'!T22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="24">
         <f>'Stats Global'!S22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="14">
         <f>'Stats Global'!V22</f>
@@ -3824,7 +3829,9 @@
         <f>'Stats Global'!W22</f>
         <v>0</v>
       </c>
-      <c r="T17" s="1"/>
+      <c r="T17" s="24" t="s">
+        <v>166</v>
+      </c>
       <c r="U17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>../Images/LG_Final.png</v>
@@ -3838,6 +3845,55 @@
       </c>
     </row>
     <row r="18" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="14">
+        <f>'Stats Global'!R23</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="24">
+        <f>'Stats Global'!Q23</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <f>'Stats Global'!T23</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="24">
+        <f>'Stats Global'!S23</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="14">
+        <f>'Stats Global'!V23</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="24">
+        <f>'Stats Global'!U23</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="14">
+        <f>'Stats Global'!X23</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="24">
+        <f>'Stats Global'!W23</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="U18" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>../Images/LG_Final.png</v>
+      </c>
+      <c r="V18" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>../Images/Players/SamJ.png</v>
+      </c>
       <c r="X18" s="3" t="s">
         <v>81</v>
       </c>
@@ -3914,6 +3970,9 @@
       <c r="I24" s="38"/>
       <c r="J24" s="41"/>
       <c r="K24" s="38"/>
+      <c r="X24" s="40" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="25" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D25" s="41"/>
@@ -4024,7 +4083,7 @@
     <row r="37" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D37" s="38"/>
       <c r="J37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5001,8 +5060,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5054,19 +5113,19 @@
       </c>
       <c r="C5" s="3">
         <f>COUNT('1804'!B3:B30)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
         <f>MAX('1804'!L3:L5)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <f>C5-D5-F5</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>MIN('1804'!L3:L5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>95</v>
@@ -5095,19 +5154,19 @@
       <c r="B6" s="4"/>
       <c r="I6" s="7">
         <f t="shared" ref="I6:L6" si="0">AVERAGE(C5:C30)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
@@ -5118,17 +5177,17 @@
       <c r="I7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="8" t="e">
         <f t="shared" ref="J7:L7" si="1">J6/$I$6</f>
-        <v>0.4375</v>
-      </c>
-      <c r="K7" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="8" t="e">
         <f t="shared" si="1"/>
-        <v>0.3125</v>
-      </c>
-      <c r="L7" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="8" t="e">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P7" s="45" t="s">
         <v>98</v>
@@ -5143,19 +5202,19 @@
         <v>9</v>
       </c>
       <c r="T7" s="48" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="U7" s="48" t="s">
         <v>10</v>
       </c>
       <c r="V7" s="48" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W7" s="47" t="s">
         <v>11</v>
       </c>
       <c r="X7" s="48" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y7" s="49" t="s">
         <v>13</v>
@@ -5177,38 +5236,38 @@
         <v>55</v>
       </c>
       <c r="Q8" s="51">
-        <f t="shared" ref="Q8:Q22" si="2">Q29</f>
-        <v>1</v>
+        <f>Q29</f>
+        <v>0</v>
       </c>
       <c r="R8" s="52">
-        <f t="shared" ref="R8:R22" si="3">Q8/$Q$5</f>
-        <v>1</v>
+        <f>Q8/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S8" s="51">
-        <f t="shared" ref="S8:S22" si="4">S29</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="58">
-        <f t="shared" ref="T8:T22" si="5">S8/$Q$5</f>
+        <f>S29</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="56">
+        <f>S8/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U8" s="51">
-        <f t="shared" ref="U8:U22" si="6">U29</f>
-        <v>1</v>
-      </c>
-      <c r="V8" s="58">
-        <f t="shared" ref="V8:V22" si="7">U8/$Q$5</f>
-        <v>1</v>
+        <f>U29</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="56">
+        <f>U8/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="W8" s="51">
-        <f t="shared" ref="W8:W22" si="8">W29</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="58">
-        <f t="shared" ref="X8:X22" si="9">W8/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="53" t="s">
+        <f>W29</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="56">
+        <f>W8/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Z8" s="7"/>
@@ -5221,41 +5280,41 @@
     <row r="9" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4"/>
       <c r="P9" s="50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="51">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>Q30</f>
+        <v>0</v>
       </c>
       <c r="R9" s="52">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>Q9/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S9" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="58">
-        <f t="shared" si="5"/>
+        <f>S30</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="56">
+        <f>S9/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U9" s="51">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="V9" s="58">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>U30</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="56">
+        <f>U9/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="W9" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="53" t="s">
+        <f>W30</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="56">
+        <f>W9/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Z9" s="7"/>
@@ -5268,42 +5327,42 @@
     <row r="10" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="P10" s="50" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="51">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>Q31</f>
+        <v>0</v>
       </c>
       <c r="R10" s="52">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>Q10/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S10" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="58">
-        <f t="shared" si="5"/>
+        <f>S31</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="56">
+        <f>S10/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U10" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="58">
-        <f t="shared" si="7"/>
+        <f>U31</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="56">
+        <f>U10/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W10" s="51">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X10" s="58">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Y10" s="53" t="s">
-        <v>39</v>
+        <f>W31</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="56">
+        <f>W10/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="Z10" s="7"/>
       <c r="AD10" s="7"/>
@@ -5315,42 +5374,42 @@
     <row r="11" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4"/>
       <c r="P11" s="50" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="51">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>Q32</f>
+        <v>0</v>
       </c>
       <c r="R11" s="52">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>Q11/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S11" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="58">
-        <f t="shared" si="5"/>
+        <f>S32</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="56">
+        <f>S11/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U11" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="58">
-        <f t="shared" si="7"/>
+        <f>U32</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="56">
+        <f>U11/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W11" s="51">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X11" s="58">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Y11" s="53" t="s">
-        <v>39</v>
+        <f>W32</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="56">
+        <f>W11/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="Z11" s="7"/>
       <c r="AD11" s="7"/>
@@ -5362,41 +5421,41 @@
     <row r="12" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="4"/>
       <c r="P12" s="50" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="51">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>Q33</f>
+        <v>0</v>
       </c>
       <c r="R12" s="52">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>Q12/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S12" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="58">
-        <f t="shared" si="5"/>
+        <f>S33</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="56">
+        <f>S12/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U12" s="51">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="V12" s="58">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>U33</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="56">
+        <f>U12/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="W12" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="53" t="s">
+        <f>W33</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="56">
+        <f>W12/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Z12" s="7"/>
@@ -5409,42 +5468,42 @@
     <row r="13" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="4"/>
       <c r="P13" s="50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="51">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>Q34</f>
+        <v>0</v>
       </c>
       <c r="R13" s="52">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>Q13/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S13" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="58">
-        <f t="shared" si="5"/>
+        <f>S34</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="56">
+        <f>S13/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U13" s="51">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="V13" s="58">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>U34</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="56">
+        <f>U13/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="W13" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="53" t="s">
-        <v>34</v>
+        <f>W34</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="56">
+        <f>W13/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AD13" s="7"/>
@@ -5456,42 +5515,42 @@
     <row r="14" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
       <c r="P14" s="50" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="51">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>Q35</f>
+        <v>0</v>
       </c>
       <c r="R14" s="52">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>Q14/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S14" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="58">
-        <f t="shared" si="5"/>
+        <f>S35</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="56">
+        <f>S14/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U14" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="58">
-        <f t="shared" si="7"/>
+        <f>U35</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="56">
+        <f>U14/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W14" s="51">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X14" s="58">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Y14" s="53" t="s">
-        <v>39</v>
+        <f>W35</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="56">
+        <f>W14/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="Z14" s="7"/>
       <c r="AD14" s="7"/>
@@ -5503,41 +5562,41 @@
     <row r="15" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="4"/>
       <c r="P15" s="50" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q15" s="51">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>Q36</f>
+        <v>0</v>
       </c>
       <c r="R15" s="52">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>Q15/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S15" s="51">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="58">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>S36</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="56">
+        <f>S15/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="U15" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="58">
-        <f t="shared" si="7"/>
+        <f>U36</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="56">
+        <f>U15/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W15" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="53" t="s">
+        <f>W36</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="56">
+        <f>W15/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>57</v>
       </c>
       <c r="Z15" s="7"/>
@@ -5550,42 +5609,42 @@
     <row r="16" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="4"/>
       <c r="P16" s="50" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="51">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>Q37</f>
+        <v>0</v>
       </c>
       <c r="R16" s="52">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>Q16/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S16" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="58">
-        <f t="shared" si="5"/>
+        <f>S37</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="56">
+        <f>S16/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U16" s="51">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="V16" s="58">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f>U37</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="56">
+        <f>U16/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="W16" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="53" t="s">
-        <v>34</v>
+        <f>W37</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="56">
+        <f>W16/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="Z16" s="7"/>
       <c r="AD16" s="7"/>
@@ -5597,42 +5656,42 @@
     <row r="17" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="4"/>
       <c r="P17" s="50" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="51">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>Q38</f>
+        <v>0</v>
       </c>
       <c r="R17" s="52">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>Q17/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S17" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="58">
-        <f t="shared" si="5"/>
+        <f>S38</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="56">
+        <f>S17/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U17" s="51">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="V17" s="58">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>U38</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="56">
+        <f>U17/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="W17" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="53" t="s">
-        <v>39</v>
+        <f>W38</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="56">
+        <f>W17/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="Z17" s="7"/>
       <c r="AD17" s="7"/>
@@ -5644,42 +5703,42 @@
     <row r="18" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="4"/>
       <c r="P18" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q18" s="51">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>163</v>
+      </c>
+      <c r="Q18" s="60">
+        <f>Q39</f>
+        <v>0</v>
       </c>
       <c r="R18" s="52">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S18" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="51">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X18" s="58">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Y18" s="53" t="s">
-        <v>39</v>
+        <f>Q18/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="60">
+        <f>S39</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="60">
+        <f>S18/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="60">
+        <f>U39</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="61">
+        <f>U18/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="60">
+        <f>W39</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="60">
+        <f>W18/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="Z18" s="7"/>
       <c r="AD18" s="7"/>
@@ -5691,42 +5750,42 @@
     <row r="19" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="4"/>
       <c r="P19" s="50" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="51">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>Q40</f>
+        <v>0</v>
       </c>
       <c r="R19" s="52">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>Q19/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S19" s="51">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T19" s="58">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>S40</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="56">
+        <f>S19/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="U19" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="58">
-        <f t="shared" si="7"/>
+        <f>U40</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="56">
+        <f>U19/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W19" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="53" t="s">
-        <v>57</v>
+        <f>W40</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="56">
+        <f>W19/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="Z19" s="7"/>
       <c r="AD19" s="7"/>
@@ -5738,42 +5797,42 @@
     <row r="20" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="4"/>
       <c r="P20" s="50" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="51">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>Q41</f>
+        <v>0</v>
       </c>
       <c r="R20" s="52">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>Q20/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S20" s="51">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T20" s="58">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>S41</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="56">
+        <f>S20/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="U20" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="58">
-        <f t="shared" si="7"/>
+        <f>U41</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="56">
+        <f>U20/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W20" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="53" t="s">
-        <v>57</v>
+        <f>W41</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="56">
+        <f>W20/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="Z20" s="7"/>
       <c r="AD20" s="7"/>
@@ -5785,41 +5844,41 @@
     <row r="21" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="4"/>
       <c r="P21" s="50" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="Q21" s="51">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>Q42</f>
+        <v>0</v>
       </c>
       <c r="R21" s="52">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>Q21/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S21" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="58">
-        <f t="shared" si="5"/>
+        <f>S42</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="56">
+        <f>S21/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U21" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="58">
-        <f t="shared" si="7"/>
+        <f>U42</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="56">
+        <f>U21/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W21" s="51">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X21" s="58">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Y21" s="53" t="s">
+        <f>W42</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="56">
+        <f>W21/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="Z21" s="7"/>
@@ -5830,43 +5889,43 @@
       <c r="AL21" s="11"/>
     </row>
     <row r="22" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P22" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q22" s="55">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R22" s="56">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="55">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T22" s="58">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U22" s="55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="55">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="57" t="s">
-        <v>57</v>
+      <c r="P22" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="54">
+        <f>Q43</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="55">
+        <f>Q22/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="54">
+        <f>S43</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="56">
+        <f>S22/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="54">
+        <f>U43</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="56">
+        <f>U22/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="54">
+        <f>W43</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="56">
+        <f>W22/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="Z22" s="7"/>
       <c r="AD22" s="7"/>
@@ -5876,8 +5935,44 @@
       <c r="AL22" s="11"/>
     </row>
     <row r="23" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R23" s="7"/>
-      <c r="V23" s="7"/>
+      <c r="P23" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" s="54">
+        <f>Q44</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="55">
+        <f>Q23/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="54">
+        <f>S44</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="63">
+        <f>S23/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="54">
+        <f>U44</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="63">
+        <f>U23/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="54">
+        <f>W44</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="63">
+        <f>W23/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Z23" s="7"/>
       <c r="AD23" s="7"/>
       <c r="AH23" s="7"/>
@@ -5898,7 +5993,7 @@
     <row r="25" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P26" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -5910,7 +6005,7 @@
     <row r="28" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -5949,7 +6044,7 @@
     <row r="29" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H29" s="5"/>
       <c r="I29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N29" s="43"/>
       <c r="O29" s="43"/>
@@ -5958,100 +6053,100 @@
       </c>
       <c r="Q29" s="44">
         <f>'1804'!R3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="29">
-        <f t="shared" ref="R29:R43" si="10">Q29/$Q$5</f>
-        <v>1</v>
+        <f t="shared" ref="R29:R43" si="2">Q29/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="S29" s="27">
         <f>'1804'!S3</f>
         <v>0</v>
       </c>
       <c r="T29" s="28">
-        <f t="shared" ref="T29:T43" si="11">S29/$Q$5</f>
+        <f t="shared" ref="T29:T43" si="3">S29/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U29" s="27">
         <f>'1804'!T3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="28">
-        <f t="shared" ref="V29:V43" si="12">U29/$Q$5</f>
-        <v>1</v>
+        <f t="shared" ref="V29:V43" si="4">U29/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="W29" s="27">
         <f>'1804'!U3</f>
         <v>0</v>
       </c>
       <c r="X29" s="28">
-        <f t="shared" ref="X29:X43" si="13">W29/$Q$5</f>
+        <f t="shared" ref="X29:X43" si="5">W29/$Q$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H30" s="5"/>
       <c r="I30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P30" s="30" t="s">
         <v>59</v>
       </c>
       <c r="Q30" s="44">
         <f>'1804'!R4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S30" s="27">
         <f>'1804'!S4</f>
         <v>0</v>
       </c>
       <c r="T30" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U30" s="27">
         <f>'1804'!T4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="28">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="W30" s="27">
         <f>'1804'!U4</f>
         <v>0</v>
       </c>
       <c r="X30" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H31" s="5"/>
       <c r="I31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P31" s="30" t="s">
         <v>62</v>
       </c>
       <c r="Q31" s="44">
         <f>'1804'!R5</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="29">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S31" s="27">
         <f>'1804'!S5</f>
         <v>0</v>
       </c>
       <c r="T31" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U31" s="27">
@@ -6059,21 +6154,21 @@
         <v>0</v>
       </c>
       <c r="V31" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W31" s="27">
         <f>'1804'!U5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="28">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N32" s="42"/>
       <c r="P32" s="30" t="s">
@@ -6081,18 +6176,18 @@
       </c>
       <c r="Q32" s="44">
         <f>'1804'!R6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="29">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S32" s="27">
         <f>'1804'!S6</f>
         <v>0</v>
       </c>
       <c r="T32" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U32" s="27">
@@ -6100,119 +6195,119 @@
         <v>0</v>
       </c>
       <c r="V32" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W32" s="27">
         <f>'1804'!U6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" s="28">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P33" s="30" t="s">
         <v>68</v>
       </c>
       <c r="Q33" s="44">
         <f>'1804'!R7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S33" s="27">
         <f>'1804'!S7</f>
         <v>0</v>
       </c>
       <c r="T33" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U33" s="27">
         <f>'1804'!T7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="28">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="W33" s="27">
         <f>'1804'!U7</f>
         <v>0</v>
       </c>
       <c r="X33" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P34" s="30" t="s">
         <v>71</v>
       </c>
       <c r="Q34" s="44">
         <f>'1804'!R8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S34" s="27">
         <f>'1804'!S8</f>
         <v>0</v>
       </c>
       <c r="T34" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U34" s="27">
         <f>'1804'!T8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="28">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="W34" s="27">
         <f>'1804'!U8</f>
         <v>0</v>
       </c>
       <c r="X34" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P35" s="30" t="s">
         <v>75</v>
       </c>
       <c r="Q35" s="44">
         <f>'1804'!R9</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" s="29">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S35" s="27">
         <f>'1804'!S9</f>
         <v>0</v>
       </c>
       <c r="T35" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U35" s="27">
@@ -6220,47 +6315,47 @@
         <v>0</v>
       </c>
       <c r="V35" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W35" s="27">
         <f>'1804'!U9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="28">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P36" s="30" t="s">
         <v>78</v>
       </c>
       <c r="Q36" s="44">
         <f>'1804'!R10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S36" s="27">
         <f>'1804'!S10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="28">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="U36" s="27">
         <f>'1804'!T10</f>
         <v>0</v>
       </c>
       <c r="V36" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W36" s="27">
@@ -6268,87 +6363,87 @@
         <v>0</v>
       </c>
       <c r="X36" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P37" s="30" t="s">
         <v>80</v>
       </c>
       <c r="Q37" s="44">
         <f>'1804'!R11</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R37" s="29">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S37" s="27">
         <f>'1804'!S11</f>
         <v>0</v>
       </c>
       <c r="T37" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U37" s="27">
         <f>'1804'!T11</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V37" s="28">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="W37" s="27">
         <f>'1804'!U11</f>
         <v>0</v>
       </c>
       <c r="X37" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P38" s="30" t="s">
         <v>81</v>
       </c>
       <c r="Q38" s="44">
         <f>'1804'!R12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S38" s="27">
         <f>'1804'!S12</f>
         <v>0</v>
       </c>
       <c r="T38" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U38" s="27">
         <f>'1804'!T12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="28">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="W38" s="27">
         <f>'1804'!U12</f>
         <v>0</v>
       </c>
       <c r="X38" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6358,18 +6453,18 @@
       </c>
       <c r="Q39" s="44">
         <f>'1804'!R13</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R39" s="29">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S39" s="27">
         <f>'1804'!S13</f>
         <v>0</v>
       </c>
       <c r="T39" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U39" s="27">
@@ -6377,16 +6472,16 @@
         <v>0</v>
       </c>
       <c r="V39" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W39" s="27">
         <f>'1804'!U13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="28">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
@@ -6397,26 +6492,26 @@
       </c>
       <c r="Q40" s="44">
         <f>'1804'!R14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S40" s="27">
         <f>'1804'!S14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="28">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="U40" s="27">
         <f>'1804'!T14</f>
         <v>0</v>
       </c>
       <c r="V40" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W40" s="27">
@@ -6424,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6434,26 +6529,26 @@
       </c>
       <c r="Q41" s="44">
         <f>'1804'!R15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S41" s="27">
         <f>'1804'!S15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="28">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="U41" s="27">
         <f>'1804'!T15</f>
         <v>0</v>
       </c>
       <c r="V41" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W41" s="27">
@@ -6461,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6471,18 +6566,18 @@
       </c>
       <c r="Q42" s="44">
         <f>'1804'!R16</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R42" s="29">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S42" s="27">
         <f>'1804'!S16</f>
         <v>0</v>
       </c>
       <c r="T42" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U42" s="27">
@@ -6490,16 +6585,16 @@
         <v>0</v>
       </c>
       <c r="V42" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W42" s="27">
         <f>'1804'!U16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="28">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -6508,26 +6603,26 @@
       </c>
       <c r="Q43" s="44">
         <f>'1804'!R17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S43" s="27">
         <f>'1804'!S17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="28">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="U43" s="27">
         <f>'1804'!T17</f>
         <v>0</v>
       </c>
       <c r="V43" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W43" s="27">
@@ -6535,17 +6630,46 @@
         <v>0</v>
       </c>
       <c r="X43" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="14"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="15"/>
+      <c r="P44" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q44" s="44">
+        <f>'1804'!R18</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="29">
+        <f t="shared" ref="R44" si="6">Q44/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="27">
+        <f>'1804'!S18</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="28">
+        <f t="shared" ref="T44" si="7">S44/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="27">
+        <f>'1804'!T18</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="28">
+        <f t="shared" ref="V44" si="8">U44/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="27">
+        <f>'1804'!U18</f>
+        <v>0</v>
+      </c>
+      <c r="X44" s="28">
+        <f t="shared" ref="X44" si="9">W44/$Q$5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -7619,7 +7743,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7630,7 +7754,7 @@
     <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>100</v>
@@ -7671,16 +7795,16 @@
         <v>78</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>103</v>
@@ -7689,10 +7813,10 @@
         <v>104</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>103</v>
@@ -7701,10 +7825,10 @@
         <v>104</v>
       </c>
       <c r="X3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -7714,51 +7838,51 @@
       </c>
       <c r="B4" s="16">
         <f>'1804'!L3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="16">
         <f>'1804'!M3</f>
-        <v>6</v>
-      </c>
-      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="e">
         <f>'1804'!O3</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J4" s="17"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="60"/>
+      <c r="O4" s="58"/>
       <c r="Q4" s="17">
         <f>COUNTIF('1804'!W4:W26,"LG/WW")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" s="17">
         <f>COUNTIF('1804'!X4:X26,"WW/LG")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="V4" s="17">
         <f>COUNTIF('1804'!W4:W26,"LG/5M")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W4" s="17">
         <f>COUNTIF('1804'!Y4:Y26,"5M/LG")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
@@ -7769,11 +7893,11 @@
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="60"/>
+      <c r="O5" s="58"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
@@ -7789,15 +7913,15 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="18"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="60"/>
+      <c r="O6" s="58"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
@@ -7813,7 +7937,7 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="G7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="18"/>
       <c r="J7" s="17"/>
@@ -7821,7 +7945,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="60"/>
+      <c r="O7" s="58"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
@@ -7837,7 +7961,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="G8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="18"/>
       <c r="J8" s="17"/>
@@ -7845,7 +7969,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="60"/>
+      <c r="O8" s="58"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
@@ -7861,7 +7985,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="G9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="18"/>
       <c r="J9" s="17"/>
@@ -7869,7 +7993,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="60"/>
+      <c r="O9" s="58"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
@@ -7885,7 +8009,7 @@
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="G10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="18"/>
       <c r="J10" s="17"/>
@@ -7893,7 +8017,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="60"/>
+      <c r="O10" s="58"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
@@ -7909,7 +8033,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="G11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="18"/>
       <c r="J11" s="17"/>
@@ -7933,7 +8057,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="G12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H12" s="18"/>
       <c r="J12" s="17"/>
@@ -7957,7 +8081,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="G13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" s="18"/>
       <c r="J13" s="17"/>
@@ -8289,38 +8413,38 @@
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
       <c r="P30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="17">
         <f t="shared" ref="Q30:R30" si="1">SUM(Q4:Q29)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="V30" s="17">
         <f t="shared" ref="V30:W30" si="2">SUM(V4:V29)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W30" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
     </row>
     <row r="31" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I31" s="1"/>
-      <c r="Q31" s="22">
+      <c r="Q31" s="22" t="e">
         <f>Q30/(R30+Q30)</f>
-        <v>0.5</v>
-      </c>
-      <c r="V31" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" s="22" t="e">
         <f>V30/(W30+V30)</f>
-        <v>0.33333333333333331</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9310,10 +9434,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9322,22 +9446,22 @@
     <col min="33" max="16384" width="14.3984375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="Q2" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="V2" s="24" t="s">
+      <c r="P2" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" s="24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
         <v>84</v>
       </c>
@@ -9360,155 +9484,149 @@
         <v>107</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="L3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>104</v>
       </c>
       <c r="S3" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="T3" s="24" t="s">
-        <v>111</v>
+      <c r="U3" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="V3" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W3" s="24" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="str">
         <f>'1804'!C2</f>
         <v>Insert Date Here</v>
       </c>
       <c r="B4" s="16">
         <f>'1804'!L5</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" s="16">
         <f>'1804'!M5</f>
-        <v>5</v>
-      </c>
-      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="e">
         <f>'1804'!O5</f>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F4" s="24">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="24">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J4" s="17"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="60"/>
+      <c r="P4" s="17">
+        <f>COUNTIF('1804'!X4:X26,"WW/LG")</f>
+        <v>0</v>
+      </c>
       <c r="Q4" s="17">
-        <f>COUNTIF('1804'!X4:X26,"WW/LG")</f>
-        <v>2</v>
-      </c>
-      <c r="R4" s="17">
         <f>COUNTIF('1804'!W4:W26,"LG/WW")</f>
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R4" s="17"/>
       <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="U4" s="17">
+        <f>COUNTIF('1804'!X4:X26,"WW/5M")</f>
+        <v>0</v>
+      </c>
       <c r="V4" s="17">
-        <f>COUNTIF('1804'!X4:X26,"WW/5M")</f>
-        <v>3</v>
-      </c>
-      <c r="W4" s="17">
         <f>COUNTIF('1804'!Y4:Y26,"5M/WW")</f>
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W4" s="17"/>
       <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-    </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="60"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
       <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-    </row>
-    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="G6" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="18"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="60"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-    </row>
-    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="G7" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="18"/>
       <c r="J7" s="17"/>
@@ -9516,23 +9634,22 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="60"/>
+      <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-    </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="G8" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="18"/>
       <c r="J8" s="17"/>
@@ -9540,23 +9657,22 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="60"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-    </row>
-    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="G9" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="18"/>
       <c r="J9" s="17"/>
@@ -9564,23 +9680,22 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="60"/>
+      <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-    </row>
-    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="G10" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="18"/>
       <c r="J10" s="17"/>
@@ -9588,23 +9703,22 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="60"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-    </row>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="G11" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="18"/>
       <c r="J11" s="17"/>
@@ -9612,23 +9726,22 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-    </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="G12" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H12" s="18"/>
       <c r="J12" s="17"/>
@@ -9636,23 +9749,22 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-    </row>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="G13" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" s="18"/>
       <c r="J13" s="17"/>
@@ -9660,17 +9772,16 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-    </row>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -9680,17 +9791,16 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-    </row>
-    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -9700,17 +9810,16 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-    </row>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -9720,17 +9829,16 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-    </row>
-    <row r="17" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -9740,17 +9848,16 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-    </row>
-    <row r="18" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -9760,17 +9867,16 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-    </row>
-    <row r="19" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -9780,17 +9886,16 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-    </row>
-    <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -9800,17 +9905,16 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-    </row>
-    <row r="21" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -9820,33 +9924,31 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-    </row>
-    <row r="22" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-    </row>
-    <row r="23" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    </row>
+    <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -9858,17 +9960,16 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-    </row>
-    <row r="24" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    </row>
+    <row r="24" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -9880,17 +9981,16 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-    </row>
-    <row r="25" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    </row>
+    <row r="25" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -9902,123 +10002,117 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
       <c r="V25" s="17"/>
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-    </row>
-    <row r="26" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
       <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-    </row>
-    <row r="27" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
       <c r="V27" s="17"/>
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-    </row>
-    <row r="28" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
       <c r="V28" s="17"/>
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-    </row>
-    <row r="29" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
       <c r="V29" s="17"/>
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-    </row>
-    <row r="30" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="24" t="s">
-        <v>120</v>
+      <c r="O30" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="P30" s="17">
+        <f t="shared" ref="P30:Q30" si="1">SUM(P4:P29)</f>
+        <v>0</v>
       </c>
       <c r="Q30" s="17">
-        <f t="shared" ref="Q30:R30" si="1">SUM(Q4:Q29)</f>
-        <v>2</v>
-      </c>
-      <c r="R30" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R30" s="17"/>
       <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
+      <c r="U30" s="17">
+        <f t="shared" ref="U30:V30" si="2">SUM(U4:U29)</f>
+        <v>0</v>
+      </c>
       <c r="V30" s="17">
-        <f t="shared" ref="V30:W30" si="2">SUM(V4:V29)</f>
-        <v>3</v>
-      </c>
-      <c r="W30" s="17">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W30" s="17"/>
       <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-    </row>
-    <row r="31" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I31" s="24"/>
-      <c r="Q31" s="22">
-        <f>Q30/(R30+Q30)</f>
-        <v>0.5</v>
-      </c>
-      <c r="V31" s="22">
-        <f>V30/(W30+V30)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P31" s="22" t="e">
+        <f>P30/(Q30+P30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="22" t="e">
+        <f>U30/(V30+U30)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
@@ -11005,10 +11099,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11017,22 +11111,22 @@
     <col min="33" max="16384" width="14.3984375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="Q2" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="V2" s="24" t="s">
+      <c r="P2" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
         <v>84</v>
       </c>
@@ -11055,155 +11149,149 @@
         <v>107</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="L3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>104</v>
       </c>
       <c r="S3" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="T3" s="24" t="s">
-        <v>111</v>
+      <c r="U3" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="V3" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W3" s="24" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="str">
         <f>'1804'!C2</f>
         <v>Insert Date Here</v>
       </c>
       <c r="B4" s="16">
         <f>'1804'!L4</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4" s="16">
         <f>'1804'!M4</f>
-        <v>5</v>
-      </c>
-      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="e">
         <f>'1804'!O4</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F4" s="24">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G4" s="24">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J4" s="17"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="60"/>
+      <c r="P4" s="17">
+        <f>COUNTIF('1804'!Y4:Y26,"5M/LG")</f>
+        <v>0</v>
+      </c>
       <c r="Q4" s="17">
-        <f>COUNTIF('1804'!Y4:Y26,"5M/LG")</f>
-        <v>4</v>
-      </c>
-      <c r="R4" s="17">
         <f>COUNTIF('1804'!W4:W26,"LG/WW")</f>
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R4" s="17"/>
       <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="U4" s="17">
+        <f>COUNTIF('1804'!Y4:Y26,"5M/WW")</f>
+        <v>0</v>
+      </c>
       <c r="V4" s="17">
-        <f>COUNTIF('1804'!Y4:Y26,"5M/WW")</f>
-        <v>3</v>
-      </c>
-      <c r="W4" s="17">
         <f>COUNTIF('1804'!X4:X26,"WW/5M")</f>
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W4" s="17"/>
       <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-    </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="60"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
       <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-    </row>
-    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="G6" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="18"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="60"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-    </row>
-    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="G7" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="18"/>
       <c r="J7" s="17"/>
@@ -11211,23 +11299,22 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="60"/>
+      <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-    </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="G8" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="18"/>
       <c r="J8" s="17"/>
@@ -11235,23 +11322,22 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="60"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-    </row>
-    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="G9" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="18"/>
       <c r="J9" s="17"/>
@@ -11259,23 +11345,22 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="60"/>
+      <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-    </row>
-    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="G10" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="18"/>
       <c r="J10" s="17"/>
@@ -11283,23 +11368,22 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="60"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-    </row>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="G11" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="18"/>
       <c r="J11" s="17"/>
@@ -11307,23 +11391,22 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-    </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="G12" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H12" s="18"/>
       <c r="J12" s="17"/>
@@ -11331,23 +11414,22 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-    </row>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="G13" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" s="18"/>
       <c r="J13" s="17"/>
@@ -11355,17 +11437,16 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-    </row>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11375,17 +11456,16 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-    </row>
-    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11395,17 +11475,16 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-    </row>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11415,17 +11494,16 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-    </row>
-    <row r="17" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -11435,17 +11513,16 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-    </row>
-    <row r="18" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -11455,17 +11532,16 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-    </row>
-    <row r="19" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -11475,17 +11551,16 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-    </row>
-    <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -11495,17 +11570,16 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-    </row>
-    <row r="21" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -11515,33 +11589,31 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-    </row>
-    <row r="22" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-    </row>
-    <row r="23" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    </row>
+    <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -11553,17 +11625,16 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-    </row>
-    <row r="24" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    </row>
+    <row r="24" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -11575,17 +11646,16 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-    </row>
-    <row r="25" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    </row>
+    <row r="25" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -11597,131 +11667,124 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
       <c r="V25" s="17"/>
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-    </row>
-    <row r="26" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
       <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-    </row>
-    <row r="27" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
       <c r="V27" s="17"/>
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-    </row>
-    <row r="28" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
       <c r="V28" s="17"/>
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-    </row>
-    <row r="29" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
       <c r="V29" s="17"/>
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-    </row>
-    <row r="30" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="24" t="s">
-        <v>120</v>
+      <c r="O30" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="P30" s="17">
+        <f t="shared" ref="P30:Q30" si="1">SUM(P4:P29)</f>
+        <v>0</v>
       </c>
       <c r="Q30" s="17">
-        <f t="shared" ref="Q30:R30" si="1">SUM(Q4:Q29)</f>
-        <v>4</v>
-      </c>
-      <c r="R30" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R30" s="17"/>
       <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
+      <c r="U30" s="17">
+        <f t="shared" ref="U30:V30" si="2">SUM(U4:U29)</f>
+        <v>0</v>
+      </c>
       <c r="V30" s="17">
-        <f t="shared" ref="V30:W30" si="2">SUM(V4:V29)</f>
-        <v>3</v>
-      </c>
-      <c r="W30" s="17">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W30" s="17"/>
       <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-    </row>
-    <row r="31" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I31" s="24"/>
-      <c r="Q31" s="22">
-        <f>Q30/(R30+Q30)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="V31" s="22">
-        <f>V30/(W30+V30)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P31" s="22" t="e">
+        <f>P30/(Q30+P30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="22" t="e">
+        <f>U30/(V30+U30)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="V32" s="22"/>
+      <c r="U32" s="22"/>
     </row>
     <row r="33" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="34" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12703,7 +12766,7 @@
   <dimension ref="B1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12720,13 +12783,13 @@
     <row r="1" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>103</v>
@@ -12750,39 +12813,39 @@
         <v>9</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="G3" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="I3" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="L3" s="1">
         <f>COUNTIF(C3:C30, "Loose Gooses")</f>
@@ -12804,42 +12867,42 @@
         <v>33</v>
       </c>
       <c r="R3" s="19">
-        <f t="shared" ref="R3:R17" si="1">COUNTIF($E$3:$E$27, Q3)+U3</f>
+        <f t="shared" ref="R3:R18" si="1">COUNTIF($E$3:$E$27, Q3)+U3</f>
         <v>0</v>
       </c>
       <c r="S3" s="20">
-        <f t="shared" ref="S3:S17" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
+        <f t="shared" ref="S3:S18" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
         <v>0</v>
       </c>
       <c r="T3" s="20">
-        <f t="shared" ref="T3:T17" si="3">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" ref="T3:T18" si="3">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="U3" s="20">
-        <f t="shared" ref="U3:U17" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" ref="U3:U18" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
         <v>0</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="K4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L4" s="1">
         <f>COUNTIF(C3:C30, "5 Musketeers")</f>
@@ -12890,15 +12953,15 @@
       </c>
     </row>
     <row r="5" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
       <c r="K5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L5" s="1">
         <f>COUNTIF(C3:C30, "Wet Willies")</f>
@@ -12949,13 +13012,13 @@
       </c>
     </row>
     <row r="6" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
       <c r="Q6" s="3" t="s">
         <v>44</v>
       </c>
@@ -12989,13 +13052,13 @@
       </c>
     </row>
     <row r="7" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
       <c r="Q7" s="3" t="s">
         <v>46</v>
       </c>
@@ -13029,13 +13092,13 @@
       </c>
     </row>
     <row r="8" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
       <c r="Q8" s="3" t="s">
         <v>51</v>
       </c>
@@ -13069,13 +13132,13 @@
       </c>
     </row>
     <row r="9" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
       <c r="Q9" s="3" t="s">
         <v>53</v>
       </c>
@@ -13109,13 +13172,13 @@
       </c>
     </row>
     <row r="10" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
       <c r="Q10" s="3" t="s">
         <v>56</v>
       </c>
@@ -13149,13 +13212,13 @@
       </c>
     </row>
     <row r="11" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
       <c r="Q11" s="3" t="s">
         <v>60</v>
       </c>
@@ -13189,13 +13252,13 @@
       </c>
     </row>
     <row r="12" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
       <c r="Q12" s="3" t="s">
         <v>63</v>
       </c>
@@ -13229,15 +13292,15 @@
       </c>
     </row>
     <row r="13" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
       <c r="Q13" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="1"/>
@@ -13269,15 +13332,15 @@
       </c>
     </row>
     <row r="14" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
       <c r="Q14" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="1"/>
@@ -13309,13 +13372,13 @@
       </c>
     </row>
     <row r="15" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
       <c r="Q15" s="3" t="s">
         <v>72</v>
       </c>
@@ -13349,13 +13412,13 @@
       </c>
     </row>
     <row r="16" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
       <c r="Q16" s="3" t="s">
         <v>76</v>
       </c>
@@ -13389,13 +13452,13 @@
       </c>
     </row>
     <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
       <c r="Q17" s="3" t="s">
         <v>79</v>
       </c>
@@ -13429,16 +13492,32 @@
       </c>
     </row>
     <row r="18" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="Q18" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="R18" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="W18" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -13453,13 +13532,13 @@
       </c>
     </row>
     <row r="19" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
@@ -13525,7 +13604,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="Q23" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W23" s="24" t="str">
         <f t="shared" si="5"/>
@@ -13575,7 +13654,7 @@
         <v>9</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>85</v>
@@ -13913,7 +13992,7 @@
     </row>
     <row r="40" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R40" s="19">
-        <f t="shared" ref="R40:U40" si="22">R17</f>
+        <f t="shared" ref="R40:U41" si="22">R17</f>
         <v>0</v>
       </c>
       <c r="S40" s="19">
@@ -13929,7 +14008,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R41" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="42" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="44" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -14900,7 +14996,7 @@
   <dimension ref="B1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="B4" sqref="B4:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -14918,13 +15014,13 @@
     <row r="1" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>103</v>
@@ -14948,136 +15044,119 @@
         <v>9</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="G3" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="I3" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>135</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>136</v>
       </c>
       <c r="L3" s="24">
         <f>COUNTIF(C3:C30, "Loose Gooses")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M3" s="24">
         <f>COUNTIF(D3:D30, "Loose Gooses")</f>
-        <v>6</v>
-      </c>
-      <c r="N3" s="23">
+        <v>0</v>
+      </c>
+      <c r="N3" s="23" t="e">
         <f t="shared" ref="N3:N5" si="0">L3/(L3+M3)</f>
-        <v>0.4</v>
-      </c>
-      <c r="O3" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="24" t="e">
         <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="19">
-        <f t="shared" ref="R3:R17" si="1">COUNTIF($E$3:$E$27, Q3)+U3</f>
-        <v>1</v>
+        <f t="shared" ref="R3:R18" si="1">COUNTIF($E$3:$E$27, Q3)+U3</f>
+        <v>0</v>
       </c>
       <c r="S3" s="20">
-        <f t="shared" ref="S3:S17" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
+        <f t="shared" ref="S3:S18" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
         <v>0</v>
       </c>
       <c r="T3" s="20">
-        <f t="shared" ref="T3:T17" si="3">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
-        <v>1</v>
+        <f t="shared" ref="T3:T18" si="3">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
+        <v>0</v>
       </c>
       <c r="U3" s="20">
-        <f t="shared" ref="U3:U17" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" ref="U3:U18" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
         <v>0</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="59">
-        <v>1</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="59">
-        <v>1</v>
-      </c>
-      <c r="H4" s="59">
-        <v>1</v>
-      </c>
-      <c r="I4" s="40">
-        <v>1</v>
-      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="K4" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L4" s="24">
         <f>COUNTIF(C3:C30, "5 Musketeers")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" s="24">
         <f>COUNTIF(D3:D30, "5 Musketeers")</f>
-        <v>5</v>
-      </c>
-      <c r="N4" s="23">
+        <v>0</v>
+      </c>
+      <c r="N4" s="23" t="e">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="O4" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="24" t="e">
         <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" si="2"/>
@@ -15085,7 +15164,7 @@
       </c>
       <c r="T4" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="20">
         <f t="shared" si="4"/>
@@ -15093,7 +15172,7 @@
       </c>
       <c r="W4" s="24" t="str">
         <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="X4" s="24" t="str">
         <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
@@ -15105,55 +15184,38 @@
       </c>
     </row>
     <row r="5" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="59">
-        <v>2</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="59">
-        <v>2</v>
-      </c>
-      <c r="H5" s="59">
-        <v>1</v>
-      </c>
-      <c r="I5" s="40">
-        <v>1</v>
-      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
       <c r="K5" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L5" s="24">
         <f>COUNTIF(C3:C30, "Wet Willies")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M5" s="24">
         <f>COUNTIF(D3:D30, "Wet Willies")</f>
-        <v>5</v>
-      </c>
-      <c r="N5" s="23">
+        <v>0</v>
+      </c>
+      <c r="N5" s="23" t="e">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="24" t="e">
         <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="R5" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="2"/>
@@ -15165,11 +15227,11 @@
       </c>
       <c r="U5" s="20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="24" t="str">
         <f t="shared" ref="W5:W28" si="5">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", ""))</f>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="X5" s="24" t="str">
         <f t="shared" ref="X5:X28" si="6">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", ""))</f>
@@ -15181,36 +15243,19 @@
       </c>
     </row>
     <row r="6" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="59">
-        <v>3</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="59">
-        <v>3</v>
-      </c>
-      <c r="H6" s="59">
-        <v>2</v>
-      </c>
-      <c r="I6" s="40">
-        <v>1</v>
-      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
       <c r="Q6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="R6" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="2"/>
@@ -15222,11 +15267,11 @@
       </c>
       <c r="U6" s="20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="X6" s="24" t="str">
         <f t="shared" si="6"/>
@@ -15238,36 +15283,19 @@
       </c>
     </row>
     <row r="7" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="59">
-        <v>4</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="59">
-        <v>4</v>
-      </c>
-      <c r="H7" s="59">
-        <v>2</v>
-      </c>
-      <c r="I7" s="40">
-        <v>1</v>
-      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
       <c r="Q7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="2"/>
@@ -15275,7 +15303,7 @@
       </c>
       <c r="T7" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="20">
         <f t="shared" si="4"/>
@@ -15283,7 +15311,7 @@
       </c>
       <c r="W7" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="X7" s="24" t="str">
         <f t="shared" si="6"/>
@@ -15295,36 +15323,19 @@
       </c>
     </row>
     <row r="8" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="59">
-        <v>5</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="59">
-        <v>1</v>
-      </c>
-      <c r="H8" s="59">
-        <v>1</v>
-      </c>
-      <c r="I8" s="40">
-        <v>1</v>
-      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
       <c r="Q8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="2"/>
@@ -15332,7 +15343,7 @@
       </c>
       <c r="T8" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="20">
         <f t="shared" si="4"/>
@@ -15348,40 +15359,23 @@
       </c>
       <c r="Y8" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="59">
-        <v>6</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="59">
-        <v>2</v>
-      </c>
-      <c r="H9" s="59">
-        <v>3</v>
-      </c>
-      <c r="I9" s="40">
-        <v>1</v>
-      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
       <c r="Q9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="20">
         <f t="shared" si="2"/>
@@ -15393,7 +15387,7 @@
       </c>
       <c r="U9" s="20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="24" t="str">
         <f t="shared" si="5"/>
@@ -15405,44 +15399,27 @@
       </c>
       <c r="Y9" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="59">
-        <v>7</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="59">
-        <v>3</v>
-      </c>
-      <c r="H10" s="59">
-        <v>2</v>
-      </c>
-      <c r="I10" s="40">
-        <v>1</v>
-      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
       <c r="Q10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="20">
         <f t="shared" si="3"/>
@@ -15462,40 +15439,23 @@
       </c>
       <c r="Y10" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="59">
-        <v>8</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="59">
-        <v>4</v>
-      </c>
-      <c r="H11" s="59">
-        <v>4</v>
-      </c>
-      <c r="I11" s="40">
-        <v>1</v>
-      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
       <c r="Q11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="R11" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="2"/>
@@ -15503,7 +15463,7 @@
       </c>
       <c r="T11" s="20">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="20">
         <f t="shared" si="4"/>
@@ -15519,40 +15479,23 @@
       </c>
       <c r="Y11" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="59">
-        <v>9</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="59">
-        <v>5</v>
-      </c>
-      <c r="H12" s="59">
-        <v>3</v>
-      </c>
-      <c r="I12" s="40">
-        <v>1</v>
-      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
       <c r="Q12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="20">
         <f t="shared" si="2"/>
@@ -15560,7 +15503,7 @@
       </c>
       <c r="T12" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="20">
         <f t="shared" si="4"/>
@@ -15576,40 +15519,23 @@
       </c>
       <c r="Y12" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="59">
-        <v>10</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="59">
-        <v>6</v>
-      </c>
-      <c r="H13" s="59">
-        <v>5</v>
-      </c>
-      <c r="I13" s="40">
-        <v>1</v>
-      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
       <c r="Q13" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="2"/>
@@ -15621,7 +15547,7 @@
       </c>
       <c r="U13" s="20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="24" t="str">
         <f t="shared" si="5"/>
@@ -15633,44 +15559,27 @@
       </c>
       <c r="Y13" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="59">
-        <v>11</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="59">
-        <v>7</v>
-      </c>
-      <c r="H14" s="59">
-        <v>4</v>
-      </c>
-      <c r="I14" s="40">
-        <v>1</v>
-      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
       <c r="Q14" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="20">
         <f t="shared" si="3"/>
@@ -15690,44 +15599,27 @@
       </c>
       <c r="Y14" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="59">
-        <v>12</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="59">
-        <v>1</v>
-      </c>
-      <c r="H15" s="59">
-        <v>1</v>
-      </c>
-      <c r="I15" s="40">
-        <v>1</v>
-      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
       <c r="Q15" s="3" t="s">
         <v>72</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="20">
         <f t="shared" si="3"/>
@@ -15743,7 +15635,7 @@
       </c>
       <c r="X15" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Y15" s="24" t="str">
         <f t="shared" si="7"/>
@@ -15751,36 +15643,19 @@
       </c>
     </row>
     <row r="16" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="59">
-        <v>13</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="59">
-        <v>2</v>
-      </c>
-      <c r="H16" s="59">
-        <v>5</v>
-      </c>
-      <c r="I16" s="40">
-        <v>1</v>
-      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
       <c r="Q16" s="3" t="s">
         <v>76</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16" s="20">
         <f t="shared" si="2"/>
@@ -15792,7 +15667,7 @@
       </c>
       <c r="U16" s="20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="24" t="str">
         <f t="shared" si="5"/>
@@ -15800,7 +15675,7 @@
       </c>
       <c r="X16" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/LG</v>
+        <v/>
       </c>
       <c r="Y16" s="24" t="str">
         <f t="shared" si="7"/>
@@ -15808,40 +15683,23 @@
       </c>
     </row>
     <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="59">
-        <v>14</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="59">
-        <v>3</v>
-      </c>
-      <c r="H17" s="59">
-        <v>2</v>
-      </c>
-      <c r="I17" s="40">
-        <v>1</v>
-      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
       <c r="Q17" s="3" t="s">
         <v>79</v>
       </c>
       <c r="R17" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="20">
         <f t="shared" si="3"/>
@@ -15857,7 +15715,7 @@
       </c>
       <c r="X17" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Y17" s="24" t="str">
         <f t="shared" si="7"/>
@@ -15865,71 +15723,54 @@
       </c>
     </row>
     <row r="18" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="59">
-        <v>15</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="59">
-        <v>4</v>
-      </c>
-      <c r="H18" s="59">
-        <v>6</v>
-      </c>
-      <c r="I18" s="40">
-        <v>1</v>
-      </c>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="Q18" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="R18" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="W18" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X18" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/LG</v>
+        <v/>
       </c>
       <c r="Y18" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="59">
-        <v>16</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="59">
-        <v>5</v>
-      </c>
-      <c r="H19" s="59">
-        <v>3</v>
-      </c>
-      <c r="I19" s="40">
-        <v>1</v>
-      </c>
+    <row r="19" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
@@ -15939,14 +15780,16 @@
       </c>
       <c r="X19" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Y19" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="W20" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -15995,7 +15838,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="Q23" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W23" s="24" t="str">
         <f t="shared" si="5"/>
@@ -16045,7 +15888,7 @@
         <v>9</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>85</v>
@@ -16074,8 +15917,8 @@
         <v>Insert Date Here</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" ref="R26:U40" si="8">R3</f>
-        <v>1</v>
+        <f t="shared" ref="R26:U42" si="8">R3</f>
+        <v>0</v>
       </c>
       <c r="S26" s="19">
         <f t="shared" si="8"/>
@@ -16083,7 +15926,7 @@
       </c>
       <c r="T26" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="19">
         <f t="shared" si="8"/>
@@ -16110,7 +15953,7 @@
       <c r="I27" s="24"/>
       <c r="R27" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="19">
         <f t="shared" si="8"/>
@@ -16118,7 +15961,7 @@
       </c>
       <c r="T27" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="19">
         <f t="shared" si="8"/>
@@ -16145,7 +15988,7 @@
       <c r="I28" s="24"/>
       <c r="R28" s="19">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S28" s="19">
         <f t="shared" si="8"/>
@@ -16157,7 +16000,7 @@
       </c>
       <c r="U28" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="24" t="str">
         <f t="shared" si="5"/>
@@ -16180,7 +16023,7 @@
       <c r="I29" s="24"/>
       <c r="R29" s="19">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S29" s="19">
         <f t="shared" si="8"/>
@@ -16192,7 +16035,7 @@
       </c>
       <c r="U29" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -16203,7 +16046,7 @@
       <c r="I30" s="24"/>
       <c r="R30" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="19">
         <f t="shared" si="8"/>
@@ -16211,7 +16054,7 @@
       </c>
       <c r="T30" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="19">
         <f t="shared" si="8"/>
@@ -16221,7 +16064,7 @@
     <row r="31" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R31" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="19">
         <f t="shared" si="8"/>
@@ -16229,7 +16072,7 @@
       </c>
       <c r="T31" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="19">
         <f t="shared" si="8"/>
@@ -16239,7 +16082,7 @@
     <row r="32" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R32" s="19">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S32" s="19">
         <f t="shared" si="8"/>
@@ -16251,17 +16094,17 @@
       </c>
       <c r="U32" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R33" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="19">
         <f t="shared" si="8"/>
@@ -16275,7 +16118,7 @@
     <row r="34" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R34" s="19">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S34" s="19">
         <f t="shared" si="8"/>
@@ -16283,7 +16126,7 @@
       </c>
       <c r="T34" s="19">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U34" s="19">
         <f t="shared" si="8"/>
@@ -16293,7 +16136,7 @@
     <row r="35" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="19">
         <f t="shared" si="8"/>
@@ -16301,7 +16144,7 @@
       </c>
       <c r="T35" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="19">
         <f t="shared" si="8"/>
@@ -16311,7 +16154,7 @@
     <row r="36" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="19">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S36" s="19">
         <f t="shared" si="8"/>
@@ -16323,17 +16166,17 @@
       </c>
       <c r="U36" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="19">
         <f t="shared" si="8"/>
@@ -16347,11 +16190,11 @@
     <row r="38" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R38" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="19">
         <f t="shared" si="8"/>
@@ -16365,7 +16208,7 @@
     <row r="39" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R39" s="19">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S39" s="19">
         <f t="shared" si="8"/>
@@ -16377,17 +16220,17 @@
       </c>
       <c r="U39" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R40" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="19">
         <f t="shared" si="8"/>
@@ -16398,8 +16241,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R41" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+    </row>
     <row r="43" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="44" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="45" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A81EA7A-98F9-405B-B058-DA47E18C8347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF49FF12-A52E-4801-A230-D97A4DEEDAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="170">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -591,6 +591,12 @@
   <si>
     <t>Sam M</t>
   </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Willie/Michael</t>
+  </si>
 </sst>
 </file>
 
@@ -879,9 +885,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,13 +1476,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,7 +2862,7 @@
   <dimension ref="B1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3013,19 +3017,19 @@
       </c>
       <c r="D4" s="14">
         <f>'Stats Global'!R9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="24">
         <f>'Stats Global'!Q9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="14">
         <f>'Stats Global'!T9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="24">
         <f>'Stats Global'!S9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="14">
         <f>'Stats Global'!V9</f>
@@ -3067,27 +3071,27 @@
       </c>
       <c r="D5" s="14">
         <f>'Stats Global'!R10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="24">
         <f>'Stats Global'!Q10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="14">
         <f>'Stats Global'!T10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="24">
         <f>'Stats Global'!S10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="14">
         <f>'Stats Global'!V10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="24">
         <f>'Stats Global'!U10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="14">
         <f>'Stats Global'!X10</f>
@@ -3130,19 +3134,19 @@
       </c>
       <c r="D6" s="14">
         <f>'Stats Global'!R11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="24">
         <f>'Stats Global'!Q11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="14">
         <f>'Stats Global'!T11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="24">
         <f>'Stats Global'!S11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="14">
         <f>'Stats Global'!V11</f>
@@ -3193,19 +3197,19 @@
       </c>
       <c r="D7" s="14">
         <f>'Stats Global'!R12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="24">
         <f>'Stats Global'!Q12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="14">
         <f>'Stats Global'!T12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="24">
         <f>'Stats Global'!S12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="14">
         <f>'Stats Global'!V12</f>
@@ -3371,11 +3375,11 @@
       </c>
       <c r="D10" s="14">
         <f>'Stats Global'!R15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="24">
         <f>'Stats Global'!Q15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="14">
         <f>'Stats Global'!T15</f>
@@ -3387,11 +3391,11 @@
       </c>
       <c r="H10" s="14">
         <f>'Stats Global'!V15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="24">
         <f>'Stats Global'!U15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="14">
         <f>'Stats Global'!X15</f>
@@ -3434,27 +3438,27 @@
       </c>
       <c r="D11" s="14">
         <f>'Stats Global'!R16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="24">
         <f>'Stats Global'!Q16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="14">
         <f>'Stats Global'!T16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="24">
         <f>'Stats Global'!S16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="14">
         <f>'Stats Global'!V16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="24">
         <f>'Stats Global'!U16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="14">
         <f>'Stats Global'!X16</f>
@@ -3555,19 +3559,19 @@
       </c>
       <c r="D13" s="14">
         <f>'Stats Global'!R18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="24">
         <f>'Stats Global'!Q18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="14">
         <f>'Stats Global'!T18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="24">
         <f>'Stats Global'!S18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="14">
         <f>'Stats Global'!V18</f>
@@ -3672,19 +3676,19 @@
       </c>
       <c r="D15" s="14">
         <f>'Stats Global'!R20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="24">
         <f>'Stats Global'!Q20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="14">
         <f>'Stats Global'!T20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="24">
         <f>'Stats Global'!S20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="14">
         <f>'Stats Global'!V20</f>
@@ -3739,19 +3743,19 @@
       </c>
       <c r="D16" s="14">
         <f>'Stats Global'!R21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="24">
         <f>'Stats Global'!Q21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="14">
         <f>'Stats Global'!T21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="24">
         <f>'Stats Global'!S21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="14">
         <f>'Stats Global'!V21</f>
@@ -5107,25 +5111,25 @@
       </c>
     </row>
     <row r="5" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="36" t="str">
+      <c r="B5" s="36">
         <f>'1804'!C2</f>
-        <v>Insert Date Here</v>
+        <v>45034</v>
       </c>
       <c r="C5" s="3">
         <f>COUNT('1804'!B3:B30)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3">
         <f>MAX('1804'!L3:L5)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3">
         <f>C5-D5-F5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
         <f>MIN('1804'!L3:L5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>95</v>
@@ -5154,19 +5158,19 @@
       <c r="B6" s="4"/>
       <c r="I6" s="7">
         <f t="shared" ref="I6:L6" si="0">AVERAGE(C5:C30)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
@@ -5177,17 +5181,17 @@
       <c r="I7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="8" t="e">
+      <c r="J7" s="8">
         <f t="shared" ref="J7:L7" si="1">J6/$I$6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="8" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="8" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L7" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P7" s="45" t="s">
         <v>98</v>
@@ -5236,35 +5240,35 @@
         <v>55</v>
       </c>
       <c r="Q8" s="51">
-        <f>Q29</f>
+        <f t="shared" ref="Q8:Q23" si="2">Q29</f>
         <v>0</v>
       </c>
       <c r="R8" s="52">
-        <f>Q8/$Q$5</f>
+        <f t="shared" ref="R8:R23" si="3">Q8/$Q$5</f>
         <v>0</v>
       </c>
       <c r="S8" s="51">
-        <f>S29</f>
+        <f t="shared" ref="S8:S23" si="4">S29</f>
         <v>0</v>
       </c>
       <c r="T8" s="56">
-        <f>S8/$Q$5</f>
+        <f t="shared" ref="T8:T23" si="5">S8/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U8" s="51">
-        <f>U29</f>
+        <f t="shared" ref="U8:U23" si="6">U29</f>
         <v>0</v>
       </c>
       <c r="V8" s="56">
-        <f>U8/$Q$5</f>
+        <f t="shared" ref="V8:V23" si="7">U8/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W8" s="51">
-        <f>W29</f>
+        <f t="shared" ref="W8:W23" si="8">W29</f>
         <v>0</v>
       </c>
       <c r="X8" s="56">
-        <f>W8/$Q$5</f>
+        <f t="shared" ref="X8:X23" si="9">W8/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y8" s="3" t="s">
@@ -5283,35 +5287,35 @@
         <v>62</v>
       </c>
       <c r="Q9" s="51">
-        <f>Q30</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="R9" s="52">
-        <f>Q9/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S9" s="51">
-        <f>S30</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="T9" s="56">
-        <f>S9/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U9" s="51">
-        <f>U30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V9" s="56">
-        <f>U9/$Q$5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W9" s="51">
-        <f>W30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X9" s="56">
-        <f>W9/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y9" s="3" t="s">
@@ -5330,35 +5334,35 @@
         <v>80</v>
       </c>
       <c r="Q10" s="51">
-        <f>Q31</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="R10" s="52">
-        <f>Q10/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="S10" s="51">
-        <f>S31</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="T10" s="56">
-        <f>S10/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U10" s="51">
-        <f>U31</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="V10" s="56">
-        <f>U10/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="W10" s="51">
-        <f>W31</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X10" s="56">
-        <f>W10/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y10" s="3" t="s">
@@ -5377,35 +5381,35 @@
         <v>81</v>
       </c>
       <c r="Q11" s="51">
-        <f>Q32</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="R11" s="52">
-        <f>Q11/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S11" s="51">
-        <f>S32</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="T11" s="56">
-        <f>S11/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U11" s="51">
-        <f>U32</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V11" s="56">
-        <f>U11/$Q$5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W11" s="51">
-        <f>W32</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X11" s="56">
-        <f>W11/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y11" s="3" t="s">
@@ -5424,35 +5428,35 @@
         <v>82</v>
       </c>
       <c r="Q12" s="51">
-        <f>Q33</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="R12" s="52">
-        <f>Q12/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S12" s="51">
-        <f>S33</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="T12" s="56">
-        <f>S12/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U12" s="51">
-        <f>U33</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V12" s="56">
-        <f>U12/$Q$5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W12" s="51">
-        <f>W33</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X12" s="56">
-        <f>W12/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y12" s="3" t="s">
@@ -5471,35 +5475,35 @@
         <v>75</v>
       </c>
       <c r="Q13" s="51">
-        <f>Q34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="52">
-        <f>Q13/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S13" s="51">
-        <f>S34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T13" s="56">
-        <f>S13/$Q$5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U13" s="51">
-        <f>U34</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V13" s="56">
-        <f>U13/$Q$5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W13" s="51">
-        <f>W34</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X13" s="56">
-        <f>W13/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y13" s="3" t="s">
@@ -5518,35 +5522,35 @@
         <v>78</v>
       </c>
       <c r="Q14" s="51">
-        <f>Q35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="52">
-        <f>Q14/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S14" s="51">
-        <f>S35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T14" s="56">
-        <f>S14/$Q$5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U14" s="51">
-        <f>U35</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V14" s="56">
-        <f>U14/$Q$5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W14" s="51">
-        <f>W35</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X14" s="56">
-        <f>W14/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -5565,35 +5569,35 @@
         <v>83</v>
       </c>
       <c r="Q15" s="51">
-        <f>Q36</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="R15" s="52">
-        <f>Q15/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S15" s="51">
-        <f>S36</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T15" s="56">
-        <f>S15/$Q$5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U15" s="51">
-        <f>U36</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="V15" s="56">
-        <f>U15/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="W15" s="51">
-        <f>W36</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X15" s="56">
-        <f>W15/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
@@ -5612,35 +5616,35 @@
         <v>86</v>
       </c>
       <c r="Q16" s="51">
-        <f>Q37</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="R16" s="52">
-        <f>Q16/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="S16" s="51">
-        <f>S37</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="T16" s="56">
-        <f>S16/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U16" s="51">
-        <f>U37</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="V16" s="56">
-        <f>U16/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="W16" s="51">
-        <f>W37</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X16" s="56">
-        <f>W16/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y16" s="3" t="s">
@@ -5659,35 +5663,35 @@
         <v>88</v>
       </c>
       <c r="Q17" s="51">
-        <f>Q38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R17" s="52">
-        <f>Q17/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S17" s="51">
-        <f>S38</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T17" s="56">
-        <f>S17/$Q$5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U17" s="51">
-        <f>U38</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V17" s="56">
-        <f>U17/$Q$5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W17" s="51">
-        <f>W38</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X17" s="56">
-        <f>W17/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y17" s="3" t="s">
@@ -5706,35 +5710,35 @@
         <v>163</v>
       </c>
       <c r="Q18" s="60">
-        <f>Q39</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="R18" s="52">
-        <f>Q18/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S18" s="60">
-        <f>S39</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="T18" s="60">
-        <f>S18/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U18" s="60">
-        <f>U39</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V18" s="61">
-        <f>U18/$Q$5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W18" s="60">
-        <f>W39</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X18" s="60">
-        <f>W18/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y18" s="40" t="s">
@@ -5753,35 +5757,35 @@
         <v>59</v>
       </c>
       <c r="Q19" s="51">
-        <f>Q40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R19" s="52">
-        <f>Q19/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S19" s="51">
-        <f>S40</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T19" s="56">
-        <f>S19/$Q$5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U19" s="51">
-        <f>U40</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V19" s="56">
-        <f>U19/$Q$5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W19" s="51">
-        <f>W40</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X19" s="56">
-        <f>W19/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y19" s="3" t="s">
@@ -5800,35 +5804,35 @@
         <v>65</v>
       </c>
       <c r="Q20" s="51">
-        <f>Q41</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="R20" s="52">
-        <f>Q20/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S20" s="51">
-        <f>S41</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="T20" s="56">
-        <f>S20/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U20" s="51">
-        <f>U41</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V20" s="56">
-        <f>U20/$Q$5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W20" s="51">
-        <f>W41</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X20" s="56">
-        <f>W20/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
@@ -5847,35 +5851,35 @@
         <v>68</v>
       </c>
       <c r="Q21" s="51">
-        <f>Q42</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="R21" s="52">
-        <f>Q21/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S21" s="51">
-        <f>S42</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="T21" s="56">
-        <f>S21/$Q$5</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U21" s="51">
-        <f>U42</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V21" s="56">
-        <f>U21/$Q$5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W21" s="51">
-        <f>W42</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X21" s="56">
-        <f>W21/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y21" s="3" t="s">
@@ -5893,35 +5897,35 @@
         <v>71</v>
       </c>
       <c r="Q22" s="54">
-        <f>Q43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22" s="55">
-        <f>Q22/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S22" s="54">
-        <f>S43</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T22" s="56">
-        <f>S22/$Q$5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U22" s="54">
-        <f>U43</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V22" s="56">
-        <f>U22/$Q$5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W22" s="54">
-        <f>W43</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X22" s="56">
-        <f>W22/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
@@ -5939,35 +5943,35 @@
         <v>87</v>
       </c>
       <c r="Q23" s="54">
-        <f>Q44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R23" s="55">
-        <f>Q23/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S23" s="54">
-        <f>S44</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T23" s="63">
-        <f>S23/$Q$5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U23" s="54">
-        <f>U44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V23" s="63">
-        <f>U23/$Q$5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W23" s="54">
-        <f>W44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X23" s="63">
-        <f>W23/$Q$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y23" s="3" t="s">
@@ -6056,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="29">
-        <f t="shared" ref="R29:R43" si="2">Q29/$Q$5</f>
+        <f t="shared" ref="R29:R43" si="10">Q29/$Q$5</f>
         <v>0</v>
       </c>
       <c r="S29" s="27">
@@ -6064,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="28">
-        <f t="shared" ref="T29:T43" si="3">S29/$Q$5</f>
+        <f t="shared" ref="T29:T43" si="11">S29/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U29" s="27">
@@ -6072,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="28">
-        <f t="shared" ref="V29:V43" si="4">U29/$Q$5</f>
+        <f t="shared" ref="V29:V43" si="12">U29/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W29" s="27">
@@ -6080,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="28">
-        <f t="shared" ref="X29:X43" si="5">W29/$Q$5</f>
+        <f t="shared" ref="X29:X43" si="13">W29/$Q$5</f>
         <v>0</v>
       </c>
     </row>
@@ -6094,26 +6098,26 @@
       </c>
       <c r="Q30" s="44">
         <f>'1804'!R4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="S30" s="27">
         <f>'1804'!S4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U30" s="27">
         <f>'1804'!T4</f>
         <v>0</v>
       </c>
       <c r="V30" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W30" s="27">
@@ -6121,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6135,34 +6139,34 @@
       </c>
       <c r="Q31" s="44">
         <f>'1804'!R5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R31" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="S31" s="27">
         <f>'1804'!S5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U31" s="27">
         <f>'1804'!T5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="W31" s="27">
         <f>'1804'!U5</f>
         <v>0</v>
       </c>
       <c r="X31" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6176,26 +6180,26 @@
       </c>
       <c r="Q32" s="44">
         <f>'1804'!R6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="S32" s="27">
         <f>'1804'!S6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U32" s="27">
         <f>'1804'!T6</f>
         <v>0</v>
       </c>
       <c r="V32" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W32" s="27">
@@ -6203,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6216,26 +6220,26 @@
       </c>
       <c r="Q33" s="44">
         <f>'1804'!R7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="S33" s="27">
         <f>'1804'!S7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U33" s="27">
         <f>'1804'!T7</f>
         <v>0</v>
       </c>
       <c r="V33" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W33" s="27">
@@ -6243,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6259,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S34" s="27">
@@ -6267,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U34" s="27">
@@ -6275,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W34" s="27">
@@ -6283,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6299,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S35" s="27">
@@ -6307,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U35" s="27">
@@ -6315,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W35" s="27">
@@ -6323,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6336,34 +6340,34 @@
       </c>
       <c r="Q36" s="44">
         <f>'1804'!R10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="S36" s="27">
         <f>'1804'!S10</f>
         <v>0</v>
       </c>
       <c r="T36" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U36" s="27">
         <f>'1804'!T10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="W36" s="27">
         <f>'1804'!U10</f>
         <v>0</v>
       </c>
       <c r="X36" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6376,34 +6380,34 @@
       </c>
       <c r="Q37" s="44">
         <f>'1804'!R11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R37" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="S37" s="27">
         <f>'1804'!S11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U37" s="27">
         <f>'1804'!T11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V37" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="W37" s="27">
         <f>'1804'!U11</f>
         <v>0</v>
       </c>
       <c r="X37" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6419,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S38" s="27">
@@ -6427,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U38" s="27">
@@ -6435,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W38" s="27">
@@ -6443,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6453,26 +6457,26 @@
       </c>
       <c r="Q39" s="44">
         <f>'1804'!R13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="S39" s="27">
         <f>'1804'!S13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U39" s="27">
         <f>'1804'!T13</f>
         <v>0</v>
       </c>
       <c r="V39" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W39" s="27">
@@ -6480,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z39" s="12"/>
@@ -6495,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S40" s="27">
@@ -6503,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U40" s="27">
@@ -6511,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W40" s="27">
@@ -6519,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6529,26 +6533,26 @@
       </c>
       <c r="Q41" s="44">
         <f>'1804'!R15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="S41" s="27">
         <f>'1804'!S15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U41" s="27">
         <f>'1804'!T15</f>
         <v>0</v>
       </c>
       <c r="V41" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W41" s="27">
@@ -6556,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6566,26 +6570,26 @@
       </c>
       <c r="Q42" s="44">
         <f>'1804'!R16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="S42" s="27">
         <f>'1804'!S16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U42" s="27">
         <f>'1804'!T16</f>
         <v>0</v>
       </c>
       <c r="V42" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W42" s="27">
@@ -6593,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6606,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S43" s="27">
@@ -6614,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U43" s="27">
@@ -6622,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W43" s="27">
@@ -6630,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6643,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="29">
-        <f t="shared" ref="R44" si="6">Q44/$Q$5</f>
+        <f t="shared" ref="R44" si="14">Q44/$Q$5</f>
         <v>0</v>
       </c>
       <c r="S44" s="27">
@@ -6651,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="28">
-        <f t="shared" ref="T44" si="7">S44/$Q$5</f>
+        <f t="shared" ref="T44" si="15">S44/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U44" s="27">
@@ -6659,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="28">
-        <f t="shared" ref="V44" si="8">U44/$Q$5</f>
+        <f t="shared" ref="V44" si="16">U44/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W44" s="27">
@@ -6667,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="28">
-        <f t="shared" ref="X44" si="9">W44/$Q$5</f>
+        <f t="shared" ref="X44" si="17">W44/$Q$5</f>
         <v>0</v>
       </c>
     </row>
@@ -7743,7 +7747,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7832,60 +7836,72 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="4">
         <f>'1804'!C2</f>
-        <v>Insert Date Here</v>
+        <v>45034</v>
       </c>
       <c r="B4" s="16">
         <f>'1804'!L3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="16">
         <f>'1804'!M3</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="16" t="e">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16">
         <f>'1804'!O3</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="e">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="58"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="58">
+        <v>1</v>
+      </c>
       <c r="L4" s="58"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="58"/>
       <c r="Q4" s="17">
         <f>COUNTIF('1804'!W4:W26,"LG/WW")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="17">
         <f>COUNTIF('1804'!X4:X26,"WW/LG")</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="V4" s="17">
         <f>COUNTIF('1804'!W4:W26,"LG/5M")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="17">
         <f>COUNTIF('1804'!Y4:Y26,"5M/LG")</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
@@ -8417,34 +8433,34 @@
       </c>
       <c r="Q30" s="17">
         <f t="shared" ref="Q30:R30" si="1">SUM(Q4:Q29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="V30" s="17">
         <f t="shared" ref="V30:W30" si="2">SUM(V4:V29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
     </row>
     <row r="31" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I31" s="1"/>
-      <c r="Q31" s="22" t="e">
+      <c r="Q31" s="22">
         <f>Q30/(R30+Q30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V31" s="22" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V31" s="22">
         <f>V30/(W30+V30)</f>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9436,8 +9452,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9524,56 +9540,64 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="4">
         <f>'1804'!C2</f>
-        <v>Insert Date Here</v>
+        <v>45034</v>
       </c>
       <c r="B4" s="16">
         <f>'1804'!L5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" s="16">
         <f>'1804'!M5</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="16" t="e">
+        <v>4</v>
+      </c>
+      <c r="D4" s="16">
         <f>'1804'!O5</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="F4" s="24">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="24" t="e">
+        <v>4</v>
+      </c>
+      <c r="H4" s="24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="58"/>
+        <v>2</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="58">
+        <v>1</v>
+      </c>
       <c r="L4" s="58"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="M4" s="17">
+        <v>1</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1</v>
+      </c>
       <c r="P4" s="17">
         <f>COUNTIF('1804'!X4:X26,"WW/LG")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="17">
         <f>COUNTIF('1804'!W4:W26,"LG/WW")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="U4" s="17">
         <f>COUNTIF('1804'!X4:X26,"WW/5M")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4" s="17">
         <f>COUNTIF('1804'!Y4:Y26,"5M/WW")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
@@ -10082,34 +10106,34 @@
       </c>
       <c r="P30" s="17">
         <f t="shared" ref="P30:Q30" si="1">SUM(P4:P29)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="U30" s="17">
         <f t="shared" ref="U30:V30" si="2">SUM(U4:U29)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I31" s="24"/>
-      <c r="P31" s="22" t="e">
+      <c r="P31" s="22">
         <f>P30/(Q30+P30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" s="22" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U31" s="22">
         <f>U30/(V30+U30)</f>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -11102,7 +11126,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11189,56 +11213,62 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="4">
         <f>'1804'!C2</f>
-        <v>Insert Date Here</v>
+        <v>45034</v>
       </c>
       <c r="B4" s="16">
         <f>'1804'!L4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" s="16">
         <f>'1804'!M4</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="16" t="e">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16">
         <f>'1804'!O4</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="F4" s="24">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="24" t="e">
+        <v>3</v>
+      </c>
+      <c r="H4" s="24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
+        <v>3</v>
+      </c>
+      <c r="J4" s="17">
+        <v>2</v>
+      </c>
+      <c r="K4" s="58">
+        <v>2</v>
+      </c>
+      <c r="L4" s="58">
+        <v>1</v>
+      </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="P4" s="17">
         <f>COUNTIF('1804'!Y4:Y26,"5M/LG")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="17">
         <f>COUNTIF('1804'!W4:W26,"LG/WW")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="U4" s="17">
         <f>COUNTIF('1804'!Y4:Y26,"5M/WW")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V4" s="17">
         <f>COUNTIF('1804'!X4:X26,"WW/5M")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
@@ -11747,34 +11777,34 @@
       </c>
       <c r="P30" s="17">
         <f t="shared" ref="P30:Q30" si="1">SUM(P4:P29)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="U30" s="17">
         <f t="shared" ref="U30:V30" si="2">SUM(U4:U29)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V30" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I31" s="24"/>
-      <c r="P31" s="22" t="e">
+      <c r="P31" s="22">
         <f>P30/(Q30+P30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" s="22" t="e">
+        <v>0.75</v>
+      </c>
+      <c r="U31" s="22">
         <f>U30/(V30+U30)</f>
-        <v>#DIV/0!</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -14996,7 +15026,7 @@
   <dimension ref="B1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I19"/>
+      <selection activeCell="Q2" sqref="Q2:U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15016,8 +15046,8 @@
       <c r="B2" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>124</v>
+      <c r="C2" s="4">
+        <v>45034</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>125</v>
@@ -15080,19 +15110,19 @@
       </c>
       <c r="L3" s="24">
         <f>COUNTIF(C3:C30, "Loose Gooses")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="24">
         <f>COUNTIF(D3:D30, "Loose Gooses")</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="23" t="e">
+        <v>5</v>
+      </c>
+      <c r="N3" s="23">
         <f t="shared" ref="N3:N5" si="0">L3/(L3+M3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O3" s="24" t="e">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O3" s="24">
         <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>33</v>
@@ -15124,43 +15154,60 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+    <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="64">
+        <v>1</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="64">
+        <v>1</v>
+      </c>
+      <c r="H4" s="64">
+        <v>1</v>
+      </c>
+      <c r="I4" s="64">
+        <v>1</v>
+      </c>
       <c r="K4" s="24" t="s">
         <v>137</v>
       </c>
       <c r="L4" s="24">
         <f>COUNTIF(C3:C30, "5 Musketeers")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M4" s="24">
         <f>COUNTIF(D3:D30, "5 Musketeers")</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="23" t="e">
+        <v>3</v>
+      </c>
+      <c r="N4" s="23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="24" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O4" s="24">
         <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="20">
         <f t="shared" si="3"/>
@@ -15176,54 +15223,71 @@
       </c>
       <c r="X4" s="24" t="str">
         <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
-        <v/>
+        <v>WW/LG</v>
       </c>
       <c r="Y4" s="24" t="str">
         <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+    <row r="5" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="64">
+        <v>2</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="64">
+        <v>2</v>
+      </c>
+      <c r="H5" s="64">
+        <v>1</v>
+      </c>
+      <c r="I5" s="64">
+        <v>1</v>
+      </c>
       <c r="K5" s="24" t="s">
         <v>136</v>
       </c>
       <c r="L5" s="24">
         <f>COUNTIF(C3:C30, "Wet Willies")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" s="24">
         <f>COUNTIF(D3:D30, "Wet Willies")</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="23" t="e">
+        <v>4</v>
+      </c>
+      <c r="N5" s="23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="24" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="24">
         <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="R5" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="20">
         <f t="shared" si="4"/>
@@ -15235,31 +15299,48 @@
       </c>
       <c r="X5" s="24" t="str">
         <f t="shared" ref="X5:X28" si="6">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", ""))</f>
-        <v/>
+        <v>WW/5M</v>
       </c>
       <c r="Y5" s="24" t="str">
         <f t="shared" ref="Y5:Y28" si="7">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND($C5="5 Musketeers",$D5="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
+    <row r="6" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="64">
+        <v>3</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="64">
+        <v>3</v>
+      </c>
+      <c r="H6" s="64">
+        <v>2</v>
+      </c>
+      <c r="I6" s="64">
+        <v>1</v>
+      </c>
       <c r="Q6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="R6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="20">
         <f t="shared" si="3"/>
@@ -15275,31 +15356,48 @@
       </c>
       <c r="X6" s="24" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>WW/LG</v>
       </c>
       <c r="Y6" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
+    <row r="7" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="64">
+        <v>4</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="64">
+        <v>1</v>
+      </c>
+      <c r="H7" s="64">
+        <v>1</v>
+      </c>
+      <c r="I7" s="64">
+        <v>1</v>
+      </c>
       <c r="Q7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="20">
         <f t="shared" si="3"/>
@@ -15319,17 +15417,34 @@
       </c>
       <c r="Y7" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="64">
+        <v>5</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="64">
+        <v>2</v>
+      </c>
+      <c r="H8" s="64">
+        <v>3</v>
+      </c>
+      <c r="I8" s="64">
+        <v>2</v>
+      </c>
       <c r="Q8" s="3" t="s">
         <v>51</v>
       </c>
@@ -15359,17 +15474,34 @@
       </c>
       <c r="Y8" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="64">
+        <v>6</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="64">
+        <v>1</v>
+      </c>
+      <c r="H9" s="64">
+        <v>1</v>
+      </c>
+      <c r="I9" s="64">
+        <v>1</v>
+      </c>
       <c r="Q9" s="3" t="s">
         <v>53</v>
       </c>
@@ -15395,27 +15527,44 @@
       </c>
       <c r="X9" s="24" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>WW/5M</v>
       </c>
       <c r="Y9" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
+    <row r="10" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="64">
+        <v>7</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="64">
+        <v>1</v>
+      </c>
+      <c r="H10" s="64">
+        <v>1</v>
+      </c>
+      <c r="I10" s="64">
+        <v>1</v>
+      </c>
       <c r="Q10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="2"/>
@@ -15423,7 +15572,7 @@
       </c>
       <c r="T10" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="20">
         <f t="shared" si="4"/>
@@ -15431,7 +15580,7 @@
       </c>
       <c r="W10" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="X10" s="24" t="str">
         <f t="shared" si="6"/>
@@ -15442,28 +15591,45 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
+    <row r="11" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="64">
+        <v>8</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="64">
+        <v>1</v>
+      </c>
+      <c r="H11" s="64">
+        <v>1</v>
+      </c>
+      <c r="I11" s="64">
+        <v>1</v>
+      </c>
       <c r="Q11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="R11" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" s="20">
         <f t="shared" si="4"/>
@@ -15479,17 +15645,34 @@
       </c>
       <c r="Y11" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="64">
+        <v>9</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="64">
+        <v>2</v>
+      </c>
+      <c r="H12" s="64">
+        <v>2</v>
+      </c>
+      <c r="I12" s="64">
+        <v>1</v>
+      </c>
       <c r="Q12" s="3" t="s">
         <v>63</v>
       </c>
@@ -15519,27 +15702,44 @@
       </c>
       <c r="Y12" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="64">
+        <v>10</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="64">
+        <v>3</v>
+      </c>
+      <c r="H13" s="64">
+        <v>2</v>
+      </c>
+      <c r="I13" s="64">
+        <v>1</v>
+      </c>
       <c r="Q13" s="3" t="s">
         <v>139</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="20">
         <f t="shared" si="3"/>
@@ -15559,17 +15759,34 @@
       </c>
       <c r="Y13" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="64">
+        <v>11</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="64">
+        <v>4</v>
+      </c>
+      <c r="H14" s="64">
+        <v>3</v>
+      </c>
+      <c r="I14" s="64">
+        <v>2</v>
+      </c>
       <c r="Q14" s="3" t="s">
         <v>144</v>
       </c>
@@ -15599,27 +15816,44 @@
       </c>
       <c r="Y14" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="64">
+        <v>12</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="64">
+        <v>1</v>
+      </c>
+      <c r="H15" s="64">
+        <v>1</v>
+      </c>
+      <c r="I15" s="64">
+        <v>1</v>
+      </c>
       <c r="Q15" s="3" t="s">
         <v>72</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="20">
         <f t="shared" si="3"/>
@@ -15631,7 +15865,7 @@
       </c>
       <c r="W15" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="X15" s="24" t="str">
         <f t="shared" si="6"/>
@@ -15642,24 +15876,25 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+    <row r="16" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="Q16" s="3" t="s">
         <v>76</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="20">
         <f t="shared" si="3"/>
@@ -15682,14 +15917,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
+    <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="Q17" s="3" t="s">
         <v>79</v>
       </c>
@@ -15722,14 +15958,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
+    <row r="18" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="Q18" s="40" t="s">
         <v>162</v>
       </c>
@@ -15763,14 +16000,14 @@
       </c>
     </row>
     <row r="19" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
@@ -15912,12 +16149,12 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="Q26" s="26" t="str">
+      <c r="Q26" s="26">
         <f>C2</f>
-        <v>Insert Date Here</v>
+        <v>45034</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" ref="R26:U42" si="8">R3</f>
+        <f t="shared" ref="R26:U41" si="8">R3</f>
         <v>0</v>
       </c>
       <c r="S26" s="19">
@@ -15953,11 +16190,11 @@
       <c r="I27" s="24"/>
       <c r="R27" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="19">
         <f t="shared" si="8"/>
@@ -15988,15 +16225,15 @@
       <c r="I28" s="24"/>
       <c r="R28" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S28" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="19">
         <f t="shared" si="8"/>
@@ -16023,11 +16260,11 @@
       <c r="I29" s="24"/>
       <c r="R29" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="19">
         <f t="shared" si="8"/>
@@ -16046,11 +16283,11 @@
       <c r="I30" s="24"/>
       <c r="R30" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="19">
         <f t="shared" si="8"/>
@@ -16100,7 +16337,7 @@
     <row r="33" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R33" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="19">
         <f t="shared" si="8"/>
@@ -16108,7 +16345,7 @@
       </c>
       <c r="T33" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="19">
         <f t="shared" si="8"/>
@@ -16118,15 +16355,15 @@
     <row r="34" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R34" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S34" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" s="19">
         <f t="shared" si="8"/>
@@ -16154,11 +16391,11 @@
     <row r="36" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="19">
         <f t="shared" si="8"/>
@@ -16190,11 +16427,11 @@
     <row r="38" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R38" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="19">
         <f t="shared" si="8"/>
@@ -16208,11 +16445,11 @@
     <row r="39" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R39" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="19">
         <f t="shared" si="8"/>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF49FF12-A52E-4801-A230-D97A4DEEDAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB581B95-E982-475E-8D1F-608DEFED7E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="171">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -559,9 +559,6 @@
     <t>Add &lt;tr&gt; for day stats</t>
   </si>
   <si>
-    <t>Upload results and change ladder</t>
-  </si>
-  <si>
     <t>Retained by 5 Musketeers</t>
   </si>
   <si>
@@ -596,6 +593,12 @@
   </si>
   <si>
     <t>Willie/Michael</t>
+  </si>
+  <si>
+    <t>Ladder Points:</t>
+  </si>
+  <si>
+    <t>Change on results.js</t>
   </si>
 </sst>
 </file>
@@ -2861,8 +2864,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="77" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2994,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U3" s="1" t="str">
         <f t="shared" ref="U3:U18" si="0">IF(C3="5 Musketeers", $X$3, IF(C3="Loose Gooses", $X$4, $X$5))</f>
@@ -3048,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3111,7 +3114,7 @@
         <v>42</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3177,7 +3180,7 @@
         <v>42</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3295,7 +3298,7 @@
         <v>45</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3352,7 +3355,7 @@
         <v>54</v>
       </c>
       <c r="T9" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3415,7 +3418,7 @@
         <v>41</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3536,7 +3539,7 @@
         <v>42</v>
       </c>
       <c r="T12" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3596,7 +3599,7 @@
         <v>42</v>
       </c>
       <c r="T13" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3653,7 +3656,7 @@
         <v>70</v>
       </c>
       <c r="T14" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3780,7 +3783,7 @@
         <v>42</v>
       </c>
       <c r="T16" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3834,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3850,7 +3853,7 @@
     </row>
     <row r="18" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>57</v>
@@ -3888,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U18" s="40" t="str">
         <f t="shared" si="0"/>
@@ -5064,8 +5067,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AL1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5707,7 +5710,7 @@
     <row r="18" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="4"/>
       <c r="P18" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q18" s="60">
         <f t="shared" si="2"/>
@@ -5997,7 +6000,7 @@
     <row r="25" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P26" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -6413,7 +6416,7 @@
     </row>
     <row r="38" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P38" s="30" t="s">
         <v>81</v>
@@ -6565,6 +6568,9 @@
       </c>
     </row>
     <row r="42" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I42" t="s">
+        <v>169</v>
+      </c>
       <c r="P42" s="30" t="s">
         <v>87</v>
       </c>
@@ -6602,6 +6608,13 @@
       </c>
     </row>
     <row r="43" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I43" t="s">
+        <v>135</v>
+      </c>
+      <c r="J43">
+        <f>'Statistics LG'!D4</f>
+        <v>1</v>
+      </c>
       <c r="P43" s="30" t="s">
         <v>88</v>
       </c>
@@ -6639,6 +6652,13 @@
       </c>
     </row>
     <row r="44" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I44" t="s">
+        <v>136</v>
+      </c>
+      <c r="J44">
+        <f>'Statistics WW'!D4</f>
+        <v>2</v>
+      </c>
       <c r="P44" s="62" t="s">
         <v>108</v>
       </c>
@@ -6675,7 +6695,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I45" t="s">
+        <v>137</v>
+      </c>
+      <c r="J45">
+        <f>'Statistics 5M'!D4</f>
+        <v>3</v>
+      </c>
+    </row>
     <row r="46" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
@@ -7808,7 +7836,7 @@
         <v>88</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>103</v>
@@ -7886,7 +7914,7 @@
         <v>86</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V4" s="17">
         <f>COUNTIF('1804'!W4:W26,"LG/5M")</f>
@@ -11173,7 +11201,7 @@
         <v>107</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>62</v>
@@ -13530,7 +13558,7 @@
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="Q18" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R18" s="42">
         <f t="shared" si="1"/>
@@ -15026,7 +15054,7 @@
   <dimension ref="B1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:U18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15168,7 +15196,7 @@
         <v>46</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G4" s="64">
         <v>1</v>
@@ -15244,7 +15272,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="64">
         <v>2</v>
@@ -15320,7 +15348,7 @@
         <v>76</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6" s="64">
         <v>3</v>
@@ -15377,7 +15405,7 @@
         <v>38</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G7" s="64">
         <v>1</v>
@@ -15491,7 +15519,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G9" s="64">
         <v>1</v>
@@ -15548,7 +15576,7 @@
         <v>72</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G10" s="64">
         <v>1</v>
@@ -15605,7 +15633,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G11" s="64">
         <v>1</v>
@@ -15662,7 +15690,7 @@
         <v>139</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" s="64">
         <v>2</v>
@@ -15968,7 +15996,7 @@
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
       <c r="Q18" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R18" s="42">
         <f t="shared" si="1"/>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB581B95-E982-475E-8D1F-608DEFED7E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB4C57C-9AFD-4B24-B9FB-657B131A778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Statistics 5M" sheetId="6" r:id="rId6"/>
     <sheet name="Template" sheetId="7" r:id="rId7"/>
     <sheet name="1804" sheetId="8" r:id="rId8"/>
+    <sheet name="1904" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="171">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -2865,7 +2866,7 @@
   <dimension ref="B1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3024,7 +3025,7 @@
       </c>
       <c r="E4" s="24">
         <f>'Stats Global'!Q9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="14">
         <f>'Stats Global'!T9</f>
@@ -3032,7 +3033,7 @@
       </c>
       <c r="G4" s="24">
         <f>'Stats Global'!S9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="14">
         <f>'Stats Global'!V9</f>
@@ -3074,11 +3075,11 @@
       </c>
       <c r="D5" s="14">
         <f>'Stats Global'!R10</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="24">
         <f>'Stats Global'!Q10</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="14">
         <f>'Stats Global'!T10</f>
@@ -3086,11 +3087,11 @@
       </c>
       <c r="G5" s="24">
         <f>'Stats Global'!S10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="14">
         <f>'Stats Global'!V10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="24">
         <f>'Stats Global'!U10</f>
@@ -3141,7 +3142,7 @@
       </c>
       <c r="E6" s="24">
         <f>'Stats Global'!Q11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="14">
         <f>'Stats Global'!T11</f>
@@ -3149,7 +3150,7 @@
       </c>
       <c r="G6" s="24">
         <f>'Stats Global'!S11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="14">
         <f>'Stats Global'!V11</f>
@@ -3204,7 +3205,7 @@
       </c>
       <c r="E7" s="24">
         <f>'Stats Global'!Q12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="14">
         <f>'Stats Global'!T12</f>
@@ -3212,7 +3213,7 @@
       </c>
       <c r="G7" s="24">
         <f>'Stats Global'!S12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="14">
         <f>'Stats Global'!V12</f>
@@ -3382,7 +3383,7 @@
       </c>
       <c r="E10" s="24">
         <f>'Stats Global'!Q15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="14">
         <f>'Stats Global'!T15</f>
@@ -3398,7 +3399,7 @@
       </c>
       <c r="I10" s="24">
         <f>'Stats Global'!U15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="14">
         <f>'Stats Global'!X15</f>
@@ -3441,11 +3442,11 @@
       </c>
       <c r="D11" s="14">
         <f>'Stats Global'!R16</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="24">
         <f>'Stats Global'!Q16</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="14">
         <f>'Stats Global'!T16</f>
@@ -3453,15 +3454,15 @@
       </c>
       <c r="G11" s="24">
         <f>'Stats Global'!S16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="14">
         <f>'Stats Global'!V16</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I11" s="24">
         <f>'Stats Global'!U16</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11" s="14">
         <f>'Stats Global'!X16</f>
@@ -3566,7 +3567,7 @@
       </c>
       <c r="E13" s="24">
         <f>'Stats Global'!Q18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="14">
         <f>'Stats Global'!T18</f>
@@ -3574,7 +3575,7 @@
       </c>
       <c r="G13" s="24">
         <f>'Stats Global'!S18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="14">
         <f>'Stats Global'!V18</f>
@@ -3683,7 +3684,7 @@
       </c>
       <c r="E15" s="24">
         <f>'Stats Global'!Q20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="14">
         <f>'Stats Global'!T20</f>
@@ -3691,7 +3692,7 @@
       </c>
       <c r="G15" s="24">
         <f>'Stats Global'!S20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="14">
         <f>'Stats Global'!V20</f>
@@ -3750,7 +3751,7 @@
       </c>
       <c r="E16" s="24">
         <f>'Stats Global'!Q21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="14">
         <f>'Stats Global'!T21</f>
@@ -3758,7 +3759,7 @@
       </c>
       <c r="G16" s="24">
         <f>'Stats Global'!S21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="14">
         <f>'Stats Global'!V21</f>
@@ -5067,8 +5068,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5115,15 +5116,15 @@
     </row>
     <row r="5" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="36">
-        <f>'1804'!C2</f>
+        <f>'1804'!$C$2</f>
         <v>45034</v>
       </c>
       <c r="C5" s="3">
-        <f>COUNT('1804'!B3:B30)</f>
+        <f>COUNT('1804'!$B$3:$B$30)</f>
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <f>MAX('1804'!L3:L5)</f>
+        <f>MAX('1804'!$L$3:$L$5)</f>
         <v>6</v>
       </c>
       <c r="E5" s="3">
@@ -5131,7 +5132,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="3">
-        <f>MIN('1804'!L3:L5)</f>
+        <f>MIN('1804'!$L$3:$L$5)</f>
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -5151,14 +5152,33 @@
       </c>
       <c r="Q5" s="1">
         <f>Q26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
     </row>
     <row r="6" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="4"/>
+      <c r="B6" s="36">
+        <f>'1904'!$C$2</f>
+        <v>45035</v>
+      </c>
+      <c r="C6" s="3">
+        <f>COUNT('1904'!$B$3:$B$30)</f>
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
+        <f>MAX('1904'!$L$3:$L$5)</f>
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <f>C6-D6-F6</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <f>MIN('1904'!$L$3:$L$5)</f>
+        <v>2</v>
+      </c>
       <c r="I6" s="7">
         <f t="shared" ref="I6:L6" si="0">AVERAGE(C5:C30)</f>
         <v>12</v>
@@ -5291,7 +5311,7 @@
       </c>
       <c r="Q9" s="51">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" s="52">
         <f t="shared" si="3"/>
@@ -5299,7 +5319,7 @@
       </c>
       <c r="S9" s="51">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" s="56">
         <f t="shared" si="5"/>
@@ -5338,15 +5358,15 @@
       </c>
       <c r="Q10" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R10" s="52">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S10" s="51">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" s="56">
         <f t="shared" si="5"/>
@@ -5358,7 +5378,7 @@
       </c>
       <c r="V10" s="56">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W10" s="51">
         <f t="shared" si="8"/>
@@ -5385,7 +5405,7 @@
       </c>
       <c r="Q11" s="51">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" s="52">
         <f t="shared" si="3"/>
@@ -5393,7 +5413,7 @@
       </c>
       <c r="S11" s="51">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" s="56">
         <f t="shared" si="5"/>
@@ -5432,7 +5452,7 @@
       </c>
       <c r="Q12" s="51">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="52">
         <f t="shared" si="3"/>
@@ -5440,7 +5460,7 @@
       </c>
       <c r="S12" s="51">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" s="56">
         <f t="shared" si="5"/>
@@ -5573,7 +5593,7 @@
       </c>
       <c r="Q15" s="51">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" s="52">
         <f t="shared" si="3"/>
@@ -5589,7 +5609,7 @@
       </c>
       <c r="U15" s="51">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15" s="56">
         <f t="shared" si="7"/>
@@ -5620,15 +5640,15 @@
       </c>
       <c r="Q16" s="51">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R16" s="52">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="S16" s="51">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" s="56">
         <f t="shared" si="5"/>
@@ -5636,11 +5656,11 @@
       </c>
       <c r="U16" s="51">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V16" s="56">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="W16" s="51">
         <f t="shared" si="8"/>
@@ -5714,7 +5734,7 @@
       </c>
       <c r="Q18" s="60">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="52">
         <f t="shared" si="3"/>
@@ -5722,7 +5742,7 @@
       </c>
       <c r="S18" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18" s="60">
         <f t="shared" si="5"/>
@@ -5808,7 +5828,7 @@
       </c>
       <c r="Q20" s="51">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" s="52">
         <f t="shared" si="3"/>
@@ -5816,7 +5836,7 @@
       </c>
       <c r="S20" s="51">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20" s="56">
         <f t="shared" si="5"/>
@@ -5855,7 +5875,7 @@
       </c>
       <c r="Q21" s="51">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21" s="52">
         <f t="shared" si="3"/>
@@ -5863,7 +5883,7 @@
       </c>
       <c r="S21" s="51">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21" s="56">
         <f t="shared" si="5"/>
@@ -6003,7 +6023,7 @@
         <v>160</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -6059,7 +6079,7 @@
         <v>55</v>
       </c>
       <c r="Q29" s="44">
-        <f>'1804'!R3</f>
+        <f>'1804'!R3+'1904'!R3</f>
         <v>0</v>
       </c>
       <c r="R29" s="29">
@@ -6067,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="27">
-        <f>'1804'!S3</f>
+        <f>'1804'!S3+'1904'!S3</f>
         <v>0</v>
       </c>
       <c r="T29" s="28">
@@ -6075,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="27">
-        <f>'1804'!T3</f>
+        <f>'1804'!T3+'1904'!T3</f>
         <v>0</v>
       </c>
       <c r="V29" s="28">
@@ -6083,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="27">
-        <f>'1804'!U3</f>
+        <f>'1804'!U3+'1904'!U3</f>
         <v>0</v>
       </c>
       <c r="X29" s="28">
@@ -6100,23 +6120,23 @@
         <v>59</v>
       </c>
       <c r="Q30" s="44">
-        <f>'1804'!R4</f>
-        <v>1</v>
+        <f>'1804'!R4+'1904'!R4</f>
+        <v>2</v>
       </c>
       <c r="R30" s="29">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S30" s="27">
-        <f>'1804'!S4</f>
-        <v>1</v>
+        <f>'1804'!S4+'1904'!S4</f>
+        <v>2</v>
       </c>
       <c r="T30" s="28">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U30" s="27">
-        <f>'1804'!T4</f>
+        <f>'1804'!T4+'1904'!T4</f>
         <v>0</v>
       </c>
       <c r="V30" s="28">
@@ -6124,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="27">
-        <f>'1804'!U4</f>
+        <f>'1804'!U4+'1904'!U4</f>
         <v>0</v>
       </c>
       <c r="X30" s="28">
@@ -6141,31 +6161,31 @@
         <v>62</v>
       </c>
       <c r="Q31" s="44">
-        <f>'1804'!R5</f>
-        <v>2</v>
+        <f>'1804'!R5+'1904'!R5</f>
+        <v>3</v>
       </c>
       <c r="R31" s="29">
         <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="S31" s="27">
+        <f>'1804'!S5+'1904'!S5</f>
         <v>2</v>
-      </c>
-      <c r="S31" s="27">
-        <f>'1804'!S5</f>
-        <v>1</v>
       </c>
       <c r="T31" s="28">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U31" s="27">
-        <f>'1804'!T5</f>
+        <f>'1804'!T5+'1904'!T5</f>
         <v>1</v>
       </c>
       <c r="V31" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W31" s="27">
-        <f>'1804'!U5</f>
+        <f>'1804'!U5+'1904'!U5</f>
         <v>0</v>
       </c>
       <c r="X31" s="28">
@@ -6182,23 +6202,23 @@
         <v>65</v>
       </c>
       <c r="Q32" s="44">
-        <f>'1804'!R6</f>
-        <v>1</v>
+        <f>'1804'!R6+'1904'!R6</f>
+        <v>2</v>
       </c>
       <c r="R32" s="29">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S32" s="27">
-        <f>'1804'!S6</f>
-        <v>1</v>
+        <f>'1804'!S6+'1904'!S6</f>
+        <v>2</v>
       </c>
       <c r="T32" s="28">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U32" s="27">
-        <f>'1804'!T6</f>
+        <f>'1804'!T6+'1904'!T6</f>
         <v>0</v>
       </c>
       <c r="V32" s="28">
@@ -6206,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="27">
-        <f>'1804'!U6</f>
+        <f>'1804'!U6+'1904'!U6</f>
         <v>0</v>
       </c>
       <c r="X32" s="28">
@@ -6222,23 +6242,23 @@
         <v>68</v>
       </c>
       <c r="Q33" s="44">
-        <f>'1804'!R7</f>
-        <v>1</v>
+        <f>'1804'!R7+'1904'!R7</f>
+        <v>2</v>
       </c>
       <c r="R33" s="29">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S33" s="27">
-        <f>'1804'!S7</f>
-        <v>1</v>
+        <f>'1804'!S7+'1904'!S7</f>
+        <v>2</v>
       </c>
       <c r="T33" s="28">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U33" s="27">
-        <f>'1804'!T7</f>
+        <f>'1804'!T7+'1904'!T7</f>
         <v>0</v>
       </c>
       <c r="V33" s="28">
@@ -6246,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="27">
-        <f>'1804'!U7</f>
+        <f>'1804'!U7+'1904'!U7</f>
         <v>0</v>
       </c>
       <c r="X33" s="28">
@@ -6262,7 +6282,7 @@
         <v>71</v>
       </c>
       <c r="Q34" s="44">
-        <f>'1804'!R8</f>
+        <f>'1804'!R8+'1904'!R8</f>
         <v>0</v>
       </c>
       <c r="R34" s="29">
@@ -6270,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="27">
-        <f>'1804'!S8</f>
+        <f>'1804'!S8+'1904'!S8</f>
         <v>0</v>
       </c>
       <c r="T34" s="28">
@@ -6278,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="27">
-        <f>'1804'!T8</f>
+        <f>'1804'!T8+'1904'!T8</f>
         <v>0</v>
       </c>
       <c r="V34" s="28">
@@ -6286,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="27">
-        <f>'1804'!U8</f>
+        <f>'1804'!U8+'1904'!U8</f>
         <v>0</v>
       </c>
       <c r="X34" s="28">
@@ -6302,7 +6322,7 @@
         <v>75</v>
       </c>
       <c r="Q35" s="44">
-        <f>'1804'!R9</f>
+        <f>'1804'!R9+'1904'!R9</f>
         <v>0</v>
       </c>
       <c r="R35" s="29">
@@ -6310,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="27">
-        <f>'1804'!S9</f>
+        <f>'1804'!S9+'1904'!S9</f>
         <v>0</v>
       </c>
       <c r="T35" s="28">
@@ -6318,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="27">
-        <f>'1804'!T9</f>
+        <f>'1804'!T9+'1904'!T9</f>
         <v>0</v>
       </c>
       <c r="V35" s="28">
@@ -6326,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="27">
-        <f>'1804'!U9</f>
+        <f>'1804'!U9+'1904'!U9</f>
         <v>0</v>
       </c>
       <c r="X35" s="28">
@@ -6342,15 +6362,15 @@
         <v>78</v>
       </c>
       <c r="Q36" s="44">
-        <f>'1804'!R10</f>
-        <v>1</v>
+        <f>'1804'!R10+'1904'!R10</f>
+        <v>2</v>
       </c>
       <c r="R36" s="29">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S36" s="27">
-        <f>'1804'!S10</f>
+        <f>'1804'!S10+'1904'!S10</f>
         <v>0</v>
       </c>
       <c r="T36" s="28">
@@ -6358,15 +6378,15 @@
         <v>0</v>
       </c>
       <c r="U36" s="27">
-        <f>'1804'!T10</f>
-        <v>1</v>
+        <f>'1804'!T10+'1904'!T10</f>
+        <v>2</v>
       </c>
       <c r="V36" s="28">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W36" s="27">
-        <f>'1804'!U10</f>
+        <f>'1804'!U10+'1904'!U10</f>
         <v>0</v>
       </c>
       <c r="X36" s="28">
@@ -6382,31 +6402,31 @@
         <v>80</v>
       </c>
       <c r="Q37" s="44">
-        <f>'1804'!R11</f>
-        <v>3</v>
+        <f>'1804'!R11+'1904'!R11</f>
+        <v>7</v>
       </c>
       <c r="R37" s="29">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="S37" s="27">
-        <f>'1804'!S11</f>
-        <v>1</v>
+        <f>'1804'!S11+'1904'!S11</f>
+        <v>2</v>
       </c>
       <c r="T37" s="28">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U37" s="27">
-        <f>'1804'!T11</f>
-        <v>2</v>
+        <f>'1804'!T11+'1904'!T11</f>
+        <v>5</v>
       </c>
       <c r="V37" s="28">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="W37" s="27">
-        <f>'1804'!U11</f>
+        <f>'1804'!U11+'1904'!U11</f>
         <v>0</v>
       </c>
       <c r="X37" s="28">
@@ -6422,7 +6442,7 @@
         <v>81</v>
       </c>
       <c r="Q38" s="44">
-        <f>'1804'!R12</f>
+        <f>'1804'!R12+'1904'!R12</f>
         <v>0</v>
       </c>
       <c r="R38" s="29">
@@ -6430,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="27">
-        <f>'1804'!S12</f>
+        <f>'1804'!S12+'1904'!S12</f>
         <v>0</v>
       </c>
       <c r="T38" s="28">
@@ -6438,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="27">
-        <f>'1804'!T12</f>
+        <f>'1804'!T12+'1904'!T12</f>
         <v>0</v>
       </c>
       <c r="V38" s="28">
@@ -6446,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="27">
-        <f>'1804'!U12</f>
+        <f>'1804'!U12+'1904'!U12</f>
         <v>0</v>
       </c>
       <c r="X38" s="28">
@@ -6459,23 +6479,23 @@
         <v>82</v>
       </c>
       <c r="Q39" s="44">
-        <f>'1804'!R13</f>
-        <v>1</v>
+        <f>'1804'!R13+'1904'!R13</f>
+        <v>2</v>
       </c>
       <c r="R39" s="29">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S39" s="27">
-        <f>'1804'!S13</f>
-        <v>1</v>
+        <f>'1804'!S13+'1904'!S13</f>
+        <v>2</v>
       </c>
       <c r="T39" s="28">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U39" s="27">
-        <f>'1804'!T13</f>
+        <f>'1804'!T13+'1904'!T13</f>
         <v>0</v>
       </c>
       <c r="V39" s="28">
@@ -6483,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="27">
-        <f>'1804'!U13</f>
+        <f>'1804'!U13+'1904'!U13</f>
         <v>0</v>
       </c>
       <c r="X39" s="28">
@@ -6498,7 +6518,7 @@
         <v>83</v>
       </c>
       <c r="Q40" s="44">
-        <f>'1804'!R14</f>
+        <f>'1804'!R14+'1904'!R14</f>
         <v>0</v>
       </c>
       <c r="R40" s="29">
@@ -6506,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="27">
-        <f>'1804'!S14</f>
+        <f>'1804'!S14+'1904'!S14</f>
         <v>0</v>
       </c>
       <c r="T40" s="28">
@@ -6514,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="27">
-        <f>'1804'!T14</f>
+        <f>'1804'!T14+'1904'!T14</f>
         <v>0</v>
       </c>
       <c r="V40" s="28">
@@ -6522,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="27">
-        <f>'1804'!U14</f>
+        <f>'1804'!U14+'1904'!U14</f>
         <v>0</v>
       </c>
       <c r="X40" s="28">
@@ -6535,23 +6555,23 @@
         <v>86</v>
       </c>
       <c r="Q41" s="44">
-        <f>'1804'!R15</f>
-        <v>1</v>
+        <f>'1804'!R15+'1904'!R15</f>
+        <v>2</v>
       </c>
       <c r="R41" s="29">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S41" s="27">
-        <f>'1804'!S15</f>
-        <v>1</v>
+        <f>'1804'!S15+'1904'!S15</f>
+        <v>2</v>
       </c>
       <c r="T41" s="28">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U41" s="27">
-        <f>'1804'!T15</f>
+        <f>'1804'!T15+'1904'!T15</f>
         <v>0</v>
       </c>
       <c r="V41" s="28">
@@ -6559,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="27">
-        <f>'1804'!U15</f>
+        <f>'1804'!U15+'1904'!U15</f>
         <v>0</v>
       </c>
       <c r="X41" s="28">
@@ -6575,23 +6595,23 @@
         <v>87</v>
       </c>
       <c r="Q42" s="44">
-        <f>'1804'!R16</f>
-        <v>1</v>
+        <f>'1804'!R16+'1904'!R16</f>
+        <v>2</v>
       </c>
       <c r="R42" s="29">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S42" s="27">
-        <f>'1804'!S16</f>
-        <v>1</v>
+        <f>'1804'!S16+'1904'!S16</f>
+        <v>2</v>
       </c>
       <c r="T42" s="28">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U42" s="27">
-        <f>'1804'!T16</f>
+        <f>'1804'!T16+'1904'!T16</f>
         <v>0</v>
       </c>
       <c r="V42" s="28">
@@ -6599,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="27">
-        <f>'1804'!U16</f>
+        <f>'1804'!U16+'1904'!U16</f>
         <v>0</v>
       </c>
       <c r="X42" s="28">
@@ -6619,7 +6639,7 @@
         <v>88</v>
       </c>
       <c r="Q43" s="44">
-        <f>'1804'!R17</f>
+        <f>'1804'!R17+'1904'!R17</f>
         <v>0</v>
       </c>
       <c r="R43" s="29">
@@ -6627,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="27">
-        <f>'1804'!S17</f>
+        <f>'1804'!S17+'1904'!S17</f>
         <v>0</v>
       </c>
       <c r="T43" s="28">
@@ -6635,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="27">
-        <f>'1804'!T17</f>
+        <f>'1804'!T17+'1904'!T17</f>
         <v>0</v>
       </c>
       <c r="V43" s="28">
@@ -6643,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="27">
-        <f>'1804'!U17</f>
+        <f>'1804'!U17+'1904'!U17</f>
         <v>0</v>
       </c>
       <c r="X43" s="28">
@@ -6663,7 +6683,7 @@
         <v>108</v>
       </c>
       <c r="Q44" s="44">
-        <f>'1804'!R18</f>
+        <f>'1804'!R18+'1904'!R18</f>
         <v>0</v>
       </c>
       <c r="R44" s="29">
@@ -6671,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="27">
-        <f>'1804'!S18</f>
+        <f>'1804'!S18+'1904'!S18</f>
         <v>0</v>
       </c>
       <c r="T44" s="28">
@@ -6679,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="27">
-        <f>'1804'!T18</f>
+        <f>'1804'!T18+'1904'!T18</f>
         <v>0</v>
       </c>
       <c r="V44" s="28">
@@ -6687,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="27">
-        <f>'1804'!U18</f>
+        <f>'1804'!U18+'1904'!U18</f>
         <v>0</v>
       </c>
       <c r="X44" s="28">
@@ -7759,9 +7779,6 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="S29" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -15053,8 +15070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E7D6EA-0942-4896-8FCD-5B2FCE43B119}">
   <dimension ref="B1:Y1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15307,7 +15324,7 @@
       </c>
       <c r="R5" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="2"/>
@@ -15315,7 +15332,7 @@
       </c>
       <c r="T5" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="20">
         <f t="shared" si="4"/>
@@ -15459,7 +15476,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F8" s="64" t="s">
         <v>126</v>
@@ -15649,7 +15666,7 @@
       </c>
       <c r="R11" s="19">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="2"/>
@@ -15657,7 +15674,7 @@
       </c>
       <c r="T11" s="20">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U11" s="20">
         <f t="shared" si="4"/>
@@ -16180,6 +16197,2451 @@
       <c r="Q26" s="26">
         <f>C2</f>
         <v>45034</v>
+      </c>
+      <c r="R26" s="19">
+        <f t="shared" ref="R26:U41" si="8">R3</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X26" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y26" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E27" s="25"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="R27" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S27" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T27" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X27" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y27" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E28" s="25"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="R28" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S28" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T28" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X28" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y28" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E29" s="25"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="R29" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S29" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T29" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E30" s="25"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="R30" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S30" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T30" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R31" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R32" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R33" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S33" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U33" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R34" s="19">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="S34" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T34" s="19">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="U34" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R35" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R36" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S36" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T36" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R37" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R38" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S38" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T38" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R39" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S39" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T39" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R40" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R41" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+    </row>
+    <row r="43" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64907ADA-4AE3-448A-96DF-C6B453B6FF51}">
+  <dimension ref="B1:Y1000"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.73046875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="14" style="40" customWidth="1"/>
+    <col min="5" max="17" width="8.73046875" style="40" customWidth="1"/>
+    <col min="18" max="18" width="10.73046875" style="40" customWidth="1"/>
+    <col min="19" max="26" width="8.73046875" style="40" customWidth="1"/>
+    <col min="27" max="16384" width="14.3984375" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45035</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="24">
+        <f>COUNTIF(C3:C30, "Loose Gooses")</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="24">
+        <f>COUNTIF(D3:D30, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="N3" s="23">
+        <f t="shared" ref="N3:N5" si="0">L3/(L3+M3)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O3" s="24">
+        <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="19">
+        <f t="shared" ref="R3:R18" si="1">COUNTIF($E$3:$E$27, Q3)+U3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="20">
+        <f t="shared" ref="S3:S18" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="20">
+        <f t="shared" ref="T3:T18" si="3">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="20">
+        <f t="shared" ref="U3:U18" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="64">
+        <v>1</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="64">
+        <v>1</v>
+      </c>
+      <c r="H4" s="64">
+        <v>1</v>
+      </c>
+      <c r="I4" s="64">
+        <v>1</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="24">
+        <f>COUNTIF(C3:C30, "5 Musketeers")</f>
+        <v>6</v>
+      </c>
+      <c r="M4" s="24">
+        <f>COUNTIF(D3:D30, "5 Musketeers")</f>
+        <v>3</v>
+      </c>
+      <c r="N4" s="23">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O4" s="24">
+        <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S4" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="24" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="X4" s="24" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
+        <v>WW/LG</v>
+      </c>
+      <c r="Y4" s="24" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="64">
+        <v>2</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="64">
+        <v>2</v>
+      </c>
+      <c r="H5" s="64">
+        <v>1</v>
+      </c>
+      <c r="I5" s="64">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="24">
+        <f>COUNTIF(C3:C30, "Wet Willies")</f>
+        <v>4</v>
+      </c>
+      <c r="M5" s="24">
+        <f>COUNTIF(D3:D30, "Wet Willies")</f>
+        <v>4</v>
+      </c>
+      <c r="N5" s="23">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="24">
+        <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S5" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U5" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="24" t="str">
+        <f t="shared" ref="W5:W28" si="5">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="X5" s="24" t="str">
+        <f t="shared" ref="X5:X28" si="6">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", ""))</f>
+        <v>WW/5M</v>
+      </c>
+      <c r="Y5" s="24" t="str">
+        <f t="shared" ref="Y5:Y28" si="7">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND($C5="5 Musketeers",$D5="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="64">
+        <v>3</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="64">
+        <v>3</v>
+      </c>
+      <c r="H6" s="64">
+        <v>2</v>
+      </c>
+      <c r="I6" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X6" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="Y6" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="64">
+        <v>4</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="64">
+        <v>1</v>
+      </c>
+      <c r="H7" s="64">
+        <v>1</v>
+      </c>
+      <c r="I7" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X7" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y7" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="64">
+        <v>5</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="64">
+        <v>2</v>
+      </c>
+      <c r="H8" s="64">
+        <v>3</v>
+      </c>
+      <c r="I8" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X8" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y8" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="64">
+        <v>6</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="64">
+        <v>1</v>
+      </c>
+      <c r="H9" s="64">
+        <v>1</v>
+      </c>
+      <c r="I9" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X9" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="Y9" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="64">
+        <v>7</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="64">
+        <v>1</v>
+      </c>
+      <c r="H10" s="64">
+        <v>1</v>
+      </c>
+      <c r="I10" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="X10" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y10" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="64">
+        <v>8</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="64">
+        <v>1</v>
+      </c>
+      <c r="H11" s="64">
+        <v>1</v>
+      </c>
+      <c r="I11" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S11" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U11" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X11" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y11" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="64">
+        <v>9</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="64">
+        <v>2</v>
+      </c>
+      <c r="H12" s="64">
+        <v>2</v>
+      </c>
+      <c r="I12" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X12" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y12" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="64">
+        <v>10</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="64">
+        <v>3</v>
+      </c>
+      <c r="H13" s="64">
+        <v>2</v>
+      </c>
+      <c r="I13" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R13" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X13" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y13" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="64">
+        <v>11</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="64">
+        <v>4</v>
+      </c>
+      <c r="H14" s="64">
+        <v>3</v>
+      </c>
+      <c r="I14" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R14" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X14" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y14" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="64">
+        <v>12</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="64">
+        <v>1</v>
+      </c>
+      <c r="H15" s="64">
+        <v>1</v>
+      </c>
+      <c r="I15" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="X15" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y15" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="Q16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T16" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X16" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y16" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="Q17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X17" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y17" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="Q18" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="R18" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X18" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y18" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="W19" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X19" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y19" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="W20" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X20" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y20" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W21" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X21" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y21" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W22" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X22" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y22" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="Q23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W23" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X23" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y23" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E24" s="25"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="W24" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X24" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y24" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E25" s="25"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="Q25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W25" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X25" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y25" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E26" s="25"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="Q26" s="26">
+        <f>C2</f>
+        <v>45035</v>
       </c>
       <c r="R26" s="19">
         <f t="shared" ref="R26:U41" si="8">R3</f>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB4C57C-9AFD-4B24-B9FB-657B131A778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD190CA-817A-4C52-BDB7-C4FA2E8C3B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="171">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -1480,13 +1480,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.43243243243243246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.32432432432432434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.24324324324324326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,7 +1580,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BA5219-6DFE-46F0-966E-5F60422B7104}" name="Table1" displayName="Table1" ref="P7:Y23" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="P7:Y23" xr:uid="{65BA5219-6DFE-46F0-966E-5F60422B7104}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P8:Y23">
-    <sortCondition ref="Y7:Y23"/>
+    <sortCondition ref="P7:P23"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{8B9A5B7C-C49F-4129-BF1D-47938C1E98E7}" name="Scoring" dataDxfId="9"/>
@@ -2866,7 +2866,7 @@
   <dimension ref="B1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="D2" sqref="D2:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2967,19 +2967,19 @@
       </c>
       <c r="D3" s="14">
         <f>'Stats Global'!R8</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="1">
         <f>'Stats Global'!Q8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="14">
         <f>'Stats Global'!T8</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="24">
         <f>'Stats Global'!S8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="14">
         <f>'Stats Global'!V8</f>
@@ -3075,27 +3075,27 @@
       </c>
       <c r="D5" s="14">
         <f>'Stats Global'!R10</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="24">
         <f>'Stats Global'!Q10</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="14">
         <f>'Stats Global'!T10</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="24">
         <f>'Stats Global'!S10</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H5" s="14">
         <f>'Stats Global'!V10</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="24">
         <f>'Stats Global'!U10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="14">
         <f>'Stats Global'!X10</f>
@@ -3138,19 +3138,19 @@
       </c>
       <c r="D6" s="14">
         <f>'Stats Global'!R11</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E6" s="24">
         <f>'Stats Global'!Q11</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="14">
         <f>'Stats Global'!T11</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G6" s="24">
         <f>'Stats Global'!S11</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" s="14">
         <f>'Stats Global'!V11</f>
@@ -3201,19 +3201,19 @@
       </c>
       <c r="D7" s="14">
         <f>'Stats Global'!R12</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="24">
         <f>'Stats Global'!Q12</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="14">
         <f>'Stats Global'!T12</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="24">
         <f>'Stats Global'!S12</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="14">
         <f>'Stats Global'!V12</f>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="D8" s="14">
         <f>'Stats Global'!R13</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="24">
         <f>'Stats Global'!Q13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="14">
         <f>'Stats Global'!T13</f>
@@ -3278,11 +3278,11 @@
       </c>
       <c r="H8" s="14">
         <f>'Stats Global'!V13</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I8" s="24">
         <f>'Stats Global'!U13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="14">
         <f>'Stats Global'!X13</f>
@@ -3379,27 +3379,27 @@
       </c>
       <c r="D10" s="14">
         <f>'Stats Global'!R15</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E10" s="24">
         <f>'Stats Global'!Q15</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="14">
         <f>'Stats Global'!T15</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="24">
         <f>'Stats Global'!S15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="14">
         <f>'Stats Global'!V15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="24">
         <f>'Stats Global'!U15</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="14">
         <f>'Stats Global'!X15</f>
@@ -3450,19 +3450,19 @@
       </c>
       <c r="F11" s="14">
         <f>'Stats Global'!T16</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="24">
         <f>'Stats Global'!S16</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="14">
         <f>'Stats Global'!V16</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="24">
         <f>'Stats Global'!U16</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="14">
         <f>'Stats Global'!X16</f>
@@ -3503,11 +3503,11 @@
       </c>
       <c r="D12" s="14">
         <f>'Stats Global'!R17</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="24">
         <f>'Stats Global'!Q17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="14">
         <f>'Stats Global'!T17</f>
@@ -3519,11 +3519,11 @@
       </c>
       <c r="H12" s="14">
         <f>'Stats Global'!V17</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I12" s="24">
         <f>'Stats Global'!U17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="14">
         <f>'Stats Global'!X17</f>
@@ -3563,19 +3563,19 @@
       </c>
       <c r="D13" s="14">
         <f>'Stats Global'!R18</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="24">
         <f>'Stats Global'!Q18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="14">
         <f>'Stats Global'!T18</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="24">
         <f>'Stats Global'!S18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="14">
         <f>'Stats Global'!V18</f>
@@ -3623,19 +3623,19 @@
       </c>
       <c r="D14" s="14">
         <f>'Stats Global'!R19</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="24">
         <f>'Stats Global'!Q19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="14">
         <f>'Stats Global'!T19</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="24">
         <f>'Stats Global'!S19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="14">
         <f>'Stats Global'!V19</f>
@@ -3680,19 +3680,19 @@
       </c>
       <c r="D15" s="14">
         <f>'Stats Global'!R20</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E15" s="24">
         <f>'Stats Global'!Q20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="14">
         <f>'Stats Global'!T20</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G15" s="24">
         <f>'Stats Global'!S20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="14">
         <f>'Stats Global'!V20</f>
@@ -3942,7 +3942,10 @@
     <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="4"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="41"/>
+      <c r="D22" s="41" t="str">
+        <f>CHAR(34)&amp;D3&amp;CHAR(34)</f>
+        <v>"0.5"</v>
+      </c>
       <c r="E22" s="38"/>
       <c r="F22" s="41"/>
       <c r="G22" s="38"/>
@@ -5068,8 +5071,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AL1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5165,35 +5168,35 @@
       </c>
       <c r="C6" s="3">
         <f>COUNT('1904'!$B$3:$B$30)</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3">
         <f>MAX('1904'!$L$3:$L$5)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3">
         <f>C6-D6-F6</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3">
         <f>MIN('1904'!$L$3:$L$5)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" ref="I6:L6" si="0">AVERAGE(C5:C30)</f>
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
@@ -5206,15 +5209,15 @@
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:L7" si="1">J6/$I$6</f>
-        <v>0.5</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="P7" s="45" t="s">
         <v>98</v>
@@ -5260,38 +5263,38 @@
     <row r="8" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
       <c r="P8" s="50" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="51">
-        <f t="shared" ref="Q8:Q23" si="2">Q29</f>
-        <v>0</v>
+        <f>Q29</f>
+        <v>1</v>
       </c>
       <c r="R8" s="52">
-        <f t="shared" ref="R8:R23" si="3">Q8/$Q$5</f>
-        <v>0</v>
+        <f>Q8/$Q$5</f>
+        <v>0.5</v>
       </c>
       <c r="S8" s="51">
-        <f t="shared" ref="S8:S23" si="4">S29</f>
-        <v>0</v>
+        <f>S29</f>
+        <v>1</v>
       </c>
       <c r="T8" s="56">
-        <f t="shared" ref="T8:T23" si="5">S8/$Q$5</f>
-        <v>0</v>
+        <f>S8/$Q$5</f>
+        <v>0.5</v>
       </c>
       <c r="U8" s="51">
-        <f t="shared" ref="U8:U23" si="6">U29</f>
+        <f>U29</f>
         <v>0</v>
       </c>
       <c r="V8" s="56">
-        <f t="shared" ref="V8:V23" si="7">U8/$Q$5</f>
+        <f>U8/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W8" s="51">
-        <f t="shared" ref="W8:W23" si="8">W29</f>
+        <f>W29</f>
         <v>0</v>
       </c>
       <c r="X8" s="56">
-        <f t="shared" ref="X8:X23" si="9">W8/$Q$5</f>
+        <f>W8/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y8" s="3" t="s">
@@ -5307,42 +5310,42 @@
     <row r="9" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4"/>
       <c r="P9" s="50" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="Q9" s="51">
-        <f t="shared" si="2"/>
+        <f>Q30</f>
         <v>2</v>
       </c>
       <c r="R9" s="52">
-        <f t="shared" si="3"/>
+        <f>Q9/$Q$5</f>
         <v>1</v>
       </c>
       <c r="S9" s="51">
-        <f t="shared" si="4"/>
+        <f>S30</f>
         <v>2</v>
       </c>
       <c r="T9" s="56">
-        <f t="shared" si="5"/>
+        <f>S9/$Q$5</f>
         <v>1</v>
       </c>
       <c r="U9" s="51">
-        <f t="shared" si="6"/>
+        <f>U30</f>
         <v>0</v>
       </c>
       <c r="V9" s="56">
-        <f t="shared" si="7"/>
+        <f>U9/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W9" s="51">
-        <f t="shared" si="8"/>
+        <f>W30</f>
         <v>0</v>
       </c>
       <c r="X9" s="56">
-        <f t="shared" si="9"/>
+        <f>W9/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AD9" s="7"/>
@@ -5354,42 +5357,42 @@
     <row r="10" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="P10" s="50" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="51">
-        <f t="shared" si="2"/>
+        <f>Q31</f>
+        <v>6</v>
+      </c>
+      <c r="R10" s="52">
+        <f>Q10/$Q$5</f>
         <v>3</v>
       </c>
-      <c r="R10" s="52">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
       <c r="S10" s="51">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>S31</f>
+        <v>6</v>
       </c>
       <c r="T10" s="56">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>S10/$Q$5</f>
+        <v>3</v>
       </c>
       <c r="U10" s="51">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>U31</f>
+        <v>0</v>
       </c>
       <c r="V10" s="56">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
+        <f>U10/$Q$5</f>
+        <v>0</v>
       </c>
       <c r="W10" s="51">
-        <f t="shared" si="8"/>
+        <f>W31</f>
         <v>0</v>
       </c>
       <c r="X10" s="56">
-        <f t="shared" si="9"/>
+        <f>W10/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="Z10" s="7"/>
       <c r="AD10" s="7"/>
@@ -5401,42 +5404,42 @@
     <row r="11" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4"/>
       <c r="P11" s="50" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="51">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>Q32</f>
+        <v>5</v>
       </c>
       <c r="R11" s="52">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>Q11/$Q$5</f>
+        <v>2.5</v>
       </c>
       <c r="S11" s="51">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>S32</f>
+        <v>5</v>
       </c>
       <c r="T11" s="56">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>S11/$Q$5</f>
+        <v>2.5</v>
       </c>
       <c r="U11" s="51">
-        <f t="shared" si="6"/>
+        <f>U32</f>
         <v>0</v>
       </c>
       <c r="V11" s="56">
-        <f t="shared" si="7"/>
+        <f>U11/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W11" s="51">
-        <f t="shared" si="8"/>
+        <f>W32</f>
         <v>0</v>
       </c>
       <c r="X11" s="56">
-        <f t="shared" si="9"/>
+        <f>W11/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="Z11" s="7"/>
       <c r="AD11" s="7"/>
@@ -5448,42 +5451,42 @@
     <row r="12" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="4"/>
       <c r="P12" s="50" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="51">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>Q33</f>
+        <v>1</v>
       </c>
       <c r="R12" s="52">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>Q12/$Q$5</f>
+        <v>0.5</v>
       </c>
       <c r="S12" s="51">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>S33</f>
+        <v>1</v>
       </c>
       <c r="T12" s="56">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>S12/$Q$5</f>
+        <v>0.5</v>
       </c>
       <c r="U12" s="51">
-        <f t="shared" si="6"/>
+        <f>U33</f>
         <v>0</v>
       </c>
       <c r="V12" s="56">
-        <f t="shared" si="7"/>
+        <f>U12/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W12" s="51">
-        <f t="shared" si="8"/>
+        <f>W33</f>
         <v>0</v>
       </c>
       <c r="X12" s="56">
-        <f t="shared" si="9"/>
+        <f>W12/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Z12" s="7"/>
       <c r="AD12" s="7"/>
@@ -5495,42 +5498,42 @@
     <row r="13" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="4"/>
       <c r="P13" s="50" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>Q34</f>
+        <v>1</v>
       </c>
       <c r="R13" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>Q13/$Q$5</f>
+        <v>0.5</v>
       </c>
       <c r="S13" s="51">
-        <f t="shared" si="4"/>
+        <f>S34</f>
         <v>0</v>
       </c>
       <c r="T13" s="56">
-        <f t="shared" si="5"/>
+        <f>S13/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U13" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>U34</f>
+        <v>1</v>
       </c>
       <c r="V13" s="56">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>U13/$Q$5</f>
+        <v>0.5</v>
       </c>
       <c r="W13" s="51">
-        <f t="shared" si="8"/>
+        <f>W34</f>
         <v>0</v>
       </c>
       <c r="X13" s="56">
-        <f t="shared" si="9"/>
+        <f>W13/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AD13" s="7"/>
@@ -5545,35 +5548,35 @@
         <v>78</v>
       </c>
       <c r="Q14" s="51">
-        <f t="shared" si="2"/>
+        <f>Q35</f>
         <v>0</v>
       </c>
       <c r="R14" s="52">
-        <f t="shared" si="3"/>
+        <f>Q14/$Q$5</f>
         <v>0</v>
       </c>
       <c r="S14" s="51">
-        <f t="shared" si="4"/>
+        <f>S35</f>
         <v>0</v>
       </c>
       <c r="T14" s="56">
-        <f t="shared" si="5"/>
+        <f>S14/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U14" s="51">
-        <f t="shared" si="6"/>
+        <f>U35</f>
         <v>0</v>
       </c>
       <c r="V14" s="56">
-        <f t="shared" si="7"/>
+        <f>U14/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W14" s="51">
-        <f t="shared" si="8"/>
+        <f>W35</f>
         <v>0</v>
       </c>
       <c r="X14" s="56">
-        <f t="shared" si="9"/>
+        <f>W14/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -5589,42 +5592,42 @@
     <row r="15" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="4"/>
       <c r="P15" s="50" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="51">
-        <f t="shared" si="2"/>
+        <f>Q36</f>
+        <v>5</v>
+      </c>
+      <c r="R15" s="52">
+        <f>Q15/$Q$5</f>
+        <v>2.5</v>
+      </c>
+      <c r="S15" s="51">
+        <f>S36</f>
+        <v>1</v>
+      </c>
+      <c r="T15" s="56">
+        <f>S15/$Q$5</f>
+        <v>0.5</v>
+      </c>
+      <c r="U15" s="51">
+        <f>U36</f>
+        <v>4</v>
+      </c>
+      <c r="V15" s="56">
+        <f>U15/$Q$5</f>
         <v>2</v>
       </c>
-      <c r="R15" s="52">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S15" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="51">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="V15" s="56">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="W15" s="51">
-        <f t="shared" si="8"/>
+        <f>W36</f>
         <v>0</v>
       </c>
       <c r="X15" s="56">
-        <f t="shared" si="9"/>
+        <f>W15/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AD15" s="7"/>
@@ -5636,42 +5639,42 @@
     <row r="16" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="4"/>
       <c r="P16" s="50" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="51">
-        <f t="shared" si="2"/>
+        <f>Q37</f>
         <v>7</v>
       </c>
       <c r="R16" s="52">
-        <f t="shared" si="3"/>
+        <f>Q16/$Q$5</f>
         <v>3.5</v>
       </c>
       <c r="S16" s="51">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>S37</f>
+        <v>1</v>
       </c>
       <c r="T16" s="56">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>S16/$Q$5</f>
+        <v>0.5</v>
       </c>
       <c r="U16" s="51">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>U37</f>
+        <v>6</v>
       </c>
       <c r="V16" s="56">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
+        <f>U16/$Q$5</f>
+        <v>3</v>
       </c>
       <c r="W16" s="51">
-        <f t="shared" si="8"/>
+        <f>W37</f>
         <v>0</v>
       </c>
       <c r="X16" s="56">
-        <f t="shared" si="9"/>
+        <f>W16/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="Z16" s="7"/>
       <c r="AD16" s="7"/>
@@ -5686,35 +5689,35 @@
         <v>88</v>
       </c>
       <c r="Q17" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>Q38</f>
+        <v>1</v>
       </c>
       <c r="R17" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>Q17/$Q$5</f>
+        <v>0.5</v>
       </c>
       <c r="S17" s="51">
-        <f t="shared" si="4"/>
+        <f>S38</f>
         <v>0</v>
       </c>
       <c r="T17" s="56">
-        <f t="shared" si="5"/>
+        <f>S17/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U17" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>U38</f>
+        <v>1</v>
       </c>
       <c r="V17" s="56">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>U17/$Q$5</f>
+        <v>0.5</v>
       </c>
       <c r="W17" s="51">
-        <f t="shared" si="8"/>
+        <f>W38</f>
         <v>0</v>
       </c>
       <c r="X17" s="56">
-        <f t="shared" si="9"/>
+        <f>W17/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y17" s="3" t="s">
@@ -5730,42 +5733,42 @@
     <row r="18" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="4"/>
       <c r="P18" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q18" s="60">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="Q18" s="51">
+        <f>Q39</f>
+        <v>1</v>
       </c>
       <c r="R18" s="52">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="60">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="T18" s="60">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U18" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="61">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="60">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="40" t="s">
-        <v>57</v>
+        <f>Q18/$Q$5</f>
+        <v>0.5</v>
+      </c>
+      <c r="S18" s="51">
+        <f>S39</f>
+        <v>1</v>
+      </c>
+      <c r="T18" s="56">
+        <f>S18/$Q$5</f>
+        <v>0.5</v>
+      </c>
+      <c r="U18" s="51">
+        <f>U39</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="56">
+        <f>U18/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="51">
+        <f>W39</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="56">
+        <f>W18/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="Z18" s="7"/>
       <c r="AD18" s="7"/>
@@ -5777,38 +5780,38 @@
     <row r="19" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="4"/>
       <c r="P19" s="50" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>Q40</f>
+        <v>1</v>
       </c>
       <c r="R19" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>Q19/$Q$5</f>
+        <v>0.5</v>
       </c>
       <c r="S19" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>S40</f>
+        <v>1</v>
       </c>
       <c r="T19" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>S19/$Q$5</f>
+        <v>0.5</v>
       </c>
       <c r="U19" s="51">
-        <f t="shared" si="6"/>
+        <f>U40</f>
         <v>0</v>
       </c>
       <c r="V19" s="56">
-        <f t="shared" si="7"/>
+        <f>U19/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W19" s="51">
-        <f t="shared" si="8"/>
+        <f>W40</f>
         <v>0</v>
       </c>
       <c r="X19" s="56">
-        <f t="shared" si="9"/>
+        <f>W19/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y19" s="3" t="s">
@@ -5824,42 +5827,42 @@
     <row r="20" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="4"/>
       <c r="P20" s="50" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="51">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>Q41</f>
+        <v>3</v>
       </c>
       <c r="R20" s="52">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>Q20/$Q$5</f>
+        <v>1.5</v>
       </c>
       <c r="S20" s="51">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>S41</f>
+        <v>3</v>
       </c>
       <c r="T20" s="56">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>S20/$Q$5</f>
+        <v>1.5</v>
       </c>
       <c r="U20" s="51">
-        <f t="shared" si="6"/>
+        <f>U41</f>
         <v>0</v>
       </c>
       <c r="V20" s="56">
-        <f t="shared" si="7"/>
+        <f>U20/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W20" s="51">
-        <f t="shared" si="8"/>
+        <f>W41</f>
         <v>0</v>
       </c>
       <c r="X20" s="56">
-        <f t="shared" si="9"/>
+        <f>W20/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Z20" s="7"/>
       <c r="AD20" s="7"/>
@@ -5871,42 +5874,42 @@
     <row r="21" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="4"/>
       <c r="P21" s="50" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="Q21" s="51">
-        <f t="shared" si="2"/>
+        <f>Q42</f>
         <v>2</v>
       </c>
       <c r="R21" s="52">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="51">
-        <f t="shared" si="4"/>
+        <f>Q21/$Q$5</f>
+        <v>1</v>
+      </c>
+      <c r="S21" s="60">
+        <f>S42</f>
         <v>2</v>
       </c>
-      <c r="T21" s="56">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U21" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="56">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="56">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>39</v>
+      <c r="T21" s="60">
+        <f>S21/$Q$5</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="60">
+        <f>U42</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="61">
+        <f>U21/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="60">
+        <f>W42</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="60">
+        <f>W21/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="Z21" s="7"/>
       <c r="AD21" s="7"/>
@@ -5917,42 +5920,42 @@
     </row>
     <row r="22" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P22" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q22" s="54">
-        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="Q22" s="51">
+        <f>Q43</f>
         <v>0</v>
       </c>
       <c r="R22" s="55">
-        <f t="shared" si="3"/>
+        <f>Q22/$Q$5</f>
         <v>0</v>
       </c>
       <c r="S22" s="54">
-        <f t="shared" si="4"/>
+        <f>S43</f>
         <v>0</v>
       </c>
       <c r="T22" s="56">
-        <f t="shared" si="5"/>
+        <f>S22/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U22" s="54">
-        <f t="shared" si="6"/>
+        <f>U43</f>
         <v>0</v>
       </c>
       <c r="V22" s="56">
-        <f t="shared" si="7"/>
+        <f>U22/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W22" s="54">
-        <f t="shared" si="8"/>
+        <f>W43</f>
         <v>0</v>
       </c>
       <c r="X22" s="56">
-        <f t="shared" si="9"/>
+        <f>W22/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Z22" s="7"/>
       <c r="AD22" s="7"/>
@@ -5965,36 +5968,36 @@
       <c r="P23" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="54">
-        <f t="shared" si="2"/>
+      <c r="Q23" s="51">
+        <f>Q44</f>
         <v>0</v>
       </c>
       <c r="R23" s="55">
-        <f t="shared" si="3"/>
+        <f>Q23/$Q$5</f>
         <v>0</v>
       </c>
       <c r="S23" s="54">
-        <f t="shared" si="4"/>
+        <f>S44</f>
         <v>0</v>
       </c>
       <c r="T23" s="63">
-        <f t="shared" si="5"/>
+        <f>S23/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U23" s="54">
-        <f t="shared" si="6"/>
+        <f>U44</f>
         <v>0</v>
       </c>
       <c r="V23" s="63">
-        <f t="shared" si="7"/>
+        <f>U23/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W23" s="54">
-        <f t="shared" si="8"/>
+        <f>W44</f>
         <v>0</v>
       </c>
       <c r="X23" s="63">
-        <f t="shared" si="9"/>
+        <f>W23/$Q$5</f>
         <v>0</v>
       </c>
       <c r="Y23" s="3" t="s">
@@ -6080,26 +6083,26 @@
       </c>
       <c r="Q29" s="44">
         <f>'1804'!R3+'1904'!R3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="29">
-        <f t="shared" ref="R29:R43" si="10">Q29/$Q$5</f>
-        <v>0</v>
+        <f t="shared" ref="R29:R43" si="2">Q29/$Q$5</f>
+        <v>0.5</v>
       </c>
       <c r="S29" s="27">
         <f>'1804'!S3+'1904'!S3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="28">
-        <f t="shared" ref="T29:T43" si="11">S29/$Q$5</f>
-        <v>0</v>
+        <f t="shared" ref="T29:T43" si="3">S29/$Q$5</f>
+        <v>0.5</v>
       </c>
       <c r="U29" s="27">
         <f>'1804'!T3+'1904'!T3</f>
         <v>0</v>
       </c>
       <c r="V29" s="28">
-        <f t="shared" ref="V29:V43" si="12">U29/$Q$5</f>
+        <f t="shared" ref="V29:V43" si="4">U29/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W29" s="27">
@@ -6107,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="28">
-        <f t="shared" ref="X29:X43" si="13">W29/$Q$5</f>
+        <f t="shared" ref="X29:X43" si="5">W29/$Q$5</f>
         <v>0</v>
       </c>
     </row>
@@ -6124,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="R30" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S30" s="27">
@@ -6132,7 +6135,7 @@
         <v>2</v>
       </c>
       <c r="T30" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U30" s="27">
@@ -6140,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W30" s="27">
@@ -6148,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6162,34 +6165,34 @@
       </c>
       <c r="Q31" s="44">
         <f>'1804'!R5+'1904'!R5</f>
+        <v>6</v>
+      </c>
+      <c r="R31" s="29">
+        <f t="shared" si="2"/>
         <v>3</v>
-      </c>
-      <c r="R31" s="29">
-        <f t="shared" si="10"/>
-        <v>1.5</v>
       </c>
       <c r="S31" s="27">
         <f>'1804'!S5+'1904'!S5</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T31" s="28">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="U31" s="27">
         <f>'1804'!T5+'1904'!T5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="28">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="W31" s="27">
         <f>'1804'!U5+'1904'!U5</f>
         <v>0</v>
       </c>
       <c r="X31" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6203,26 +6206,26 @@
       </c>
       <c r="Q32" s="44">
         <f>'1804'!R6+'1904'!R6</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R32" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2.5</v>
       </c>
       <c r="S32" s="27">
         <f>'1804'!S6+'1904'!S6</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T32" s="28">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="U32" s="27">
         <f>'1804'!T6+'1904'!T6</f>
         <v>0</v>
       </c>
       <c r="V32" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W32" s="27">
@@ -6230,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6243,26 +6246,26 @@
       </c>
       <c r="Q33" s="44">
         <f>'1804'!R7+'1904'!R7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R33" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="S33" s="27">
         <f>'1804'!S7+'1904'!S7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T33" s="28">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="U33" s="27">
         <f>'1804'!T7+'1904'!T7</f>
         <v>0</v>
       </c>
       <c r="V33" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W33" s="27">
@@ -6270,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6283,34 +6286,34 @@
       </c>
       <c r="Q34" s="44">
         <f>'1804'!R8+'1904'!R8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="S34" s="27">
         <f>'1804'!S8+'1904'!S8</f>
         <v>0</v>
       </c>
       <c r="T34" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U34" s="27">
         <f>'1804'!T8+'1904'!T8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.5</v>
       </c>
       <c r="W34" s="27">
         <f>'1804'!U8+'1904'!U8</f>
         <v>0</v>
       </c>
       <c r="X34" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6326,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S35" s="27">
@@ -6334,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U35" s="27">
@@ -6342,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W35" s="27">
@@ -6350,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6363,34 +6366,34 @@
       </c>
       <c r="Q36" s="44">
         <f>'1804'!R10+'1904'!R10</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R36" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2.5</v>
       </c>
       <c r="S36" s="27">
         <f>'1804'!S10+'1904'!S10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="28">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="U36" s="27">
         <f>'1804'!T10+'1904'!T10</f>
+        <v>4</v>
+      </c>
+      <c r="V36" s="28">
+        <f t="shared" si="4"/>
         <v>2</v>
-      </c>
-      <c r="V36" s="28">
-        <f t="shared" si="12"/>
-        <v>1</v>
       </c>
       <c r="W36" s="27">
         <f>'1804'!U10+'1904'!U10</f>
         <v>0</v>
       </c>
       <c r="X36" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6406,31 +6409,31 @@
         <v>7</v>
       </c>
       <c r="R37" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="S37" s="27">
         <f>'1804'!S11+'1904'!S11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37" s="28">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="U37" s="27">
         <f>'1804'!T11+'1904'!T11</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V37" s="28">
-        <f t="shared" si="12"/>
-        <v>2.5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="W37" s="27">
         <f>'1804'!U11+'1904'!U11</f>
         <v>0</v>
       </c>
       <c r="X37" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6443,34 +6446,34 @@
       </c>
       <c r="Q38" s="44">
         <f>'1804'!R12+'1904'!R12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="S38" s="27">
         <f>'1804'!S12+'1904'!S12</f>
         <v>0</v>
       </c>
       <c r="T38" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U38" s="27">
         <f>'1804'!T12+'1904'!T12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.5</v>
       </c>
       <c r="W38" s="27">
         <f>'1804'!U12+'1904'!U12</f>
         <v>0</v>
       </c>
       <c r="X38" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6480,26 +6483,26 @@
       </c>
       <c r="Q39" s="44">
         <f>'1804'!R13+'1904'!R13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="S39" s="27">
         <f>'1804'!S13+'1904'!S13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T39" s="28">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="U39" s="27">
         <f>'1804'!T13+'1904'!T13</f>
         <v>0</v>
       </c>
       <c r="V39" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W39" s="27">
@@ -6507,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z39" s="12"/>
@@ -6519,26 +6522,26 @@
       </c>
       <c r="Q40" s="44">
         <f>'1804'!R14+'1904'!R14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="S40" s="27">
         <f>'1804'!S14+'1904'!S14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="28">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="U40" s="27">
         <f>'1804'!T14+'1904'!T14</f>
         <v>0</v>
       </c>
       <c r="V40" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W40" s="27">
@@ -6546,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6556,26 +6559,26 @@
       </c>
       <c r="Q41" s="44">
         <f>'1804'!R15+'1904'!R15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R41" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
       <c r="S41" s="27">
         <f>'1804'!S15+'1904'!S15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T41" s="28">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="U41" s="27">
         <f>'1804'!T15+'1904'!T15</f>
         <v>0</v>
       </c>
       <c r="V41" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W41" s="27">
@@ -6583,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6599,7 +6602,7 @@
         <v>2</v>
       </c>
       <c r="R42" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S42" s="27">
@@ -6607,7 +6610,7 @@
         <v>2</v>
       </c>
       <c r="T42" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U42" s="27">
@@ -6615,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W42" s="27">
@@ -6623,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6643,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S43" s="27">
@@ -6651,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U43" s="27">
@@ -6659,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W43" s="27">
@@ -6667,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6687,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="29">
-        <f t="shared" ref="R44" si="14">Q44/$Q$5</f>
+        <f t="shared" ref="R44" si="6">Q44/$Q$5</f>
         <v>0</v>
       </c>
       <c r="S44" s="27">
@@ -6695,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="28">
-        <f t="shared" ref="T44" si="15">S44/$Q$5</f>
+        <f t="shared" ref="T44" si="7">S44/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U44" s="27">
@@ -6703,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="28">
-        <f t="shared" ref="V44" si="16">U44/$Q$5</f>
+        <f t="shared" ref="V44" si="8">U44/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W44" s="27">
@@ -6711,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="28">
-        <f t="shared" ref="X44" si="17">W44/$Q$5</f>
+        <f t="shared" ref="X44" si="9">W44/$Q$5</f>
         <v>0</v>
       </c>
     </row>
@@ -7792,7 +7795,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7882,32 +7885,32 @@
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <f>'1804'!C2</f>
+        <f>'1804'!$C$2</f>
         <v>45034</v>
       </c>
       <c r="B4" s="16">
-        <f>'1804'!L3</f>
+        <f>'1804'!$L$3</f>
         <v>2</v>
       </c>
       <c r="C4" s="16">
-        <f>'1804'!M3</f>
+        <f>'1804'!$M$3</f>
         <v>5</v>
       </c>
       <c r="D4" s="16">
-        <f>'1804'!O3</f>
+        <f>'1804'!$O$3</f>
         <v>1</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="17">
         <v>1</v>
@@ -7949,14 +7952,32 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="58"/>
+      <c r="A5" s="4">
+        <f>'1904'!$C$2</f>
+        <v>45035</v>
+      </c>
+      <c r="B5" s="16">
+        <f>'1904'!$L$3</f>
+        <v>7</v>
+      </c>
+      <c r="C5" s="16">
+        <f>'1904'!$M$3</f>
+        <v>9</v>
+      </c>
+      <c r="D5" s="16">
+        <f>'1904'!$O$3</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="58">
+        <v>2</v>
+      </c>
       <c r="L5" s="58"/>
-      <c r="M5" s="17"/>
+      <c r="M5" s="17">
+        <v>1</v>
+      </c>
       <c r="N5" s="17"/>
       <c r="O5" s="58"/>
       <c r="Q5" s="17"/>
@@ -15070,8 +15091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E7D6EA-0942-4896-8FCD-5B2FCE43B119}">
   <dimension ref="B1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26:U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -17516,7 +17537,7 @@
   <dimension ref="B1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -17600,15 +17621,15 @@
       </c>
       <c r="L3" s="24">
         <f>COUNTIF(C3:C30, "Loose Gooses")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M3" s="24">
         <f>COUNTIF(D3:D30, "Loose Gooses")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N3" s="23">
         <f t="shared" ref="N3:N5" si="0">L3/(L3+M3)</f>
-        <v>0.2857142857142857</v>
+        <v>0.4375</v>
       </c>
       <c r="O3" s="24">
         <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
@@ -17619,11 +17640,11 @@
       </c>
       <c r="R3" s="19">
         <f t="shared" ref="R3:R18" si="1">COUNTIF($E$3:$E$27, Q3)+U3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="20">
         <f t="shared" ref="S3:S18" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="20">
         <f t="shared" ref="T3:T18" si="3">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
@@ -17649,13 +17670,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F4" s="64" t="s">
         <v>167</v>
@@ -17674,15 +17695,15 @@
       </c>
       <c r="L4" s="24">
         <f>COUNTIF(C3:C30, "5 Musketeers")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M4" s="24">
         <f>COUNTIF(D3:D30, "5 Musketeers")</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N4" s="23">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O4" s="24">
         <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
@@ -17713,11 +17734,11 @@
       </c>
       <c r="X4" s="24" t="str">
         <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
-        <v>WW/LG</v>
+        <v/>
       </c>
       <c r="Y4" s="24" t="str">
         <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
-        <v/>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="5" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -17731,13 +17752,13 @@
         <v>34</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="G5" s="64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="64">
         <v>1</v>
@@ -17750,11 +17771,11 @@
       </c>
       <c r="L5" s="24">
         <f>COUNTIF(C3:C30, "Wet Willies")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M5" s="24">
         <f>COUNTIF(D3:D30, "Wet Willies")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N5" s="23">
         <f t="shared" si="0"/>
@@ -17769,15 +17790,15 @@
       </c>
       <c r="R5" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="20">
         <f t="shared" si="4"/>
@@ -17813,7 +17834,7 @@
         <v>167</v>
       </c>
       <c r="G6" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="64">
         <v>2</v>
@@ -17826,11 +17847,11 @@
       </c>
       <c r="R6" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T6" s="20">
         <f t="shared" si="3"/>
@@ -17858,22 +17879,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="64" t="s">
-        <v>39</v>
-      </c>
       <c r="E7" s="64" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F7" s="64" t="s">
         <v>167</v>
       </c>
       <c r="G7" s="64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="64">
         <v>1</v>
@@ -17883,11 +17904,11 @@
       </c>
       <c r="R7" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="20">
         <f t="shared" si="3"/>
@@ -17903,11 +17924,11 @@
       </c>
       <c r="X7" s="24" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>WW/5M</v>
       </c>
       <c r="Y7" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -17915,32 +17936,32 @@
         <v>5</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D8" s="64" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="G8" s="64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" s="64">
         <v>3</v>
       </c>
       <c r="I8" s="64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="2"/>
@@ -17948,7 +17969,7 @@
       </c>
       <c r="T8" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="20">
         <f t="shared" si="4"/>
@@ -17960,11 +17981,11 @@
       </c>
       <c r="X8" s="24" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>WW/LG</v>
       </c>
       <c r="Y8" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -17984,10 +18005,10 @@
         <v>167</v>
       </c>
       <c r="G9" s="64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" s="64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" s="64">
         <v>1</v>
@@ -18035,7 +18056,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="F10" s="64" t="s">
         <v>167</v>
@@ -18054,15 +18075,15 @@
       </c>
       <c r="R10" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U10" s="20">
         <f t="shared" si="4"/>
@@ -18092,7 +18113,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F11" s="64" t="s">
         <v>167</v>
@@ -18115,11 +18136,11 @@
       </c>
       <c r="S11" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="20">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U11" s="20">
         <f t="shared" si="4"/>
@@ -18149,7 +18170,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="F12" s="64" t="s">
         <v>167</v>
@@ -18161,14 +18182,14 @@
         <v>2</v>
       </c>
       <c r="I12" s="64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="20">
         <f t="shared" si="2"/>
@@ -18176,7 +18197,7 @@
       </c>
       <c r="T12" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="20">
         <f t="shared" si="4"/>
@@ -18200,22 +18221,22 @@
         <v>10</v>
       </c>
       <c r="C13" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="64" t="s">
-        <v>57</v>
-      </c>
       <c r="E13" s="64" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F13" s="64" t="s">
         <v>126</v>
       </c>
       <c r="G13" s="64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="64">
         <v>1</v>
@@ -18225,11 +18246,11 @@
       </c>
       <c r="R13" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="20">
         <f t="shared" si="3"/>
@@ -18241,7 +18262,7 @@
       </c>
       <c r="W13" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="X13" s="24" t="str">
         <f t="shared" si="6"/>
@@ -18249,7 +18270,7 @@
       </c>
       <c r="Y13" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -18257,19 +18278,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D14" s="64" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="G14" s="64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14" s="64">
         <v>3</v>
@@ -18282,11 +18303,11 @@
       </c>
       <c r="R14" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="20">
         <f t="shared" si="3"/>
@@ -18298,7 +18319,7 @@
       </c>
       <c r="W14" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="X14" s="24" t="str">
         <f t="shared" si="6"/>
@@ -18306,7 +18327,7 @@
       </c>
       <c r="Y14" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -18314,13 +18335,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="64" t="s">
-        <v>34</v>
-      </c>
       <c r="E15" s="64" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>126</v>
@@ -18339,11 +18360,11 @@
       </c>
       <c r="R15" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" s="20">
         <f t="shared" si="3"/>
@@ -18355,7 +18376,7 @@
       </c>
       <c r="W15" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="X15" s="24" t="str">
         <f t="shared" si="6"/>
@@ -18363,18 +18384,34 @@
       </c>
       <c r="Y15" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="B16" s="64">
+        <v>13</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="64">
+        <v>2</v>
+      </c>
+      <c r="H16" s="64">
+        <v>4</v>
+      </c>
+      <c r="I16" s="64">
+        <v>1</v>
+      </c>
       <c r="Q16" s="3" t="s">
         <v>76</v>
       </c>
@@ -18404,18 +18441,34 @@
       </c>
       <c r="Y16" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="B17" s="64">
+        <v>14</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="64">
+        <v>3</v>
+      </c>
+      <c r="H17" s="64">
+        <v>2</v>
+      </c>
+      <c r="I17" s="64">
+        <v>1</v>
+      </c>
       <c r="Q17" s="3" t="s">
         <v>79</v>
       </c>
@@ -18445,18 +18498,34 @@
       </c>
       <c r="Y17" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="18" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="B18" s="64">
+        <v>15</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="64">
+        <v>4</v>
+      </c>
+      <c r="H18" s="64">
+        <v>5</v>
+      </c>
+      <c r="I18" s="64">
+        <v>1</v>
+      </c>
       <c r="Q18" s="40" t="s">
         <v>161</v>
       </c>
@@ -18486,24 +18555,40 @@
       </c>
       <c r="Y18" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="19" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="B19" s="64">
+        <v>16</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="64">
+        <v>1</v>
+      </c>
+      <c r="H19" s="64">
+        <v>1</v>
+      </c>
+      <c r="I19" s="64">
+        <v>1</v>
+      </c>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="W19" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="X19" s="24" t="str">
         <f t="shared" si="6"/>
@@ -18514,16 +18599,38 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+    <row r="20" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="64">
+        <v>17</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="64">
+        <v>1</v>
+      </c>
+      <c r="H20" s="64">
+        <v>1</v>
+      </c>
+      <c r="I20" s="64">
+        <v>1</v>
+      </c>
       <c r="W20" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X20" s="24" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>WW/LG</v>
       </c>
       <c r="Y20" s="24" t="str">
         <f t="shared" si="7"/>
@@ -18531,13 +18638,37 @@
       </c>
     </row>
     <row r="21" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="64">
+        <v>18</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="64">
+        <v>2</v>
+      </c>
+      <c r="H21" s="64">
+        <v>2</v>
+      </c>
+      <c r="I21" s="64">
+        <v>2</v>
+      </c>
       <c r="W21" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X21" s="24" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>WW/5M</v>
       </c>
       <c r="Y21" s="24" t="str">
         <f t="shared" si="7"/>
@@ -18545,9 +18676,33 @@
       </c>
     </row>
     <row r="22" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="64">
+        <v>19</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="64">
+        <v>1</v>
+      </c>
+      <c r="H22" s="64">
+        <v>1</v>
+      </c>
+      <c r="I22" s="64">
+        <v>1</v>
+      </c>
       <c r="W22" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="X22" s="24" t="str">
         <f t="shared" si="6"/>
@@ -18559,11 +18714,30 @@
       </c>
     </row>
     <row r="23" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+      <c r="B23" s="64">
+        <v>20</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="64">
+        <v>1</v>
+      </c>
+      <c r="H23" s="64">
+        <v>1</v>
+      </c>
+      <c r="I23" s="64">
+        <v>1</v>
+      </c>
       <c r="Q23" s="3" t="s">
         <v>138</v>
       </c>
@@ -18577,15 +18751,34 @@
       </c>
       <c r="Y23" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="24" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E24" s="25"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="B24" s="64">
+        <v>21</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="64">
+        <v>2</v>
+      </c>
+      <c r="H24" s="64">
+        <v>2</v>
+      </c>
+      <c r="I24" s="64">
+        <v>1</v>
+      </c>
       <c r="W24" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -18596,15 +18789,34 @@
       </c>
       <c r="Y24" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E25" s="25"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="B25" s="64">
+        <v>22</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="64">
+        <v>1</v>
+      </c>
+      <c r="H25" s="64">
+        <v>1</v>
+      </c>
+      <c r="I25" s="64">
+        <v>1</v>
+      </c>
       <c r="Q25" s="9" t="s">
         <v>84</v>
       </c>
@@ -18622,7 +18834,7 @@
       </c>
       <c r="W25" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="X25" s="24" t="str">
         <f t="shared" si="6"/>
@@ -18634,22 +18846,41 @@
       </c>
     </row>
     <row r="26" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E26" s="25"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="B26" s="64">
+        <v>23</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="64">
+        <v>2</v>
+      </c>
+      <c r="H26" s="64">
+        <v>3</v>
+      </c>
+      <c r="I26" s="64">
+        <v>1</v>
+      </c>
       <c r="Q26" s="26">
         <f>C2</f>
         <v>45035</v>
       </c>
       <c r="R26" s="19">
         <f t="shared" ref="R26:U41" si="8">R3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="19">
         <f t="shared" si="8"/>
@@ -18661,7 +18892,7 @@
       </c>
       <c r="W26" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="X26" s="24" t="str">
         <f t="shared" si="6"/>
@@ -18673,11 +18904,30 @@
       </c>
     </row>
     <row r="27" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E27" s="25"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
+      <c r="B27" s="64">
+        <v>24</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="64">
+        <v>1</v>
+      </c>
+      <c r="H27" s="64">
+        <v>1</v>
+      </c>
+      <c r="I27" s="64">
+        <v>1</v>
+      </c>
       <c r="R27" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -18704,26 +18954,45 @@
       </c>
       <c r="Y27" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="28" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E28" s="25"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+      <c r="B28" s="64">
+        <v>25</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" s="64">
+        <v>1</v>
+      </c>
+      <c r="H28" s="64">
+        <v>1</v>
+      </c>
+      <c r="I28" s="64">
+        <v>1</v>
+      </c>
       <c r="R28" s="19">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S28" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T28" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="19">
         <f t="shared" si="8"/>
@@ -18735,7 +19004,7 @@
       </c>
       <c r="X28" s="24" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>WW/5M</v>
       </c>
       <c r="Y28" s="24" t="str">
         <f t="shared" si="7"/>
@@ -18750,11 +19019,11 @@
       <c r="I29" s="24"/>
       <c r="R29" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S29" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T29" s="19">
         <f t="shared" si="8"/>
@@ -18773,11 +19042,11 @@
       <c r="I30" s="24"/>
       <c r="R30" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="19">
         <f t="shared" si="8"/>
@@ -18791,7 +19060,7 @@
     <row r="31" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R31" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="19">
         <f t="shared" si="8"/>
@@ -18799,7 +19068,7 @@
       </c>
       <c r="T31" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="19">
         <f t="shared" si="8"/>
@@ -18827,15 +19096,15 @@
     <row r="33" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R33" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S33" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U33" s="19">
         <f t="shared" si="8"/>
@@ -18849,11 +19118,11 @@
       </c>
       <c r="S34" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="19">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U34" s="19">
         <f t="shared" si="8"/>
@@ -18863,7 +19132,7 @@
     <row r="35" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="19">
         <f t="shared" si="8"/>
@@ -18871,7 +19140,7 @@
       </c>
       <c r="T35" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="19">
         <f t="shared" si="8"/>
@@ -18881,11 +19150,11 @@
     <row r="36" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="19">
         <f t="shared" si="8"/>
@@ -18899,11 +19168,11 @@
     <row r="37" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="19">
         <f t="shared" si="8"/>
@@ -18917,11 +19186,11 @@
     <row r="38" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R38" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S38" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38" s="19">
         <f t="shared" si="8"/>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD190CA-817A-4C52-BDB7-C4FA2E8C3B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68DD42F-4762-43BA-8D88-114D990B7E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="168">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -344,9 +344,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>ThreePointers</t>
-  </si>
-  <si>
     <t>Angus</t>
   </si>
   <si>
@@ -461,9 +458,6 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>Insert Date Here</t>
-  </si>
-  <si>
     <t>Stats</t>
   </si>
   <si>
@@ -503,22 +497,7 @@
     <t>5M</t>
   </si>
   <si>
-    <t>For Stats Page:</t>
-  </si>
-  <si>
     <t>Nick Szogi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Finish Avg</t>
-  </si>
-  <si>
-    <t>Mid Avg</t>
-  </si>
-  <si>
-    <t>3 Avg</t>
   </si>
   <si>
     <t>Chris Tomkinson</t>
@@ -601,6 +580,18 @@
   <si>
     <t>Change on results.js</t>
   </si>
+  <si>
+    <t>Averages2</t>
+  </si>
+  <si>
+    <t>Averages3</t>
+  </si>
+  <si>
+    <t>Date goes here</t>
+  </si>
+  <si>
+    <t>COPY THIS</t>
+  </si>
 </sst>
 </file>
 
@@ -610,7 +601,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +677,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -713,7 +712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -815,12 +814,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -875,36 +898,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E4ED72E7-E964-4884-BAF1-D3A03BDB6523}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -915,6 +958,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -936,7 +981,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -952,12 +997,49 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
           <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
+        </left>
+        <right style="thin">
           <color indexed="64"/>
-        </horizontal>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -979,7 +1061,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -995,12 +1077,49 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
           <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
+        </left>
+        <right style="thin">
           <color indexed="64"/>
-        </horizontal>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1022,7 +1141,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -1038,12 +1157,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1062,12 +1177,14 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1081,98 +1198,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1195,7 +1222,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -1211,12 +1238,49 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
           <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
+        </left>
+        <right style="thin">
           <color indexed="64"/>
-        </horizontal>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1238,10 +1302,34 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1254,12 +1342,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
           <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1277,80 +1366,16 @@
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1359,12 +1384,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -1577,38 +1596,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BA5219-6DFE-46F0-966E-5F60422B7104}" name="Table1" displayName="Table1" ref="P7:Y23" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="P7:Y23" xr:uid="{65BA5219-6DFE-46F0-966E-5F60422B7104}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P8:Y23">
-    <sortCondition ref="P7:P23"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="P7:Y23" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="P7:Y23" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8B9A5B7C-C49F-4129-BF1D-47938C1E98E7}" name="Scoring" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{FE454E58-6ABE-4634-8B4F-7A281F4EFD11}" name="Points" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="8">
       <calculatedColumnFormula>Q29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{916737CE-56A3-41CA-B775-884324D94711}" name="Average" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="7">
       <calculatedColumnFormula>Q8/$Q$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5AA4CB67-A535-42CA-A721-4835D4FE4579}" name="Finishes" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="6">
       <calculatedColumnFormula>S29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EF168122-F812-481E-9E07-71853177A285}" name="Finish Avg" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="5">
       <calculatedColumnFormula>S8/$Q$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FCBFC22A-B6FF-4C2F-9EC5-7886B05E89A5}" name="Midranges" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="4">
       <calculatedColumnFormula>U29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5DF788EA-13E7-42F7-8FB8-D02E9139C234}" name="Mid Avg" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="3">
       <calculatedColumnFormula>U8/$Q$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D7F0920D-8F77-4996-9F9C-D656593D74EA}" name="Threes" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="2">
       <calculatedColumnFormula>W29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{21BA7002-8114-4C39-AAA4-DF9F1F48F5F0}" name="3 Avg" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="1">
       <calculatedColumnFormula>W8/$Q$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{16839C82-F55F-4C82-87DF-5566B3DAC6D9}" name="Team" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2866,7 +2882,7 @@
   <dimension ref="B1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:K18"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2998,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="U3" s="1" t="str">
         <f t="shared" ref="U3:U18" si="0">IF(C3="5 Musketeers", $X$3, IF(C3="Loose Gooses", $X$4, $X$5))</f>
@@ -3052,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="U4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3115,7 +3131,7 @@
         <v>42</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="U5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3181,7 +3197,7 @@
         <v>42</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3299,7 +3315,7 @@
         <v>45</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="U8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3356,7 +3372,7 @@
         <v>54</v>
       </c>
       <c r="T9" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="U9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3419,7 +3435,7 @@
         <v>41</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3540,7 +3556,7 @@
         <v>42</v>
       </c>
       <c r="T12" s="24" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="U12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3600,7 +3616,7 @@
         <v>42</v>
       </c>
       <c r="T13" s="24" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="U13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3657,7 +3673,7 @@
         <v>70</v>
       </c>
       <c r="T14" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="U14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3784,7 +3800,7 @@
         <v>42</v>
       </c>
       <c r="T16" s="24" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="U16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3838,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="U17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3854,7 +3870,7 @@
     </row>
     <row r="18" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="40" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>57</v>
@@ -3892,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="U18" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3915,11 +3931,15 @@
       <c r="B20" s="1"/>
       <c r="D20" s="41"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="38"/>
       <c r="H20" s="41"/>
       <c r="I20" s="38"/>
       <c r="J20" s="41"/>
       <c r="K20" s="38"/>
+      <c r="L20" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
       <c r="X20" s="3" t="s">
         <v>83</v>
       </c>
@@ -3927,187 +3947,659 @@
     <row r="21" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="38"/>
+      <c r="D21" s="41" t="str">
+        <f>CHAR(34)&amp;"PPG"&amp;CHAR(34)</f>
+        <v>"PPG"</v>
+      </c>
+      <c r="E21" s="41" t="str">
+        <f>CHAR(34)&amp;"TP"&amp;CHAR(34)</f>
+        <v>"TP"</v>
+      </c>
+      <c r="F21" s="41" t="str">
+        <f>CHAR(34)&amp;"FPG"&amp;CHAR(34)</f>
+        <v>"FPG"</v>
+      </c>
+      <c r="G21" s="41" t="str">
+        <f>CHAR(34)&amp;"TF"&amp;CHAR(34)</f>
+        <v>"TF"</v>
+      </c>
+      <c r="H21" s="41" t="str">
+        <f>CHAR(34)&amp;"MPG"&amp;CHAR(34)</f>
+        <v>"MPG"</v>
+      </c>
+      <c r="I21" s="41" t="str">
+        <f>CHAR(34)&amp;"TM"&amp;CHAR(34)</f>
+        <v>"TM"</v>
+      </c>
+      <c r="J21" s="41" t="str">
+        <f>CHAR(34)&amp;"TPG"&amp;CHAR(34)</f>
+        <v>"TPG"</v>
+      </c>
+      <c r="K21" s="41" t="str">
+        <f>CHAR(34)&amp;"TT"&amp;CHAR(34)</f>
+        <v>"TT"</v>
+      </c>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
       <c r="X21" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="4"/>
-      <c r="C22" s="1"/>
       <c r="D22" s="41" t="str">
-        <f>CHAR(34)&amp;D3&amp;CHAR(34)</f>
-        <v>"0.5"</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="38"/>
+        <f>CHAR(34)&amp;D3&amp;CHAR(34)&amp;","</f>
+        <v>"0.5",</v>
+      </c>
+      <c r="E22" s="41" t="str">
+        <f t="shared" ref="E22:K22" si="2">CHAR(34)&amp;E3&amp;CHAR(34)&amp;","</f>
+        <v>"1",</v>
+      </c>
+      <c r="F22" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>"0.5",</v>
+      </c>
+      <c r="G22" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>"1",</v>
+      </c>
+      <c r="H22" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>"0",</v>
+      </c>
+      <c r="I22" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>"0",</v>
+      </c>
+      <c r="J22" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>"0",</v>
+      </c>
+      <c r="K22" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>"0",</v>
+      </c>
+      <c r="L22" s="41" t="str">
+        <f>D21&amp;":["&amp;D22&amp;D23&amp;D24&amp;D25&amp;D26&amp;D27&amp;D28&amp;D29&amp;D30&amp;D31&amp;D32&amp;D33&amp;D34&amp;D35&amp;D36&amp;D37&amp;"],"</f>
+        <v>"PPG":["0.5","1","3","2.5","0.5","0.5","0","2.5","3.5","0.5","0.5","0.5","1.5","1","0","0"],</v>
+      </c>
       <c r="X22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="4"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="38"/>
+      <c r="D23" s="41" t="str">
+        <f t="shared" ref="D23:K23" si="3">CHAR(34)&amp;D4&amp;CHAR(34)&amp;","</f>
+        <v>"1",</v>
+      </c>
+      <c r="E23" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>"2",</v>
+      </c>
+      <c r="F23" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>"1",</v>
+      </c>
+      <c r="G23" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>"2",</v>
+      </c>
+      <c r="H23" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>"0",</v>
+      </c>
+      <c r="I23" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>"0",</v>
+      </c>
+      <c r="J23" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>"0",</v>
+      </c>
+      <c r="K23" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>"0",</v>
+      </c>
+      <c r="L23" t="str">
+        <f>E21&amp;":["&amp;E22&amp;E23&amp;E24&amp;E25&amp;E26&amp;E27&amp;E28&amp;E29&amp;E30&amp;E31&amp;E32&amp;E33&amp;E34&amp;E35&amp;E36&amp;E37&amp;"],"</f>
+        <v>"TP":["1","2","6","5","1","1","0","5","7","1","1","1","3","2","0","0"],</v>
+      </c>
       <c r="X23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D24" s="41"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="38"/>
+      <c r="D24" s="41" t="str">
+        <f t="shared" ref="D24:K24" si="4">CHAR(34)&amp;D5&amp;CHAR(34)&amp;","</f>
+        <v>"3",</v>
+      </c>
+      <c r="E24" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>"6",</v>
+      </c>
+      <c r="F24" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>"3",</v>
+      </c>
+      <c r="G24" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>"6",</v>
+      </c>
+      <c r="H24" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>"0",</v>
+      </c>
+      <c r="I24" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>"0",</v>
+      </c>
+      <c r="J24" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>"0",</v>
+      </c>
+      <c r="K24" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>"0",</v>
+      </c>
+      <c r="L24" t="str">
+        <f>F21&amp;":["&amp;F22&amp;F23&amp;F24&amp;F25&amp;F26&amp;F27&amp;F28&amp;F29&amp;F30&amp;F31&amp;F32&amp;F33&amp;F34&amp;F35&amp;F36&amp;F37&amp;"],"</f>
+        <v>"FPG":["0.5","1","3","2.5","0.5","0","0","0.5","0.5","0","0.5","0.5","1.5","1","0","0"],</v>
+      </c>
       <c r="X24" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D25" s="41"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="38"/>
+      <c r="D25" s="41" t="str">
+        <f t="shared" ref="D25:K25" si="5">CHAR(34)&amp;D6&amp;CHAR(34)&amp;","</f>
+        <v>"2.5",</v>
+      </c>
+      <c r="E25" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>"5",</v>
+      </c>
+      <c r="F25" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>"2.5",</v>
+      </c>
+      <c r="G25" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>"5",</v>
+      </c>
+      <c r="H25" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>"0",</v>
+      </c>
+      <c r="I25" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>"0",</v>
+      </c>
+      <c r="J25" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>"0",</v>
+      </c>
+      <c r="K25" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>"0",</v>
+      </c>
+      <c r="L25" t="str">
+        <f>G21&amp;":["&amp;G22&amp;G23&amp;G24&amp;G25&amp;G26&amp;G27&amp;G28&amp;G29&amp;G30&amp;G31&amp;G32&amp;G33&amp;G34&amp;G35&amp;G36&amp;G37&amp;"],"</f>
+        <v>"TF":["1","2","6","5","1","0","0","1","1","0","1","1","3","2","0","0"],</v>
+      </c>
     </row>
     <row r="26" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D26" s="41"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="38"/>
+      <c r="D26" s="41" t="str">
+        <f t="shared" ref="D26:K26" si="6">CHAR(34)&amp;D7&amp;CHAR(34)&amp;","</f>
+        <v>"0.5",</v>
+      </c>
+      <c r="E26" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>"1",</v>
+      </c>
+      <c r="F26" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>"0.5",</v>
+      </c>
+      <c r="G26" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>"1",</v>
+      </c>
+      <c r="H26" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>"0",</v>
+      </c>
+      <c r="I26" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>"0",</v>
+      </c>
+      <c r="J26" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>"0",</v>
+      </c>
+      <c r="K26" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>"0",</v>
+      </c>
+      <c r="L26" t="str">
+        <f>H21&amp;":["&amp;H22&amp;H23&amp;H24&amp;H25&amp;H26&amp;H27&amp;H28&amp;H29&amp;H30&amp;H31&amp;H32&amp;H33&amp;H34&amp;H35&amp;H36&amp;H37&amp;"],"</f>
+        <v>"MPG":["0","0","0","0","0","0.5","0","2","3","0.5","0","0","0","0","0","0"],</v>
+      </c>
     </row>
     <row r="27" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D27" s="41"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="38"/>
+      <c r="D27" s="41" t="str">
+        <f t="shared" ref="D27:K27" si="7">CHAR(34)&amp;D8&amp;CHAR(34)&amp;","</f>
+        <v>"0.5",</v>
+      </c>
+      <c r="E27" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>"1",</v>
+      </c>
+      <c r="F27" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>"0",</v>
+      </c>
+      <c r="G27" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>"0",</v>
+      </c>
+      <c r="H27" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>"0.5",</v>
+      </c>
+      <c r="I27" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>"1",</v>
+      </c>
+      <c r="J27" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>"0",</v>
+      </c>
+      <c r="K27" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>"0",</v>
+      </c>
+      <c r="L27" t="str">
+        <f>I21&amp;":["&amp;I22&amp;I23&amp;I24&amp;I25&amp;I26&amp;I27&amp;I28&amp;I29&amp;I30&amp;I31&amp;I32&amp;I33&amp;I34&amp;I35&amp;I36&amp;I37&amp;"],"</f>
+        <v>"TM":["0","0","0","0","0","1","0","4","6","1","0","0","0","0","0","0"],</v>
+      </c>
     </row>
     <row r="28" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="41"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="38"/>
+      <c r="D28" s="41" t="str">
+        <f t="shared" ref="D28:K28" si="8">CHAR(34)&amp;D9&amp;CHAR(34)&amp;","</f>
+        <v>"0",</v>
+      </c>
+      <c r="E28" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>"0",</v>
+      </c>
+      <c r="F28" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>"0",</v>
+      </c>
+      <c r="G28" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>"0",</v>
+      </c>
+      <c r="H28" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>"0",</v>
+      </c>
+      <c r="I28" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>"0",</v>
+      </c>
+      <c r="J28" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>"0",</v>
+      </c>
+      <c r="K28" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>"0",</v>
+      </c>
+      <c r="L28" t="str">
+        <f>J21&amp;":["&amp;J22&amp;J23&amp;J24&amp;J25&amp;J26&amp;J27&amp;J28&amp;J29&amp;J30&amp;J31&amp;J32&amp;J33&amp;J34&amp;J35&amp;J36&amp;J37&amp;"],"</f>
+        <v>"TPG":["0","0","0","0","0","0","0","0","0","0","0","0","0","0","0","0"],</v>
+      </c>
     </row>
     <row r="29" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D29" s="41"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="38"/>
+      <c r="D29" s="41" t="str">
+        <f t="shared" ref="D29:K29" si="9">CHAR(34)&amp;D10&amp;CHAR(34)&amp;","</f>
+        <v>"2.5",</v>
+      </c>
+      <c r="E29" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>"5",</v>
+      </c>
+      <c r="F29" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>"0.5",</v>
+      </c>
+      <c r="G29" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>"1",</v>
+      </c>
+      <c r="H29" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>"2",</v>
+      </c>
+      <c r="I29" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>"4",</v>
+      </c>
+      <c r="J29" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>"0",</v>
+      </c>
+      <c r="K29" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>"0",</v>
+      </c>
+      <c r="L29" t="str">
+        <f>K21&amp;":["&amp;K22&amp;K23&amp;K24&amp;K25&amp;K26&amp;K27&amp;K28&amp;K29&amp;K30&amp;K31&amp;K32&amp;K33&amp;K34&amp;K35&amp;K36&amp;K37&amp;"],"</f>
+        <v>"TT":["0","0","0","0","0","0","0","0","0","0","0","0","0","0","0","0"],</v>
+      </c>
     </row>
     <row r="30" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D30" s="41"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="38"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41" t="str">
+        <f t="shared" ref="D30:K30" si="10">CHAR(34)&amp;D11&amp;CHAR(34)&amp;","</f>
+        <v>"3.5",</v>
+      </c>
+      <c r="E30" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v>"7",</v>
+      </c>
+      <c r="F30" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v>"0.5",</v>
+      </c>
+      <c r="G30" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v>"1",</v>
+      </c>
+      <c r="H30" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v>"3",</v>
+      </c>
+      <c r="I30" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v>"6",</v>
+      </c>
+      <c r="J30" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v>"0",</v>
+      </c>
+      <c r="K30" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v>"0",</v>
+      </c>
     </row>
     <row r="31" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D31" s="41"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="38"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41" t="str">
+        <f t="shared" ref="D31:K31" si="11">CHAR(34)&amp;D12&amp;CHAR(34)&amp;","</f>
+        <v>"0.5",</v>
+      </c>
+      <c r="E31" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v>"1",</v>
+      </c>
+      <c r="F31" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v>"0",</v>
+      </c>
+      <c r="G31" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v>"0",</v>
+      </c>
+      <c r="H31" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v>"0.5",</v>
+      </c>
+      <c r="I31" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v>"1",</v>
+      </c>
+      <c r="J31" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v>"0",</v>
+      </c>
+      <c r="K31" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v>"0",</v>
+      </c>
     </row>
     <row r="32" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D32" s="41"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="38"/>
-    </row>
-    <row r="33" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D33" s="41"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="38"/>
-    </row>
-    <row r="34" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D34" s="41"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="38"/>
-    </row>
-    <row r="35" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D35" s="38"/>
-    </row>
-    <row r="36" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D36" s="38"/>
-    </row>
-    <row r="37" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D37" s="38"/>
-      <c r="J37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41" t="str">
+        <f t="shared" ref="D32:K32" si="12">CHAR(34)&amp;D13&amp;CHAR(34)&amp;","</f>
+        <v>"0.5",</v>
+      </c>
+      <c r="E32" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v>"1",</v>
+      </c>
+      <c r="F32" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v>"0.5",</v>
+      </c>
+      <c r="G32" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v>"1",</v>
+      </c>
+      <c r="H32" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v>"0",</v>
+      </c>
+      <c r="I32" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v>"0",</v>
+      </c>
+      <c r="J32" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v>"0",</v>
+      </c>
+      <c r="K32" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v>"0",</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41" t="str">
+        <f t="shared" ref="D33:K33" si="13">CHAR(34)&amp;D14&amp;CHAR(34)&amp;","</f>
+        <v>"0.5",</v>
+      </c>
+      <c r="E33" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v>"1",</v>
+      </c>
+      <c r="F33" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v>"0.5",</v>
+      </c>
+      <c r="G33" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v>"1",</v>
+      </c>
+      <c r="H33" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v>"0",</v>
+      </c>
+      <c r="I33" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v>"0",</v>
+      </c>
+      <c r="J33" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v>"0",</v>
+      </c>
+      <c r="K33" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v>"0",</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="41"/>
+      <c r="D34" s="41" t="str">
+        <f t="shared" ref="D34:K34" si="14">CHAR(34)&amp;D15&amp;CHAR(34)&amp;","</f>
+        <v>"1.5",</v>
+      </c>
+      <c r="E34" s="41" t="str">
+        <f t="shared" si="14"/>
+        <v>"3",</v>
+      </c>
+      <c r="F34" s="41" t="str">
+        <f t="shared" si="14"/>
+        <v>"1.5",</v>
+      </c>
+      <c r="G34" s="41" t="str">
+        <f t="shared" si="14"/>
+        <v>"3",</v>
+      </c>
+      <c r="H34" s="41" t="str">
+        <f t="shared" si="14"/>
+        <v>"0",</v>
+      </c>
+      <c r="I34" s="41" t="str">
+        <f t="shared" si="14"/>
+        <v>"0",</v>
+      </c>
+      <c r="J34" s="41" t="str">
+        <f t="shared" si="14"/>
+        <v>"0",</v>
+      </c>
+      <c r="K34" s="41" t="str">
+        <f t="shared" si="14"/>
+        <v>"0",</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="41"/>
+      <c r="D35" s="41" t="str">
+        <f t="shared" ref="D35:K35" si="15">CHAR(34)&amp;D16&amp;CHAR(34)&amp;","</f>
+        <v>"1",</v>
+      </c>
+      <c r="E35" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v>"2",</v>
+      </c>
+      <c r="F35" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v>"1",</v>
+      </c>
+      <c r="G35" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v>"2",</v>
+      </c>
+      <c r="H35" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v>"0",</v>
+      </c>
+      <c r="I35" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v>"0",</v>
+      </c>
+      <c r="J35" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v>"0",</v>
+      </c>
+      <c r="K35" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v>"0",</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C36" s="41"/>
+      <c r="D36" s="41" t="str">
+        <f t="shared" ref="D36:K36" si="16">CHAR(34)&amp;D17&amp;CHAR(34)&amp;","</f>
+        <v>"0",</v>
+      </c>
+      <c r="E36" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>"0",</v>
+      </c>
+      <c r="F36" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>"0",</v>
+      </c>
+      <c r="G36" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>"0",</v>
+      </c>
+      <c r="H36" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>"0",</v>
+      </c>
+      <c r="I36" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>"0",</v>
+      </c>
+      <c r="J36" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>"0",</v>
+      </c>
+      <c r="K36" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>"0",</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="41"/>
+      <c r="D37" s="41" t="str">
+        <f>CHAR(34)&amp;D18&amp;CHAR(34)</f>
+        <v>"0"</v>
+      </c>
+      <c r="E37" s="41" t="str">
+        <f t="shared" ref="E37:K37" si="17">CHAR(34)&amp;E18&amp;CHAR(34)</f>
+        <v>"0"</v>
+      </c>
+      <c r="F37" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v>"0"</v>
+      </c>
+      <c r="G37" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v>"0"</v>
+      </c>
+      <c r="H37" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v>"0"</v>
+      </c>
+      <c r="I37" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v>"0"</v>
+      </c>
+      <c r="J37" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v>"0"</v>
+      </c>
+      <c r="K37" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v>"0"</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+    </row>
+    <row r="40" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5061,6 +5553,9 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L20:N21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -5071,8 +5566,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5080,12 +5575,12 @@
     <col min="1" max="2" width="8.73046875" customWidth="1"/>
     <col min="3" max="3" width="12.1328125" customWidth="1"/>
     <col min="4" max="17" width="8.73046875" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" customWidth="1"/>
-    <col min="19" max="20" width="10.1328125" customWidth="1"/>
-    <col min="21" max="21" width="11.19921875" customWidth="1"/>
-    <col min="22" max="22" width="11.1328125" customWidth="1"/>
+    <col min="18" max="18" width="9.53125" customWidth="1"/>
+    <col min="19" max="19" width="10.1328125" customWidth="1"/>
+    <col min="20" max="20" width="10.265625" customWidth="1"/>
+    <col min="21" max="22" width="11.33203125" customWidth="1"/>
     <col min="23" max="23" width="8.73046875" customWidth="1"/>
-    <col min="24" max="24" width="11.1328125" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" customWidth="1"/>
     <col min="25" max="25" width="12.796875" customWidth="1"/>
     <col min="26" max="38" width="8.73046875" customWidth="1"/>
   </cols>
@@ -5093,7 +5588,7 @@
     <row r="1" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5102,19 +5597,19 @@
         <v>84</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -5139,19 +5634,19 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="Q5" s="1">
         <f>Q26</f>
@@ -5205,7 +5700,7 @@
     <row r="7" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4"/>
       <c r="I7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:L7" si="1">J6/$I$6</f>
@@ -5220,31 +5715,31 @@
         <v>0.24324324324324326</v>
       </c>
       <c r="P7" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="46" t="s">
         <v>8</v>
       </c>
       <c r="R7" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S7" s="47" t="s">
         <v>9</v>
       </c>
       <c r="T7" s="48" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="U7" s="48" t="s">
         <v>10</v>
       </c>
       <c r="V7" s="48" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="W7" s="47" t="s">
         <v>11</v>
       </c>
       <c r="X7" s="48" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="Y7" s="49" t="s">
         <v>13</v>
@@ -5262,42 +5757,42 @@
     </row>
     <row r="8" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
-      <c r="P8" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="51">
-        <f>Q29</f>
+      <c r="P8" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="59">
+        <f t="shared" ref="Q8:Q23" si="2">Q29</f>
         <v>1</v>
       </c>
-      <c r="R8" s="52">
-        <f>Q8/$Q$5</f>
+      <c r="R8" s="51">
+        <f t="shared" ref="R8:R23" si="3">Q8/$Q$5</f>
         <v>0.5</v>
       </c>
-      <c r="S8" s="51">
-        <f>S29</f>
+      <c r="S8" s="60">
+        <f t="shared" ref="S8:S23" si="4">S29</f>
         <v>1</v>
       </c>
-      <c r="T8" s="56">
-        <f>S8/$Q$5</f>
+      <c r="T8" s="50">
+        <f t="shared" ref="T8:T23" si="5">S8/$Q$5</f>
         <v>0.5</v>
       </c>
-      <c r="U8" s="51">
-        <f>U29</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="56">
-        <f>U8/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="51">
-        <f>W29</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="56">
-        <f>W8/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" t="s">
+      <c r="U8" s="60">
+        <f t="shared" ref="U8:U23" si="6">U29</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="50">
+        <f t="shared" ref="V8:V23" si="7">U8/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="60">
+        <f t="shared" ref="W8:W23" si="8">W29</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="50">
+        <f t="shared" ref="X8:X23" si="9">W8/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="62" t="s">
         <v>34</v>
       </c>
       <c r="Z8" s="7"/>
@@ -5309,43 +5804,43 @@
     </row>
     <row r="9" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4"/>
-      <c r="P9" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q9" s="51">
-        <f>Q30</f>
+      <c r="P9" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="59">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R9" s="52">
-        <f>Q9/$Q$5</f>
+      <c r="R9" s="51">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S9" s="51">
-        <f>S30</f>
+      <c r="S9" s="60">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="T9" s="56">
-        <f>S9/$Q$5</f>
+      <c r="T9" s="50">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="U9" s="51">
-        <f>U30</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="56">
-        <f>U9/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="51">
-        <f>W30</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="56">
-        <f>W9/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>57</v>
+      <c r="U9" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="62" t="s">
+        <v>39</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AD9" s="7"/>
@@ -5356,43 +5851,43 @@
     </row>
     <row r="10" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
-      <c r="P10" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="51">
-        <f>Q31</f>
+      <c r="P10" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="59">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="R10" s="52">
-        <f>Q10/$Q$5</f>
+      <c r="R10" s="51">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="S10" s="51">
-        <f>S31</f>
+      <c r="S10" s="60">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="T10" s="56">
-        <f>S10/$Q$5</f>
+      <c r="T10" s="50">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="U10" s="51">
-        <f>U31</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="56">
-        <f>U10/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="51">
-        <f>W31</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="56">
-        <f>W10/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>57</v>
+      <c r="U10" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="62" t="s">
+        <v>34</v>
       </c>
       <c r="Z10" s="7"/>
       <c r="AD10" s="7"/>
@@ -5403,43 +5898,43 @@
     </row>
     <row r="11" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4"/>
-      <c r="P11" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="51">
-        <f>Q32</f>
+      <c r="P11" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="59">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R11" s="52">
-        <f>Q11/$Q$5</f>
+      <c r="R11" s="51">
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="S11" s="51">
-        <f>S32</f>
+      <c r="S11" s="60">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="T11" s="56">
-        <f>S11/$Q$5</f>
+      <c r="T11" s="50">
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="U11" s="51">
-        <f>U32</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="56">
-        <f>U11/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="51">
-        <f>W32</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="56">
-        <f>W11/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>57</v>
+      <c r="U11" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="62" t="s">
+        <v>39</v>
       </c>
       <c r="Z11" s="7"/>
       <c r="AD11" s="7"/>
@@ -5450,42 +5945,42 @@
     </row>
     <row r="12" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="4"/>
-      <c r="P12" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="51">
-        <f>Q33</f>
+      <c r="P12" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="59">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R12" s="52">
-        <f>Q12/$Q$5</f>
+      <c r="R12" s="51">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="S12" s="51">
-        <f>S33</f>
+      <c r="S12" s="60">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T12" s="56">
-        <f>S12/$Q$5</f>
+      <c r="T12" s="50">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="U12" s="51">
-        <f>U33</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="56">
-        <f>U12/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="51">
-        <f>W33</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="56">
-        <f>W12/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3" t="s">
+      <c r="U12" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="62" t="s">
         <v>39</v>
       </c>
       <c r="Z12" s="7"/>
@@ -5497,43 +5992,43 @@
     </row>
     <row r="13" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="4"/>
-      <c r="P13" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="51">
-        <f>Q34</f>
+      <c r="P13" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="59">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R13" s="52">
-        <f>Q13/$Q$5</f>
+      <c r="R13" s="51">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="S13" s="51">
-        <f>S34</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="56">
-        <f>S13/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="51">
-        <f>U34</f>
+      <c r="S13" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="60">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="V13" s="56">
-        <f>U13/$Q$5</f>
+      <c r="V13" s="50">
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="W13" s="51">
-        <f>W34</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="56">
-        <f>W13/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>34</v>
+      <c r="W13" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="62" t="s">
+        <v>39</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AD13" s="7"/>
@@ -5544,42 +6039,42 @@
     </row>
     <row r="14" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
-      <c r="P14" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="51">
-        <f>Q35</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="52">
-        <f>Q14/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="51">
-        <f>S35</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="56">
-        <f>S14/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="51">
-        <f>U35</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="56">
-        <f>U14/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="51">
-        <f>W35</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="56">
-        <f>W14/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="P14" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="62" t="s">
         <v>57</v>
       </c>
       <c r="Z14" s="7"/>
@@ -5591,43 +6086,43 @@
     </row>
     <row r="15" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="4"/>
-      <c r="P15" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q15" s="51">
-        <f>Q36</f>
+      <c r="P15" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="59">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R15" s="52">
-        <f>Q15/$Q$5</f>
+      <c r="R15" s="51">
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="S15" s="51">
-        <f>S36</f>
+      <c r="S15" s="60">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T15" s="56">
-        <f>S15/$Q$5</f>
+      <c r="T15" s="50">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="U15" s="51">
-        <f>U36</f>
+      <c r="U15" s="60">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="V15" s="56">
-        <f>U15/$Q$5</f>
+      <c r="V15" s="50">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="W15" s="51">
-        <f>W36</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="56">
-        <f>W15/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>39</v>
+      <c r="W15" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="62" t="s">
+        <v>57</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AD15" s="7"/>
@@ -5638,43 +6133,43 @@
     </row>
     <row r="16" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="4"/>
-      <c r="P16" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="51">
-        <f>Q37</f>
+      <c r="P16" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="59">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="R16" s="52">
-        <f>Q16/$Q$5</f>
+      <c r="R16" s="51">
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="S16" s="51">
-        <f>S37</f>
+      <c r="S16" s="60">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T16" s="56">
-        <f>S16/$Q$5</f>
+      <c r="T16" s="50">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="U16" s="51">
-        <f>U37</f>
+      <c r="U16" s="60">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V16" s="56">
-        <f>U16/$Q$5</f>
+      <c r="V16" s="50">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="W16" s="51">
-        <f>W37</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="56">
-        <f>W16/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>39</v>
+      <c r="W16" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="62" t="s">
+        <v>34</v>
       </c>
       <c r="Z16" s="7"/>
       <c r="AD16" s="7"/>
@@ -5685,43 +6180,43 @@
     </row>
     <row r="17" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="4"/>
-      <c r="P17" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="51">
-        <f>Q38</f>
+      <c r="P17" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="59">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R17" s="52">
-        <f>Q17/$Q$5</f>
+      <c r="R17" s="51">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="S17" s="51">
-        <f>S38</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="56">
-        <f>S17/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="51">
-        <f>U38</f>
+      <c r="S17" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="60">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="V17" s="56">
-        <f>U17/$Q$5</f>
+      <c r="V17" s="50">
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="W17" s="51">
-        <f>W38</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="56">
-        <f>W17/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>57</v>
+      <c r="W17" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="62" t="s">
+        <v>34</v>
       </c>
       <c r="Z17" s="7"/>
       <c r="AD17" s="7"/>
@@ -5732,42 +6227,42 @@
     </row>
     <row r="18" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="4"/>
-      <c r="P18" s="50" t="s">
+      <c r="P18" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="Q18" s="51">
-        <f>Q39</f>
+      <c r="Q18" s="59">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R18" s="52">
-        <f>Q18/$Q$5</f>
+      <c r="R18" s="51">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="S18" s="51">
-        <f>S39</f>
+      <c r="S18" s="60">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T18" s="56">
-        <f>S18/$Q$5</f>
+      <c r="T18" s="50">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="U18" s="51">
-        <f>U39</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="56">
-        <f>U18/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="51">
-        <f>W39</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="56">
-        <f>W18/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3" t="s">
+      <c r="U18" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="62" t="s">
         <v>34</v>
       </c>
       <c r="Z18" s="7"/>
@@ -5779,43 +6274,43 @@
     </row>
     <row r="19" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="4"/>
-      <c r="P19" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q19" s="51">
-        <f>Q40</f>
+      <c r="P19" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q19" s="59">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R19" s="52">
-        <f>Q19/$Q$5</f>
+      <c r="R19" s="51">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="S19" s="51">
-        <f>S40</f>
+      <c r="S19" s="60">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T19" s="56">
-        <f>S19/$Q$5</f>
+      <c r="T19" s="50">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="U19" s="51">
-        <f>U40</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="56">
-        <f>U19/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="51">
-        <f>W40</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="56">
-        <f>W19/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>39</v>
+      <c r="U19" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="62" t="s">
+        <v>57</v>
       </c>
       <c r="Z19" s="7"/>
       <c r="AD19" s="7"/>
@@ -5826,43 +6321,43 @@
     </row>
     <row r="20" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="4"/>
-      <c r="P20" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="51">
-        <f>Q41</f>
+      <c r="P20" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20" s="59">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="R20" s="52">
-        <f>Q20/$Q$5</f>
+      <c r="R20" s="51">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="S20" s="51">
-        <f>S41</f>
+      <c r="S20" s="60">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="T20" s="56">
-        <f>S20/$Q$5</f>
+      <c r="T20" s="50">
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="U20" s="51">
-        <f>U41</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="56">
-        <f>U20/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="51">
-        <f>W41</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="56">
-        <f>W20/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>34</v>
+      <c r="U20" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="62" t="s">
+        <v>57</v>
       </c>
       <c r="Z20" s="7"/>
       <c r="AD20" s="7"/>
@@ -5873,43 +6368,43 @@
     </row>
     <row r="21" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="4"/>
-      <c r="P21" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q21" s="51">
-        <f>Q42</f>
+      <c r="P21" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q21" s="59">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R21" s="52">
-        <f>Q21/$Q$5</f>
+      <c r="R21" s="51">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S21" s="60">
-        <f>S42</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="T21" s="60">
-        <f>S21/$Q$5</f>
+      <c r="T21" s="50">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U21" s="60">
-        <f>U42</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="61">
-        <f>U21/$Q$5</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="50">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W21" s="60">
-        <f>W42</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="60">
-        <f>W21/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="40" t="s">
-        <v>57</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="62" t="s">
+        <v>39</v>
       </c>
       <c r="Z21" s="7"/>
       <c r="AD21" s="7"/>
@@ -5919,43 +6414,43 @@
       <c r="AL21" s="11"/>
     </row>
     <row r="22" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P22" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q22" s="51">
-        <f>Q43</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="55">
-        <f>Q22/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="54">
-        <f>S43</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="56">
-        <f>S22/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="54">
-        <f>U43</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="56">
-        <f>U22/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="54">
-        <f>W43</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="56">
-        <f>W22/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>34</v>
+      <c r="P22" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="62" t="s">
+        <v>57</v>
       </c>
       <c r="Z22" s="7"/>
       <c r="AD22" s="7"/>
@@ -5965,43 +6460,43 @@
       <c r="AL22" s="11"/>
     </row>
     <row r="23" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P23" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q23" s="51">
-        <f>Q44</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="55">
-        <f>Q23/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="54">
-        <f>S44</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="63">
-        <f>S23/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="54">
-        <f>U44</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="63">
-        <f>U23/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="54">
-        <f>W44</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="63">
-        <f>W23/$Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>39</v>
+      <c r="P23" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="66" t="s">
+        <v>57</v>
       </c>
       <c r="Z23" s="7"/>
       <c r="AD23" s="7"/>
@@ -6023,7 +6518,7 @@
     <row r="25" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P26" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="1">
         <v>2</v>
@@ -6035,7 +6530,7 @@
     <row r="28" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -6043,38 +6538,38 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="P28" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q28" s="32" t="s">
         <v>8</v>
       </c>
       <c r="R28" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S28" s="33" t="s">
         <v>9</v>
       </c>
       <c r="T28" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U28" s="35" t="s">
         <v>10</v>
       </c>
       <c r="V28" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W28" s="33" t="s">
         <v>11</v>
       </c>
       <c r="X28" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y28" s="5"/>
     </row>
     <row r="29" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H29" s="5"/>
       <c r="I29" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N29" s="43"/>
       <c r="O29" s="43"/>
@@ -6086,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="R29" s="29">
-        <f t="shared" ref="R29:R43" si="2">Q29/$Q$5</f>
+        <f t="shared" ref="R29:R43" si="10">Q29/$Q$5</f>
         <v>0.5</v>
       </c>
       <c r="S29" s="27">
@@ -6094,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="28">
-        <f t="shared" ref="T29:T43" si="3">S29/$Q$5</f>
+        <f t="shared" ref="T29:T43" si="11">S29/$Q$5</f>
         <v>0.5</v>
       </c>
       <c r="U29" s="27">
@@ -6102,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="28">
-        <f t="shared" ref="V29:V43" si="4">U29/$Q$5</f>
+        <f t="shared" ref="V29:V43" si="12">U29/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W29" s="27">
@@ -6110,14 +6605,14 @@
         <v>0</v>
       </c>
       <c r="X29" s="28">
-        <f t="shared" ref="X29:X43" si="5">W29/$Q$5</f>
+        <f t="shared" ref="X29:X43" si="13">W29/$Q$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H30" s="5"/>
       <c r="I30" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="P30" s="30" t="s">
         <v>59</v>
@@ -6127,7 +6622,7 @@
         <v>2</v>
       </c>
       <c r="R30" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S30" s="27">
@@ -6135,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="T30" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U30" s="27">
@@ -6143,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W30" s="27">
@@ -6151,14 +6646,14 @@
         <v>0</v>
       </c>
       <c r="X30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H31" s="5"/>
       <c r="I31" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P31" s="30" t="s">
         <v>62</v>
@@ -6168,7 +6663,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="S31" s="27">
@@ -6176,7 +6671,7 @@
         <v>6</v>
       </c>
       <c r="T31" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="U31" s="27">
@@ -6184,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W31" s="27">
@@ -6192,13 +6687,13 @@
         <v>0</v>
       </c>
       <c r="X31" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="N32" s="42"/>
       <c r="P32" s="30" t="s">
@@ -6209,7 +6704,7 @@
         <v>5</v>
       </c>
       <c r="R32" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="S32" s="27">
@@ -6217,7 +6712,7 @@
         <v>5</v>
       </c>
       <c r="T32" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="U32" s="27">
@@ -6225,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W32" s="27">
@@ -6233,13 +6728,13 @@
         <v>0</v>
       </c>
       <c r="X32" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="P33" s="30" t="s">
         <v>68</v>
@@ -6249,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="R33" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="S33" s="27">
@@ -6257,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="T33" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="U33" s="27">
@@ -6265,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W33" s="27">
@@ -6273,13 +6768,13 @@
         <v>0</v>
       </c>
       <c r="X33" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="P34" s="30" t="s">
         <v>71</v>
@@ -6289,7 +6784,7 @@
         <v>1</v>
       </c>
       <c r="R34" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="S34" s="27">
@@ -6297,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U34" s="27">
@@ -6305,7 +6800,7 @@
         <v>1</v>
       </c>
       <c r="V34" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="W34" s="27">
@@ -6313,13 +6808,13 @@
         <v>0</v>
       </c>
       <c r="X34" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="P35" s="30" t="s">
         <v>75</v>
@@ -6329,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S35" s="27">
@@ -6337,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U35" s="27">
@@ -6345,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W35" s="27">
@@ -6353,13 +6848,13 @@
         <v>0</v>
       </c>
       <c r="X35" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P36" s="30" t="s">
         <v>78</v>
@@ -6369,7 +6864,7 @@
         <v>5</v>
       </c>
       <c r="R36" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="S36" s="27">
@@ -6377,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="T36" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="U36" s="27">
@@ -6385,7 +6880,7 @@
         <v>4</v>
       </c>
       <c r="V36" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="W36" s="27">
@@ -6393,13 +6888,13 @@
         <v>0</v>
       </c>
       <c r="X36" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="P37" s="30" t="s">
         <v>80</v>
@@ -6409,7 +6904,7 @@
         <v>7</v>
       </c>
       <c r="R37" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>3.5</v>
       </c>
       <c r="S37" s="27">
@@ -6417,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="T37" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="U37" s="27">
@@ -6425,7 +6920,7 @@
         <v>6</v>
       </c>
       <c r="V37" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="W37" s="27">
@@ -6433,13 +6928,13 @@
         <v>0</v>
       </c>
       <c r="X37" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="P38" s="30" t="s">
         <v>81</v>
@@ -6449,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="S38" s="27">
@@ -6457,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U38" s="27">
@@ -6465,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="V38" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="W38" s="27">
@@ -6473,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6486,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="R39" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="S39" s="27">
@@ -6494,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="T39" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="U39" s="27">
@@ -6502,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W39" s="27">
@@ -6510,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z39" s="12"/>
@@ -6525,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="R40" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="S40" s="27">
@@ -6533,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="T40" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="U40" s="27">
@@ -6541,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W40" s="27">
@@ -6549,20 +7044,20 @@
         <v>0</v>
       </c>
       <c r="X40" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P41" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q41" s="44">
         <f>'1804'!R15+'1904'!R15</f>
         <v>3</v>
       </c>
       <c r="R41" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="S41" s="27">
@@ -6570,7 +7065,7 @@
         <v>3</v>
       </c>
       <c r="T41" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="U41" s="27">
@@ -6578,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W41" s="27">
@@ -6586,23 +7081,23 @@
         <v>0</v>
       </c>
       <c r="X41" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I42" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="P42" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q42" s="44">
         <f>'1804'!R16+'1904'!R16</f>
         <v>2</v>
       </c>
       <c r="R42" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S42" s="27">
@@ -6610,7 +7105,7 @@
         <v>2</v>
       </c>
       <c r="T42" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U42" s="27">
@@ -6618,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W42" s="27">
@@ -6626,27 +7121,27 @@
         <v>0</v>
       </c>
       <c r="X42" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J43">
         <f>'Statistics LG'!D4</f>
         <v>1</v>
       </c>
       <c r="P43" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q43" s="44">
         <f>'1804'!R17+'1904'!R17</f>
         <v>0</v>
       </c>
       <c r="R43" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S43" s="27">
@@ -6654,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U43" s="27">
@@ -6662,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W43" s="27">
@@ -6670,27 +7165,27 @@
         <v>0</v>
       </c>
       <c r="X43" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J44">
         <f>'Statistics WW'!D4</f>
         <v>2</v>
       </c>
-      <c r="P44" s="62" t="s">
-        <v>108</v>
+      <c r="P44" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="Q44" s="44">
         <f>'1804'!R18+'1904'!R18</f>
         <v>0</v>
       </c>
       <c r="R44" s="29">
-        <f t="shared" ref="R44" si="6">Q44/$Q$5</f>
+        <f t="shared" ref="R44" si="14">Q44/$Q$5</f>
         <v>0</v>
       </c>
       <c r="S44" s="27">
@@ -6698,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="28">
-        <f t="shared" ref="T44" si="7">S44/$Q$5</f>
+        <f t="shared" ref="T44" si="15">S44/$Q$5</f>
         <v>0</v>
       </c>
       <c r="U44" s="27">
@@ -6706,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="28">
-        <f t="shared" ref="V44" si="8">U44/$Q$5</f>
+        <f t="shared" ref="V44" si="16">U44/$Q$5</f>
         <v>0</v>
       </c>
       <c r="W44" s="27">
@@ -6714,13 +7209,13 @@
         <v>0</v>
       </c>
       <c r="X44" s="28">
-        <f t="shared" ref="X44" si="9">W44/$Q$5</f>
+        <f t="shared" ref="X44" si="17">W44/$Q$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J45">
         <f>'Statistics 5M'!D4</f>
@@ -7795,7 +8290,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7806,16 +8301,16 @@
     <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -7823,25 +8318,25 @@
         <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>78</v>
@@ -7853,34 +8348,34 @@
         <v>83</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="S3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="V3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="X3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -7915,33 +8410,33 @@
       <c r="J4" s="17">
         <v>1</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="55">
         <v>1</v>
       </c>
-      <c r="L4" s="58"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="58"/>
+      <c r="O4" s="55"/>
       <c r="Q4" s="17">
-        <f>COUNTIF('1804'!W4:W26,"LG/WW")</f>
+        <f>COUNTIF('1804'!$W$4:$W$26,"LG/WW")</f>
         <v>1</v>
       </c>
       <c r="R4" s="17">
-        <f>COUNTIF('1804'!X4:X26,"WW/LG")</f>
+        <f>COUNTIF('1804'!$X$4:$X$26,"WW/LG")</f>
         <v>2</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="V4" s="17">
-        <f>COUNTIF('1804'!W4:W26,"LG/5M")</f>
+        <f>COUNTIF('1804'!$W$4:$W$26,"LG/5M")</f>
         <v>1</v>
       </c>
       <c r="W4" s="17">
-        <f>COUNTIF('1804'!Y4:Y26,"5M/LG")</f>
+        <f>COUNTIF('1804'!$Y$4:$Y$26,"5M/LG")</f>
         <v>3</v>
       </c>
       <c r="X4" s="17" t="s">
@@ -7971,15 +8466,15 @@
       <c r="J5" s="17">
         <v>1</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="55">
         <v>2</v>
       </c>
-      <c r="L5" s="58"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="17">
         <v>1</v>
       </c>
       <c r="N5" s="17"/>
-      <c r="O5" s="58"/>
+      <c r="O5" s="55"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
@@ -7995,15 +8490,15 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="18"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="58"/>
+      <c r="O6" s="55"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
@@ -8019,7 +8514,7 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="G7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" s="18"/>
       <c r="J7" s="17"/>
@@ -8027,7 +8522,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="58"/>
+      <c r="O7" s="55"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
@@ -8043,7 +8538,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="G8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" s="18"/>
       <c r="J8" s="17"/>
@@ -8051,7 +8546,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="58"/>
+      <c r="O8" s="55"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
@@ -8067,7 +8562,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="G9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H9" s="18"/>
       <c r="J9" s="17"/>
@@ -8075,7 +8570,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="58"/>
+      <c r="O9" s="55"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
@@ -8091,7 +8586,7 @@
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="G10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" s="18"/>
       <c r="J10" s="17"/>
@@ -8099,7 +8594,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="58"/>
+      <c r="O10" s="55"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
@@ -8115,7 +8610,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="G11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="18"/>
       <c r="J11" s="17"/>
@@ -8139,7 +8634,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="G12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="18"/>
       <c r="J12" s="17"/>
@@ -8163,7 +8658,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="G13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" s="18"/>
       <c r="J13" s="17"/>
@@ -8495,7 +8990,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
       <c r="P30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q30" s="17">
         <f t="shared" ref="Q30:R30" si="1">SUM(Q4:Q29)</f>
@@ -9531,16 +10026,16 @@
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>121</v>
-      </c>
       <c r="U2" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9548,22 +10043,22 @@
         <v>84</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>103</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>104</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="H3" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>107</v>
       </c>
       <c r="J3" s="24" t="s">
         <v>68</v>
@@ -9578,31 +10073,31 @@
         <v>59</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P3" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="Q3" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="R3" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="S3" s="24" t="s">
-        <v>110</v>
-      </c>
       <c r="U3" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="W3" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="X3" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="X3" s="24" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9637,10 +10132,10 @@
       <c r="J4" s="17">
         <v>1</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="55">
         <v>1</v>
       </c>
-      <c r="L4" s="58"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="17">
         <v>1</v>
       </c>
@@ -9674,8 +10169,8 @@
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
       <c r="P5" s="17"/>
@@ -9693,12 +10188,12 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="G6" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="18"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="P6" s="17"/>
@@ -9716,7 +10211,7 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="G7" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" s="18"/>
       <c r="J7" s="17"/>
@@ -9739,7 +10234,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="G8" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" s="18"/>
       <c r="J8" s="17"/>
@@ -9762,7 +10257,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="G9" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H9" s="18"/>
       <c r="J9" s="17"/>
@@ -9785,7 +10280,7 @@
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="G10" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" s="18"/>
       <c r="J10" s="17"/>
@@ -9808,7 +10303,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="G11" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="18"/>
       <c r="J11" s="17"/>
@@ -9831,7 +10326,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="G12" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="18"/>
       <c r="J12" s="17"/>
@@ -9854,7 +10349,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="G13" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" s="18"/>
       <c r="J13" s="17"/>
@@ -10168,7 +10663,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P30" s="17">
         <f t="shared" ref="P30:Q30" si="1">SUM(P4:P29)</f>
@@ -11204,16 +11699,16 @@
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="U2" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="U2" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -11221,25 +11716,25 @@
         <v>84</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>103</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>104</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="H3" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>107</v>
-      </c>
       <c r="J3" s="24" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>62</v>
@@ -11254,28 +11749,28 @@
         <v>81</v>
       </c>
       <c r="P3" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="Q3" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="R3" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="S3" s="24" t="s">
-        <v>110</v>
-      </c>
       <c r="U3" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="W3" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="X3" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="X3" s="24" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -11310,10 +11805,10 @@
       <c r="J4" s="17">
         <v>2</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="55">
         <v>2</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="55">
         <v>1</v>
       </c>
       <c r="M4" s="17"/>
@@ -11345,8 +11840,8 @@
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
       <c r="P5" s="17"/>
@@ -11364,12 +11859,12 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="G6" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="18"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="P6" s="17"/>
@@ -11387,7 +11882,7 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="G7" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" s="18"/>
       <c r="J7" s="17"/>
@@ -11410,7 +11905,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="G8" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" s="18"/>
       <c r="J8" s="17"/>
@@ -11433,7 +11928,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="G9" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H9" s="18"/>
       <c r="J9" s="17"/>
@@ -11456,7 +11951,7 @@
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="G10" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" s="18"/>
       <c r="J10" s="17"/>
@@ -11479,7 +11974,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="G11" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="18"/>
       <c r="J11" s="17"/>
@@ -11502,7 +11997,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="G12" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="18"/>
       <c r="J12" s="17"/>
@@ -11525,7 +12020,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="G13" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" s="18"/>
       <c r="J13" s="17"/>
@@ -11839,7 +12334,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P30" s="17">
         <f t="shared" ref="P30:Q30" si="1">SUM(P4:P29)</f>
@@ -12861,8 +13356,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:Y1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23:U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12879,28 +13374,28 @@
     <row r="1" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="L2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>8</v>
@@ -12909,39 +13404,39 @@
         <v>9</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="G3" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="I3" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="L3" s="1">
         <f>COUNTIF(C3:C30, "Loose Gooses")</f>
@@ -12980,25 +13475,25 @@
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
       <c r="K4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L4" s="1">
         <f>COUNTIF(C3:C30, "5 Musketeers")</f>
@@ -13049,15 +13544,15 @@
       </c>
     </row>
     <row r="5" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
       <c r="K5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L5" s="1">
         <f>COUNTIF(C3:C30, "Wet Willies")</f>
@@ -13108,13 +13603,13 @@
       </c>
     </row>
     <row r="6" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
       <c r="Q6" s="3" t="s">
         <v>44</v>
       </c>
@@ -13148,13 +13643,13 @@
       </c>
     </row>
     <row r="7" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
       <c r="Q7" s="3" t="s">
         <v>46</v>
       </c>
@@ -13188,13 +13683,13 @@
       </c>
     </row>
     <row r="8" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="Q8" s="3" t="s">
         <v>51</v>
       </c>
@@ -13228,13 +13723,13 @@
       </c>
     </row>
     <row r="9" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="Q9" s="3" t="s">
         <v>53</v>
       </c>
@@ -13268,13 +13763,13 @@
       </c>
     </row>
     <row r="10" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
       <c r="Q10" s="3" t="s">
         <v>56</v>
       </c>
@@ -13308,13 +13803,13 @@
       </c>
     </row>
     <row r="11" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
       <c r="Q11" s="3" t="s">
         <v>60</v>
       </c>
@@ -13348,13 +13843,13 @@
       </c>
     </row>
     <row r="12" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
       <c r="Q12" s="3" t="s">
         <v>63</v>
       </c>
@@ -13388,15 +13883,15 @@
       </c>
     </row>
     <row r="13" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
       <c r="Q13" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="1"/>
@@ -13428,15 +13923,15 @@
       </c>
     </row>
     <row r="14" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
       <c r="Q14" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="1"/>
@@ -13468,13 +13963,13 @@
       </c>
     </row>
     <row r="15" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
       <c r="Q15" s="3" t="s">
         <v>72</v>
       </c>
@@ -13508,13 +14003,13 @@
       </c>
     </row>
     <row r="16" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
       <c r="Q16" s="3" t="s">
         <v>76</v>
       </c>
@@ -13548,13 +14043,13 @@
       </c>
     </row>
     <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
       <c r="Q17" s="3" t="s">
         <v>79</v>
       </c>
@@ -13588,15 +14083,15 @@
       </c>
     </row>
     <row r="18" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
       <c r="Q18" s="40" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R18" s="42">
         <f t="shared" si="1"/>
@@ -13628,13 +14123,13 @@
       </c>
     </row>
     <row r="19" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
@@ -13699,8 +14194,22 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="Q23" s="3" t="s">
-        <v>138</v>
+      <c r="Q23" s="3"/>
+      <c r="R23" t="str">
+        <f>R3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="S23" s="40" t="str">
+        <f t="shared" ref="S23:U23" si="8">S3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="T23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="U23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
       </c>
       <c r="W23" s="24" t="str">
         <f t="shared" si="5"/>
@@ -13721,6 +14230,22 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
+      <c r="R24" s="40" t="str">
+        <f t="shared" ref="R24:U41" si="9">R4&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="S24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
       <c r="W24" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -13740,20 +14265,22 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="Q25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>85</v>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
       <c r="V25" s="40"/>
       <c r="W25" s="24" t="str">
@@ -13775,25 +14302,22 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="Q26" s="26" t="str">
-        <f>C2</f>
-        <v>Insert Date Here</v>
-      </c>
-      <c r="R26" s="19">
-        <f t="shared" ref="R26:U26" si="8">R3</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
       <c r="W26" s="24" t="str">
         <f t="shared" si="5"/>
@@ -13814,21 +14338,21 @@
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="R27" s="19">
-        <f t="shared" ref="R27:U27" si="9">R4</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="19">
+      <c r="R27" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="19">
+        <v>0,</v>
+      </c>
+      <c r="S27" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="19">
+        <v>0,</v>
+      </c>
+      <c r="T27" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0,</v>
+      </c>
+      <c r="U27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
       <c r="W27" s="24" t="str">
         <f t="shared" si="5"/>
@@ -13849,21 +14373,21 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
-      <c r="R28" s="19">
-        <f t="shared" ref="R28:U28" si="10">R5</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="R28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
       <c r="W28" s="24" t="str">
         <f t="shared" si="5"/>
@@ -13884,21 +14408,21 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
-      <c r="R29" s="19">
-        <f t="shared" ref="R29:U29" si="11">R6</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="R29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
     </row>
     <row r="30" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -13907,228 +14431,217 @@
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="R30" s="19">
-        <f t="shared" ref="R30:U30" si="12">R7</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
+      <c r="R30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
     </row>
     <row r="31" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R31" s="19">
-        <f t="shared" ref="R31:U31" si="13">R8</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="R31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
     </row>
     <row r="32" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R32" s="19">
-        <f t="shared" ref="R32:U32" si="14">R9</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R33" s="19">
-        <f t="shared" ref="R33:U33" si="15">R10</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="19">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="19">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="19">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R34" s="19">
-        <f t="shared" ref="R34:U34" si="16">R11</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="19">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="19">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="19">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R35" s="19">
-        <f t="shared" ref="R35:U35" si="17">R12</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R36" s="19">
-        <f t="shared" ref="R36:U36" si="18">R13</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="19">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="19">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="19">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R37" s="19">
-        <f t="shared" ref="R37:U37" si="19">R14</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R38" s="19">
-        <f t="shared" ref="R38:U38" si="20">R15</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="19">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="19">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="19">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R39" s="19">
-        <f t="shared" ref="R39:U39" si="21">R16</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R40" s="19">
-        <f t="shared" ref="R40:U41" si="22">R17</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R41" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="R32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="33" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="34" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="35" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="36" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="37" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="38" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R38" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S38" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T38" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U38" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="39" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R39" s="40"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+    </row>
+    <row r="40" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R40" s="40"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+    </row>
+    <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R41" s="40"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+    </row>
+    <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q43" t="str">
+        <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":[19-Apr],"</f>
+        <v>"Date":[19-Apr],</v>
+      </c>
+    </row>
+    <row r="44" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q44" t="str">
+        <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;"],"</f>
+        <v>"Points":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,],</v>
+      </c>
+    </row>
+    <row r="45" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q45" s="40" t="str">
+        <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;"],"</f>
+        <v>"Finishes":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,],</v>
+      </c>
+    </row>
+    <row r="46" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q46" s="40" t="str">
+        <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;"],"</f>
+        <v>"Midrange":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,],</v>
+      </c>
+    </row>
+    <row r="47" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q47" s="40" t="str">
+        <f>CHAR(34)&amp;"ThreePointers"&amp;CHAR(34)&amp;":["&amp;U23&amp;U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30&amp;U31&amp;U32&amp;U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;"]"</f>
+        <v>"ThreePointers":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,]</v>
+      </c>
+    </row>
+    <row r="48" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15092,7 +15605,7 @@
   <dimension ref="B1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26:U41"/>
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15110,28 +15623,28 @@
     <row r="1" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4">
         <v>45034</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>8</v>
@@ -15140,39 +15653,39 @@
         <v>9</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="G3" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="I3" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>133</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="L3" s="24">
         <f>COUNTIF(C3:C30, "Loose Gooses")</f>
@@ -15211,42 +15724,42 @@
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="64">
+      <c r="B4" s="58">
         <v>1</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="64">
+      <c r="F4" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="58">
         <v>1</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="58">
         <v>1</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="58">
         <v>1</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L4" s="24">
         <f>COUNTIF(C3:C30, "5 Musketeers")</f>
@@ -15297,32 +15810,32 @@
       </c>
     </row>
     <row r="5" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="64">
+      <c r="B5" s="58">
         <v>2</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="64">
+      <c r="F5" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="58">
         <v>2</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="58">
         <v>1</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="58">
         <v>1</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L5" s="24">
         <f>COUNTIF(C3:C30, "Wet Willies")</f>
@@ -15373,28 +15886,28 @@
       </c>
     </row>
     <row r="6" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="64">
+      <c r="B6" s="58">
         <v>3</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="64">
+      <c r="F6" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="58">
         <v>3</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="58">
         <v>2</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="58">
         <v>1</v>
       </c>
       <c r="Q6" s="3" t="s">
@@ -15430,28 +15943,28 @@
       </c>
     </row>
     <row r="7" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="64">
+      <c r="B7" s="58">
         <v>4</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="64">
+      <c r="F7" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="58">
         <v>1</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="58">
         <v>1</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="58">
         <v>1</v>
       </c>
       <c r="Q7" s="3" t="s">
@@ -15487,28 +16000,28 @@
       </c>
     </row>
     <row r="8" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="64">
+      <c r="B8" s="58">
         <v>5</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="64">
+      <c r="F8" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="58">
         <v>2</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="58">
         <v>3</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="58">
         <v>2</v>
       </c>
       <c r="Q8" s="3" t="s">
@@ -15544,28 +16057,28 @@
       </c>
     </row>
     <row r="9" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="64">
+      <c r="B9" s="58">
         <v>6</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" s="64">
+      <c r="F9" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="58">
         <v>1</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="58">
         <v>1</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="58">
         <v>1</v>
       </c>
       <c r="Q9" s="3" t="s">
@@ -15601,28 +16114,28 @@
       </c>
     </row>
     <row r="10" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="64">
+      <c r="B10" s="58">
         <v>7</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="64">
+      <c r="F10" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="58">
         <v>1</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="58">
         <v>1</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="58">
         <v>1</v>
       </c>
       <c r="Q10" s="3" t="s">
@@ -15658,28 +16171,28 @@
       </c>
     </row>
     <row r="11" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="64">
+      <c r="B11" s="58">
         <v>8</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="64">
+      <c r="F11" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="58">
         <v>1</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="58">
         <v>1</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="58">
         <v>1</v>
       </c>
       <c r="Q11" s="3" t="s">
@@ -15715,28 +16228,28 @@
       </c>
     </row>
     <row r="12" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="64">
+      <c r="B12" s="58">
         <v>9</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="64">
+      <c r="E12" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="58">
         <v>2</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="58">
         <v>2</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="58">
         <v>1</v>
       </c>
       <c r="Q12" s="3" t="s">
@@ -15772,32 +16285,32 @@
       </c>
     </row>
     <row r="13" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="64">
+      <c r="B13" s="58">
         <v>10</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="64">
+      <c r="F13" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="58">
         <v>3</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="58">
         <v>2</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="58">
         <v>1</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="1"/>
@@ -15829,32 +16342,32 @@
       </c>
     </row>
     <row r="14" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="64">
+      <c r="B14" s="58">
         <v>11</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="64">
+      <c r="F14" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="58">
         <v>4</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="58">
         <v>3</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="58">
         <v>2</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="1"/>
@@ -15886,28 +16399,28 @@
       </c>
     </row>
     <row r="15" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="64">
+      <c r="B15" s="58">
         <v>12</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="64">
+      <c r="F15" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="58">
         <v>1</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="58">
         <v>1</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="58">
         <v>1</v>
       </c>
       <c r="Q15" s="3" t="s">
@@ -16034,7 +16547,7 @@
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
       <c r="Q18" s="40" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R18" s="42">
         <f t="shared" si="1"/>
@@ -16091,8 +16604,8 @@
       </c>
     </row>
     <row r="20" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
       <c r="W20" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -16140,8 +16653,22 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="Q23" s="3" t="s">
-        <v>138</v>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="40" t="str">
+        <f>R3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="S23" s="40" t="str">
+        <f t="shared" ref="S23:U23" si="8">S3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="T23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="U23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
       </c>
       <c r="W23" s="24" t="str">
         <f t="shared" si="5"/>
@@ -16162,6 +16689,22 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
+      <c r="R24" s="40" t="str">
+        <f t="shared" ref="R24:U38" si="9">R4&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="S24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
       <c r="W24" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -16181,20 +16724,22 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="Q25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="R25" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>85</v>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
       <c r="W25" s="24" t="str">
         <f t="shared" si="5"/>
@@ -16215,25 +16760,22 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="Q26" s="26">
-        <f>C2</f>
-        <v>45034</v>
-      </c>
-      <c r="R26" s="19">
-        <f t="shared" ref="R26:U41" si="8">R3</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
       <c r="W26" s="24" t="str">
         <f t="shared" si="5"/>
@@ -16254,21 +16796,21 @@
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="R27" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S27" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T27" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="R27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
       <c r="W27" s="24" t="str">
         <f t="shared" si="5"/>
@@ -16289,21 +16831,21 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
-      <c r="R28" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S28" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T28" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="R28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
       <c r="W28" s="24" t="str">
         <f t="shared" si="5"/>
@@ -16324,21 +16866,21 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
-      <c r="R29" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S29" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T29" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="R29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
     </row>
     <row r="30" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -16347,233 +16889,214 @@
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="R30" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S30" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T30" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="R30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="U30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
     </row>
     <row r="31" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R31" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="R31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>4,</v>
+      </c>
+      <c r="S31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>3,</v>
+      </c>
+      <c r="U31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
     </row>
     <row r="32" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R32" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R33" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S33" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U33" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R34" s="19">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S34" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T34" s="19">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="U34" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R35" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R36" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S36" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T36" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R37" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R38" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S38" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T38" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R39" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S39" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T39" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R40" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R41" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-    </row>
-    <row r="43" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="R32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="33" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="34" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="35" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="36" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="37" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="38" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R38" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S38" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T38" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U38" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="39" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+    </row>
+    <row r="40" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+    </row>
+    <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+    </row>
+    <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q43" s="40" t="str">
+        <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;"18-Apr"&amp;CHAR(34)&amp;"],"</f>
+        <v>"Date":["18-Apr"],</v>
+      </c>
+    </row>
+    <row r="44" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q44" s="40" t="str">
+        <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;"],"</f>
+        <v>"Points":[0,1,1,1,1,0,0,1,4,0,1,0,1,1,0,0,],</v>
+      </c>
+    </row>
+    <row r="45" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q45" s="40" t="str">
+        <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;"],"</f>
+        <v>"Finishes":[0,1,1,1,1,0,0,0,1,0,1,0,1,1,0,0,],</v>
+      </c>
+    </row>
+    <row r="46" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q46" s="40" t="str">
+        <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;"],"</f>
+        <v>"Midrange":[0,0,0,0,0,0,0,1,3,0,0,0,0,0,0,0,],</v>
+      </c>
+    </row>
+    <row r="47" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q47" s="40" t="str">
+        <f>CHAR(34)&amp;"ThreePointers"&amp;CHAR(34)&amp;":["&amp;U23&amp;U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30&amp;U31&amp;U32&amp;U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;"]"</f>
+        <v>"ThreePointers":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,]</v>
+      </c>
+    </row>
+    <row r="48" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -17537,7 +18060,7 @@
   <dimension ref="B1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I28"/>
+      <selection activeCell="Q41" sqref="Q41:S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -17555,28 +18078,28 @@
     <row r="1" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4">
         <v>45035</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>8</v>
@@ -17585,39 +18108,39 @@
         <v>9</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="G3" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="I3" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>133</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="L3" s="24">
         <f>COUNTIF(C3:C30, "Loose Gooses")</f>
@@ -17656,42 +18179,42 @@
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="64">
+      <c r="B4" s="58">
         <v>1</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="64">
+      <c r="F4" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="58">
         <v>1</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="58">
         <v>1</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="58">
         <v>1</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L4" s="24">
         <f>COUNTIF(C3:C30, "5 Musketeers")</f>
@@ -17742,32 +18265,32 @@
       </c>
     </row>
     <row r="5" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="64">
+      <c r="B5" s="58">
         <v>2</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="64">
+      <c r="F5" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="58">
         <v>1</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="58">
         <v>1</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="58">
         <v>1</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L5" s="24">
         <f>COUNTIF(C3:C30, "Wet Willies")</f>
@@ -17818,28 +18341,28 @@
       </c>
     </row>
     <row r="6" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="64">
+      <c r="B6" s="58">
         <v>3</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="64">
+      <c r="F6" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="58">
         <v>2</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="58">
         <v>2</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="58">
         <v>1</v>
       </c>
       <c r="Q6" s="3" t="s">
@@ -17875,28 +18398,28 @@
       </c>
     </row>
     <row r="7" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="64">
+      <c r="B7" s="58">
         <v>4</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="64">
+      <c r="F7" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="58">
         <v>3</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="58">
         <v>2</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="58">
         <v>1</v>
       </c>
       <c r="Q7" s="3" t="s">
@@ -17932,28 +18455,28 @@
       </c>
     </row>
     <row r="8" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="64">
+      <c r="B8" s="58">
         <v>5</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="64">
+      <c r="F8" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="58">
         <v>4</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="58">
         <v>3</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="58">
         <v>1</v>
       </c>
       <c r="Q8" s="3" t="s">
@@ -17989,28 +18512,28 @@
       </c>
     </row>
     <row r="9" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="64">
+      <c r="B9" s="58">
         <v>6</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" s="64">
+      <c r="F9" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="58">
         <v>5</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="58">
         <v>3</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="58">
         <v>1</v>
       </c>
       <c r="Q9" s="3" t="s">
@@ -18046,28 +18569,28 @@
       </c>
     </row>
     <row r="10" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="64">
+      <c r="B10" s="58">
         <v>7</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="64">
+      <c r="E10" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="58">
         <v>1</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="58">
         <v>1</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="58">
         <v>1</v>
       </c>
       <c r="Q10" s="3" t="s">
@@ -18103,28 +18626,28 @@
       </c>
     </row>
     <row r="11" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="64">
+      <c r="B11" s="58">
         <v>8</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="64">
+      <c r="F11" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="58">
         <v>1</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="58">
         <v>1</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="58">
         <v>1</v>
       </c>
       <c r="Q11" s="3" t="s">
@@ -18160,28 +18683,28 @@
       </c>
     </row>
     <row r="12" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="64">
+      <c r="B12" s="58">
         <v>9</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="64">
+      <c r="F12" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="58">
         <v>2</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="58">
         <v>2</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="58">
         <v>2</v>
       </c>
       <c r="Q12" s="3" t="s">
@@ -18217,32 +18740,32 @@
       </c>
     </row>
     <row r="13" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="64">
+      <c r="B13" s="58">
         <v>10</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="64">
+      <c r="F13" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="58">
         <v>1</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="58">
         <v>1</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="58">
         <v>1</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="1"/>
@@ -18274,32 +18797,32 @@
       </c>
     </row>
     <row r="14" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="64">
+      <c r="B14" s="58">
         <v>11</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="64">
+      <c r="F14" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="58">
         <v>2</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="58">
         <v>3</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="58">
         <v>2</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="1"/>
@@ -18331,28 +18854,28 @@
       </c>
     </row>
     <row r="15" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="64">
+      <c r="B15" s="58">
         <v>12</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="64">
+      <c r="F15" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="58">
         <v>1</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="58">
         <v>1</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="58">
         <v>1</v>
       </c>
       <c r="Q15" s="3" t="s">
@@ -18388,28 +18911,28 @@
       </c>
     </row>
     <row r="16" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="64">
+      <c r="B16" s="58">
         <v>13</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="64">
+      <c r="F16" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="58">
         <v>2</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="58">
         <v>4</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="58">
         <v>1</v>
       </c>
       <c r="Q16" s="3" t="s">
@@ -18445,28 +18968,28 @@
       </c>
     </row>
     <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="64">
+      <c r="B17" s="58">
         <v>14</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="64">
+      <c r="F17" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="58">
         <v>3</v>
       </c>
-      <c r="H17" s="64">
+      <c r="H17" s="58">
         <v>2</v>
       </c>
-      <c r="I17" s="64">
+      <c r="I17" s="58">
         <v>1</v>
       </c>
       <c r="Q17" s="3" t="s">
@@ -18502,32 +19025,32 @@
       </c>
     </row>
     <row r="18" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="64">
+      <c r="B18" s="58">
         <v>15</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G18" s="64">
+      <c r="F18" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="58">
         <v>4</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="58">
         <v>5</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="58">
         <v>1</v>
       </c>
       <c r="Q18" s="40" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R18" s="42">
         <f t="shared" si="1"/>
@@ -18559,28 +19082,28 @@
       </c>
     </row>
     <row r="19" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="64">
+      <c r="B19" s="58">
         <v>16</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" s="64">
+      <c r="F19" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="58">
         <v>1</v>
       </c>
-      <c r="H19" s="64">
+      <c r="H19" s="58">
         <v>1</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="58">
         <v>1</v>
       </c>
       <c r="S19" s="20"/>
@@ -18600,28 +19123,28 @@
       </c>
     </row>
     <row r="20" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="64">
+      <c r="B20" s="58">
         <v>17</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="64">
+      <c r="F20" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="58">
         <v>1</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="58">
         <v>1</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="58">
         <v>1</v>
       </c>
       <c r="W20" s="24" t="str">
@@ -18638,28 +19161,28 @@
       </c>
     </row>
     <row r="21" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="64">
+      <c r="B21" s="58">
         <v>18</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" s="64">
+      <c r="F21" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="58">
         <v>2</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="58">
         <v>2</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="58">
         <v>2</v>
       </c>
       <c r="W21" s="24" t="str">
@@ -18676,28 +19199,28 @@
       </c>
     </row>
     <row r="22" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="64">
+      <c r="B22" s="58">
         <v>19</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="64">
+      <c r="F22" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="58">
         <v>1</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="58">
         <v>1</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="58">
         <v>1</v>
       </c>
       <c r="W22" s="24" t="str">
@@ -18714,32 +19237,46 @@
       </c>
     </row>
     <row r="23" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="64">
+      <c r="B23" s="58">
         <v>20</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="64">
+      <c r="F23" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="58">
         <v>1</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="58">
         <v>1</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="58">
         <v>1</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>138</v>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="40" t="str">
+        <f>R3&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="S23" s="40" t="str">
+        <f t="shared" ref="S23:U23" si="8">S3&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="T23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="U23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
       </c>
       <c r="W23" s="24" t="str">
         <f t="shared" si="5"/>
@@ -18755,29 +19292,45 @@
       </c>
     </row>
     <row r="24" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="64">
+      <c r="B24" s="58">
         <v>21</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="64">
+      <c r="F24" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="58">
         <v>2</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="58">
         <v>2</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="58">
         <v>1</v>
+      </c>
+      <c r="R24" s="40" t="str">
+        <f t="shared" ref="R24:U38" si="9">R4&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="S24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
       <c r="W24" s="24" t="str">
         <f t="shared" si="5"/>
@@ -18793,44 +19346,46 @@
       </c>
     </row>
     <row r="25" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="64">
+      <c r="B25" s="58">
         <v>22</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="64">
+      <c r="F25" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="58">
         <v>1</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="58">
         <v>1</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="58">
         <v>1</v>
       </c>
-      <c r="Q25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="R25" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>85</v>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>5,</v>
+      </c>
+      <c r="S25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>5,</v>
+      </c>
+      <c r="T25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
       <c r="W25" s="24" t="str">
         <f t="shared" si="5"/>
@@ -18846,49 +19401,46 @@
       </c>
     </row>
     <row r="26" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="64">
+      <c r="B26" s="58">
         <v>23</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="64">
+      <c r="F26" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="58">
         <v>2</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="58">
         <v>3</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="58">
         <v>1</v>
       </c>
-      <c r="Q26" s="26">
-        <f>C2</f>
-        <v>45035</v>
-      </c>
-      <c r="R26" s="19">
-        <f t="shared" ref="R26:U41" si="8">R3</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T26" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>4,</v>
+      </c>
+      <c r="S26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>4,</v>
+      </c>
+      <c r="T26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
       <c r="W26" s="24" t="str">
         <f t="shared" si="5"/>
@@ -18904,45 +19456,45 @@
       </c>
     </row>
     <row r="27" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="64">
+      <c r="B27" s="58">
         <v>24</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="64">
+      <c r="F27" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="58">
         <v>1</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="58">
         <v>1</v>
       </c>
-      <c r="I27" s="64">
+      <c r="I27" s="58">
         <v>1</v>
       </c>
-      <c r="R27" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S27" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T27" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="R27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
       <c r="W27" s="24" t="str">
         <f t="shared" si="5"/>
@@ -18958,45 +19510,45 @@
       </c>
     </row>
     <row r="28" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="64">
+      <c r="B28" s="58">
         <v>25</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="G28" s="64">
+      <c r="F28" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="58">
         <v>1</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="58">
         <v>1</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="58">
         <v>1</v>
       </c>
-      <c r="R28" s="19">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="S28" s="19">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="T28" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="R28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="U28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
       <c r="W28" s="24" t="str">
         <f t="shared" si="5"/>
@@ -19017,21 +19569,21 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
-      <c r="R29" s="19">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S29" s="19">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="T29" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="R29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
     </row>
     <row r="30" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -19040,233 +19592,222 @@
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="R30" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="R30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>4,</v>
+      </c>
+      <c r="S30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>3,</v>
+      </c>
+      <c r="U30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
     </row>
     <row r="31" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R31" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S31" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U31" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="R31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>3,</v>
+      </c>
+      <c r="S31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>3,</v>
+      </c>
+      <c r="U31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
       </c>
     </row>
     <row r="32" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R32" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R33" s="19">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S33" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T33" s="19">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="U33" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R34" s="19">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="S34" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="19">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="U34" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R35" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S35" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U35" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R36" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R37" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S37" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T37" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R38" s="19">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="S38" s="19">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="T38" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R39" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S39" s="19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T39" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R40" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R41" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-    </row>
-    <row r="43" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="18:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="R32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="U32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="33" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="34" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="35" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>2,</v>
+      </c>
+      <c r="S35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>2,</v>
+      </c>
+      <c r="T35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="36" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="37" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="38" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R38" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S38" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T38" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U38" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="39" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+    </row>
+    <row r="40" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+    </row>
+    <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q41" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="R41" s="67"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+    </row>
+    <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="67"/>
+    </row>
+    <row r="43" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q43" s="40" t="str">
+        <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;"19-Apr"&amp;CHAR(34)&amp;"],"</f>
+        <v>"Date":["19-Apr"],</v>
+      </c>
+    </row>
+    <row r="44" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q44" s="40" t="str">
+        <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;"],"</f>
+        <v>"Points":[1,1,5,4,0,1,0,4,3,1,0,1,2,1,0,0,],</v>
+      </c>
+    </row>
+    <row r="45" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q45" s="40" t="str">
+        <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;"],"</f>
+        <v>"Finishes":[1,1,5,4,0,0,0,1,0,0,0,1,2,1,0,0,],</v>
+      </c>
+    </row>
+    <row r="46" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q46" s="40" t="str">
+        <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;"],"</f>
+        <v>"Midrange":[0,0,0,0,0,1,0,3,3,1,0,0,0,0,0,0,],</v>
+      </c>
+    </row>
+    <row r="47" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q47" s="40" t="str">
+        <f>CHAR(34)&amp;"ThreePointers"&amp;CHAR(34)&amp;":["&amp;U23&amp;U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30&amp;U31&amp;U32&amp;U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;"]"</f>
+        <v>"ThreePointers":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,]</v>
+      </c>
+    </row>
+    <row r="48" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -20220,6 +20761,9 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q41:S42"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68DD42F-4762-43BA-8D88-114D990B7E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B57BB0-DD2D-4093-8BA0-7F2B289604FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Template" sheetId="7" r:id="rId7"/>
     <sheet name="1804" sheetId="8" r:id="rId8"/>
     <sheet name="1904" sheetId="9" r:id="rId9"/>
+    <sheet name="2004" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="171">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -592,6 +593,15 @@
   <si>
     <t>COPY THIS</t>
   </si>
+  <si>
+    <t>Scoring Averages</t>
+  </si>
+  <si>
+    <t>W/C/R</t>
+  </si>
+  <si>
+    <t>Three Pointer</t>
+  </si>
 </sst>
 </file>
 
@@ -601,7 +611,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,6 +694,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -843,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -915,6 +931,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1499,13 +1516,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.43243243243243246</c:v>
+                  <c:v>0.47058823529411764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32432432432432434</c:v>
+                  <c:v>0.29411764705882354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24324324324324326</c:v>
+                  <c:v>0.23529411764705882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2876,13 +2893,2551 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796D4537-85EB-4C68-BF6F-CE095710B21E}">
+  <dimension ref="B1:Y1000"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.73046875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="14" style="40" customWidth="1"/>
+    <col min="5" max="17" width="8.73046875" style="40" customWidth="1"/>
+    <col min="18" max="18" width="10.73046875" style="40" customWidth="1"/>
+    <col min="19" max="26" width="8.73046875" style="40" customWidth="1"/>
+    <col min="27" max="16384" width="14.3984375" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45036</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="24">
+        <f>COUNTIF(C3:C30, "Loose Gooses")</f>
+        <v>8</v>
+      </c>
+      <c r="M3" s="24">
+        <f>COUNTIF(D3:D30, "Loose Gooses")</f>
+        <v>3</v>
+      </c>
+      <c r="N3" s="23">
+        <f t="shared" ref="N3:N5" si="0">L3/(L3+M3)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="O3" s="24">
+        <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="19">
+        <f t="shared" ref="R3:R18" si="1">COUNTIF($E$3:$E$27, Q3)+U3</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="20">
+        <f t="shared" ref="S3:S18" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="20">
+        <f t="shared" ref="T3:T18" si="3">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="20">
+        <f t="shared" ref="U3:U18" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="58">
+        <v>1</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="58">
+        <v>1</v>
+      </c>
+      <c r="H4" s="58">
+        <v>1</v>
+      </c>
+      <c r="I4" s="58">
+        <v>1</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="24">
+        <f>COUNTIF(C3:C30, "5 Musketeers")</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="24">
+        <f>COUNTIF(D3:D30, "5 Musketeers")</f>
+        <v>6</v>
+      </c>
+      <c r="N4" s="23">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O4" s="24">
+        <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S4" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="24" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
+        <v>LG/5M</v>
+      </c>
+      <c r="X4" s="24" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Y4" s="24" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="58">
+        <v>2</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="58">
+        <v>1</v>
+      </c>
+      <c r="H5" s="58">
+        <v>1</v>
+      </c>
+      <c r="I5" s="58">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="24">
+        <f>COUNTIF(C3:C30, "Wet Willies")</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="24">
+        <f>COUNTIF(D3:D30, "Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="N5" s="23">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="O5" s="24">
+        <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="24" t="str">
+        <f t="shared" ref="W5:W28" si="5">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="X5" s="24" t="str">
+        <f t="shared" ref="X5:X28" si="6">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", ""))</f>
+        <v>WW/LG</v>
+      </c>
+      <c r="Y5" s="24" t="str">
+        <f t="shared" ref="Y5:Y28" si="7">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND($C5="5 Musketeers",$D5="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="58">
+        <v>3</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="58">
+        <v>1</v>
+      </c>
+      <c r="H6" s="58">
+        <v>1</v>
+      </c>
+      <c r="I6" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X6" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y6" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="58">
+        <v>4</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="58">
+        <v>1</v>
+      </c>
+      <c r="H7" s="58">
+        <v>1</v>
+      </c>
+      <c r="I7" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="X7" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y7" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="58">
+        <v>5</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="58">
+        <v>2</v>
+      </c>
+      <c r="H8" s="58">
+        <v>2</v>
+      </c>
+      <c r="I8" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="X8" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y8" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="58">
+        <v>6</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="58">
+        <v>3</v>
+      </c>
+      <c r="H9" s="58">
+        <v>2</v>
+      </c>
+      <c r="I9" s="58">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W9" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="X9" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y9" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="58">
+        <v>7</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="58">
+        <v>4</v>
+      </c>
+      <c r="H10" s="58">
+        <v>3</v>
+      </c>
+      <c r="I10" s="58">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="X10" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y10" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="58">
+        <v>8</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="58">
+        <v>1</v>
+      </c>
+      <c r="H11" s="58">
+        <v>1</v>
+      </c>
+      <c r="I11" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S11" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X11" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y11" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="58">
+        <v>9</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="58">
+        <v>1</v>
+      </c>
+      <c r="H12" s="58">
+        <v>1</v>
+      </c>
+      <c r="I12" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X12" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="Y12" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="58">
+        <v>10</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="58">
+        <v>1</v>
+      </c>
+      <c r="H13" s="58">
+        <v>1</v>
+      </c>
+      <c r="I13" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R13" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="X13" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y13" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="58">
+        <v>11</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="58">
+        <v>2</v>
+      </c>
+      <c r="H14" s="58">
+        <v>2</v>
+      </c>
+      <c r="I14" s="58">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="R14" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S14" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T14" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="X14" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y14" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="58">
+        <v>12</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="58">
+        <v>3</v>
+      </c>
+      <c r="H15" s="58">
+        <v>2</v>
+      </c>
+      <c r="I15" s="58">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S15" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T15" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="X15" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y15" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="58">
+        <v>13</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="58">
+        <v>1</v>
+      </c>
+      <c r="H16" s="58">
+        <v>1</v>
+      </c>
+      <c r="I16" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T16" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X16" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y16" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="58">
+        <v>14</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="58">
+        <v>1</v>
+      </c>
+      <c r="H17" s="58">
+        <v>1</v>
+      </c>
+      <c r="I17" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X17" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="Y17" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="Q18" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="R18" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X18" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y18" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="W19" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X19" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y19" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="W20" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X20" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y20" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="W21" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X21" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y21" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="W22" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X22" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y22" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="40" t="str">
+        <f>R3&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="S23" s="40" t="str">
+        <f t="shared" ref="S23:U23" si="8">S3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="T23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>1,</v>
+      </c>
+      <c r="U23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="W23" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X23" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y23" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="R24" s="40" t="str">
+        <f t="shared" ref="R24:U37" si="9">R4&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="S24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W24" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X24" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y24" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W25" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X25" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y25" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W26" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X26" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y26" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="R27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W27" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X27" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y27" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="R28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W28" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X28" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y28" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E29" s="25"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="R29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>5,</v>
+      </c>
+      <c r="S29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U29" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E30" s="25"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="R30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U30" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>2,</v>
+      </c>
+      <c r="S31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="U31" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="33" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="34" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>2,</v>
+      </c>
+      <c r="S34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>2,</v>
+      </c>
+      <c r="T34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="35" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>3,</v>
+      </c>
+      <c r="S35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>2,</v>
+      </c>
+      <c r="T35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="U35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="36" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="37" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="38" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R38" s="42">
+        <f>R18</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="42">
+        <f t="shared" ref="S38:U38" si="10">S18</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+    </row>
+    <row r="40" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+    </row>
+    <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q41" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+    </row>
+    <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+    </row>
+    <row r="43" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q43" s="40" t="str">
+        <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;"20-Apr"&amp;CHAR(34)&amp;"],"</f>
+        <v>"Date":["20-Apr"],</v>
+      </c>
+    </row>
+    <row r="44" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q44" s="40" t="str">
+        <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;"],"</f>
+        <v>"Points":[1,1,0,1,0,0,5,0,2,0,0,2,3,1,0,0],</v>
+      </c>
+    </row>
+    <row r="45" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q45" s="40" t="str">
+        <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;"],"</f>
+        <v>"Finishes":[0,1,0,1,0,0,1,0,1,0,0,2,2,1,0,0],</v>
+      </c>
+    </row>
+    <row r="46" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q46" s="40" t="str">
+        <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;"],"</f>
+        <v>"Midrange":[1,0,0,0,0,0,0,0,1,0,0,0,1,0,0,0],</v>
+      </c>
+    </row>
+    <row r="47" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q47" s="40" t="str">
+        <f>CHAR(34)&amp;"ThreePointers"&amp;CHAR(34)&amp;":["&amp;U23&amp;U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30&amp;U31&amp;U32&amp;U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;"]"</f>
+        <v>"ThreePointers":[0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0]</v>
+      </c>
+    </row>
+    <row r="48" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q41:S42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2983,15 +5538,15 @@
       </c>
       <c r="D3" s="14">
         <f>'Stats Global'!R8</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E3" s="1">
         <f>'Stats Global'!Q8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="14">
         <f>'Stats Global'!T8</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G3" s="24">
         <f>'Stats Global'!S8</f>
@@ -2999,11 +5554,11 @@
       </c>
       <c r="H3" s="14">
         <f>'Stats Global'!V8</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I3" s="24">
         <f>'Stats Global'!U8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="14">
         <f>'Stats Global'!X8</f>
@@ -3041,7 +5596,7 @@
       </c>
       <c r="E4" s="24">
         <f>'Stats Global'!Q9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="14">
         <f>'Stats Global'!T9</f>
@@ -3049,7 +5604,7 @@
       </c>
       <c r="G4" s="24">
         <f>'Stats Global'!S9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="14">
         <f>'Stats Global'!V9</f>
@@ -3091,7 +5646,7 @@
       </c>
       <c r="D5" s="14">
         <f>'Stats Global'!R10</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="24">
         <f>'Stats Global'!Q10</f>
@@ -3099,7 +5654,7 @@
       </c>
       <c r="F5" s="14">
         <f>'Stats Global'!T10</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="24">
         <f>'Stats Global'!S10</f>
@@ -3154,19 +5709,19 @@
       </c>
       <c r="D6" s="14">
         <f>'Stats Global'!R11</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="24">
         <f>'Stats Global'!Q11</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="14">
         <f>'Stats Global'!T11</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G6" s="24">
         <f>'Stats Global'!S11</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="14">
         <f>'Stats Global'!V11</f>
@@ -3217,7 +5772,7 @@
       </c>
       <c r="D7" s="14">
         <f>'Stats Global'!R12</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E7" s="24">
         <f>'Stats Global'!Q12</f>
@@ -3225,7 +5780,7 @@
       </c>
       <c r="F7" s="14">
         <f>'Stats Global'!T12</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G7" s="24">
         <f>'Stats Global'!S12</f>
@@ -3278,7 +5833,7 @@
       </c>
       <c r="D8" s="14">
         <f>'Stats Global'!R13</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E8" s="24">
         <f>'Stats Global'!Q13</f>
@@ -3294,7 +5849,7 @@
       </c>
       <c r="H8" s="14">
         <f>'Stats Global'!V13</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I8" s="24">
         <f>'Stats Global'!U13</f>
@@ -3335,19 +5890,19 @@
       </c>
       <c r="D9" s="14">
         <f>'Stats Global'!R14</f>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E9" s="24">
         <f>'Stats Global'!Q14</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="14">
         <f>'Stats Global'!T14</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G9" s="24">
         <f>'Stats Global'!S14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="14">
         <f>'Stats Global'!V14</f>
@@ -3359,11 +5914,11 @@
       </c>
       <c r="J9" s="14">
         <f>'Stats Global'!X14</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K9" s="24">
         <f>'Stats Global'!W14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>42</v>
@@ -3395,7 +5950,7 @@
       </c>
       <c r="D10" s="14">
         <f>'Stats Global'!R15</f>
-        <v>2.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E10" s="24">
         <f>'Stats Global'!Q15</f>
@@ -3403,7 +5958,7 @@
       </c>
       <c r="F10" s="14">
         <f>'Stats Global'!T15</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G10" s="24">
         <f>'Stats Global'!S15</f>
@@ -3411,7 +5966,7 @@
       </c>
       <c r="H10" s="14">
         <f>'Stats Global'!V15</f>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I10" s="24">
         <f>'Stats Global'!U15</f>
@@ -3458,27 +6013,27 @@
       </c>
       <c r="D11" s="14">
         <f>'Stats Global'!R16</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="24">
         <f>'Stats Global'!Q16</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" s="14">
         <f>'Stats Global'!T16</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G11" s="24">
         <f>'Stats Global'!S16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="14">
         <f>'Stats Global'!V16</f>
-        <v>3</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I11" s="24">
         <f>'Stats Global'!U16</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="14">
         <f>'Stats Global'!X16</f>
@@ -3519,7 +6074,7 @@
       </c>
       <c r="D12" s="14">
         <f>'Stats Global'!R17</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E12" s="24">
         <f>'Stats Global'!Q17</f>
@@ -3535,7 +6090,7 @@
       </c>
       <c r="H12" s="14">
         <f>'Stats Global'!V17</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I12" s="24">
         <f>'Stats Global'!U17</f>
@@ -3579,7 +6134,7 @@
       </c>
       <c r="D13" s="14">
         <f>'Stats Global'!R18</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E13" s="24">
         <f>'Stats Global'!Q18</f>
@@ -3587,7 +6142,7 @@
       </c>
       <c r="F13" s="14">
         <f>'Stats Global'!T18</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G13" s="24">
         <f>'Stats Global'!S18</f>
@@ -3639,19 +6194,19 @@
       </c>
       <c r="D14" s="14">
         <f>'Stats Global'!R19</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="24">
         <f>'Stats Global'!Q19</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="14">
         <f>'Stats Global'!T19</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="24">
         <f>'Stats Global'!S19</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="14">
         <f>'Stats Global'!V19</f>
@@ -3696,27 +6251,27 @@
       </c>
       <c r="D15" s="14">
         <f>'Stats Global'!R20</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="24">
         <f>'Stats Global'!Q20</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F15" s="14">
         <f>'Stats Global'!T20</f>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G15" s="24">
         <f>'Stats Global'!S20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15" s="14">
         <f>'Stats Global'!V20</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I15" s="24">
         <f>'Stats Global'!U20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="14">
         <f>'Stats Global'!X20</f>
@@ -3767,7 +6322,7 @@
       </c>
       <c r="E16" s="24">
         <f>'Stats Global'!Q21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="14">
         <f>'Stats Global'!T21</f>
@@ -3775,7 +6330,7 @@
       </c>
       <c r="G16" s="24">
         <f>'Stats Global'!S21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="14">
         <f>'Stats Global'!V21</f>
@@ -3935,11 +6490,11 @@
       <c r="I20" s="38"/>
       <c r="J20" s="41"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="67" t="s">
+      <c r="L20" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
       <c r="X20" s="3" t="s">
         <v>83</v>
       </c>
@@ -3979,9 +6534,9 @@
         <f>CHAR(34)&amp;"TT"&amp;CHAR(34)</f>
         <v>"TT"</v>
       </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
       <c r="X21" s="3" t="s">
         <v>85</v>
       </c>
@@ -3989,31 +6544,31 @@
     <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="4"/>
       <c r="D22" s="41" t="str">
-        <f>CHAR(34)&amp;D3&amp;CHAR(34)&amp;","</f>
-        <v>"0.5",</v>
+        <f>CHAR(34)&amp;ROUND(D3,2)&amp;CHAR(34)&amp;","</f>
+        <v>"0.67",</v>
       </c>
       <c r="E22" s="41" t="str">
         <f t="shared" ref="E22:K22" si="2">CHAR(34)&amp;E3&amp;CHAR(34)&amp;","</f>
-        <v>"1",</v>
+        <v>"2",</v>
       </c>
       <c r="F22" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>"0.5",</v>
+        <f>CHAR(34)&amp;ROUND(F3,2)&amp;CHAR(34)&amp;","</f>
+        <v>"0.33",</v>
       </c>
       <c r="G22" s="41" t="str">
         <f t="shared" si="2"/>
         <v>"1",</v>
       </c>
       <c r="H22" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>"0",</v>
+        <f>CHAR(34)&amp;ROUND(H3,2)&amp;CHAR(34)&amp;","</f>
+        <v>"0.33",</v>
       </c>
       <c r="I22" s="41" t="str">
         <f t="shared" si="2"/>
-        <v>"0",</v>
+        <v>"1",</v>
       </c>
       <c r="J22" s="41" t="str">
-        <f t="shared" si="2"/>
+        <f>CHAR(34)&amp;ROUND(J3,2)&amp;CHAR(34)&amp;","</f>
         <v>"0",</v>
       </c>
       <c r="K22" s="41" t="str">
@@ -4022,7 +6577,7 @@
       </c>
       <c r="L22" s="41" t="str">
         <f>D21&amp;":["&amp;D22&amp;D23&amp;D24&amp;D25&amp;D26&amp;D27&amp;D28&amp;D29&amp;D30&amp;D31&amp;D32&amp;D33&amp;D34&amp;D35&amp;D36&amp;D37&amp;"],"</f>
-        <v>"PPG":["0.5","1","3","2.5","0.5","0.5","0","2.5","3.5","0.5","0.5","0.5","1.5","1","0","0"],</v>
+        <v>"PPG":["0.67","1","2","2","0.33","0.33","1.67","1.67","3","0.33","0.33","1","2","1","0","0",],</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>86</v>
@@ -4031,139 +6586,139 @@
     <row r="23" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="4"/>
       <c r="D23" s="41" t="str">
-        <f t="shared" ref="D23:K23" si="3">CHAR(34)&amp;D4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="D23:D37" si="3">CHAR(34)&amp;ROUND(D4,2)&amp;CHAR(34)&amp;","</f>
         <v>"1",</v>
       </c>
       <c r="E23" s="41" t="str">
+        <f t="shared" ref="D23:K23" si="4">CHAR(34)&amp;E4&amp;CHAR(34)&amp;","</f>
+        <v>"3",</v>
+      </c>
+      <c r="F23" s="41" t="str">
+        <f t="shared" ref="F23:F37" si="5">CHAR(34)&amp;ROUND(F4,2)&amp;CHAR(34)&amp;","</f>
+        <v>"1",</v>
+      </c>
+      <c r="G23" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>"3",</v>
+      </c>
+      <c r="H23" s="41" t="str">
+        <f t="shared" ref="H23:H37" si="6">CHAR(34)&amp;ROUND(H4,2)&amp;CHAR(34)&amp;","</f>
+        <v>"0",</v>
+      </c>
+      <c r="I23" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>"0",</v>
+      </c>
+      <c r="J23" s="41" t="str">
+        <f t="shared" ref="J23:J37" si="7">CHAR(34)&amp;ROUND(J4,2)&amp;CHAR(34)&amp;","</f>
+        <v>"0",</v>
+      </c>
+      <c r="K23" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>"0",</v>
+      </c>
+      <c r="L23" t="str">
+        <f>E21&amp;":["&amp;E22&amp;E23&amp;E24&amp;E25&amp;E26&amp;E27&amp;E28&amp;E29&amp;E30&amp;E31&amp;E32&amp;E33&amp;E34&amp;E35&amp;E36&amp;E37&amp;"],"</f>
+        <v>"TP":["2","3","6","6","1","1","5","5","9","1","1","3","6","3","0","0"],</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="41" t="str">
         <f t="shared" si="3"/>
         <v>"2",</v>
       </c>
-      <c r="F23" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>"1",</v>
-      </c>
-      <c r="G23" s="41" t="str">
+      <c r="E24" s="41" t="str">
+        <f t="shared" ref="D24:K24" si="8">CHAR(34)&amp;E5&amp;CHAR(34)&amp;","</f>
+        <v>"6",</v>
+      </c>
+      <c r="F24" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>"2",</v>
+      </c>
+      <c r="G24" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>"6",</v>
+      </c>
+      <c r="H24" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>"0",</v>
+      </c>
+      <c r="I24" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>"0",</v>
+      </c>
+      <c r="J24" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>"0",</v>
+      </c>
+      <c r="K24" s="41" t="str">
+        <f t="shared" si="8"/>
+        <v>"0",</v>
+      </c>
+      <c r="L24" t="str">
+        <f>F21&amp;":["&amp;F22&amp;F23&amp;F24&amp;F25&amp;F26&amp;F27&amp;F28&amp;F29&amp;F30&amp;F31&amp;F32&amp;F33&amp;F34&amp;F35&amp;F36&amp;F37&amp;"],"</f>
+        <v>"FPG":["0.33","1","2","2","0.33","0","0.33","0.33","0.67","0","0.33","1","1.67","1","0","0",],</v>
+      </c>
+      <c r="X24" s="40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D25" s="41" t="str">
         <f t="shared" si="3"/>
         <v>"2",</v>
       </c>
-      <c r="H23" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>"0",</v>
-      </c>
-      <c r="I23" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>"0",</v>
-      </c>
-      <c r="J23" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>"0",</v>
-      </c>
-      <c r="K23" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>"0",</v>
-      </c>
-      <c r="L23" t="str">
-        <f>E21&amp;":["&amp;E22&amp;E23&amp;E24&amp;E25&amp;E26&amp;E27&amp;E28&amp;E29&amp;E30&amp;E31&amp;E32&amp;E33&amp;E34&amp;E35&amp;E36&amp;E37&amp;"],"</f>
-        <v>"TP":["1","2","6","5","1","1","0","5","7","1","1","1","3","2","0","0"],</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D24" s="41" t="str">
-        <f t="shared" ref="D24:K24" si="4">CHAR(34)&amp;D5&amp;CHAR(34)&amp;","</f>
-        <v>"3",</v>
-      </c>
-      <c r="E24" s="41" t="str">
-        <f t="shared" si="4"/>
+      <c r="E25" s="41" t="str">
+        <f t="shared" ref="D25:K25" si="9">CHAR(34)&amp;E6&amp;CHAR(34)&amp;","</f>
         <v>"6",</v>
-      </c>
-      <c r="F24" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>"3",</v>
-      </c>
-      <c r="G24" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>"6",</v>
-      </c>
-      <c r="H24" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>"0",</v>
-      </c>
-      <c r="I24" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>"0",</v>
-      </c>
-      <c r="J24" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>"0",</v>
-      </c>
-      <c r="K24" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>"0",</v>
-      </c>
-      <c r="L24" t="str">
-        <f>F21&amp;":["&amp;F22&amp;F23&amp;F24&amp;F25&amp;F26&amp;F27&amp;F28&amp;F29&amp;F30&amp;F31&amp;F32&amp;F33&amp;F34&amp;F35&amp;F36&amp;F37&amp;"],"</f>
-        <v>"FPG":["0.5","1","3","2.5","0.5","0","0","0.5","0.5","0","0.5","0.5","1.5","1","0","0"],</v>
-      </c>
-      <c r="X24" s="40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D25" s="41" t="str">
-        <f t="shared" ref="D25:K25" si="5">CHAR(34)&amp;D6&amp;CHAR(34)&amp;","</f>
-        <v>"2.5",</v>
-      </c>
-      <c r="E25" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v>"5",</v>
       </c>
       <c r="F25" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"2.5",</v>
+        <v>"2",</v>
       </c>
       <c r="G25" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v>"5",</v>
+        <f t="shared" si="9"/>
+        <v>"6",</v>
       </c>
       <c r="H25" s="41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>"0",</v>
       </c>
       <c r="I25" s="41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>"0",</v>
       </c>
       <c r="J25" s="41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"0",</v>
       </c>
       <c r="K25" s="41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>"0",</v>
       </c>
       <c r="L25" t="str">
         <f>G21&amp;":["&amp;G22&amp;G23&amp;G24&amp;G25&amp;G26&amp;G27&amp;G28&amp;G29&amp;G30&amp;G31&amp;G32&amp;G33&amp;G34&amp;G35&amp;G36&amp;G37&amp;"],"</f>
-        <v>"TF":["1","2","6","5","1","0","0","1","1","0","1","1","3","2","0","0"],</v>
+        <v>"TF":["1","3","6","6","1","0","1","1","2","0","1","3","5","3","0","0"],</v>
       </c>
     </row>
     <row r="26" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D26" s="41" t="str">
-        <f t="shared" ref="D26:K26" si="6">CHAR(34)&amp;D7&amp;CHAR(34)&amp;","</f>
-        <v>"0.5",</v>
+        <f t="shared" si="3"/>
+        <v>"0.33",</v>
       </c>
       <c r="E26" s="41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D26:K26" si="10">CHAR(34)&amp;E7&amp;CHAR(34)&amp;","</f>
         <v>"1",</v>
       </c>
       <c r="F26" s="41" t="str">
-        <f t="shared" si="6"/>
-        <v>"0.5",</v>
+        <f t="shared" si="5"/>
+        <v>"0.33",</v>
       </c>
       <c r="G26" s="41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>"1",</v>
       </c>
       <c r="H26" s="41" t="str">
@@ -4171,45 +6726,45 @@
         <v>"0",</v>
       </c>
       <c r="I26" s="41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>"0",</v>
       </c>
       <c r="J26" s="41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>"0",</v>
       </c>
       <c r="K26" s="41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>"0",</v>
       </c>
       <c r="L26" t="str">
         <f>H21&amp;":["&amp;H22&amp;H23&amp;H24&amp;H25&amp;H26&amp;H27&amp;H28&amp;H29&amp;H30&amp;H31&amp;H32&amp;H33&amp;H34&amp;H35&amp;H36&amp;H37&amp;"],"</f>
-        <v>"MPG":["0","0","0","0","0","0.5","0","2","3","0.5","0","0","0","0","0","0"],</v>
+        <v>"MPG":["0.33","0","0","0","0","0.33","0","1.33","2.33","0.33","0","0","0.33","0","0","0",],</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D27" s="41" t="str">
-        <f t="shared" ref="D27:K27" si="7">CHAR(34)&amp;D8&amp;CHAR(34)&amp;","</f>
-        <v>"0.5",</v>
+        <f t="shared" si="3"/>
+        <v>"0.33",</v>
       </c>
       <c r="E27" s="41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D27:K27" si="11">CHAR(34)&amp;E8&amp;CHAR(34)&amp;","</f>
         <v>"1",</v>
       </c>
       <c r="F27" s="41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>"0",</v>
       </c>
       <c r="G27" s="41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>"0",</v>
       </c>
       <c r="H27" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v>"0.5",</v>
+        <f t="shared" si="6"/>
+        <v>"0.33",</v>
       </c>
       <c r="I27" s="41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>"1",</v>
       </c>
       <c r="J27" s="41" t="str">
@@ -4217,367 +6772,367 @@
         <v>"0",</v>
       </c>
       <c r="K27" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v>"0",</v>
+      </c>
+      <c r="L27" t="str">
+        <f>I21&amp;":["&amp;I22&amp;I23&amp;I24&amp;I25&amp;I26&amp;I27&amp;I28&amp;I29&amp;I30&amp;I31&amp;I32&amp;I33&amp;I34&amp;I35&amp;I36&amp;I37&amp;"],"</f>
+        <v>"TM":["1","0","0","0","0","1","0","4","7","1","0","0","1","0","0","0"],</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>"1.67",</v>
+      </c>
+      <c r="E28" s="41" t="str">
+        <f t="shared" ref="D28:K28" si="12">CHAR(34)&amp;E9&amp;CHAR(34)&amp;","</f>
+        <v>"5",</v>
+      </c>
+      <c r="F28" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>"0.33",</v>
+      </c>
+      <c r="G28" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v>"1",</v>
+      </c>
+      <c r="H28" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>"0",</v>
+      </c>
+      <c r="I28" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v>"0",</v>
+      </c>
+      <c r="J28" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>"0.67",</v>
+      </c>
+      <c r="K28" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v>"2",</v>
+      </c>
+      <c r="L28" t="str">
+        <f>J21&amp;":["&amp;J22&amp;J23&amp;J24&amp;J25&amp;J26&amp;J27&amp;J28&amp;J29&amp;J30&amp;J31&amp;J32&amp;J33&amp;J34&amp;J35&amp;J36&amp;J37&amp;"],"</f>
+        <v>"TPG":["0","0","0","0","0","0","0.67","0","0","0","0","0","0","0","0","0",],</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>"1.67",</v>
+      </c>
+      <c r="E29" s="41" t="str">
+        <f t="shared" ref="D29:K29" si="13">CHAR(34)&amp;E10&amp;CHAR(34)&amp;","</f>
+        <v>"5",</v>
+      </c>
+      <c r="F29" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>"0.33",</v>
+      </c>
+      <c r="G29" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v>"1",</v>
+      </c>
+      <c r="H29" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>"1.33",</v>
+      </c>
+      <c r="I29" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v>"4",</v>
+      </c>
+      <c r="J29" s="41" t="str">
         <f t="shared" si="7"/>
         <v>"0",</v>
       </c>
-      <c r="L27" t="str">
-        <f>I21&amp;":["&amp;I22&amp;I23&amp;I24&amp;I25&amp;I26&amp;I27&amp;I28&amp;I29&amp;I30&amp;I31&amp;I32&amp;I33&amp;I34&amp;I35&amp;I36&amp;I37&amp;"],"</f>
-        <v>"TM":["0","0","0","0","0","1","0","4","6","1","0","0","0","0","0","0"],</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="41" t="str">
-        <f t="shared" ref="D28:K28" si="8">CHAR(34)&amp;D9&amp;CHAR(34)&amp;","</f>
-        <v>"0",</v>
-      </c>
-      <c r="E28" s="41" t="str">
-        <f t="shared" si="8"/>
-        <v>"0",</v>
-      </c>
-      <c r="F28" s="41" t="str">
-        <f t="shared" si="8"/>
-        <v>"0",</v>
-      </c>
-      <c r="G28" s="41" t="str">
-        <f t="shared" si="8"/>
-        <v>"0",</v>
-      </c>
-      <c r="H28" s="41" t="str">
-        <f t="shared" si="8"/>
-        <v>"0",</v>
-      </c>
-      <c r="I28" s="41" t="str">
-        <f t="shared" si="8"/>
-        <v>"0",</v>
-      </c>
-      <c r="J28" s="41" t="str">
-        <f t="shared" si="8"/>
-        <v>"0",</v>
-      </c>
-      <c r="K28" s="41" t="str">
-        <f t="shared" si="8"/>
-        <v>"0",</v>
-      </c>
-      <c r="L28" t="str">
-        <f>J21&amp;":["&amp;J22&amp;J23&amp;J24&amp;J25&amp;J26&amp;J27&amp;J28&amp;J29&amp;J30&amp;J31&amp;J32&amp;J33&amp;J34&amp;J35&amp;J36&amp;J37&amp;"],"</f>
-        <v>"TPG":["0","0","0","0","0","0","0","0","0","0","0","0","0","0","0","0"],</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D29" s="41" t="str">
-        <f t="shared" ref="D29:K29" si="9">CHAR(34)&amp;D10&amp;CHAR(34)&amp;","</f>
-        <v>"2.5",</v>
-      </c>
-      <c r="E29" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v>"5",</v>
-      </c>
-      <c r="F29" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v>"0.5",</v>
-      </c>
-      <c r="G29" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v>"1",</v>
-      </c>
-      <c r="H29" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v>"2",</v>
-      </c>
-      <c r="I29" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v>"4",</v>
-      </c>
-      <c r="J29" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v>"0",</v>
-      </c>
       <c r="K29" s="41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>"0",</v>
       </c>
       <c r="L29" t="str">
         <f>K21&amp;":["&amp;K22&amp;K23&amp;K24&amp;K25&amp;K26&amp;K27&amp;K28&amp;K29&amp;K30&amp;K31&amp;K32&amp;K33&amp;K34&amp;K35&amp;K36&amp;K37&amp;"],"</f>
-        <v>"TT":["0","0","0","0","0","0","0","0","0","0","0","0","0","0","0","0"],</v>
+        <v>"TT":["0","0","0","0","0","0","2","0","0","0","0","0","0","0","0","0"],</v>
       </c>
     </row>
     <row r="30" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="41"/>
       <c r="D30" s="41" t="str">
-        <f t="shared" ref="D30:K30" si="10">CHAR(34)&amp;D11&amp;CHAR(34)&amp;","</f>
-        <v>"3.5",</v>
+        <f t="shared" si="3"/>
+        <v>"3",</v>
       </c>
       <c r="E30" s="41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D30:K30" si="14">CHAR(34)&amp;E11&amp;CHAR(34)&amp;","</f>
+        <v>"9",</v>
+      </c>
+      <c r="F30" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>"0.67",</v>
+      </c>
+      <c r="G30" s="41" t="str">
+        <f t="shared" si="14"/>
+        <v>"2",</v>
+      </c>
+      <c r="H30" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>"2.33",</v>
+      </c>
+      <c r="I30" s="41" t="str">
+        <f t="shared" si="14"/>
         <v>"7",</v>
       </c>
-      <c r="F30" s="41" t="str">
-        <f t="shared" si="10"/>
-        <v>"0.5",</v>
-      </c>
-      <c r="G30" s="41" t="str">
-        <f t="shared" si="10"/>
-        <v>"1",</v>
-      </c>
-      <c r="H30" s="41" t="str">
-        <f t="shared" si="10"/>
-        <v>"3",</v>
-      </c>
-      <c r="I30" s="41" t="str">
-        <f t="shared" si="10"/>
-        <v>"6",</v>
-      </c>
       <c r="J30" s="41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>"0",</v>
       </c>
       <c r="K30" s="41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>"0",</v>
       </c>
     </row>
     <row r="31" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C31" s="41"/>
       <c r="D31" s="41" t="str">
-        <f t="shared" ref="D31:K31" si="11">CHAR(34)&amp;D12&amp;CHAR(34)&amp;","</f>
-        <v>"0.5",</v>
+        <f t="shared" si="3"/>
+        <v>"0.33",</v>
       </c>
       <c r="E31" s="41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D31:K31" si="15">CHAR(34)&amp;E12&amp;CHAR(34)&amp;","</f>
         <v>"1",</v>
       </c>
       <c r="F31" s="41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>"0",</v>
       </c>
       <c r="G31" s="41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>"0",</v>
       </c>
       <c r="H31" s="41" t="str">
-        <f t="shared" si="11"/>
-        <v>"0.5",</v>
+        <f t="shared" si="6"/>
+        <v>"0.33",</v>
       </c>
       <c r="I31" s="41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>"1",</v>
       </c>
       <c r="J31" s="41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>"0",</v>
       </c>
       <c r="K31" s="41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>"0",</v>
       </c>
     </row>
     <row r="32" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C32" s="41"/>
       <c r="D32" s="41" t="str">
-        <f t="shared" ref="D32:K32" si="12">CHAR(34)&amp;D13&amp;CHAR(34)&amp;","</f>
-        <v>"0.5",</v>
+        <f t="shared" si="3"/>
+        <v>"0.33",</v>
       </c>
       <c r="E32" s="41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="D32:K32" si="16">CHAR(34)&amp;E13&amp;CHAR(34)&amp;","</f>
         <v>"1",</v>
       </c>
       <c r="F32" s="41" t="str">
-        <f t="shared" si="12"/>
-        <v>"0.5",</v>
+        <f t="shared" si="5"/>
+        <v>"0.33",</v>
       </c>
       <c r="G32" s="41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>"1",</v>
       </c>
       <c r="H32" s="41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>"0",</v>
       </c>
       <c r="I32" s="41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>"0",</v>
       </c>
       <c r="J32" s="41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>"0",</v>
       </c>
       <c r="K32" s="41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>"0",</v>
       </c>
     </row>
     <row r="33" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C33" s="41"/>
       <c r="D33" s="41" t="str">
-        <f t="shared" ref="D33:K33" si="13">CHAR(34)&amp;D14&amp;CHAR(34)&amp;","</f>
-        <v>"0.5",</v>
+        <f t="shared" si="3"/>
+        <v>"1",</v>
       </c>
       <c r="E33" s="41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D33:K33" si="17">CHAR(34)&amp;E14&amp;CHAR(34)&amp;","</f>
+        <v>"3",</v>
+      </c>
+      <c r="F33" s="41" t="str">
+        <f t="shared" si="5"/>
         <v>"1",</v>
       </c>
-      <c r="F33" s="41" t="str">
-        <f t="shared" si="13"/>
-        <v>"0.5",</v>
-      </c>
       <c r="G33" s="41" t="str">
-        <f t="shared" si="13"/>
-        <v>"1",</v>
+        <f t="shared" si="17"/>
+        <v>"3",</v>
       </c>
       <c r="H33" s="41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>"0",</v>
       </c>
       <c r="I33" s="41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>"0",</v>
       </c>
       <c r="J33" s="41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>"0",</v>
       </c>
       <c r="K33" s="41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>"0",</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="41"/>
       <c r="D34" s="41" t="str">
-        <f t="shared" ref="D34:K34" si="14">CHAR(34)&amp;D15&amp;CHAR(34)&amp;","</f>
-        <v>"1.5",</v>
+        <f t="shared" si="3"/>
+        <v>"2",</v>
       </c>
       <c r="E34" s="41" t="str">
-        <f t="shared" si="14"/>
-        <v>"3",</v>
+        <f t="shared" ref="D34:K34" si="18">CHAR(34)&amp;E15&amp;CHAR(34)&amp;","</f>
+        <v>"6",</v>
       </c>
       <c r="F34" s="41" t="str">
-        <f t="shared" si="14"/>
-        <v>"1.5",</v>
+        <f t="shared" si="5"/>
+        <v>"1.67",</v>
       </c>
       <c r="G34" s="41" t="str">
-        <f t="shared" si="14"/>
-        <v>"3",</v>
+        <f t="shared" si="18"/>
+        <v>"5",</v>
       </c>
       <c r="H34" s="41" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
+        <v>"0.33",</v>
+      </c>
+      <c r="I34" s="41" t="str">
+        <f t="shared" si="18"/>
+        <v>"1",</v>
+      </c>
+      <c r="J34" s="41" t="str">
+        <f t="shared" si="7"/>
         <v>"0",</v>
       </c>
-      <c r="I34" s="41" t="str">
-        <f t="shared" si="14"/>
-        <v>"0",</v>
-      </c>
-      <c r="J34" s="41" t="str">
-        <f t="shared" si="14"/>
-        <v>"0",</v>
-      </c>
       <c r="K34" s="41" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>"0",</v>
       </c>
     </row>
     <row r="35" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C35" s="41"/>
       <c r="D35" s="41" t="str">
-        <f t="shared" ref="D35:K35" si="15">CHAR(34)&amp;D16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="3"/>
         <v>"1",</v>
       </c>
       <c r="E35" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v>"2",</v>
+        <f t="shared" ref="D35:K35" si="19">CHAR(34)&amp;E16&amp;CHAR(34)&amp;","</f>
+        <v>"3",</v>
       </c>
       <c r="F35" s="41" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>"1",</v>
       </c>
       <c r="G35" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v>"2",</v>
+        <f t="shared" si="19"/>
+        <v>"3",</v>
       </c>
       <c r="H35" s="41" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>"0",</v>
       </c>
       <c r="I35" s="41" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>"0",</v>
       </c>
       <c r="J35" s="41" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>"0",</v>
       </c>
       <c r="K35" s="41" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>"0",</v>
       </c>
     </row>
     <row r="36" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C36" s="41"/>
       <c r="D36" s="41" t="str">
-        <f t="shared" ref="D36:K36" si="16">CHAR(34)&amp;D17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="3"/>
         <v>"0",</v>
       </c>
       <c r="E36" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D36:K36" si="20">CHAR(34)&amp;E17&amp;CHAR(34)&amp;","</f>
         <v>"0",</v>
       </c>
       <c r="F36" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>"0",</v>
       </c>
       <c r="G36" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>"0",</v>
       </c>
       <c r="H36" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>"0",</v>
       </c>
       <c r="I36" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>"0",</v>
       </c>
       <c r="J36" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>"0",</v>
       </c>
       <c r="K36" s="41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>"0",</v>
       </c>
     </row>
     <row r="37" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C37" s="41"/>
       <c r="D37" s="41" t="str">
-        <f>CHAR(34)&amp;D18&amp;CHAR(34)</f>
+        <f t="shared" si="3"/>
+        <v>"0",</v>
+      </c>
+      <c r="E37" s="41" t="str">
+        <f t="shared" ref="E37:K37" si="21">CHAR(34)&amp;E18&amp;CHAR(34)</f>
         <v>"0"</v>
       </c>
-      <c r="E37" s="41" t="str">
-        <f t="shared" ref="E37:K37" si="17">CHAR(34)&amp;E18&amp;CHAR(34)</f>
+      <c r="F37" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>"0",</v>
+      </c>
+      <c r="G37" s="41" t="str">
+        <f t="shared" si="21"/>
         <v>"0"</v>
       </c>
-      <c r="F37" s="41" t="str">
-        <f t="shared" si="17"/>
+      <c r="H37" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>"0",</v>
+      </c>
+      <c r="I37" s="41" t="str">
+        <f t="shared" si="21"/>
         <v>"0"</v>
       </c>
-      <c r="G37" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v>"0"</v>
-      </c>
-      <c r="H37" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v>"0"</v>
-      </c>
-      <c r="I37" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v>"0"</v>
-      </c>
       <c r="J37" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v>"0"</v>
+        <f t="shared" si="7"/>
+        <v>"0",</v>
       </c>
       <c r="K37" s="41" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>"0"</v>
       </c>
     </row>
@@ -5566,8 +8121,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5650,7 +8205,7 @@
       </c>
       <c r="Q5" s="1">
         <f>Q26</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
@@ -5679,7 +8234,7 @@
       </c>
       <c r="I6" s="7">
         <f t="shared" ref="I6:L6" si="0">AVERAGE(C5:C30)</f>
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
@@ -5687,32 +8242,51 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
     </row>
     <row r="7" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="4"/>
+      <c r="B7" s="36">
+        <f>'2004'!$C$2</f>
+        <v>45036</v>
+      </c>
+      <c r="C7" s="3">
+        <f>COUNT('2004'!$B$3:$B$30)</f>
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
+        <f>MAX('2004'!$L$3:$L$5)</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <f>C7-D7-F7</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <f>MIN('2004'!$L$3:$L$5)</f>
+        <v>3</v>
+      </c>
       <c r="I7" s="5" t="s">
         <v>96</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:L7" si="1">J6/$I$6</f>
-        <v>0.43243243243243246</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="1"/>
-        <v>0.32432432432432434</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="1"/>
-        <v>0.24324324324324326</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="P7" s="45" t="s">
         <v>97</v>
@@ -5762,11 +8336,11 @@
       </c>
       <c r="Q8" s="59">
         <f t="shared" ref="Q8:Q23" si="2">Q29</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" s="51">
         <f t="shared" ref="R8:R23" si="3">Q8/$Q$5</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S8" s="60">
         <f t="shared" ref="S8:S23" si="4">S29</f>
@@ -5774,15 +8348,15 @@
       </c>
       <c r="T8" s="50">
         <f t="shared" ref="T8:T23" si="5">S8/$Q$5</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U8" s="60">
         <f t="shared" ref="U8:U23" si="6">U29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="50">
         <f t="shared" ref="V8:V23" si="7">U8/$Q$5</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W8" s="60">
         <f t="shared" ref="W8:W23" si="8">W29</f>
@@ -5809,7 +8383,7 @@
       </c>
       <c r="Q9" s="59">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9" s="51">
         <f t="shared" si="3"/>
@@ -5817,7 +8391,7 @@
       </c>
       <c r="S9" s="60">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T9" s="50">
         <f t="shared" si="5"/>
@@ -5860,7 +8434,7 @@
       </c>
       <c r="R10" s="51">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10" s="60">
         <f t="shared" si="4"/>
@@ -5868,7 +8442,7 @@
       </c>
       <c r="T10" s="50">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U10" s="60">
         <f t="shared" si="6"/>
@@ -5903,19 +8477,19 @@
       </c>
       <c r="Q11" s="59">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R11" s="51">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="S11" s="60">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T11" s="50">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U11" s="60">
         <f t="shared" si="6"/>
@@ -5954,7 +8528,7 @@
       </c>
       <c r="R12" s="51">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S12" s="60">
         <f t="shared" si="4"/>
@@ -5962,7 +8536,7 @@
       </c>
       <c r="T12" s="50">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U12" s="60">
         <f t="shared" si="6"/>
@@ -6001,7 +8575,7 @@
       </c>
       <c r="R13" s="51">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S13" s="60">
         <f t="shared" si="4"/>
@@ -6017,7 +8591,7 @@
       </c>
       <c r="V13" s="50">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W13" s="60">
         <f t="shared" si="8"/>
@@ -6044,19 +8618,19 @@
       </c>
       <c r="Q14" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R14" s="51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="S14" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="50">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U14" s="60">
         <f t="shared" si="6"/>
@@ -6068,11 +8642,11 @@
       </c>
       <c r="W14" s="60">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14" s="50">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Y14" s="62" t="s">
         <v>57</v>
@@ -6095,7 +8669,7 @@
       </c>
       <c r="R15" s="51">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="S15" s="60">
         <f t="shared" si="4"/>
@@ -6103,7 +8677,7 @@
       </c>
       <c r="T15" s="50">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U15" s="60">
         <f t="shared" si="6"/>
@@ -6111,7 +8685,7 @@
       </c>
       <c r="V15" s="50">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="W15" s="60">
         <f t="shared" si="8"/>
@@ -6138,27 +8712,27 @@
       </c>
       <c r="Q16" s="59">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R16" s="51">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="S16" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" s="50">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U16" s="60">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V16" s="50">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="W16" s="60">
         <f t="shared" si="8"/>
@@ -6189,7 +8763,7 @@
       </c>
       <c r="R17" s="51">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S17" s="60">
         <f t="shared" si="4"/>
@@ -6205,7 +8779,7 @@
       </c>
       <c r="V17" s="50">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W17" s="60">
         <f t="shared" si="8"/>
@@ -6236,7 +8810,7 @@
       </c>
       <c r="R18" s="51">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S18" s="60">
         <f t="shared" si="4"/>
@@ -6244,7 +8818,7 @@
       </c>
       <c r="T18" s="50">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U18" s="60">
         <f t="shared" si="6"/>
@@ -6279,19 +8853,19 @@
       </c>
       <c r="Q19" s="59">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19" s="51">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S19" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19" s="50">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U19" s="60">
         <f t="shared" si="6"/>
@@ -6326,27 +8900,27 @@
       </c>
       <c r="Q20" s="59">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R20" s="51">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="S20" s="60">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T20" s="50">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="U20" s="60">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="50">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W20" s="60">
         <f t="shared" si="8"/>
@@ -6373,7 +8947,7 @@
       </c>
       <c r="Q21" s="59">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" s="51">
         <f t="shared" si="3"/>
@@ -6381,7 +8955,7 @@
       </c>
       <c r="S21" s="60">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T21" s="50">
         <f t="shared" si="5"/>
@@ -6521,7 +9095,7 @@
         <v>153</v>
       </c>
       <c r="Q26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -6577,31 +9151,31 @@
         <v>55</v>
       </c>
       <c r="Q29" s="44">
-        <f>'1804'!R3+'1904'!R3</f>
-        <v>1</v>
+        <f>'1804'!R3+'1904'!R3+'2004'!R3</f>
+        <v>2</v>
       </c>
       <c r="R29" s="29">
         <f t="shared" ref="R29:R43" si="10">Q29/$Q$5</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S29" s="27">
-        <f>'1804'!S3+'1904'!S3</f>
+        <f>'1804'!S3+'1904'!S3+'2004'!S3</f>
         <v>1</v>
       </c>
       <c r="T29" s="28">
         <f t="shared" ref="T29:T43" si="11">S29/$Q$5</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U29" s="27">
-        <f>'1804'!T3+'1904'!T3</f>
-        <v>0</v>
+        <f>'1804'!T3+'1904'!T3+'2004'!T3</f>
+        <v>1</v>
       </c>
       <c r="V29" s="28">
         <f t="shared" ref="V29:V43" si="12">U29/$Q$5</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W29" s="27">
-        <f>'1804'!U3+'1904'!U3</f>
+        <f>'1804'!U3+'1904'!U3+'2004'!U3</f>
         <v>0</v>
       </c>
       <c r="X29" s="28">
@@ -6618,23 +9192,23 @@
         <v>59</v>
       </c>
       <c r="Q30" s="44">
-        <f>'1804'!R4+'1904'!R4</f>
-        <v>2</v>
+        <f>'1804'!R4+'1904'!R4+'2004'!R4</f>
+        <v>3</v>
       </c>
       <c r="R30" s="29">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S30" s="27">
-        <f>'1804'!S4+'1904'!S4</f>
-        <v>2</v>
+        <f>'1804'!S4+'1904'!S4+'2004'!S4</f>
+        <v>3</v>
       </c>
       <c r="T30" s="28">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U30" s="27">
-        <f>'1804'!T4+'1904'!T4</f>
+        <f>'1804'!T4+'1904'!T4+'2004'!T4</f>
         <v>0</v>
       </c>
       <c r="V30" s="28">
@@ -6642,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="27">
-        <f>'1804'!U4+'1904'!U4</f>
+        <f>'1804'!U4+'1904'!U4+'2004'!U4</f>
         <v>0</v>
       </c>
       <c r="X30" s="28">
@@ -6659,23 +9233,23 @@
         <v>62</v>
       </c>
       <c r="Q31" s="44">
-        <f>'1804'!R5+'1904'!R5</f>
+        <f>'1804'!R5+'1904'!R5+'2004'!R5</f>
         <v>6</v>
       </c>
       <c r="R31" s="29">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S31" s="27">
-        <f>'1804'!S5+'1904'!S5</f>
+        <f>'1804'!S5+'1904'!S5+'2004'!S5</f>
         <v>6</v>
       </c>
       <c r="T31" s="28">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U31" s="27">
-        <f>'1804'!T5+'1904'!T5</f>
+        <f>'1804'!T5+'1904'!T5+'2004'!T5</f>
         <v>0</v>
       </c>
       <c r="V31" s="28">
@@ -6683,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="27">
-        <f>'1804'!U5+'1904'!U5</f>
+        <f>'1804'!U5+'1904'!U5+'2004'!U5</f>
         <v>0</v>
       </c>
       <c r="X31" s="28">
@@ -6700,23 +9274,23 @@
         <v>65</v>
       </c>
       <c r="Q32" s="44">
-        <f>'1804'!R6+'1904'!R6</f>
-        <v>5</v>
+        <f>'1804'!R6+'1904'!R6+'2004'!R6</f>
+        <v>6</v>
       </c>
       <c r="R32" s="29">
         <f t="shared" si="10"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="S32" s="27">
-        <f>'1804'!S6+'1904'!S6</f>
-        <v>5</v>
+        <f>'1804'!S6+'1904'!S6+'2004'!S6</f>
+        <v>6</v>
       </c>
       <c r="T32" s="28">
         <f t="shared" si="11"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U32" s="27">
-        <f>'1804'!T6+'1904'!T6</f>
+        <f>'1804'!T6+'1904'!T6+'2004'!T6</f>
         <v>0</v>
       </c>
       <c r="V32" s="28">
@@ -6724,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="27">
-        <f>'1804'!U6+'1904'!U6</f>
+        <f>'1804'!U6+'1904'!U6+'2004'!U6</f>
         <v>0</v>
       </c>
       <c r="X32" s="28">
@@ -6740,23 +9314,23 @@
         <v>68</v>
       </c>
       <c r="Q33" s="44">
-        <f>'1804'!R7+'1904'!R7</f>
+        <f>'1804'!R7+'1904'!R7+'2004'!R7</f>
         <v>1</v>
       </c>
       <c r="R33" s="29">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S33" s="27">
-        <f>'1804'!S7+'1904'!S7</f>
+        <f>'1804'!S7+'1904'!S7+'2004'!S7</f>
         <v>1</v>
       </c>
       <c r="T33" s="28">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U33" s="27">
-        <f>'1804'!T7+'1904'!T7</f>
+        <f>'1804'!T7+'1904'!T7+'2004'!T7</f>
         <v>0</v>
       </c>
       <c r="V33" s="28">
@@ -6764,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="27">
-        <f>'1804'!U7+'1904'!U7</f>
+        <f>'1804'!U7+'1904'!U7+'2004'!U7</f>
         <v>0</v>
       </c>
       <c r="X33" s="28">
@@ -6780,15 +9354,15 @@
         <v>71</v>
       </c>
       <c r="Q34" s="44">
-        <f>'1804'!R8+'1904'!R8</f>
+        <f>'1804'!R8+'1904'!R8+'2004'!R8</f>
         <v>1</v>
       </c>
       <c r="R34" s="29">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S34" s="27">
-        <f>'1804'!S8+'1904'!S8</f>
+        <f>'1804'!S8+'1904'!S8+'2004'!S8</f>
         <v>0</v>
       </c>
       <c r="T34" s="28">
@@ -6796,15 +9370,15 @@
         <v>0</v>
       </c>
       <c r="U34" s="27">
-        <f>'1804'!T8+'1904'!T8</f>
+        <f>'1804'!T8+'1904'!T8+'2004'!T8</f>
         <v>1</v>
       </c>
       <c r="V34" s="28">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W34" s="27">
-        <f>'1804'!U8+'1904'!U8</f>
+        <f>'1804'!U8+'1904'!U8+'2004'!U8</f>
         <v>0</v>
       </c>
       <c r="X34" s="28">
@@ -6820,23 +9394,23 @@
         <v>75</v>
       </c>
       <c r="Q35" s="44">
-        <f>'1804'!R9+'1904'!R9</f>
-        <v>0</v>
+        <f>'1804'!R9+'1904'!R9+'2004'!R9</f>
+        <v>5</v>
       </c>
       <c r="R35" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="S35" s="27">
-        <f>'1804'!S9+'1904'!S9</f>
-        <v>0</v>
+        <f>'1804'!S9+'1904'!S9+'2004'!S9</f>
+        <v>1</v>
       </c>
       <c r="T35" s="28">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U35" s="27">
-        <f>'1804'!T9+'1904'!T9</f>
+        <f>'1804'!T9+'1904'!T9+'2004'!T9</f>
         <v>0</v>
       </c>
       <c r="V35" s="28">
@@ -6844,12 +9418,12 @@
         <v>0</v>
       </c>
       <c r="W35" s="27">
-        <f>'1804'!U9+'1904'!U9</f>
-        <v>0</v>
+        <f>'1804'!U9+'1904'!U9+'2004'!U9</f>
+        <v>2</v>
       </c>
       <c r="X35" s="28">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="36" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -6860,31 +9434,31 @@
         <v>78</v>
       </c>
       <c r="Q36" s="44">
-        <f>'1804'!R10+'1904'!R10</f>
+        <f>'1804'!R10+'1904'!R10+'2004'!R10</f>
         <v>5</v>
       </c>
       <c r="R36" s="29">
         <f t="shared" si="10"/>
-        <v>2.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="S36" s="27">
-        <f>'1804'!S10+'1904'!S10</f>
+        <f>'1804'!S10+'1904'!S10+'2004'!S10</f>
         <v>1</v>
       </c>
       <c r="T36" s="28">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U36" s="27">
-        <f>'1804'!T10+'1904'!T10</f>
+        <f>'1804'!T10+'1904'!T10+'2004'!T10</f>
         <v>4</v>
       </c>
       <c r="V36" s="28">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="W36" s="27">
-        <f>'1804'!U10+'1904'!U10</f>
+        <f>'1804'!U10+'1904'!U10+'2004'!U10</f>
         <v>0</v>
       </c>
       <c r="X36" s="28">
@@ -6900,31 +9474,31 @@
         <v>80</v>
       </c>
       <c r="Q37" s="44">
-        <f>'1804'!R11+'1904'!R11</f>
-        <v>7</v>
+        <f>'1804'!R11+'1904'!R11+'2004'!R11</f>
+        <v>9</v>
       </c>
       <c r="R37" s="29">
         <f t="shared" si="10"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="S37" s="27">
-        <f>'1804'!S11+'1904'!S11</f>
-        <v>1</v>
+        <f>'1804'!S11+'1904'!S11+'2004'!S11</f>
+        <v>2</v>
       </c>
       <c r="T37" s="28">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U37" s="27">
-        <f>'1804'!T11+'1904'!T11</f>
-        <v>6</v>
+        <f>'1804'!T11+'1904'!T11+'2004'!T11</f>
+        <v>7</v>
       </c>
       <c r="V37" s="28">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="W37" s="27">
-        <f>'1804'!U11+'1904'!U11</f>
+        <f>'1804'!U11+'1904'!U11+'2004'!U11</f>
         <v>0</v>
       </c>
       <c r="X37" s="28">
@@ -6940,15 +9514,15 @@
         <v>81</v>
       </c>
       <c r="Q38" s="44">
-        <f>'1804'!R12+'1904'!R12</f>
+        <f>'1804'!R12+'1904'!R12+'2004'!R12</f>
         <v>1</v>
       </c>
       <c r="R38" s="29">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S38" s="27">
-        <f>'1804'!S12+'1904'!S12</f>
+        <f>'1804'!S12+'1904'!S12+'2004'!S12</f>
         <v>0</v>
       </c>
       <c r="T38" s="28">
@@ -6956,15 +9530,15 @@
         <v>0</v>
       </c>
       <c r="U38" s="27">
-        <f>'1804'!T12+'1904'!T12</f>
+        <f>'1804'!T12+'1904'!T12+'2004'!T12</f>
         <v>1</v>
       </c>
       <c r="V38" s="28">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W38" s="27">
-        <f>'1804'!U12+'1904'!U12</f>
+        <f>'1804'!U12+'1904'!U12+'2004'!U12</f>
         <v>0</v>
       </c>
       <c r="X38" s="28">
@@ -6977,23 +9551,23 @@
         <v>82</v>
       </c>
       <c r="Q39" s="44">
-        <f>'1804'!R13+'1904'!R13</f>
+        <f>'1804'!R13+'1904'!R13+'2004'!R13</f>
         <v>1</v>
       </c>
       <c r="R39" s="29">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S39" s="27">
-        <f>'1804'!S13+'1904'!S13</f>
+        <f>'1804'!S13+'1904'!S13+'2004'!S13</f>
         <v>1</v>
       </c>
       <c r="T39" s="28">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U39" s="27">
-        <f>'1804'!T13+'1904'!T13</f>
+        <f>'1804'!T13+'1904'!T13+'2004'!T13</f>
         <v>0</v>
       </c>
       <c r="V39" s="28">
@@ -7001,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="27">
-        <f>'1804'!U13+'1904'!U13</f>
+        <f>'1804'!U13+'1904'!U13+'2004'!U13</f>
         <v>0</v>
       </c>
       <c r="X39" s="28">
@@ -7012,27 +9586,30 @@
       <c r="AA39" s="12"/>
     </row>
     <row r="40" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I40" s="33" t="s">
+        <v>162</v>
+      </c>
       <c r="P40" s="30" t="s">
         <v>83</v>
       </c>
       <c r="Q40" s="44">
-        <f>'1804'!R14+'1904'!R14</f>
-        <v>1</v>
+        <f>'1804'!R14+'1904'!R14+'2004'!R14</f>
+        <v>3</v>
       </c>
       <c r="R40" s="29">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S40" s="27">
-        <f>'1804'!S14+'1904'!S14</f>
-        <v>1</v>
+        <f>'1804'!S14+'1904'!S14+'2004'!S14</f>
+        <v>3</v>
       </c>
       <c r="T40" s="28">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U40" s="27">
-        <f>'1804'!T14+'1904'!T14</f>
+        <f>'1804'!T14+'1904'!T14+'2004'!T14</f>
         <v>0</v>
       </c>
       <c r="V40" s="28">
@@ -7040,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="27">
-        <f>'1804'!U14+'1904'!U14</f>
+        <f>'1804'!U14+'1904'!U14+'2004'!U14</f>
         <v>0</v>
       </c>
       <c r="X40" s="28">
@@ -7049,35 +9626,42 @@
       </c>
     </row>
     <row r="41" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I41" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41">
+        <f>'Statistics LG'!H4</f>
+        <v>5</v>
+      </c>
       <c r="P41" s="30" t="s">
         <v>85</v>
       </c>
       <c r="Q41" s="44">
-        <f>'1804'!R15+'1904'!R15</f>
-        <v>3</v>
+        <f>'1804'!R15+'1904'!R15+'2004'!R15</f>
+        <v>6</v>
       </c>
       <c r="R41" s="29">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="S41" s="27">
-        <f>'1804'!S15+'1904'!S15</f>
-        <v>3</v>
+        <f>'1804'!S15+'1904'!S15+'2004'!S15</f>
+        <v>5</v>
       </c>
       <c r="T41" s="28">
         <f t="shared" si="11"/>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="U41" s="27">
-        <f>'1804'!T15+'1904'!T15</f>
-        <v>0</v>
+        <f>'1804'!T15+'1904'!T15+'2004'!T15</f>
+        <v>1</v>
       </c>
       <c r="V41" s="28">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W41" s="27">
-        <f>'1804'!U15+'1904'!U15</f>
+        <f>'1804'!U15+'1904'!U15+'2004'!U15</f>
         <v>0</v>
       </c>
       <c r="X41" s="28">
@@ -7086,30 +9670,34 @@
       </c>
     </row>
     <row r="42" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I42" t="s">
-        <v>162</v>
+      <c r="I42" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42">
+        <f>'Statistics WW'!H4</f>
+        <v>6</v>
       </c>
       <c r="P42" s="30" t="s">
         <v>86</v>
       </c>
       <c r="Q42" s="44">
-        <f>'1804'!R16+'1904'!R16</f>
-        <v>2</v>
+        <f>'1804'!R16+'1904'!R16+'2004'!R16</f>
+        <v>3</v>
       </c>
       <c r="R42" s="29">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S42" s="27">
-        <f>'1804'!S16+'1904'!S16</f>
-        <v>2</v>
+        <f>'1804'!S16+'1904'!S16+'2004'!S16</f>
+        <v>3</v>
       </c>
       <c r="T42" s="28">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U42" s="27">
-        <f>'1804'!T16+'1904'!T16</f>
+        <f>'1804'!T16+'1904'!T16+'2004'!T16</f>
         <v>0</v>
       </c>
       <c r="V42" s="28">
@@ -7117,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="27">
-        <f>'1804'!U16+'1904'!U16</f>
+        <f>'1804'!U16+'1904'!U16+'2004'!U16</f>
         <v>0</v>
       </c>
       <c r="X42" s="28">
@@ -7126,18 +9714,18 @@
       </c>
     </row>
     <row r="43" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I43" t="s">
-        <v>133</v>
+      <c r="I43" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="J43">
-        <f>'Statistics LG'!D4</f>
-        <v>1</v>
+        <f>'Statistics 5M'!H4</f>
+        <v>7</v>
       </c>
       <c r="P43" s="30" t="s">
         <v>87</v>
       </c>
       <c r="Q43" s="44">
-        <f>'1804'!R17+'1904'!R17</f>
+        <f>'1804'!R17+'1904'!R17+'2004'!R17</f>
         <v>0</v>
       </c>
       <c r="R43" s="29">
@@ -7145,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="27">
-        <f>'1804'!S17+'1904'!S17</f>
+        <f>'1804'!S17+'1904'!S17+'2004'!S17</f>
         <v>0</v>
       </c>
       <c r="T43" s="28">
@@ -7153,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="27">
-        <f>'1804'!T17+'1904'!T17</f>
+        <f>'1804'!T17+'1904'!T17+'2004'!T17</f>
         <v>0</v>
       </c>
       <c r="V43" s="28">
@@ -7161,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="27">
-        <f>'1804'!U17+'1904'!U17</f>
+        <f>'1804'!U17+'1904'!U17+'2004'!U17</f>
         <v>0</v>
       </c>
       <c r="X43" s="28">
@@ -7170,18 +9758,11 @@
       </c>
     </row>
     <row r="44" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I44" t="s">
-        <v>134</v>
-      </c>
-      <c r="J44">
-        <f>'Statistics WW'!D4</f>
-        <v>2</v>
-      </c>
       <c r="P44" s="57" t="s">
         <v>107</v>
       </c>
       <c r="Q44" s="44">
-        <f>'1804'!R18+'1904'!R18</f>
+        <f>'1804'!R18+'1904'!R18+'2004'!R18</f>
         <v>0</v>
       </c>
       <c r="R44" s="29">
@@ -7189,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="27">
-        <f>'1804'!S18+'1904'!S18</f>
+        <f>'1804'!S18+'1904'!S18+'2004'!S18</f>
         <v>0</v>
       </c>
       <c r="T44" s="28">
@@ -7197,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="27">
-        <f>'1804'!T18+'1904'!T18</f>
+        <f>'1804'!T18+'1904'!T18+'2004'!T18</f>
         <v>0</v>
       </c>
       <c r="V44" s="28">
@@ -7205,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="27">
-        <f>'1804'!U18+'1904'!U18</f>
+        <f>'1804'!U18+'1904'!U18+'2004'!U18</f>
         <v>0</v>
       </c>
       <c r="X44" s="28">
@@ -7214,27 +9795,56 @@
       </c>
     </row>
     <row r="45" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I45" t="s">
-        <v>135</v>
-      </c>
-      <c r="J45">
-        <f>'Statistics 5M'!D4</f>
-        <v>3</v>
+      <c r="I45" s="33" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I46" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="42">
+        <f>SUM(Table1[Finishes])</f>
+        <v>33</v>
+      </c>
+      <c r="K46">
+        <f>J46/Q5</f>
+        <v>11</v>
+      </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
     </row>
     <row r="47" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I47" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="42">
+        <f>SUM(Table1[Midranges])</f>
+        <v>15</v>
+      </c>
+      <c r="K47">
+        <f>Q5</f>
+        <v>3</v>
+      </c>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
     </row>
     <row r="48" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="42">
+        <f>SUM(Table1[Threes])</f>
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <f>J48/Q5</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="P48" s="13"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
@@ -8290,7 +10900,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8397,15 +11007,15 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="17">
         <v>1</v>
@@ -8475,36 +11085,86 @@
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="55"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
+      <c r="Q5" s="17">
+        <f>COUNTIF('1904'!$W$4:$W$26,"LG/WW")</f>
+        <v>4</v>
+      </c>
+      <c r="R5" s="17">
+        <f>COUNTIF('1904'!$X$4:$X$26,"WW/LG")</f>
+        <v>3</v>
+      </c>
+      <c r="S5" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="V5" s="17">
+        <f>COUNTIF('1904'!$W$4:$W$26,"LG/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="W5" s="17">
+        <f>COUNTIF('1904'!$Y$4:$Y$26,"5M/LG")</f>
+        <v>5</v>
+      </c>
+      <c r="X5" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="67" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="4">
+        <f>'2004'!$C$2</f>
+        <v>45036</v>
+      </c>
+      <c r="B6" s="16">
+        <f>'2004'!$L$3</f>
+        <v>8</v>
+      </c>
+      <c r="C6" s="16">
+        <f>'2004'!$M$3</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="16">
+        <f>'2004'!$O$3</f>
+        <v>3</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="18"/>
-      <c r="J6" s="17"/>
+      <c r="J6" s="17">
+        <v>3</v>
+      </c>
       <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="17"/>
+      <c r="L6" s="55">
+        <v>3</v>
+      </c>
+      <c r="M6" s="17">
+        <v>1</v>
+      </c>
       <c r="N6" s="17"/>
       <c r="O6" s="55"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+      <c r="Q6" s="17">
+        <f>COUNTIF('2004'!$W$4:$W$26,"LG/WW")</f>
+        <v>4</v>
+      </c>
+      <c r="R6" s="17">
+        <f>COUNTIF('2004'!$X$4:$X$26,"WW/LG")</f>
+        <v>1</v>
+      </c>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
+      <c r="V6" s="17">
+        <f>COUNTIF('2004'!$W$4:$W$26,"LG/5M")</f>
+        <v>4</v>
+      </c>
+      <c r="W6" s="17">
+        <f>COUNTIF('2004'!$Y$4:$Y$26,"5M/LG")</f>
+        <v>2</v>
+      </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
     </row>
@@ -8994,21 +11654,21 @@
       </c>
       <c r="Q30" s="17">
         <f t="shared" ref="Q30:R30" si="1">SUM(Q4:Q29)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R30" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="V30" s="17">
         <f t="shared" ref="V30:W30" si="2">SUM(V4:V29)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W30" s="17">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
@@ -9017,11 +11677,11 @@
       <c r="I31" s="1"/>
       <c r="Q31" s="22">
         <f>Q30/(R30+Q30)</f>
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="V31" s="22">
         <f>V30/(W30+V30)</f>
-        <v>0.25</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -10014,7 +12674,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -10102,32 +12762,32 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <f>'1804'!C2</f>
+        <f>'1804'!C$2</f>
         <v>45034</v>
       </c>
       <c r="B4" s="16">
-        <f>'1804'!L5</f>
+        <f>'1804'!L$5</f>
         <v>4</v>
       </c>
       <c r="C4" s="16">
-        <f>'1804'!M5</f>
+        <f>'1804'!M$5</f>
         <v>4</v>
       </c>
       <c r="D4" s="16">
-        <f>'1804'!O5</f>
+        <f>'1804'!O$5</f>
         <v>2</v>
       </c>
       <c r="F4" s="24">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G4" s="24">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H4" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="17">
         <v>1</v>
@@ -10164,10 +12824,22 @@
       <c r="X4" s="17"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="4">
+        <f>'1904'!C$2</f>
+        <v>45035</v>
+      </c>
+      <c r="B5" s="16">
+        <f>'1904'!L$5</f>
+        <v>8</v>
+      </c>
+      <c r="C5" s="16">
+        <f>'1904'!M$5</f>
+        <v>8</v>
+      </c>
+      <c r="D5" s="16">
+        <f>'1904'!O$5</f>
+        <v>2</v>
+      </c>
       <c r="J5" s="17"/>
       <c r="K5" s="55"/>
       <c r="L5" s="55"/>
@@ -10183,19 +12855,37 @@
       <c r="X5" s="17"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="4">
+        <f>'2004'!C$2</f>
+        <v>45036</v>
+      </c>
+      <c r="B6" s="16">
+        <f>'2004'!L$5</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <f>'2004'!M$5</f>
+        <v>5</v>
+      </c>
+      <c r="D6" s="16">
+        <f>'2004'!O$5</f>
+        <v>2</v>
+      </c>
       <c r="G6" s="24" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="18"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="55"/>
+      <c r="K6" s="55">
+        <v>1</v>
+      </c>
       <c r="L6" s="55"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="M6" s="17">
+        <v>1</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1</v>
+      </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
@@ -11687,7 +14377,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11775,32 +14465,32 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <f>'1804'!C2</f>
+        <f>'1804'!C$2</f>
         <v>45034</v>
       </c>
       <c r="B4" s="16">
-        <f>'1804'!L4</f>
+        <f>'1804'!L$4</f>
         <v>6</v>
       </c>
       <c r="C4" s="16">
-        <f>'1804'!M4</f>
+        <f>'1804'!M$4</f>
         <v>3</v>
       </c>
       <c r="D4" s="16">
-        <f>'1804'!O4</f>
+        <f>'1804'!O$4</f>
         <v>3</v>
       </c>
       <c r="F4" s="24">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G4" s="24">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H4" s="24">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" s="17">
         <v>2</v>
@@ -11835,10 +14525,22 @@
       <c r="X4" s="17"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="4">
+        <f>'1904'!C$2</f>
+        <v>45035</v>
+      </c>
+      <c r="B5" s="16">
+        <f>'1904'!L$4</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="16">
+        <f>'1904'!M$4</f>
+        <v>8</v>
+      </c>
+      <c r="D5" s="16">
+        <f>'1904'!O$4</f>
+        <v>3</v>
+      </c>
       <c r="J5" s="17"/>
       <c r="K5" s="55"/>
       <c r="L5" s="55"/>
@@ -11854,10 +14556,22 @@
       <c r="X5" s="17"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="4">
+        <f>'2004'!C$2</f>
+        <v>45036</v>
+      </c>
+      <c r="B6" s="16">
+        <f>'2004'!L$4</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <f>'2004'!M$4</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="16">
+        <f>'2004'!O$4</f>
+        <v>1</v>
+      </c>
       <c r="G6" s="24" t="s">
         <v>110</v>
       </c>
@@ -14231,7 +16945,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="R24" s="40" t="str">
-        <f t="shared" ref="R24:U41" si="9">R4&amp;","</f>
+        <f t="shared" ref="R24:U38" si="9">R4&amp;","</f>
         <v>0,</v>
       </c>
       <c r="S24" s="40" t="str">
@@ -15604,7 +18318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E7D6EA-0942-4896-8FCD-5B2FCE43B119}">
   <dimension ref="B1:Y1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
@@ -18059,8 +20773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64907ADA-4AE3-448A-96DF-C6B453B6FF51}">
   <dimension ref="B1:Y1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41:S42"/>
+    <sheetView topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -19317,7 +22031,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="40" t="str">
-        <f t="shared" ref="R24:U38" si="9">R4&amp;","</f>
+        <f t="shared" ref="R24:U37" si="9">R4&amp;","</f>
         <v>1,</v>
       </c>
       <c r="S24" s="40" t="str">
@@ -19736,21 +22450,21 @@
       </c>
     </row>
     <row r="38" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R38" s="40" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S38" s="40" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T38" s="40" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U38" s="40" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
+      <c r="R38" s="42">
+        <f>R18</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="42">
+        <f t="shared" ref="S38:U38" si="10">S18</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -19764,18 +22478,18 @@
       <c r="U40" s="19"/>
     </row>
     <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q41" s="67" t="s">
+      <c r="Q41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="R41" s="67"/>
-      <c r="S41" s="67"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
     </row>
     <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q42" s="67"/>
-      <c r="R42" s="67"/>
-      <c r="S42" s="67"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
     </row>
     <row r="43" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q43" s="40" t="str">
@@ -19786,25 +22500,25 @@
     <row r="44" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q44" s="40" t="str">
         <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;"],"</f>
-        <v>"Points":[1,1,5,4,0,1,0,4,3,1,0,1,2,1,0,0,],</v>
+        <v>"Points":[1,1,5,4,0,1,0,4,3,1,0,1,2,1,0,0],</v>
       </c>
     </row>
     <row r="45" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q45" s="40" t="str">
         <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;"],"</f>
-        <v>"Finishes":[1,1,5,4,0,0,0,1,0,0,0,1,2,1,0,0,],</v>
+        <v>"Finishes":[1,1,5,4,0,0,0,1,0,0,0,1,2,1,0,0],</v>
       </c>
     </row>
     <row r="46" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q46" s="40" t="str">
         <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;"],"</f>
-        <v>"Midrange":[0,0,0,0,0,1,0,3,3,1,0,0,0,0,0,0,],</v>
+        <v>"Midrange":[0,0,0,0,0,1,0,3,3,1,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="47" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q47" s="40" t="str">
         <f>CHAR(34)&amp;"ThreePointers"&amp;CHAR(34)&amp;":["&amp;U23&amp;U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30&amp;U31&amp;U32&amp;U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;"]"</f>
-        <v>"ThreePointers":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,]</v>
+        <v>"ThreePointers":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</v>
       </c>
     </row>
     <row r="48" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C99A4-EFF6-4711-9218-C50B2A73C473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3802D43F-B07E-4373-B073-B3E9300E39E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="175">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -608,6 +608,12 @@
   <si>
     <t>Did not Play</t>
   </si>
+  <si>
+    <t>Angus/Clarrie</t>
+  </si>
+  <si>
+    <t>S/J</t>
+  </si>
 </sst>
 </file>
 
@@ -938,10 +944,10 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2905,7 +2911,7 @@
   <dimension ref="B1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Z47"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3025,7 +3031,7 @@
         <f t="shared" ref="U3:U18" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
         <v>0</v>
       </c>
-      <c r="V3" s="69" t="b">
+      <c r="V3" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X3" s="5" t="s">
@@ -3105,15 +3111,15 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="str">
-        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" ref="X4:X28" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
         <v>LG/5M</v>
       </c>
       <c r="Y4" s="24" t="str">
-        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" ref="Y4:Y28" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z4" s="24" t="str">
-        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" ref="Z4:Z28" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
     </row>
@@ -3184,15 +3190,15 @@
         <v>1</v>
       </c>
       <c r="X5" s="24" t="str">
-        <f>IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y5" s="24" t="str">
-        <f>IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v>WW/LG</v>
       </c>
       <c r="Z5" s="24" t="str">
-        <f>IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND($C5="5 Musketeers",$D5="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3244,15 +3250,15 @@
         <v>0</v>
       </c>
       <c r="X6" s="24" t="str">
-        <f>IF(AND(C6="Loose Gooses",D6="Wet Willies"),"LG/WW", IF(AND(C6="Loose Gooses",D6="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y6" s="24" t="str">
-        <f>IF(AND(C6="Wet Willies",D6="Loose Gooses"),"WW/LG", IF(AND(C6="Wet Willies",D6="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z6" s="24" t="str">
-        <f>IF(AND(C6="5 Musketeers",D6="Loose Gooses"),"5M/LG", IF(AND($C6="5 Musketeers",$D6="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -3304,15 +3310,15 @@
         <v>0</v>
       </c>
       <c r="X7" s="24" t="str">
-        <f>IF(AND(C7="Loose Gooses",D7="Wet Willies"),"LG/WW", IF(AND(C7="Loose Gooses",D7="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/5M</v>
       </c>
       <c r="Y7" s="24" t="str">
-        <f>IF(AND(C7="Wet Willies",D7="Loose Gooses"),"WW/LG", IF(AND(C7="Wet Willies",D7="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z7" s="24" t="str">
-        <f>IF(AND(C7="5 Musketeers",D7="Loose Gooses"),"5M/LG", IF(AND($C7="5 Musketeers",$D7="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3364,15 +3370,15 @@
         <v>1</v>
       </c>
       <c r="X8" s="24" t="str">
-        <f>IF(AND(C8="Loose Gooses",D8="Wet Willies"),"LG/WW", IF(AND(C8="Loose Gooses",D8="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/WW</v>
       </c>
       <c r="Y8" s="24" t="str">
-        <f>IF(AND(C8="Wet Willies",D8="Loose Gooses"),"WW/LG", IF(AND(C8="Wet Willies",D8="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z8" s="24" t="str">
-        <f>IF(AND(C8="5 Musketeers",D8="Loose Gooses"),"5M/LG", IF(AND($C8="5 Musketeers",$D8="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3424,15 +3430,15 @@
         <v>0</v>
       </c>
       <c r="X9" s="24" t="str">
-        <f>IF(AND(C9="Loose Gooses",D9="Wet Willies"),"LG/WW", IF(AND(C9="Loose Gooses",D9="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/5M</v>
       </c>
       <c r="Y9" s="24" t="str">
-        <f>IF(AND(C9="Wet Willies",D9="Loose Gooses"),"WW/LG", IF(AND(C9="Wet Willies",D9="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z9" s="24" t="str">
-        <f>IF(AND(C9="5 Musketeers",D9="Loose Gooses"),"5M/LG", IF(AND($C9="5 Musketeers",$D9="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3484,15 +3490,15 @@
         <v>0</v>
       </c>
       <c r="X10" s="24" t="str">
-        <f>IF(AND(C10="Loose Gooses",D10="Wet Willies"),"LG/WW", IF(AND(C10="Loose Gooses",D10="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/WW</v>
       </c>
       <c r="Y10" s="24" t="str">
-        <f>IF(AND(C10="Wet Willies",D10="Loose Gooses"),"WW/LG", IF(AND(C10="Wet Willies",D10="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z10" s="24" t="str">
-        <f>IF(AND(C10="5 Musketeers",D10="Loose Gooses"),"5M/LG", IF(AND($C10="5 Musketeers",$D10="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3544,15 +3550,15 @@
         <v>0</v>
       </c>
       <c r="X11" s="24" t="str">
-        <f>IF(AND(C11="Loose Gooses",D11="Wet Willies"),"LG/WW", IF(AND(C11="Loose Gooses",D11="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y11" s="24" t="str">
-        <f>IF(AND(C11="Wet Willies",D11="Loose Gooses"),"WW/LG", IF(AND(C11="Wet Willies",D11="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z11" s="24" t="str">
-        <f>IF(AND(C11="5 Musketeers",D11="Loose Gooses"),"5M/LG", IF(AND($C11="5 Musketeers",$D11="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -3604,15 +3610,15 @@
         <v>0</v>
       </c>
       <c r="X12" s="24" t="str">
-        <f>IF(AND(C12="Loose Gooses",D12="Wet Willies"),"LG/WW", IF(AND(C12="Loose Gooses",D12="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y12" s="24" t="str">
-        <f>IF(AND(C12="Wet Willies",D12="Loose Gooses"),"WW/LG", IF(AND(C12="Wet Willies",D12="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v>WW/5M</v>
       </c>
       <c r="Z12" s="24" t="str">
-        <f>IF(AND(C12="5 Musketeers",D12="Loose Gooses"),"5M/LG", IF(AND($C12="5 Musketeers",$D12="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3664,15 +3670,15 @@
         <v>1</v>
       </c>
       <c r="X13" s="24" t="str">
-        <f>IF(AND(C13="Loose Gooses",D13="Wet Willies"),"LG/WW", IF(AND(C13="Loose Gooses",D13="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/WW</v>
       </c>
       <c r="Y13" s="24" t="str">
-        <f>IF(AND(C13="Wet Willies",D13="Loose Gooses"),"WW/LG", IF(AND(C13="Wet Willies",D13="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z13" s="24" t="str">
-        <f>IF(AND(C13="5 Musketeers",D13="Loose Gooses"),"5M/LG", IF(AND($C13="5 Musketeers",$D13="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3724,15 +3730,15 @@
         <v>0</v>
       </c>
       <c r="X14" s="24" t="str">
-        <f>IF(AND(C14="Loose Gooses",D14="Wet Willies"),"LG/WW", IF(AND(C14="Loose Gooses",D14="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/5M</v>
       </c>
       <c r="Y14" s="24" t="str">
-        <f>IF(AND(C14="Wet Willies",D14="Loose Gooses"),"WW/LG", IF(AND(C14="Wet Willies",D14="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z14" s="24" t="str">
-        <f>IF(AND(C14="5 Musketeers",D14="Loose Gooses"),"5M/LG", IF(AND($C14="5 Musketeers",$D14="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3784,15 +3790,15 @@
         <v>0</v>
       </c>
       <c r="X15" s="24" t="str">
-        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/WW</v>
       </c>
       <c r="Y15" s="24" t="str">
-        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z15" s="24" t="str">
-        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND($C15="5 Musketeers",$D15="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3844,15 +3850,15 @@
         <v>0</v>
       </c>
       <c r="X16" s="24" t="str">
-        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y16" s="24" t="str">
-        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z16" s="24" t="str">
-        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND($C16="5 Musketeers",$D16="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -3904,15 +3910,15 @@
         <v>0</v>
       </c>
       <c r="X17" s="24" t="str">
-        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y17" s="24" t="str">
-        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v>WW/5M</v>
       </c>
       <c r="Z17" s="24" t="str">
-        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND($C17="5 Musketeers",$D17="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3948,15 +3954,15 @@
         <v>0</v>
       </c>
       <c r="X18" s="24" t="str">
-        <f>IF(AND(C18="Loose Gooses",D18="Wet Willies"),"LG/WW", IF(AND(C18="Loose Gooses",D18="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y18" s="24" t="str">
-        <f>IF(AND(C18="Wet Willies",D18="Loose Gooses"),"WW/LG", IF(AND(C18="Wet Willies",D18="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z18" s="24" t="str">
-        <f>IF(AND(C18="5 Musketeers",D18="Loose Gooses"),"5M/LG", IF(AND($C18="5 Musketeers",$D18="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3973,15 +3979,15 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="X19" s="24" t="str">
-        <f>IF(AND(C19="Loose Gooses",D19="Wet Willies"),"LG/WW", IF(AND(C19="Loose Gooses",D19="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y19" s="24" t="str">
-        <f>IF(AND(C19="Wet Willies",D19="Loose Gooses"),"WW/LG", IF(AND(C19="Wet Willies",D19="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z19" s="24" t="str">
-        <f>IF(AND(C19="5 Musketeers",D19="Loose Gooses"),"5M/LG", IF(AND($C19="5 Musketeers",$D19="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3995,15 +4001,15 @@
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
       <c r="X20" s="24" t="str">
-        <f>IF(AND(C20="Loose Gooses",D20="Wet Willies"),"LG/WW", IF(AND(C20="Loose Gooses",D20="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y20" s="24" t="str">
-        <f>IF(AND(C20="Wet Willies",D20="Loose Gooses"),"WW/LG", IF(AND(C20="Wet Willies",D20="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z20" s="24" t="str">
-        <f>IF(AND(C20="5 Musketeers",D20="Loose Gooses"),"5M/LG", IF(AND($C20="5 Musketeers",$D20="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -4017,15 +4023,15 @@
       <c r="H21" s="58"/>
       <c r="I21" s="58"/>
       <c r="X21" s="24" t="str">
-        <f>IF(AND(C21="Loose Gooses",D21="Wet Willies"),"LG/WW", IF(AND(C21="Loose Gooses",D21="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y21" s="24" t="str">
-        <f>IF(AND(C21="Wet Willies",D21="Loose Gooses"),"WW/LG", IF(AND(C21="Wet Willies",D21="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z21" s="24" t="str">
-        <f>IF(AND(C21="5 Musketeers",D21="Loose Gooses"),"5M/LG", IF(AND($C21="5 Musketeers",$D21="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -4039,15 +4045,15 @@
       <c r="H22" s="58"/>
       <c r="I22" s="58"/>
       <c r="X22" s="24" t="str">
-        <f>IF(AND(C22="Loose Gooses",D22="Wet Willies"),"LG/WW", IF(AND(C22="Loose Gooses",D22="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y22" s="24" t="str">
-        <f>IF(AND(C22="Wet Willies",D22="Loose Gooses"),"WW/LG", IF(AND(C22="Wet Willies",D22="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z22" s="24" t="str">
-        <f>IF(AND(C22="5 Musketeers",D22="Loose Gooses"),"5M/LG", IF(AND($C22="5 Musketeers",$D22="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -4066,27 +4072,27 @@
         <v>1,</v>
       </c>
       <c r="S23" s="40" t="str">
-        <f t="shared" ref="S23:U23" si="5">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
+        <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>1,</v>
+      </c>
+      <c r="U23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="X23" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>1,</v>
-      </c>
-      <c r="U23" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="X23" s="24" t="str">
-        <f>IF(AND(C23="Loose Gooses",D23="Wet Willies"),"LG/WW", IF(AND(C23="Loose Gooses",D23="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
       <c r="Y23" s="24" t="str">
-        <f>IF(AND(C23="Wet Willies",D23="Loose Gooses"),"WW/LG", IF(AND(C23="Wet Willies",D23="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z23" s="24" t="str">
-        <f>IF(AND(C23="5 Musketeers",D23="Loose Gooses"),"5M/LG", IF(AND($C23="5 Musketeers",$D23="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -4100,31 +4106,31 @@
       <c r="H24" s="58"/>
       <c r="I24" s="58"/>
       <c r="R24" s="40" t="str">
-        <f t="shared" ref="R24:U38" si="6">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
+        <f t="shared" ref="R24:U37" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
         <v>1,</v>
       </c>
       <c r="S24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X24" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y24" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
-      </c>
-      <c r="T24" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="U24" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="X24" s="24" t="str">
-        <f>IF(AND(C24="Loose Gooses",D24="Wet Willies"),"LG/WW", IF(AND(C24="Loose Gooses",D24="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
-      </c>
-      <c r="Y24" s="24" t="str">
-        <f>IF(AND(C24="Wet Willies",D24="Loose Gooses"),"WW/LG", IF(AND(C24="Wet Willies",D24="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z24" s="24" t="str">
-        <f>IF(AND(C24="5 Musketeers",D24="Loose Gooses"),"5M/LG", IF(AND($C24="5 Musketeers",$D24="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -4139,31 +4145,31 @@
       <c r="I25" s="58"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="S25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="T25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X25" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y25" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="S25" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="T25" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="U25" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="X25" s="24" t="str">
-        <f>IF(AND(C25="Loose Gooses",D25="Wet Willies"),"LG/WW", IF(AND(C25="Loose Gooses",D25="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
-      </c>
-      <c r="Y25" s="24" t="str">
-        <f>IF(AND(C25="Wet Willies",D25="Loose Gooses"),"WW/LG", IF(AND(C25="Wet Willies",D25="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z25" s="24" t="str">
-        <f>IF(AND(C25="5 Musketeers",D25="Loose Gooses"),"5M/LG", IF(AND($C25="5 Musketeers",$D25="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -4178,31 +4184,31 @@
       <c r="I26" s="58"/>
       <c r="Q26" s="26"/>
       <c r="R26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X26" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y26" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
-      </c>
-      <c r="S26" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>1,</v>
-      </c>
-      <c r="T26" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="U26" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="X26" s="24" t="str">
-        <f>IF(AND(C26="Loose Gooses",D26="Wet Willies"),"LG/WW", IF(AND(C26="Loose Gooses",D26="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
-      </c>
-      <c r="Y26" s="24" t="str">
-        <f>IF(AND(C26="Wet Willies",D26="Loose Gooses"),"WW/LG", IF(AND(C26="Wet Willies",D26="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z26" s="24" t="str">
-        <f>IF(AND(C26="5 Musketeers",D26="Loose Gooses"),"5M/LG", IF(AND($C26="5 Musketeers",$D26="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -4216,31 +4222,31 @@
       <c r="H27" s="58"/>
       <c r="I27" s="58"/>
       <c r="R27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X27" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y27" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="S27" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="T27" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="U27" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="X27" s="24" t="str">
-        <f>IF(AND(C27="Loose Gooses",D27="Wet Willies"),"LG/WW", IF(AND(C27="Loose Gooses",D27="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
-      </c>
-      <c r="Y27" s="24" t="str">
-        <f>IF(AND(C27="Wet Willies",D27="Loose Gooses"),"WW/LG", IF(AND(C27="Wet Willies",D27="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z27" s="24" t="str">
-        <f>IF(AND(C27="5 Musketeers",D27="Loose Gooses"),"5M/LG", IF(AND($C27="5 Musketeers",$D27="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -4254,31 +4260,31 @@
       <c r="H28" s="58"/>
       <c r="I28" s="58"/>
       <c r="R28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="S28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="T28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X28" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y28" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="S28" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="T28" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="U28" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="X28" s="24" t="str">
-        <f>IF(AND(C28="Loose Gooses",D28="Wet Willies"),"LG/WW", IF(AND(C28="Loose Gooses",D28="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
-      </c>
-      <c r="Y28" s="24" t="str">
-        <f>IF(AND(C28="Wet Willies",D28="Loose Gooses"),"WW/LG", IF(AND(C28="Wet Willies",D28="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z28" s="24" t="str">
-        <f>IF(AND(C28="5 Musketeers",D28="Loose Gooses"),"5M/LG", IF(AND($C28="5 Musketeers",$D28="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -4289,19 +4295,19 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="R29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5,</v>
       </c>
       <c r="S29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="T29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2,</v>
       </c>
     </row>
@@ -4312,145 +4318,145 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="R30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="31" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2,</v>
       </c>
       <c r="S31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="T31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="U31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="32" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="33" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>"Did not Play",</v>
       </c>
       <c r="S33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>"Did not Play",</v>
       </c>
       <c r="T33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>"Did not Play",</v>
       </c>
       <c r="U33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>"Did not Play",</v>
       </c>
     </row>
     <row r="34" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2,</v>
       </c>
       <c r="S34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2,</v>
       </c>
       <c r="T34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="35" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3,</v>
       </c>
       <c r="S35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2,</v>
       </c>
       <c r="T35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="U35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="36" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="S36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="T36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="37" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
@@ -4483,18 +4489,18 @@
       <c r="U40" s="19"/>
     </row>
     <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q41" s="68" t="s">
+      <c r="Q41" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
     </row>
     <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
     </row>
     <row r="43" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q43" s="40" t="str">
@@ -6547,11 +6553,11 @@
       <c r="I20" s="38"/>
       <c r="J20" s="41"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="68" t="s">
+      <c r="L20" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
       <c r="X20" s="3" t="s">
         <v>83</v>
       </c>
@@ -6591,9 +6597,9 @@
         <f>CHAR(34)&amp;"TT"&amp;CHAR(34)</f>
         <v>"TT"</v>
       </c>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
       <c r="X21" s="3" t="s">
         <v>85</v>
       </c>
@@ -11006,8 +11012,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11262,8 +11268,12 @@
         <f>COUNTIF('2004'!$Y$4:$Y$26,"WW/LG")</f>
         <v>1</v>
       </c>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="S6" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="V6" s="17">
         <f>COUNTIF('2004'!$X$4:$X$26,"LG/5M")</f>
         <v>4</v>
@@ -11272,8 +11282,12 @@
         <f>COUNTIF('2004'!$Z$4:$Z$26,"5M/LG")</f>
         <v>2</v>
       </c>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
+      <c r="X6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
@@ -16177,7 +16191,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
@@ -16301,7 +16315,7 @@
         <f t="shared" ref="U3:U18" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
         <v>0</v>
       </c>
-      <c r="V3" s="69" t="b">
+      <c r="V3" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W3" s="40"/>
@@ -16361,20 +16375,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V4" s="69" t="b">
+      <c r="V4" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W4" s="40"/>
       <c r="X4" s="24" t="str">
-        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" ref="X4:X28" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
       <c r="Y4" s="24" t="str">
-        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" ref="Y4:Y28" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z4" s="24" t="str">
-        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" ref="Z4:Z28" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
     </row>
@@ -16424,20 +16438,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V5" s="69" t="b">
+      <c r="V5" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W5" s="40"/>
       <c r="X5" s="24" t="str">
-        <f>IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y5" s="24" t="str">
-        <f>IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z5" s="24" t="str">
-        <f>IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND($C5="5 Musketeers",$D5="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16468,20 +16482,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V6" s="69" t="b">
+      <c r="V6" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W6" s="40"/>
       <c r="X6" s="24" t="str">
-        <f>IF(AND(C6="Loose Gooses",D6="Wet Willies"),"LG/WW", IF(AND(C6="Loose Gooses",D6="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y6" s="24" t="str">
-        <f>IF(AND(C6="Wet Willies",D6="Loose Gooses"),"WW/LG", IF(AND(C6="Wet Willies",D6="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z6" s="24" t="str">
-        <f>IF(AND(C6="5 Musketeers",D6="Loose Gooses"),"5M/LG", IF(AND($C6="5 Musketeers",$D6="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16512,20 +16526,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V7" s="69" t="b">
+      <c r="V7" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W7" s="40"/>
       <c r="X7" s="24" t="str">
-        <f>IF(AND(C7="Loose Gooses",D7="Wet Willies"),"LG/WW", IF(AND(C7="Loose Gooses",D7="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y7" s="24" t="str">
-        <f>IF(AND(C7="Wet Willies",D7="Loose Gooses"),"WW/LG", IF(AND(C7="Wet Willies",D7="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z7" s="24" t="str">
-        <f>IF(AND(C7="5 Musketeers",D7="Loose Gooses"),"5M/LG", IF(AND($C7="5 Musketeers",$D7="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16556,20 +16570,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V8" s="69" t="b">
+      <c r="V8" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W8" s="40"/>
       <c r="X8" s="24" t="str">
-        <f>IF(AND(C8="Loose Gooses",D8="Wet Willies"),"LG/WW", IF(AND(C8="Loose Gooses",D8="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y8" s="24" t="str">
-        <f>IF(AND(C8="Wet Willies",D8="Loose Gooses"),"WW/LG", IF(AND(C8="Wet Willies",D8="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z8" s="24" t="str">
-        <f>IF(AND(C8="5 Musketeers",D8="Loose Gooses"),"5M/LG", IF(AND($C8="5 Musketeers",$D8="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16600,20 +16614,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V9" s="69" t="b">
+      <c r="V9" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W9" s="40"/>
       <c r="X9" s="24" t="str">
-        <f>IF(AND(C9="Loose Gooses",D9="Wet Willies"),"LG/WW", IF(AND(C9="Loose Gooses",D9="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y9" s="24" t="str">
-        <f>IF(AND(C9="Wet Willies",D9="Loose Gooses"),"WW/LG", IF(AND(C9="Wet Willies",D9="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z9" s="24" t="str">
-        <f>IF(AND(C9="5 Musketeers",D9="Loose Gooses"),"5M/LG", IF(AND($C9="5 Musketeers",$D9="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16644,20 +16658,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V10" s="69" t="b">
+      <c r="V10" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W10" s="40"/>
       <c r="X10" s="24" t="str">
-        <f>IF(AND(C10="Loose Gooses",D10="Wet Willies"),"LG/WW", IF(AND(C10="Loose Gooses",D10="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y10" s="24" t="str">
-        <f>IF(AND(C10="Wet Willies",D10="Loose Gooses"),"WW/LG", IF(AND(C10="Wet Willies",D10="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z10" s="24" t="str">
-        <f>IF(AND(C10="5 Musketeers",D10="Loose Gooses"),"5M/LG", IF(AND($C10="5 Musketeers",$D10="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16688,20 +16702,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V11" s="69" t="b">
+      <c r="V11" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W11" s="40"/>
       <c r="X11" s="24" t="str">
-        <f>IF(AND(C11="Loose Gooses",D11="Wet Willies"),"LG/WW", IF(AND(C11="Loose Gooses",D11="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y11" s="24" t="str">
-        <f>IF(AND(C11="Wet Willies",D11="Loose Gooses"),"WW/LG", IF(AND(C11="Wet Willies",D11="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z11" s="24" t="str">
-        <f>IF(AND(C11="5 Musketeers",D11="Loose Gooses"),"5M/LG", IF(AND($C11="5 Musketeers",$D11="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16732,20 +16746,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V12" s="69" t="b">
+      <c r="V12" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W12" s="40"/>
       <c r="X12" s="24" t="str">
-        <f>IF(AND(C12="Loose Gooses",D12="Wet Willies"),"LG/WW", IF(AND(C12="Loose Gooses",D12="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y12" s="24" t="str">
-        <f>IF(AND(C12="Wet Willies",D12="Loose Gooses"),"WW/LG", IF(AND(C12="Wet Willies",D12="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z12" s="24" t="str">
-        <f>IF(AND(C12="5 Musketeers",D12="Loose Gooses"),"5M/LG", IF(AND($C12="5 Musketeers",$D12="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16776,20 +16790,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V13" s="69" t="b">
+      <c r="V13" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W13" s="40"/>
       <c r="X13" s="24" t="str">
-        <f>IF(AND(C13="Loose Gooses",D13="Wet Willies"),"LG/WW", IF(AND(C13="Loose Gooses",D13="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y13" s="24" t="str">
-        <f>IF(AND(C13="Wet Willies",D13="Loose Gooses"),"WW/LG", IF(AND(C13="Wet Willies",D13="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z13" s="24" t="str">
-        <f>IF(AND(C13="5 Musketeers",D13="Loose Gooses"),"5M/LG", IF(AND($C13="5 Musketeers",$D13="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16820,20 +16834,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V14" s="69" t="b">
+      <c r="V14" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W14" s="40"/>
       <c r="X14" s="24" t="str">
-        <f>IF(AND(C14="Loose Gooses",D14="Wet Willies"),"LG/WW", IF(AND(C14="Loose Gooses",D14="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y14" s="24" t="str">
-        <f>IF(AND(C14="Wet Willies",D14="Loose Gooses"),"WW/LG", IF(AND(C14="Wet Willies",D14="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z14" s="24" t="str">
-        <f>IF(AND(C14="5 Musketeers",D14="Loose Gooses"),"5M/LG", IF(AND($C14="5 Musketeers",$D14="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16864,20 +16878,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V15" s="69" t="b">
+      <c r="V15" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W15" s="40"/>
       <c r="X15" s="24" t="str">
-        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y15" s="24" t="str">
-        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z15" s="24" t="str">
-        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND($C15="5 Musketeers",$D15="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16908,20 +16922,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V16" s="69" t="b">
+      <c r="V16" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W16" s="40"/>
       <c r="X16" s="24" t="str">
-        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y16" s="24" t="str">
-        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z16" s="24" t="str">
-        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND($C16="5 Musketeers",$D16="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16952,20 +16966,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V17" s="69" t="b">
+      <c r="V17" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W17" s="40"/>
       <c r="X17" s="24" t="str">
-        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y17" s="24" t="str">
-        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z17" s="24" t="str">
-        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND($C17="5 Musketeers",$D17="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16996,20 +17010,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V18" s="69" t="b">
+      <c r="V18" s="68" t="b">
         <v>0</v>
       </c>
       <c r="W18" s="40"/>
       <c r="X18" s="24" t="str">
-        <f>IF(AND(C18="Loose Gooses",D18="Wet Willies"),"LG/WW", IF(AND(C18="Loose Gooses",D18="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y18" s="24" t="str">
-        <f>IF(AND(C18="Wet Willies",D18="Loose Gooses"),"WW/LG", IF(AND(C18="Wet Willies",D18="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z18" s="24" t="str">
-        <f>IF(AND(C18="5 Musketeers",D18="Loose Gooses"),"5M/LG", IF(AND($C18="5 Musketeers",$D18="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -17029,15 +17043,15 @@
       <c r="V19" s="40"/>
       <c r="W19" s="40"/>
       <c r="X19" s="24" t="str">
-        <f>IF(AND(C19="Loose Gooses",D19="Wet Willies"),"LG/WW", IF(AND(C19="Loose Gooses",D19="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y19" s="24" t="str">
-        <f>IF(AND(C19="Wet Willies",D19="Loose Gooses"),"WW/LG", IF(AND(C19="Wet Willies",D19="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z19" s="24" t="str">
-        <f>IF(AND(C19="5 Musketeers",D19="Loose Gooses"),"5M/LG", IF(AND($C19="5 Musketeers",$D19="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -17050,15 +17064,15 @@
       <c r="V20" s="40"/>
       <c r="W20" s="40"/>
       <c r="X20" s="24" t="str">
-        <f>IF(AND(C20="Loose Gooses",D20="Wet Willies"),"LG/WW", IF(AND(C20="Loose Gooses",D20="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y20" s="24" t="str">
-        <f>IF(AND(C20="Wet Willies",D20="Loose Gooses"),"WW/LG", IF(AND(C20="Wet Willies",D20="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z20" s="24" t="str">
-        <f>IF(AND(C20="5 Musketeers",D20="Loose Gooses"),"5M/LG", IF(AND($C20="5 Musketeers",$D20="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -17071,15 +17085,15 @@
       <c r="V21" s="40"/>
       <c r="W21" s="40"/>
       <c r="X21" s="24" t="str">
-        <f>IF(AND(C21="Loose Gooses",D21="Wet Willies"),"LG/WW", IF(AND(C21="Loose Gooses",D21="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y21" s="24" t="str">
-        <f>IF(AND(C21="Wet Willies",D21="Loose Gooses"),"WW/LG", IF(AND(C21="Wet Willies",D21="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z21" s="24" t="str">
-        <f>IF(AND(C21="5 Musketeers",D21="Loose Gooses"),"5M/LG", IF(AND($C21="5 Musketeers",$D21="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -17092,15 +17106,15 @@
       <c r="V22" s="40"/>
       <c r="W22" s="40"/>
       <c r="X22" s="24" t="str">
-        <f>IF(AND(C22="Loose Gooses",D22="Wet Willies"),"LG/WW", IF(AND(C22="Loose Gooses",D22="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y22" s="24" t="str">
-        <f>IF(AND(C22="Wet Willies",D22="Loose Gooses"),"WW/LG", IF(AND(C22="Wet Willies",D22="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z22" s="24" t="str">
-        <f>IF(AND(C22="5 Musketeers",D22="Loose Gooses"),"5M/LG", IF(AND($C22="5 Musketeers",$D22="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -17116,29 +17130,29 @@
         <v>0,</v>
       </c>
       <c r="S23" s="40" t="str">
-        <f t="shared" ref="S23:U23" si="5">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
+        <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T23" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="U23" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="V23" s="40"/>
       <c r="W23" s="40"/>
       <c r="X23" s="24" t="str">
-        <f>IF(AND(C23="Loose Gooses",D23="Wet Willies"),"LG/WW", IF(AND(C23="Loose Gooses",D23="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y23" s="24" t="str">
-        <f>IF(AND(C23="Wet Willies",D23="Loose Gooses"),"WW/LG", IF(AND(C23="Wet Willies",D23="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z23" s="24" t="str">
-        <f>IF(AND(C23="5 Musketeers",D23="Loose Gooses"),"5M/LG", IF(AND($C23="5 Musketeers",$D23="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -17150,33 +17164,33 @@
       <c r="I24" s="24"/>
       <c r="Q24" s="40"/>
       <c r="R24" s="40" t="str">
-        <f t="shared" ref="R24:U37" si="6">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
+        <f t="shared" ref="R24:U37" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="S24" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T24" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U24" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V24" s="40"/>
       <c r="W24" s="40"/>
       <c r="X24" s="24" t="str">
-        <f>IF(AND(C24="Loose Gooses",D24="Wet Willies"),"LG/WW", IF(AND(C24="Loose Gooses",D24="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y24" s="24" t="str">
-        <f>IF(AND(C24="Wet Willies",D24="Loose Gooses"),"WW/LG", IF(AND(C24="Wet Willies",D24="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z24" s="24" t="str">
-        <f>IF(AND(C24="5 Musketeers",D24="Loose Gooses"),"5M/LG", IF(AND($C24="5 Musketeers",$D24="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -17188,33 +17202,33 @@
       <c r="I25" s="24"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S25" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T25" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U25" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V25" s="40"/>
       <c r="W25" s="40"/>
       <c r="X25" s="24" t="str">
-        <f>IF(AND(C25="Loose Gooses",D25="Wet Willies"),"LG/WW", IF(AND(C25="Loose Gooses",D25="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y25" s="24" t="str">
-        <f>IF(AND(C25="Wet Willies",D25="Loose Gooses"),"WW/LG", IF(AND(C25="Wet Willies",D25="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z25" s="24" t="str">
-        <f>IF(AND(C25="5 Musketeers",D25="Loose Gooses"),"5M/LG", IF(AND($C25="5 Musketeers",$D25="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -17226,33 +17240,33 @@
       <c r="I26" s="24"/>
       <c r="Q26" s="26"/>
       <c r="R26" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S26" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T26" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U26" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V26" s="40"/>
       <c r="W26" s="40"/>
       <c r="X26" s="24" t="str">
-        <f>IF(AND(C26="Loose Gooses",D26="Wet Willies"),"LG/WW", IF(AND(C26="Loose Gooses",D26="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y26" s="24" t="str">
-        <f>IF(AND(C26="Wet Willies",D26="Loose Gooses"),"WW/LG", IF(AND(C26="Wet Willies",D26="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z26" s="24" t="str">
-        <f>IF(AND(C26="5 Musketeers",D26="Loose Gooses"),"5M/LG", IF(AND($C26="5 Musketeers",$D26="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -17264,33 +17278,33 @@
       <c r="I27" s="24"/>
       <c r="Q27" s="40"/>
       <c r="R27" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S27" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T27" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U27" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V27" s="40"/>
       <c r="W27" s="40"/>
       <c r="X27" s="24" t="str">
-        <f>IF(AND(C27="Loose Gooses",D27="Wet Willies"),"LG/WW", IF(AND(C27="Loose Gooses",D27="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y27" s="24" t="str">
-        <f>IF(AND(C27="Wet Willies",D27="Loose Gooses"),"WW/LG", IF(AND(C27="Wet Willies",D27="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z27" s="24" t="str">
-        <f>IF(AND(C27="5 Musketeers",D27="Loose Gooses"),"5M/LG", IF(AND($C27="5 Musketeers",$D27="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -17302,33 +17316,33 @@
       <c r="I28" s="24"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S28" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T28" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U28" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V28" s="40"/>
       <c r="W28" s="40"/>
       <c r="X28" s="24" t="str">
-        <f>IF(AND(C28="Loose Gooses",D28="Wet Willies"),"LG/WW", IF(AND(C28="Loose Gooses",D28="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y28" s="24" t="str">
-        <f>IF(AND(C28="Wet Willies",D28="Loose Gooses"),"WW/LG", IF(AND(C28="Wet Willies",D28="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z28" s="24" t="str">
-        <f>IF(AND(C28="5 Musketeers",D28="Loose Gooses"),"5M/LG", IF(AND($C28="5 Musketeers",$D28="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -17340,19 +17354,19 @@
       <c r="I29" s="24"/>
       <c r="Q29" s="40"/>
       <c r="R29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V29" s="40"/>
@@ -17369,19 +17383,19 @@
       <c r="I30" s="24"/>
       <c r="Q30" s="40"/>
       <c r="R30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V30" s="40"/>
@@ -17393,19 +17407,19 @@
     <row r="31" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q31" s="40"/>
       <c r="R31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V31" s="40"/>
@@ -17417,19 +17431,19 @@
     <row r="32" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q32" s="40"/>
       <c r="R32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V32" s="40"/>
@@ -17441,19 +17455,19 @@
     <row r="33" spans="17:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q33" s="40"/>
       <c r="R33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V33" s="40"/>
@@ -17465,19 +17479,19 @@
     <row r="34" spans="17:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q34" s="40"/>
       <c r="R34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V34" s="40"/>
@@ -17489,19 +17503,19 @@
     <row r="35" spans="17:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q35" s="40"/>
       <c r="R35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V35" s="40"/>
@@ -17513,19 +17527,19 @@
     <row r="36" spans="17:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q36" s="40"/>
       <c r="R36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V36" s="40"/>
@@ -17537,19 +17551,19 @@
     <row r="37" spans="17:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q37" s="40"/>
       <c r="R37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V37" s="40"/>
@@ -17607,11 +17621,11 @@
       <c r="Z40" s="40"/>
     </row>
     <row r="41" spans="17:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q41" s="68" t="s">
+      <c r="Q41" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
       <c r="V41" s="40"/>
@@ -17621,9 +17635,9 @@
       <c r="Z41" s="40"/>
     </row>
     <row r="42" spans="17:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
       <c r="T42" s="40"/>
       <c r="U42" s="40"/>
       <c r="V42" s="40"/>
@@ -18794,7 +18808,7 @@
         <f t="shared" ref="U3:U18" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
         <v>0</v>
       </c>
-      <c r="V3" s="69" t="b">
+      <c r="V3" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X3" s="5" t="s">
@@ -18870,19 +18884,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V4" s="69" t="b">
+      <c r="V4" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X4" s="24" t="str">
-        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" ref="X4:X28" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
       <c r="Y4" s="24" t="str">
-        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" ref="Y4:Y28" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
         <v>WW/LG</v>
       </c>
       <c r="Z4" s="24" t="str">
-        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" ref="Z4:Z28" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
     </row>
@@ -18949,19 +18963,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V5" s="69" t="b">
+      <c r="V5" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X5" s="24" t="str">
-        <f>IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y5" s="24" t="str">
-        <f>IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v>WW/5M</v>
       </c>
       <c r="Z5" s="24" t="str">
-        <f>IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND($C5="5 Musketeers",$D5="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19009,19 +19023,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V6" s="69" t="b">
+      <c r="V6" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X6" s="24" t="str">
-        <f>IF(AND(C6="Loose Gooses",D6="Wet Willies"),"LG/WW", IF(AND(C6="Loose Gooses",D6="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y6" s="24" t="str">
-        <f>IF(AND(C6="Wet Willies",D6="Loose Gooses"),"WW/LG", IF(AND(C6="Wet Willies",D6="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v>WW/LG</v>
       </c>
       <c r="Z6" s="24" t="str">
-        <f>IF(AND(C6="5 Musketeers",D6="Loose Gooses"),"5M/LG", IF(AND($C6="5 Musketeers",$D6="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19069,19 +19083,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V7" s="69" t="b">
+      <c r="V7" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X7" s="24" t="str">
-        <f>IF(AND(C7="Loose Gooses",D7="Wet Willies"),"LG/WW", IF(AND(C7="Loose Gooses",D7="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y7" s="24" t="str">
-        <f>IF(AND(C7="Wet Willies",D7="Loose Gooses"),"WW/LG", IF(AND(C7="Wet Willies",D7="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z7" s="24" t="str">
-        <f>IF(AND(C7="5 Musketeers",D7="Loose Gooses"),"5M/LG", IF(AND($C7="5 Musketeers",$D7="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -19129,19 +19143,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V8" s="69" t="b">
+      <c r="V8" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X8" s="24" t="str">
-        <f>IF(AND(C8="Loose Gooses",D8="Wet Willies"),"LG/WW", IF(AND(C8="Loose Gooses",D8="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y8" s="24" t="str">
-        <f>IF(AND(C8="Wet Willies",D8="Loose Gooses"),"WW/LG", IF(AND(C8="Wet Willies",D8="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z8" s="24" t="str">
-        <f>IF(AND(C8="5 Musketeers",D8="Loose Gooses"),"5M/LG", IF(AND($C8="5 Musketeers",$D8="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -19189,19 +19203,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V9" s="69" t="b">
+      <c r="V9" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X9" s="24" t="str">
-        <f>IF(AND(C9="Loose Gooses",D9="Wet Willies"),"LG/WW", IF(AND(C9="Loose Gooses",D9="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y9" s="24" t="str">
-        <f>IF(AND(C9="Wet Willies",D9="Loose Gooses"),"WW/LG", IF(AND(C9="Wet Willies",D9="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v>WW/5M</v>
       </c>
       <c r="Z9" s="24" t="str">
-        <f>IF(AND(C9="5 Musketeers",D9="Loose Gooses"),"5M/LG", IF(AND($C9="5 Musketeers",$D9="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19249,19 +19263,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V10" s="69" t="b">
+      <c r="V10" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X10" s="24" t="str">
-        <f>IF(AND(C10="Loose Gooses",D10="Wet Willies"),"LG/WW", IF(AND(C10="Loose Gooses",D10="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/WW</v>
       </c>
       <c r="Y10" s="24" t="str">
-        <f>IF(AND(C10="Wet Willies",D10="Loose Gooses"),"WW/LG", IF(AND(C10="Wet Willies",D10="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z10" s="24" t="str">
-        <f>IF(AND(C10="5 Musketeers",D10="Loose Gooses"),"5M/LG", IF(AND($C10="5 Musketeers",$D10="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19309,19 +19323,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V11" s="69" t="b">
+      <c r="V11" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X11" s="24" t="str">
-        <f>IF(AND(C11="Loose Gooses",D11="Wet Willies"),"LG/WW", IF(AND(C11="Loose Gooses",D11="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y11" s="24" t="str">
-        <f>IF(AND(C11="Wet Willies",D11="Loose Gooses"),"WW/LG", IF(AND(C11="Wet Willies",D11="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z11" s="24" t="str">
-        <f>IF(AND(C11="5 Musketeers",D11="Loose Gooses"),"5M/LG", IF(AND($C11="5 Musketeers",$D11="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -19369,19 +19383,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V12" s="69" t="b">
+      <c r="V12" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X12" s="24" t="str">
-        <f>IF(AND(C12="Loose Gooses",D12="Wet Willies"),"LG/WW", IF(AND(C12="Loose Gooses",D12="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y12" s="24" t="str">
-        <f>IF(AND(C12="Wet Willies",D12="Loose Gooses"),"WW/LG", IF(AND(C12="Wet Willies",D12="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z12" s="24" t="str">
-        <f>IF(AND(C12="5 Musketeers",D12="Loose Gooses"),"5M/LG", IF(AND($C12="5 Musketeers",$D12="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -19429,19 +19443,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V13" s="69" t="b">
+      <c r="V13" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X13" s="24" t="str">
-        <f>IF(AND(C13="Loose Gooses",D13="Wet Willies"),"LG/WW", IF(AND(C13="Loose Gooses",D13="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y13" s="24" t="str">
-        <f>IF(AND(C13="Wet Willies",D13="Loose Gooses"),"WW/LG", IF(AND(C13="Wet Willies",D13="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z13" s="24" t="str">
-        <f>IF(AND(C13="5 Musketeers",D13="Loose Gooses"),"5M/LG", IF(AND($C13="5 Musketeers",$D13="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -19489,19 +19503,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V14" s="69" t="b">
+      <c r="V14" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X14" s="24" t="str">
-        <f>IF(AND(C14="Loose Gooses",D14="Wet Willies"),"LG/WW", IF(AND(C14="Loose Gooses",D14="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y14" s="24" t="str">
-        <f>IF(AND(C14="Wet Willies",D14="Loose Gooses"),"WW/LG", IF(AND(C14="Wet Willies",D14="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z14" s="24" t="str">
-        <f>IF(AND(C14="5 Musketeers",D14="Loose Gooses"),"5M/LG", IF(AND($C14="5 Musketeers",$D14="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -19549,19 +19563,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V15" s="69" t="b">
+      <c r="V15" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X15" s="24" t="str">
-        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/5M</v>
       </c>
       <c r="Y15" s="24" t="str">
-        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z15" s="24" t="str">
-        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND($C15="5 Musketeers",$D15="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19597,15 +19611,15 @@
         <v>0</v>
       </c>
       <c r="X16" s="24" t="str">
-        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y16" s="24" t="str">
-        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z16" s="24" t="str">
-        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND($C16="5 Musketeers",$D16="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19641,15 +19655,15 @@
         <v>0</v>
       </c>
       <c r="X17" s="24" t="str">
-        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y17" s="24" t="str">
-        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z17" s="24" t="str">
-        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND($C17="5 Musketeers",$D17="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19685,15 +19699,15 @@
         <v>0</v>
       </c>
       <c r="X18" s="24" t="str">
-        <f>IF(AND(C18="Loose Gooses",D18="Wet Willies"),"LG/WW", IF(AND(C18="Loose Gooses",D18="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y18" s="24" t="str">
-        <f>IF(AND(C18="Wet Willies",D18="Loose Gooses"),"WW/LG", IF(AND(C18="Wet Willies",D18="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z18" s="24" t="str">
-        <f>IF(AND(C18="5 Musketeers",D18="Loose Gooses"),"5M/LG", IF(AND($C18="5 Musketeers",$D18="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19710,15 +19724,15 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="X19" s="24" t="str">
-        <f>IF(AND(C19="Loose Gooses",D19="Wet Willies"),"LG/WW", IF(AND(C19="Loose Gooses",D19="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y19" s="24" t="str">
-        <f>IF(AND(C19="Wet Willies",D19="Loose Gooses"),"WW/LG", IF(AND(C19="Wet Willies",D19="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z19" s="24" t="str">
-        <f>IF(AND(C19="5 Musketeers",D19="Loose Gooses"),"5M/LG", IF(AND($C19="5 Musketeers",$D19="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19726,43 +19740,43 @@
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
       <c r="X20" s="24" t="str">
-        <f>IF(AND(C20="Loose Gooses",D20="Wet Willies"),"LG/WW", IF(AND(C20="Loose Gooses",D20="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y20" s="24" t="str">
-        <f>IF(AND(C20="Wet Willies",D20="Loose Gooses"),"WW/LG", IF(AND(C20="Wet Willies",D20="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z20" s="24" t="str">
-        <f>IF(AND(C20="5 Musketeers",D20="Loose Gooses"),"5M/LG", IF(AND($C20="5 Musketeers",$D20="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X21" s="24" t="str">
-        <f>IF(AND(C21="Loose Gooses",D21="Wet Willies"),"LG/WW", IF(AND(C21="Loose Gooses",D21="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y21" s="24" t="str">
-        <f>IF(AND(C21="Wet Willies",D21="Loose Gooses"),"WW/LG", IF(AND(C21="Wet Willies",D21="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z21" s="24" t="str">
-        <f>IF(AND(C21="5 Musketeers",D21="Loose Gooses"),"5M/LG", IF(AND($C21="5 Musketeers",$D21="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X22" s="24" t="str">
-        <f>IF(AND(C22="Loose Gooses",D22="Wet Willies"),"LG/WW", IF(AND(C22="Loose Gooses",D22="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y22" s="24" t="str">
-        <f>IF(AND(C22="Wet Willies",D22="Loose Gooses"),"WW/LG", IF(AND(C22="Wet Willies",D22="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z22" s="24" t="str">
-        <f>IF(AND(C22="5 Musketeers",D22="Loose Gooses"),"5M/LG", IF(AND($C22="5 Musketeers",$D22="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19778,27 +19792,27 @@
         <v>0,</v>
       </c>
       <c r="S23" s="40" t="str">
-        <f t="shared" ref="S23:U23" si="5">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
+        <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="U23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="X23" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="U23" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="X23" s="24" t="str">
-        <f>IF(AND(C23="Loose Gooses",D23="Wet Willies"),"LG/WW", IF(AND(C23="Loose Gooses",D23="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
       <c r="Y23" s="24" t="str">
-        <f>IF(AND(C23="Wet Willies",D23="Loose Gooses"),"WW/LG", IF(AND(C23="Wet Willies",D23="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z23" s="24" t="str">
-        <f>IF(AND(C23="5 Musketeers",D23="Loose Gooses"),"5M/LG", IF(AND($C23="5 Musketeers",$D23="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19809,31 +19823,31 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="R24" s="40" t="str">
-        <f t="shared" ref="R24:U37" si="6">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
+        <f t="shared" ref="R24:U37" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
         <v>1,</v>
       </c>
       <c r="S24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X24" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y24" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
-      </c>
-      <c r="T24" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="U24" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="X24" s="24" t="str">
-        <f>IF(AND(C24="Loose Gooses",D24="Wet Willies"),"LG/WW", IF(AND(C24="Loose Gooses",D24="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
-      </c>
-      <c r="Y24" s="24" t="str">
-        <f>IF(AND(C24="Wet Willies",D24="Loose Gooses"),"WW/LG", IF(AND(C24="Wet Willies",D24="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z24" s="24" t="str">
-        <f>IF(AND(C24="5 Musketeers",D24="Loose Gooses"),"5M/LG", IF(AND($C24="5 Musketeers",$D24="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19845,31 +19859,31 @@
       <c r="I25" s="24"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X25" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y25" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
-      </c>
-      <c r="S25" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>1,</v>
-      </c>
-      <c r="T25" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="U25" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="X25" s="24" t="str">
-        <f>IF(AND(C25="Loose Gooses",D25="Wet Willies"),"LG/WW", IF(AND(C25="Loose Gooses",D25="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
-      </c>
-      <c r="Y25" s="24" t="str">
-        <f>IF(AND(C25="Wet Willies",D25="Loose Gooses"),"WW/LG", IF(AND(C25="Wet Willies",D25="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z25" s="24" t="str">
-        <f>IF(AND(C25="5 Musketeers",D25="Loose Gooses"),"5M/LG", IF(AND($C25="5 Musketeers",$D25="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19881,31 +19895,31 @@
       <c r="I26" s="24"/>
       <c r="Q26" s="26"/>
       <c r="R26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X26" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y26" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
-      </c>
-      <c r="S26" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>1,</v>
-      </c>
-      <c r="T26" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="U26" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="X26" s="24" t="str">
-        <f>IF(AND(C26="Loose Gooses",D26="Wet Willies"),"LG/WW", IF(AND(C26="Loose Gooses",D26="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
-      </c>
-      <c r="Y26" s="24" t="str">
-        <f>IF(AND(C26="Wet Willies",D26="Loose Gooses"),"WW/LG", IF(AND(C26="Wet Willies",D26="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z26" s="24" t="str">
-        <f>IF(AND(C26="5 Musketeers",D26="Loose Gooses"),"5M/LG", IF(AND($C26="5 Musketeers",$D26="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19916,31 +19930,31 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="R27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X27" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y27" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
-      </c>
-      <c r="S27" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>1,</v>
-      </c>
-      <c r="T27" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="U27" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="X27" s="24" t="str">
-        <f>IF(AND(C27="Loose Gooses",D27="Wet Willies"),"LG/WW", IF(AND(C27="Loose Gooses",D27="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
-      </c>
-      <c r="Y27" s="24" t="str">
-        <f>IF(AND(C27="Wet Willies",D27="Loose Gooses"),"WW/LG", IF(AND(C27="Wet Willies",D27="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z27" s="24" t="str">
-        <f>IF(AND(C27="5 Musketeers",D27="Loose Gooses"),"5M/LG", IF(AND($C27="5 Musketeers",$D27="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19951,31 +19965,31 @@
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="R28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X28" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y28" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="S28" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="T28" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="U28" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="X28" s="24" t="str">
-        <f>IF(AND(C28="Loose Gooses",D28="Wet Willies"),"LG/WW", IF(AND(C28="Loose Gooses",D28="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
-      </c>
-      <c r="Y28" s="24" t="str">
-        <f>IF(AND(C28="Wet Willies",D28="Loose Gooses"),"WW/LG", IF(AND(C28="Wet Willies",D28="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z28" s="24" t="str">
-        <f>IF(AND(C28="5 Musketeers",D28="Loose Gooses"),"5M/LG", IF(AND($C28="5 Musketeers",$D28="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -19986,19 +20000,19 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="R29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
@@ -20009,145 +20023,145 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="R30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="S30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="U30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="31" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4,</v>
       </c>
       <c r="S31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="T31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3,</v>
       </c>
       <c r="U31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="32" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="33" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="S33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="T33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="34" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="35" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="S35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="T35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="36" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="S36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="T36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="37" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
@@ -20180,18 +20194,18 @@
       <c r="U40" s="19"/>
     </row>
     <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q41" s="68" t="s">
+      <c r="Q41" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
     </row>
     <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
     </row>
     <row r="43" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q43" s="40" t="str">
@@ -21310,7 +21324,7 @@
         <f t="shared" ref="U3:U18" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
         <v>0</v>
       </c>
-      <c r="V3" s="69" t="b">
+      <c r="V3" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X3" s="5" t="s">
@@ -21386,19 +21400,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V4" s="69" t="b">
+      <c r="V4" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X4" s="24" t="str">
-        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" ref="X4:X28" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
       <c r="Y4" s="24" t="str">
-        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" ref="Y4:Y28" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z4" s="24" t="str">
-        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" ref="Z4:Z28" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
         <v>5M/LG</v>
       </c>
     </row>
@@ -21465,19 +21479,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V5" s="69" t="b">
+      <c r="V5" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X5" s="24" t="str">
-        <f>IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y5" s="24" t="str">
-        <f>IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v>WW/5M</v>
       </c>
       <c r="Z5" s="24" t="str">
-        <f>IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND($C5="5 Musketeers",$D5="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -21525,19 +21539,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V6" s="69" t="b">
+      <c r="V6" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X6" s="24" t="str">
-        <f>IF(AND(C6="Loose Gooses",D6="Wet Willies"),"LG/WW", IF(AND(C6="Loose Gooses",D6="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y6" s="24" t="str">
-        <f>IF(AND(C6="Wet Willies",D6="Loose Gooses"),"WW/LG", IF(AND(C6="Wet Willies",D6="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v>WW/LG</v>
       </c>
       <c r="Z6" s="24" t="str">
-        <f>IF(AND(C6="5 Musketeers",D6="Loose Gooses"),"5M/LG", IF(AND($C6="5 Musketeers",$D6="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -21585,19 +21599,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V7" s="69" t="b">
+      <c r="V7" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X7" s="24" t="str">
-        <f>IF(AND(C7="Loose Gooses",D7="Wet Willies"),"LG/WW", IF(AND(C7="Loose Gooses",D7="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y7" s="24" t="str">
-        <f>IF(AND(C7="Wet Willies",D7="Loose Gooses"),"WW/LG", IF(AND(C7="Wet Willies",D7="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v>WW/5M</v>
       </c>
       <c r="Z7" s="24" t="str">
-        <f>IF(AND(C7="5 Musketeers",D7="Loose Gooses"),"5M/LG", IF(AND($C7="5 Musketeers",$D7="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -21645,19 +21659,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V8" s="69" t="b">
+      <c r="V8" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X8" s="24" t="str">
-        <f>IF(AND(C8="Loose Gooses",D8="Wet Willies"),"LG/WW", IF(AND(C8="Loose Gooses",D8="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y8" s="24" t="str">
-        <f>IF(AND(C8="Wet Willies",D8="Loose Gooses"),"WW/LG", IF(AND(C8="Wet Willies",D8="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v>WW/LG</v>
       </c>
       <c r="Z8" s="24" t="str">
-        <f>IF(AND(C8="5 Musketeers",D8="Loose Gooses"),"5M/LG", IF(AND($C8="5 Musketeers",$D8="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -21705,19 +21719,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V9" s="69" t="b">
+      <c r="V9" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X9" s="24" t="str">
-        <f>IF(AND(C9="Loose Gooses",D9="Wet Willies"),"LG/WW", IF(AND(C9="Loose Gooses",D9="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y9" s="24" t="str">
-        <f>IF(AND(C9="Wet Willies",D9="Loose Gooses"),"WW/LG", IF(AND(C9="Wet Willies",D9="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v>WW/5M</v>
       </c>
       <c r="Z9" s="24" t="str">
-        <f>IF(AND(C9="5 Musketeers",D9="Loose Gooses"),"5M/LG", IF(AND($C9="5 Musketeers",$D9="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -21765,19 +21779,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V10" s="69" t="b">
+      <c r="V10" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X10" s="24" t="str">
-        <f>IF(AND(C10="Loose Gooses",D10="Wet Willies"),"LG/WW", IF(AND(C10="Loose Gooses",D10="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/WW</v>
       </c>
       <c r="Y10" s="24" t="str">
-        <f>IF(AND(C10="Wet Willies",D10="Loose Gooses"),"WW/LG", IF(AND(C10="Wet Willies",D10="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z10" s="24" t="str">
-        <f>IF(AND(C10="5 Musketeers",D10="Loose Gooses"),"5M/LG", IF(AND($C10="5 Musketeers",$D10="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -21825,19 +21839,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V11" s="69" t="b">
+      <c r="V11" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X11" s="24" t="str">
-        <f>IF(AND(C11="Loose Gooses",D11="Wet Willies"),"LG/WW", IF(AND(C11="Loose Gooses",D11="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y11" s="24" t="str">
-        <f>IF(AND(C11="Wet Willies",D11="Loose Gooses"),"WW/LG", IF(AND(C11="Wet Willies",D11="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z11" s="24" t="str">
-        <f>IF(AND(C11="5 Musketeers",D11="Loose Gooses"),"5M/LG", IF(AND($C11="5 Musketeers",$D11="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -21885,19 +21899,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V12" s="69" t="b">
+      <c r="V12" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X12" s="24" t="str">
-        <f>IF(AND(C12="Loose Gooses",D12="Wet Willies"),"LG/WW", IF(AND(C12="Loose Gooses",D12="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y12" s="24" t="str">
-        <f>IF(AND(C12="Wet Willies",D12="Loose Gooses"),"WW/LG", IF(AND(C12="Wet Willies",D12="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z12" s="24" t="str">
-        <f>IF(AND(C12="5 Musketeers",D12="Loose Gooses"),"5M/LG", IF(AND($C12="5 Musketeers",$D12="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -21945,19 +21959,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V13" s="69" t="b">
+      <c r="V13" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X13" s="24" t="str">
-        <f>IF(AND(C13="Loose Gooses",D13="Wet Willies"),"LG/WW", IF(AND(C13="Loose Gooses",D13="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/5M</v>
       </c>
       <c r="Y13" s="24" t="str">
-        <f>IF(AND(C13="Wet Willies",D13="Loose Gooses"),"WW/LG", IF(AND(C13="Wet Willies",D13="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z13" s="24" t="str">
-        <f>IF(AND(C13="5 Musketeers",D13="Loose Gooses"),"5M/LG", IF(AND($C13="5 Musketeers",$D13="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -22005,19 +22019,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V14" s="69" t="b">
+      <c r="V14" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X14" s="24" t="str">
-        <f>IF(AND(C14="Loose Gooses",D14="Wet Willies"),"LG/WW", IF(AND(C14="Loose Gooses",D14="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/WW</v>
       </c>
       <c r="Y14" s="24" t="str">
-        <f>IF(AND(C14="Wet Willies",D14="Loose Gooses"),"WW/LG", IF(AND(C14="Wet Willies",D14="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z14" s="24" t="str">
-        <f>IF(AND(C14="5 Musketeers",D14="Loose Gooses"),"5M/LG", IF(AND($C14="5 Musketeers",$D14="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -22065,19 +22079,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V15" s="69" t="b">
+      <c r="V15" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X15" s="24" t="str">
-        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y15" s="24" t="str">
-        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z15" s="24" t="str">
-        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND($C15="5 Musketeers",$D15="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -22125,19 +22139,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V16" s="69" t="b">
+      <c r="V16" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X16" s="24" t="str">
-        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y16" s="24" t="str">
-        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z16" s="24" t="str">
-        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND($C16="5 Musketeers",$D16="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -22185,19 +22199,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V17" s="69" t="b">
+      <c r="V17" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X17" s="24" t="str">
-        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y17" s="24" t="str">
-        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z17" s="24" t="str">
-        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND($C17="5 Musketeers",$D17="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -22245,19 +22259,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V18" s="69" t="b">
+      <c r="V18" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X18" s="24" t="str">
-        <f>IF(AND(C18="Loose Gooses",D18="Wet Willies"),"LG/WW", IF(AND(C18="Loose Gooses",D18="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y18" s="24" t="str">
-        <f>IF(AND(C18="Wet Willies",D18="Loose Gooses"),"WW/LG", IF(AND(C18="Wet Willies",D18="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z18" s="24" t="str">
-        <f>IF(AND(C18="5 Musketeers",D18="Loose Gooses"),"5M/LG", IF(AND($C18="5 Musketeers",$D18="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -22290,15 +22304,15 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="X19" s="24" t="str">
-        <f>IF(AND(C19="Loose Gooses",D19="Wet Willies"),"LG/WW", IF(AND(C19="Loose Gooses",D19="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/5M</v>
       </c>
       <c r="Y19" s="24" t="str">
-        <f>IF(AND(C19="Wet Willies",D19="Loose Gooses"),"WW/LG", IF(AND(C19="Wet Willies",D19="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z19" s="24" t="str">
-        <f>IF(AND(C19="5 Musketeers",D19="Loose Gooses"),"5M/LG", IF(AND($C19="5 Musketeers",$D19="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -22328,15 +22342,15 @@
         <v>1</v>
       </c>
       <c r="X20" s="24" t="str">
-        <f>IF(AND(C20="Loose Gooses",D20="Wet Willies"),"LG/WW", IF(AND(C20="Loose Gooses",D20="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y20" s="24" t="str">
-        <f>IF(AND(C20="Wet Willies",D20="Loose Gooses"),"WW/LG", IF(AND(C20="Wet Willies",D20="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v>WW/LG</v>
       </c>
       <c r="Z20" s="24" t="str">
-        <f>IF(AND(C20="5 Musketeers",D20="Loose Gooses"),"5M/LG", IF(AND($C20="5 Musketeers",$D20="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -22366,15 +22380,15 @@
         <v>2</v>
       </c>
       <c r="X21" s="24" t="str">
-        <f>IF(AND(C21="Loose Gooses",D21="Wet Willies"),"LG/WW", IF(AND(C21="Loose Gooses",D21="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y21" s="24" t="str">
-        <f>IF(AND(C21="Wet Willies",D21="Loose Gooses"),"WW/LG", IF(AND(C21="Wet Willies",D21="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v>WW/5M</v>
       </c>
       <c r="Z21" s="24" t="str">
-        <f>IF(AND(C21="5 Musketeers",D21="Loose Gooses"),"5M/LG", IF(AND($C21="5 Musketeers",$D21="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -22404,15 +22418,15 @@
         <v>1</v>
       </c>
       <c r="X22" s="24" t="str">
-        <f>IF(AND(C22="Loose Gooses",D22="Wet Willies"),"LG/WW", IF(AND(C22="Loose Gooses",D22="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="5"/>
         <v>LG/WW</v>
       </c>
       <c r="Y22" s="24" t="str">
-        <f>IF(AND(C22="Wet Willies",D22="Loose Gooses"),"WW/LG", IF(AND(C22="Wet Willies",D22="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z22" s="24" t="str">
-        <f>IF(AND(C22="5 Musketeers",D22="Loose Gooses"),"5M/LG", IF(AND($C22="5 Musketeers",$D22="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -22447,27 +22461,27 @@
         <v>1,</v>
       </c>
       <c r="S23" s="40" t="str">
-        <f t="shared" ref="S23:U23" si="5">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
+        <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
         <v>1,</v>
       </c>
       <c r="T23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="U23" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="X23" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="U23" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="X23" s="24" t="str">
-        <f>IF(AND(C23="Loose Gooses",D23="Wet Willies"),"LG/WW", IF(AND(C23="Loose Gooses",D23="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
       <c r="Y23" s="24" t="str">
-        <f>IF(AND(C23="Wet Willies",D23="Loose Gooses"),"WW/LG", IF(AND(C23="Wet Willies",D23="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z23" s="24" t="str">
-        <f>IF(AND(C23="5 Musketeers",D23="Loose Gooses"),"5M/LG", IF(AND($C23="5 Musketeers",$D23="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -22497,31 +22511,31 @@
         <v>1</v>
       </c>
       <c r="R24" s="40" t="str">
-        <f t="shared" ref="R24:U37" si="6">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
+        <f t="shared" ref="R24:U37" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
         <v>1,</v>
       </c>
       <c r="S24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U24" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X24" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y24" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
-      </c>
-      <c r="T24" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="U24" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="X24" s="24" t="str">
-        <f>IF(AND(C24="Loose Gooses",D24="Wet Willies"),"LG/WW", IF(AND(C24="Loose Gooses",D24="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
-      </c>
-      <c r="Y24" s="24" t="str">
-        <f>IF(AND(C24="Wet Willies",D24="Loose Gooses"),"WW/LG", IF(AND(C24="Wet Willies",D24="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z24" s="24" t="str">
-        <f>IF(AND(C24="5 Musketeers",D24="Loose Gooses"),"5M/LG", IF(AND($C24="5 Musketeers",$D24="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -22552,31 +22566,31 @@
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>5,</v>
+      </c>
+      <c r="S25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>5,</v>
+      </c>
+      <c r="T25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X25" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="Y25" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>5,</v>
-      </c>
-      <c r="S25" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>5,</v>
-      </c>
-      <c r="T25" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="U25" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="X25" s="24" t="str">
-        <f>IF(AND(C25="Loose Gooses",D25="Wet Willies"),"LG/WW", IF(AND(C25="Loose Gooses",D25="5 Musketeers"),"LG/5M", ""))</f>
-        <v>LG/5M</v>
-      </c>
-      <c r="Y25" s="24" t="str">
-        <f>IF(AND(C25="Wet Willies",D25="Loose Gooses"),"WW/LG", IF(AND(C25="Wet Willies",D25="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z25" s="24" t="str">
-        <f>IF(AND(C25="5 Musketeers",D25="Loose Gooses"),"5M/LG", IF(AND($C25="5 Musketeers",$D25="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -22607,31 +22621,31 @@
       </c>
       <c r="Q26" s="26"/>
       <c r="R26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>4,</v>
+      </c>
+      <c r="S26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>4,</v>
+      </c>
+      <c r="T26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U26" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X26" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="Y26" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>4,</v>
-      </c>
-      <c r="S26" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>4,</v>
-      </c>
-      <c r="T26" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="U26" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="X26" s="24" t="str">
-        <f>IF(AND(C26="Loose Gooses",D26="Wet Willies"),"LG/WW", IF(AND(C26="Loose Gooses",D26="5 Musketeers"),"LG/5M", ""))</f>
-        <v>LG/WW</v>
-      </c>
-      <c r="Y26" s="24" t="str">
-        <f>IF(AND(C26="Wet Willies",D26="Loose Gooses"),"WW/LG", IF(AND(C26="Wet Willies",D26="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z26" s="24" t="str">
-        <f>IF(AND(C26="5 Musketeers",D26="Loose Gooses"),"5M/LG", IF(AND($C26="5 Musketeers",$D26="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -22661,31 +22675,31 @@
         <v>1</v>
       </c>
       <c r="R27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U27" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X27" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y27" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="S27" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="T27" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="U27" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="X27" s="24" t="str">
-        <f>IF(AND(C27="Loose Gooses",D27="Wet Willies"),"LG/WW", IF(AND(C27="Loose Gooses",D27="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
-      </c>
-      <c r="Y27" s="24" t="str">
-        <f>IF(AND(C27="Wet Willies",D27="Loose Gooses"),"WW/LG", IF(AND(C27="Wet Willies",D27="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z27" s="24" t="str">
-        <f>IF(AND(C27="5 Musketeers",D27="Loose Gooses"),"5M/LG", IF(AND($C27="5 Musketeers",$D27="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -22715,31 +22729,31 @@
         <v>1</v>
       </c>
       <c r="R28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="U28" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X28" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y28" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
-      </c>
-      <c r="S28" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="T28" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>1,</v>
-      </c>
-      <c r="U28" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="X28" s="24" t="str">
-        <f>IF(AND(C28="Loose Gooses",D28="Wet Willies"),"LG/WW", IF(AND(C28="Loose Gooses",D28="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
-      </c>
-      <c r="Y28" s="24" t="str">
-        <f>IF(AND(C28="Wet Willies",D28="Loose Gooses"),"WW/LG", IF(AND(C28="Wet Willies",D28="5 Musketeers"),"WW/5M", ""))</f>
         <v>WW/5M</v>
       </c>
       <c r="Z28" s="24" t="str">
-        <f>IF(AND(C28="5 Musketeers",D28="Loose Gooses"),"5M/LG", IF(AND($C28="5 Musketeers",$D28="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -22750,19 +22764,19 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="R29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
@@ -22773,145 +22787,145 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="R30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4,</v>
       </c>
       <c r="S30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="T30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3,</v>
       </c>
       <c r="U30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="31" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3,</v>
       </c>
       <c r="S31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3,</v>
       </c>
       <c r="U31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="32" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="S32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="U32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="33" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="34" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="S34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="T34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="35" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2,</v>
       </c>
       <c r="S35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2,</v>
       </c>
       <c r="T35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U35" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="36" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="S36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="T36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U36" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
     <row r="37" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="S37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="T37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U37" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
     </row>
@@ -22943,19 +22957,19 @@
       <c r="T40" s="19"/>
       <c r="U40" s="19"/>
     </row>
-    <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="Q41" s="68" t="s">
+    <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q41" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
     </row>
-    <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
+    <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
     </row>
     <row r="43" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q43" s="40" t="str">

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3802D43F-B07E-4373-B073-B3E9300E39E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD5ED62-A364-4D2B-A446-2F099A215B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="175">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -867,11 +867,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -948,12 +949,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E4ED72E7-E964-4884-BAF1-D3A03BDB6523}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -970,18 +973,20 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1008,12 +1013,188 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1088,45 +1269,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -1135,126 +1277,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1626,35 +1648,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="P7:Y23" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="P7:Y23" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="P7:Z23" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="P7:Z23" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="9">
       <calculatedColumnFormula>Q29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="7">
-      <calculatedColumnFormula>Q8/$Q$5</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="3">
+      <calculatedColumnFormula>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="8">
       <calculatedColumnFormula>S29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="5">
-      <calculatedColumnFormula>S8/$Q$5</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="2">
+      <calculatedColumnFormula>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="7">
       <calculatedColumnFormula>U29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="3">
-      <calculatedColumnFormula>U8/$Q$5</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="6">
       <calculatedColumnFormula>W29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="1">
-      <calculatedColumnFormula>W8/$Q$5</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="4">
+      <calculatedColumnFormula>Y29</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2911,7 +2936,7 @@
   <dimension ref="B1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5709,7 +5734,7 @@
       </c>
       <c r="D5" s="14">
         <f>'Stats Global'!R10</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="24">
         <f>'Stats Global'!Q10</f>
@@ -5717,7 +5742,7 @@
       </c>
       <c r="F5" s="14">
         <f>'Stats Global'!T10</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="24">
         <f>'Stats Global'!S10</f>
@@ -5953,7 +5978,7 @@
       </c>
       <c r="D9" s="14">
         <f>'Stats Global'!R14</f>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="E9" s="24">
         <f>'Stats Global'!Q14</f>
@@ -5961,7 +5986,7 @@
       </c>
       <c r="F9" s="14">
         <f>'Stats Global'!T14</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="24">
         <f>'Stats Global'!S14</f>
@@ -5977,7 +6002,7 @@
       </c>
       <c r="J9" s="14">
         <f>'Stats Global'!X14</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="K9" s="24">
         <f>'Stats Global'!W14</f>
@@ -6197,7 +6222,7 @@
       </c>
       <c r="D13" s="14">
         <f>'Stats Global'!R18</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E13" s="24">
         <f>'Stats Global'!Q18</f>
@@ -6205,7 +6230,7 @@
       </c>
       <c r="F13" s="14">
         <f>'Stats Global'!T18</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="G13" s="24">
         <f>'Stats Global'!S18</f>
@@ -6640,7 +6665,7 @@
       </c>
       <c r="L22" s="41" t="str">
         <f>D21&amp;":["&amp;D22&amp;D23&amp;D24&amp;D25&amp;D26&amp;D27&amp;D28&amp;D29&amp;D30&amp;D31&amp;D32&amp;D33&amp;D34&amp;D35&amp;D36&amp;D37&amp;"],"</f>
-        <v>"PPG":["0.67","1","2","2","0.33","0.33","1.67","1.67","3","0.33","0.33","1","2","1","0","0",],</v>
+        <v>"PPG":["0.67","1","3","2","0.33","0.33","2.5","1.67","3","0.33","1","1","2","1","0","0",],</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>86</v>
@@ -6691,7 +6716,7 @@
     <row r="24" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D24" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"2",</v>
+        <v>"3",</v>
       </c>
       <c r="E24" s="41" t="str">
         <f t="shared" ref="E24:K24" si="8">CHAR(34)&amp;E5&amp;CHAR(34)&amp;","</f>
@@ -6699,7 +6724,7 @@
       </c>
       <c r="F24" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"2",</v>
+        <v>"3",</v>
       </c>
       <c r="G24" s="41" t="str">
         <f t="shared" si="8"/>
@@ -6723,7 +6748,7 @@
       </c>
       <c r="L24" t="str">
         <f>F21&amp;":["&amp;F22&amp;F23&amp;F24&amp;F25&amp;F26&amp;F27&amp;F28&amp;F29&amp;F30&amp;F31&amp;F32&amp;F33&amp;F34&amp;F35&amp;F36&amp;F37&amp;"],"</f>
-        <v>"FPG":["0.33","1","2","2","0.33","0","0.33","0.33","0.67","0","0.33","1","1.67","1","0","0",],</v>
+        <v>"FPG":["0.33","1","3","2","0.33","0","0.5","0.33","0.67","0","1","1","1.67","1","0","0",],</v>
       </c>
       <c r="X24" s="40" t="s">
         <v>107</v>
@@ -6846,7 +6871,7 @@
     <row r="28" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D28" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"1.67",</v>
+        <v>"2.5",</v>
       </c>
       <c r="E28" s="41" t="str">
         <f t="shared" ref="E28:K28" si="12">CHAR(34)&amp;E9&amp;CHAR(34)&amp;","</f>
@@ -6854,7 +6879,7 @@
       </c>
       <c r="F28" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"0.33",</v>
+        <v>"0.5",</v>
       </c>
       <c r="G28" s="41" t="str">
         <f t="shared" si="12"/>
@@ -6870,7 +6895,7 @@
       </c>
       <c r="J28" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>"0.67",</v>
+        <v>"1",</v>
       </c>
       <c r="K28" s="41" t="str">
         <f t="shared" si="12"/>
@@ -6878,7 +6903,7 @@
       </c>
       <c r="L28" t="str">
         <f>J21&amp;":["&amp;J22&amp;J23&amp;J24&amp;J25&amp;J26&amp;J27&amp;J28&amp;J29&amp;J30&amp;J31&amp;J32&amp;J33&amp;J34&amp;J35&amp;J36&amp;J37&amp;"],"</f>
-        <v>"TPG":["0","0","0","0","0","0","0.67","0","0","0","0","0","0","0","0","0",],</v>
+        <v>"TPG":["0","0","0","0","0","0","1","0","0","0","0","0","0","0","0","0",],</v>
       </c>
     </row>
     <row r="29" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -6993,7 +7018,7 @@
       <c r="C32" s="41"/>
       <c r="D32" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"0.33",</v>
+        <v>"1",</v>
       </c>
       <c r="E32" s="41" t="str">
         <f t="shared" ref="E32:K32" si="16">CHAR(34)&amp;E13&amp;CHAR(34)&amp;","</f>
@@ -7001,7 +7026,7 @@
       </c>
       <c r="F32" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"0.33",</v>
+        <v>"1",</v>
       </c>
       <c r="G32" s="41" t="str">
         <f t="shared" si="16"/>
@@ -8185,7 +8210,7 @@
   <dimension ref="B1:AL1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y44" sqref="Y44"/>
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8381,7 +8406,9 @@
       <c r="Y7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="5"/>
+      <c r="Z7" s="48" t="s">
+        <v>171</v>
+      </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
@@ -8402,37 +8429,40 @@
         <v>2</v>
       </c>
       <c r="R8" s="51">
-        <f t="shared" ref="R8:R23" si="3">Q8/$Q$5</f>
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="S8" s="60">
-        <f t="shared" ref="S8:S23" si="4">S29</f>
+        <f t="shared" ref="S8:S23" si="3">S29</f>
         <v>1</v>
       </c>
       <c r="T8" s="50">
-        <f t="shared" ref="T8:T23" si="5">S8/$Q$5</f>
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="U8" s="60">
-        <f t="shared" ref="U8:U23" si="6">U29</f>
+        <f t="shared" ref="U8:U23" si="4">U29</f>
         <v>1</v>
       </c>
       <c r="V8" s="50">
-        <f t="shared" ref="V8:V23" si="7">U8/$Q$5</f>
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="W8" s="60">
-        <f t="shared" ref="W8:W23" si="8">W29</f>
+        <f t="shared" ref="W8:W23" si="5">W29</f>
         <v>0</v>
       </c>
       <c r="X8" s="50">
-        <f t="shared" ref="X8:X23" si="9">W8/$Q$5</f>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y8" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="7"/>
+      <c r="Z8" s="20">
+        <f t="shared" ref="Z8:Z23" si="6">Y29</f>
+        <v>0</v>
+      </c>
       <c r="AD8" s="7"/>
       <c r="AH8" s="7"/>
       <c r="AJ8" s="6"/>
@@ -8449,37 +8479,40 @@
         <v>3</v>
       </c>
       <c r="R9" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="60">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S9" s="60">
+        <v>3</v>
+      </c>
+      <c r="T9" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="60">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="T9" s="50">
+        <v>0</v>
+      </c>
+      <c r="V9" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="60">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U9" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X9" s="50">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y9" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="Z9" s="7"/>
+      <c r="Z9" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AD9" s="7"/>
       <c r="AH9" s="7"/>
       <c r="AJ9" s="6"/>
@@ -8496,37 +8529,40 @@
         <v>6</v>
       </c>
       <c r="R10" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>3</v>
+      </c>
+      <c r="S10" s="60">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S10" s="60">
+        <v>6</v>
+      </c>
+      <c r="T10" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>3</v>
+      </c>
+      <c r="U10" s="60">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="T10" s="50">
+        <v>0</v>
+      </c>
+      <c r="V10" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="60">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="U10" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X10" s="50">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y10" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="Z10" s="7"/>
+      <c r="Z10" s="20">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="AD10" s="7"/>
       <c r="AH10" s="7"/>
       <c r="AJ10" s="6"/>
@@ -8543,37 +8579,40 @@
         <v>6</v>
       </c>
       <c r="R11" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>2</v>
+      </c>
+      <c r="S11" s="60">
         <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T11" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>2</v>
       </c>
-      <c r="S11" s="60">
+      <c r="U11" s="60">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="T11" s="50">
+        <v>0</v>
+      </c>
+      <c r="V11" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="60">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="U11" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X11" s="50">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y11" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="Z11" s="7"/>
+      <c r="Z11" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AD11" s="7"/>
       <c r="AH11" s="7"/>
       <c r="AJ11" s="6"/>
@@ -8590,37 +8629,40 @@
         <v>1</v>
       </c>
       <c r="R12" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S12" s="60">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T12" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S12" s="60">
+      <c r="U12" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T12" s="50">
+        <v>0</v>
+      </c>
+      <c r="V12" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="60">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U12" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X12" s="50">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y12" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="Z12" s="7"/>
+      <c r="Z12" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AD12" s="7"/>
       <c r="AH12" s="7"/>
       <c r="AJ12" s="6"/>
@@ -8637,37 +8679,40 @@
         <v>1</v>
       </c>
       <c r="R13" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S13" s="60">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S13" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="50">
+      <c r="W13" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U13" s="60">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="V13" s="50">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="W13" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="X13" s="50">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y13" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="Z13" s="7"/>
+      <c r="Z13" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AD13" s="7"/>
       <c r="AH13" s="7"/>
       <c r="AJ13" s="6"/>
@@ -8684,37 +8729,40 @@
         <v>5</v>
       </c>
       <c r="R14" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>2.5</v>
+      </c>
+      <c r="S14" s="60">
         <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="S14" s="60">
+        <v>1</v>
+      </c>
+      <c r="T14" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="U14" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T14" s="50">
+        <v>0</v>
+      </c>
+      <c r="V14" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="60">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U14" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="60">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="X14" s="50">
-        <f t="shared" si="9"/>
-        <v>0.66666666666666663</v>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>1</v>
       </c>
       <c r="Y14" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="Z14" s="7"/>
+      <c r="Z14" s="20">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="AD14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AJ14" s="6"/>
@@ -8731,37 +8779,40 @@
         <v>5</v>
       </c>
       <c r="R15" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S15" s="60">
         <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="S15" s="60">
+        <v>1</v>
+      </c>
+      <c r="T15" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U15" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="50">
+        <v>4</v>
+      </c>
+      <c r="V15" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="W15" s="60">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U15" s="60">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="V15" s="50">
-        <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="W15" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X15" s="50">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y15" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="Z15" s="7"/>
+      <c r="Z15" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AD15" s="7"/>
       <c r="AH15" s="7"/>
       <c r="AJ15" s="6"/>
@@ -8778,37 +8829,40 @@
         <v>9</v>
       </c>
       <c r="R16" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>3</v>
+      </c>
+      <c r="S16" s="60">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="S16" s="60">
+        <v>2</v>
+      </c>
+      <c r="T16" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U16" s="60">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="T16" s="50">
+        <v>7</v>
+      </c>
+      <c r="V16" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="W16" s="60">
         <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="U16" s="60">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="V16" s="50">
-        <f t="shared" si="7"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="W16" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X16" s="50">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y16" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="Z16" s="7"/>
+      <c r="Z16" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AD16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AJ16" s="6"/>
@@ -8825,37 +8879,40 @@
         <v>1</v>
       </c>
       <c r="R17" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S17" s="60">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S17" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="50">
+      <c r="W17" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U17" s="60">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="V17" s="50">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="W17" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="X17" s="50">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y17" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="Z17" s="7"/>
+      <c r="Z17" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AD17" s="7"/>
       <c r="AH17" s="7"/>
       <c r="AJ17" s="6"/>
@@ -8872,37 +8929,40 @@
         <v>1</v>
       </c>
       <c r="R18" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>1</v>
+      </c>
+      <c r="S18" s="60">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="S18" s="60">
+        <v>1</v>
+      </c>
+      <c r="T18" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>1</v>
+      </c>
+      <c r="U18" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T18" s="50">
+        <v>0</v>
+      </c>
+      <c r="V18" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="60">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U18" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X18" s="50">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y18" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="Z18" s="7"/>
+      <c r="Z18" s="20">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="AD18" s="7"/>
       <c r="AH18" s="7"/>
       <c r="AJ18" s="6"/>
@@ -8919,37 +8979,40 @@
         <v>3</v>
       </c>
       <c r="R19" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="60">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="60">
+        <v>3</v>
+      </c>
+      <c r="T19" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>1</v>
+      </c>
+      <c r="U19" s="60">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="T19" s="50">
+        <v>0</v>
+      </c>
+      <c r="V19" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="60">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U19" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X19" s="50">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y19" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="Z19" s="7"/>
+      <c r="Z19" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AD19" s="7"/>
       <c r="AH19" s="7"/>
       <c r="AJ19" s="6"/>
@@ -8966,37 +9029,40 @@
         <v>6</v>
       </c>
       <c r="R20" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>2</v>
+      </c>
+      <c r="S20" s="60">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S20" s="60">
+        <v>5</v>
+      </c>
+      <c r="T20" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="U20" s="60">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="T20" s="50">
+        <v>1</v>
+      </c>
+      <c r="V20" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W20" s="60">
         <f t="shared" si="5"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="U20" s="60">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="V20" s="50">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="W20" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X20" s="50">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y20" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="Z20" s="7"/>
+      <c r="Z20" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AD20" s="7"/>
       <c r="AH20" s="7"/>
       <c r="AJ20" s="6"/>
@@ -9013,37 +9079,40 @@
         <v>3</v>
       </c>
       <c r="R21" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>1</v>
+      </c>
+      <c r="S21" s="60">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="60">
+        <v>3</v>
+      </c>
+      <c r="T21" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="60">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="T21" s="50">
+        <v>0</v>
+      </c>
+      <c r="V21" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="60">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U21" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X21" s="50">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y21" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="Z21" s="7"/>
+      <c r="Z21" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AD21" s="7"/>
       <c r="AH21" s="7"/>
       <c r="AJ21" s="6"/>
@@ -9059,37 +9128,40 @@
         <v>0</v>
       </c>
       <c r="R22" s="51">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S22" s="60">
+      <c r="T22" s="50">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T22" s="50">
+      <c r="V22" s="50">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U22" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="X22" s="50">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y22" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="Z22" s="7"/>
+      <c r="Z22" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AD22" s="7"/>
       <c r="AH22" s="7"/>
       <c r="AJ22" s="6"/>
@@ -9105,37 +9177,40 @@
         <v>0</v>
       </c>
       <c r="R23" s="53">
+        <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S23" s="65">
+      <c r="T23" s="52">
+        <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T23" s="52">
+      <c r="V23" s="52">
+        <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U23" s="65">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="52">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="65">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="X23" s="52">
-        <f t="shared" si="9"/>
+        <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
       <c r="Y23" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="Z23" s="7"/>
+      <c r="Z23" s="20">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="AD23" s="7"/>
       <c r="AH23" s="7"/>
       <c r="AJ23" s="6"/>
@@ -9264,7 +9339,7 @@
         <v>3</v>
       </c>
       <c r="R30" s="29">
-        <f t="shared" ref="R30:R44" si="10">Q30/(Q$26-Y30)</f>
+        <f t="shared" ref="R30:R44" si="7">Q30/(Q$26-Y30)</f>
         <v>1</v>
       </c>
       <c r="S30" s="27">
@@ -9272,7 +9347,7 @@
         <v>3</v>
       </c>
       <c r="T30" s="28">
-        <f t="shared" ref="T30:T44" si="11">S30/($Q$26-Y30)</f>
+        <f t="shared" ref="T30:T44" si="8">S30/($Q$26-Y30)</f>
         <v>1</v>
       </c>
       <c r="U30" s="27">
@@ -9280,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="28">
-        <f t="shared" ref="V30:V44" si="12">U30/($Q$26-Y30)</f>
+        <f t="shared" ref="V30:V44" si="9">U30/($Q$26-Y30)</f>
         <v>0</v>
       </c>
       <c r="W30" s="27">
@@ -9288,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="28">
-        <f t="shared" ref="X30:X44" si="13">W30/($Q$26-Y30)</f>
+        <f t="shared" ref="X30:X44" si="10">W30/($Q$26-Y30)</f>
         <v>0</v>
       </c>
       <c r="Y30" s="40">
@@ -9308,7 +9383,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S31" s="27">
@@ -9316,7 +9391,7 @@
         <v>6</v>
       </c>
       <c r="T31" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="U31" s="27">
@@ -9324,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W31" s="27">
@@ -9332,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y31" s="40">
@@ -9352,7 +9427,7 @@
         <v>6</v>
       </c>
       <c r="R32" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="S32" s="27">
@@ -9360,7 +9435,7 @@
         <v>6</v>
       </c>
       <c r="T32" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="U32" s="27">
@@ -9368,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W32" s="27">
@@ -9376,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y32" s="40">
@@ -9395,7 +9470,7 @@
         <v>1</v>
       </c>
       <c r="R33" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="S33" s="27">
@@ -9403,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="T33" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U33" s="27">
@@ -9411,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W33" s="27">
@@ -9419,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y33" s="40">
@@ -9438,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="R34" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="S34" s="27">
@@ -9446,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U34" s="27">
@@ -9454,7 +9529,7 @@
         <v>1</v>
       </c>
       <c r="V34" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="W34" s="27">
@@ -9462,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y34" s="40">
@@ -9481,7 +9556,7 @@
         <v>5</v>
       </c>
       <c r="R35" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="S35" s="27">
@@ -9489,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="T35" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="U35" s="27">
@@ -9497,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W35" s="27">
@@ -9505,7 +9580,7 @@
         <v>2</v>
       </c>
       <c r="X35" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y35" s="40">
@@ -9524,7 +9599,7 @@
         <v>5</v>
       </c>
       <c r="R36" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="S36" s="27">
@@ -9532,7 +9607,7 @@
         <v>1</v>
       </c>
       <c r="T36" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U36" s="27">
@@ -9540,7 +9615,7 @@
         <v>4</v>
       </c>
       <c r="V36" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="W36" s="27">
@@ -9548,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y36" s="40">
@@ -9567,7 +9642,7 @@
         <v>9</v>
       </c>
       <c r="R37" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S37" s="27">
@@ -9575,7 +9650,7 @@
         <v>2</v>
       </c>
       <c r="T37" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U37" s="27">
@@ -9583,7 +9658,7 @@
         <v>7</v>
       </c>
       <c r="V37" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="W37" s="27">
@@ -9591,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y37" s="40">
@@ -9610,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="S38" s="27">
@@ -9618,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U38" s="27">
@@ -9626,7 +9701,7 @@
         <v>1</v>
       </c>
       <c r="V38" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="W38" s="27">
@@ -9634,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y38" s="40">
@@ -9650,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="R39" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S39" s="27">
@@ -9658,7 +9733,7 @@
         <v>1</v>
       </c>
       <c r="T39" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U39" s="27">
@@ -9666,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W39" s="27">
@@ -9674,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y39" s="40">
@@ -9695,7 +9770,7 @@
         <v>3</v>
       </c>
       <c r="R40" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S40" s="27">
@@ -9703,7 +9778,7 @@
         <v>3</v>
       </c>
       <c r="T40" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U40" s="27">
@@ -9711,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W40" s="27">
@@ -9719,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y40" s="40">
@@ -9742,7 +9817,7 @@
         <v>6</v>
       </c>
       <c r="R41" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="S41" s="27">
@@ -9750,7 +9825,7 @@
         <v>5</v>
       </c>
       <c r="T41" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="U41" s="27">
@@ -9758,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="V41" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="W41" s="27">
@@ -9766,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y41" s="40">
@@ -9789,7 +9864,7 @@
         <v>3</v>
       </c>
       <c r="R42" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S42" s="27">
@@ -9797,7 +9872,7 @@
         <v>3</v>
       </c>
       <c r="T42" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U42" s="27">
@@ -9805,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W42" s="27">
@@ -9813,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y42" s="40">
@@ -9836,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S43" s="27">
@@ -9844,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U43" s="27">
@@ -9852,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W43" s="27">
@@ -9860,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y43" s="40">
@@ -9876,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S44" s="27">
@@ -9884,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U44" s="27">
@@ -9892,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W44" s="27">
@@ -9900,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y44" s="40">
@@ -9923,6 +9998,10 @@
       <c r="K46">
         <f>J46/Q5</f>
         <v>11</v>
+      </c>
+      <c r="L46" s="70">
+        <f>J46/SUM($J$46:$J$48)</f>
+        <v>0.66</v>
       </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
@@ -9941,6 +10020,10 @@
         <f>Q5</f>
         <v>3</v>
       </c>
+      <c r="L47" s="70">
+        <f t="shared" ref="L47:L48" si="11">J47/SUM($J$46:$J$48)</f>
+        <v>0.3</v>
+      </c>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
@@ -9957,6 +10040,10 @@
       <c r="K48">
         <f>J48/Q5</f>
         <v>0.66666666666666663</v>
+      </c>
+      <c r="L48" s="70">
+        <f t="shared" si="11"/>
+        <v>0.04</v>
       </c>
       <c r="P48" s="13"/>
       <c r="Q48" s="15"/>
@@ -11013,7 +11100,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11141,12 +11228,12 @@
       <c r="N4" s="17"/>
       <c r="O4" s="55"/>
       <c r="Q4" s="17">
-        <f>COUNTIF('1804'!$W$4:$W$26,"LG/WW")</f>
-        <v>0</v>
+        <f>COUNTIF('1804'!$X$4:$X$26,"LG/WW")</f>
+        <v>1</v>
       </c>
       <c r="R4" s="17">
-        <f>COUNTIF('1804'!$X$4:$X$26,"WW/LG")</f>
-        <v>0</v>
+        <f>COUNTIF('1804'!$Y$4:$Y$26,"WW/LG")</f>
+        <v>2</v>
       </c>
       <c r="S4" s="17" t="s">
         <v>85</v>
@@ -11155,12 +11242,12 @@
         <v>161</v>
       </c>
       <c r="V4" s="17">
-        <f>COUNTIF('1804'!$W$4:$W$26,"LG/5M")</f>
-        <v>0</v>
+        <f>COUNTIF('1804'!$X$4:$X$26,"LG/5M")</f>
+        <v>1</v>
       </c>
       <c r="W4" s="17">
-        <f>COUNTIF('1804'!$Y$4:$Y$26,"5M/LG")</f>
-        <v>0</v>
+        <f>COUNTIF('1804'!$Z$4:$Z$26,"5M/LG")</f>
+        <v>3</v>
       </c>
       <c r="X4" s="17" t="s">
         <v>78</v>
@@ -11199,12 +11286,12 @@
       <c r="N5" s="17"/>
       <c r="O5" s="55"/>
       <c r="Q5" s="17">
-        <f>COUNTIF('1904'!$W$4:$W$26,"LG/WW")</f>
-        <v>0</v>
+        <f>COUNTIF('1904'!$X$4:$X$26,"LG/WW")</f>
+        <v>4</v>
       </c>
       <c r="R5" s="17">
-        <f>COUNTIF('1904'!$X$4:$X$26,"WW/LG")</f>
-        <v>0</v>
+        <f>COUNTIF('1904'!$Y$4:$Y$26,"WW/LG")</f>
+        <v>3</v>
       </c>
       <c r="S5" s="67" t="s">
         <v>78</v>
@@ -11213,12 +11300,12 @@
         <v>169</v>
       </c>
       <c r="V5" s="17">
-        <f>COUNTIF('1904'!$W$4:$W$26,"LG/5M")</f>
-        <v>0</v>
+        <f>COUNTIF('1904'!$X$4:$X$26,"LG/5M")</f>
+        <v>3</v>
       </c>
       <c r="W5" s="17">
-        <f>COUNTIF('1904'!$Y$4:$Y$26,"5M/LG")</f>
-        <v>0</v>
+        <f>COUNTIF('1904'!$Z$4:$Z$26,"5M/LG")</f>
+        <v>5</v>
       </c>
       <c r="X5" s="67" t="s">
         <v>78</v>
@@ -11775,21 +11862,21 @@
       </c>
       <c r="Q30" s="17">
         <f t="shared" ref="Q30:R30" si="1">SUM(Q4:Q29)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R30" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="V30" s="17">
         <f t="shared" ref="V30:W30" si="2">SUM(V4:V29)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W30" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
@@ -11798,11 +11885,11 @@
       <c r="I31" s="1"/>
       <c r="Q31" s="22">
         <f>Q30/(R30+Q30)</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="V31" s="22">
         <f>V30/(W30+V30)</f>
-        <v>0.66666666666666663</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -18687,8 +18774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E7D6EA-0942-4896-8FCD-5B2FCE43B119}">
   <dimension ref="B1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -21203,8 +21290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64907ADA-4AE3-448A-96DF-C6B453B6FF51}">
   <dimension ref="B1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:V18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD5ED62-A364-4D2B-A446-2F099A215B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E1040-4A14-4C9B-A256-D04518AEBB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="2175" windowWidth="16875" windowHeight="10522" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2512" yWindow="2512" windowWidth="16876" windowHeight="10523" firstSheet="3" activeTab="5" xr2:uid="{7886D0A9-E56D-4F3C-AC93-1698D45AF0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Statistics WW" sheetId="5" r:id="rId5"/>
     <sheet name="Statistics 5M" sheetId="6" r:id="rId6"/>
     <sheet name="Template" sheetId="7" r:id="rId7"/>
-    <sheet name="1804" sheetId="8" r:id="rId8"/>
+    <sheet name="2404" sheetId="8" r:id="rId8"/>
     <sheet name="1904" sheetId="9" r:id="rId9"/>
     <sheet name="2004" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="170">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -573,9 +574,6 @@
     <t>Finish</t>
   </si>
   <si>
-    <t>Willie/Michael</t>
-  </si>
-  <si>
     <t>Ladder Points:</t>
   </si>
   <si>
@@ -597,22 +595,10 @@
     <t>Scoring Averages</t>
   </si>
   <si>
-    <t>W/C/R</t>
-  </si>
-  <si>
-    <t>Three Pointer</t>
-  </si>
-  <si>
     <t>Missed Games</t>
   </si>
   <si>
     <t>Did not Play</t>
-  </si>
-  <si>
-    <t>Angus/Clarrie</t>
-  </si>
-  <si>
-    <t>S/J</t>
   </si>
 </sst>
 </file>
@@ -946,10 +932,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,166 +943,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1187,14 +1013,13 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1269,6 +1094,46 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -1277,6 +1142,127 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1551,13 +1537,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.47058823529411764</c:v>
+                  <c:v>0.53846153846153855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23529411764705882</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1655,29 +1641,29 @@
     <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="9">
       <calculatedColumnFormula>Q29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="7">
       <calculatedColumnFormula>S29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="5">
       <calculatedColumnFormula>U29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="3">
       <calculatedColumnFormula>W29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="0">
       <calculatedColumnFormula>Y29</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1887,6 +1873,7 @@
   <dimension ref="B1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2936,8 +2923,9 @@
   <dimension ref="B1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P60" sqref="P60"/>
+      <selection activeCell="B4" sqref="B4:I25"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2990,7 +2978,7 @@
         <v>125</v>
       </c>
       <c r="V2" s="40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3023,26 +3011,26 @@
       </c>
       <c r="L3" s="24">
         <f>COUNTIF(C3:C30, "Loose Gooses")</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M3" s="24">
         <f>COUNTIF(D3:D30, "Loose Gooses")</f>
-        <v>3</v>
-      </c>
-      <c r="N3" s="23">
+        <v>0</v>
+      </c>
+      <c r="N3" s="23" t="e">
         <f t="shared" ref="N3:N5" si="0">L3/(L3+M3)</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="O3" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="24" t="e">
         <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="19">
         <f t="shared" ref="R3:R18" si="1">COUNTIF($E$3:$E$27, Q3)+U3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="20">
         <f t="shared" ref="S3:S18" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
@@ -3050,7 +3038,7 @@
       </c>
       <c r="T3" s="20">
         <f t="shared" ref="T3:T18" si="3">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="20">
         <f t="shared" ref="U3:U18" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
@@ -3070,59 +3058,43 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="58">
-        <v>1</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="58">
-        <v>1</v>
-      </c>
-      <c r="H4" s="58">
-        <v>1</v>
-      </c>
-      <c r="I4" s="58">
-        <v>1</v>
-      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
       <c r="K4" s="24" t="s">
         <v>135</v>
       </c>
       <c r="L4" s="24">
         <f>COUNTIF(C3:C30, "5 Musketeers")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" s="24">
         <f>COUNTIF(D3:D30, "5 Musketeers")</f>
-        <v>6</v>
-      </c>
-      <c r="N4" s="23">
+        <v>0</v>
+      </c>
+      <c r="N4" s="23" t="e">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O4" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="24" t="e">
         <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="20">
         <f t="shared" si="3"/>
@@ -3137,7 +3109,7 @@
       </c>
       <c r="X4" s="24" t="str">
         <f t="shared" ref="X4:X28" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="Y4" s="24" t="str">
         <f t="shared" ref="Y4:Y28" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
@@ -3149,48 +3121,32 @@
       </c>
     </row>
     <row r="5" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="58">
-        <v>2</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="58">
-        <v>1</v>
-      </c>
-      <c r="H5" s="58">
-        <v>1</v>
-      </c>
-      <c r="I5" s="58">
-        <v>1</v>
-      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
       <c r="K5" s="24" t="s">
         <v>134</v>
       </c>
       <c r="L5" s="24">
         <f>COUNTIF(C3:C30, "Wet Willies")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="24">
         <f>COUNTIF(D3:D30, "Wet Willies")</f>
-        <v>5</v>
-      </c>
-      <c r="N5" s="23">
+        <v>0</v>
+      </c>
+      <c r="N5" s="23" t="e">
         <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="O5" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="24" t="e">
         <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>38</v>
@@ -3220,7 +3176,7 @@
       </c>
       <c r="Y5" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/LG</v>
+        <v/>
       </c>
       <c r="Z5" s="24" t="str">
         <f t="shared" si="7"/>
@@ -3228,40 +3184,24 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="58">
-        <v>3</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="58">
-        <v>1</v>
-      </c>
-      <c r="H6" s="58">
-        <v>1</v>
-      </c>
-      <c r="I6" s="58">
-        <v>1</v>
-      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
       <c r="Q6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="R6" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="20">
         <f t="shared" si="3"/>
@@ -3284,34 +3224,18 @@
       </c>
       <c r="Z6" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="58">
-        <v>4</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="58">
-        <v>1</v>
-      </c>
-      <c r="H7" s="58">
-        <v>1</v>
-      </c>
-      <c r="I7" s="58">
-        <v>1</v>
-      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
       <c r="Q7" s="3" t="s">
         <v>46</v>
       </c>
@@ -3336,7 +3260,7 @@
       </c>
       <c r="X7" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="Y7" s="24" t="str">
         <f t="shared" si="6"/>
@@ -3348,30 +3272,14 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="58">
-        <v>5</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="58">
-        <v>2</v>
-      </c>
-      <c r="H8" s="58">
-        <v>2</v>
-      </c>
-      <c r="I8" s="58">
-        <v>1</v>
-      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
       <c r="Q8" s="3" t="s">
         <v>51</v>
       </c>
@@ -3396,7 +3304,7 @@
       </c>
       <c r="X8" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="Y8" s="24" t="str">
         <f t="shared" si="6"/>
@@ -3408,40 +3316,24 @@
       </c>
     </row>
     <row r="9" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="58">
-        <v>6</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="58">
-        <v>3</v>
-      </c>
-      <c r="H9" s="58">
-        <v>2</v>
-      </c>
-      <c r="I9" s="58">
-        <v>2</v>
-      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
       <c r="Q9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S9" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="20">
         <f t="shared" si="3"/>
@@ -3449,14 +3341,14 @@
       </c>
       <c r="U9" s="20">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9" s="40" t="b">
         <v>0</v>
       </c>
       <c r="X9" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="Y9" s="24" t="str">
         <f t="shared" si="6"/>
@@ -3468,30 +3360,14 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="58">
-        <v>7</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="58">
-        <v>4</v>
-      </c>
-      <c r="H10" s="58">
-        <v>3</v>
-      </c>
-      <c r="I10" s="58">
-        <v>3</v>
-      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
       <c r="Q10" s="3" t="s">
         <v>56</v>
       </c>
@@ -3516,7 +3392,7 @@
       </c>
       <c r="X10" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="Y10" s="24" t="str">
         <f t="shared" si="6"/>
@@ -3528,44 +3404,28 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="58">
-        <v>8</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="58">
-        <v>1</v>
-      </c>
-      <c r="H11" s="58">
-        <v>1</v>
-      </c>
-      <c r="I11" s="58">
-        <v>1</v>
-      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
       <c r="Q11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="R11" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="20">
         <f t="shared" si="4"/>
@@ -3584,34 +3444,18 @@
       </c>
       <c r="Z11" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="58">
-        <v>9</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="58">
-        <v>1</v>
-      </c>
-      <c r="H12" s="58">
-        <v>1</v>
-      </c>
-      <c r="I12" s="58">
-        <v>1</v>
-      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
       <c r="Q12" s="3" t="s">
         <v>63</v>
       </c>
@@ -3640,7 +3484,7 @@
       </c>
       <c r="Y12" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Z12" s="24" t="str">
         <f t="shared" si="7"/>
@@ -3648,30 +3492,14 @@
       </c>
     </row>
     <row r="13" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="58">
-        <v>10</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="58">
-        <v>1</v>
-      </c>
-      <c r="H13" s="58">
-        <v>1</v>
-      </c>
-      <c r="I13" s="58">
-        <v>1</v>
-      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
       <c r="Q13" s="3" t="s">
         <v>136</v>
       </c>
@@ -3696,7 +3524,7 @@
       </c>
       <c r="X13" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="Y13" s="24" t="str">
         <f t="shared" si="6"/>
@@ -3708,40 +3536,24 @@
       </c>
     </row>
     <row r="14" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="58">
-        <v>11</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="58">
-        <v>2</v>
-      </c>
-      <c r="H14" s="58">
-        <v>2</v>
-      </c>
-      <c r="I14" s="58">
-        <v>2</v>
-      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
       <c r="Q14" s="3" t="s">
         <v>137</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T14" s="20">
         <f t="shared" si="3"/>
@@ -3756,7 +3568,7 @@
       </c>
       <c r="X14" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="Y14" s="24" t="str">
         <f t="shared" si="6"/>
@@ -3768,44 +3580,28 @@
       </c>
     </row>
     <row r="15" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="58">
-        <v>12</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" s="58">
-        <v>3</v>
-      </c>
-      <c r="H15" s="58">
-        <v>2</v>
-      </c>
-      <c r="I15" s="58">
-        <v>3</v>
-      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
       <c r="Q15" s="3" t="s">
         <v>72</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="20">
         <f t="shared" si="4"/>
@@ -3816,7 +3612,7 @@
       </c>
       <c r="X15" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="Y15" s="24" t="str">
         <f t="shared" si="6"/>
@@ -3828,40 +3624,24 @@
       </c>
     </row>
     <row r="16" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="58">
-        <v>13</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="58">
-        <v>1</v>
-      </c>
-      <c r="H16" s="58">
-        <v>1</v>
-      </c>
-      <c r="I16" s="58">
-        <v>1</v>
-      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
       <c r="Q16" s="3" t="s">
         <v>76</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="20">
         <f t="shared" si="3"/>
@@ -3884,34 +3664,18 @@
       </c>
       <c r="Z16" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="58">
-        <v>14</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="58">
-        <v>1</v>
-      </c>
-      <c r="H17" s="58">
-        <v>1</v>
-      </c>
-      <c r="I17" s="58">
-        <v>1</v>
-      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
       <c r="Q17" s="3" t="s">
         <v>79</v>
       </c>
@@ -3940,7 +3704,7 @@
       </c>
       <c r="Y17" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Z17" s="24" t="str">
         <f t="shared" si="7"/>
@@ -4094,7 +3858,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="40" t="str">
         <f>IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R3)&amp;","</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S23" s="40" t="str">
         <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
@@ -4102,7 +3866,7 @@
       </c>
       <c r="T23" s="40" t="str">
         <f t="shared" si="8"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="U23" s="40" t="str">
         <f t="shared" si="8"/>
@@ -4132,11 +3896,11 @@
       <c r="I24" s="58"/>
       <c r="R24" s="40" t="str">
         <f t="shared" ref="R24:U37" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S24" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T24" s="40" t="str">
         <f t="shared" si="9"/>
@@ -4210,11 +3974,11 @@
       <c r="Q26" s="26"/>
       <c r="R26" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S26" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T26" s="40" t="str">
         <f t="shared" si="9"/>
@@ -4321,11 +4085,11 @@
       <c r="I29" s="24"/>
       <c r="R29" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>5,</v>
+        <v>0,</v>
       </c>
       <c r="S29" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T29" s="40" t="str">
         <f t="shared" si="9"/>
@@ -4333,7 +4097,7 @@
       </c>
       <c r="U29" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
+        <v>0,</v>
       </c>
     </row>
     <row r="30" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -4362,15 +4126,15 @@
     <row r="31" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R31" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
+        <v>0,</v>
       </c>
       <c r="S31" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T31" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="U31" s="40" t="str">
         <f t="shared" si="9"/>
@@ -4416,11 +4180,11 @@
     <row r="34" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R34" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
+        <v>0,</v>
       </c>
       <c r="S34" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
+        <v>0,</v>
       </c>
       <c r="T34" s="40" t="str">
         <f t="shared" si="9"/>
@@ -4434,15 +4198,15 @@
     <row r="35" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>3,</v>
+        <v>0,</v>
       </c>
       <c r="S35" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
+        <v>0,</v>
       </c>
       <c r="T35" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="U35" s="40" t="str">
         <f t="shared" si="9"/>
@@ -4452,11 +4216,11 @@
     <row r="36" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S36" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T36" s="40" t="str">
         <f t="shared" si="9"/>
@@ -4514,18 +4278,18 @@
       <c r="U40" s="19"/>
     </row>
     <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q41" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
+      <c r="Q41" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
     </row>
     <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
     </row>
     <row r="43" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q43" s="40" t="str">
@@ -4536,25 +4300,25 @@
     <row r="44" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q44" s="40" t="str">
         <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;"],"</f>
-        <v>"Points":[1,1,"Did not Play",1,0,"Did not Play",5,0,2,0,"Did not Play",2,3,1,0,0],</v>
+        <v>"Points":[0,0,"Did not Play",0,0,"Did not Play",0,0,0,0,"Did not Play",0,0,0,0,0],</v>
       </c>
     </row>
     <row r="45" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q45" s="40" t="str">
         <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;"],"</f>
-        <v>"Finishes":[0,1,"Did not Play",1,0,"Did not Play",1,0,1,0,"Did not Play",2,2,1,0,0],</v>
+        <v>"Finishes":[0,0,"Did not Play",0,0,"Did not Play",0,0,0,0,"Did not Play",0,0,0,0,0],</v>
       </c>
     </row>
     <row r="46" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q46" s="40" t="str">
         <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;"],"</f>
-        <v>"Midrange":[1,0,"Did not Play",0,0,"Did not Play",0,0,1,0,"Did not Play",0,1,0,0,0],</v>
+        <v>"Midrange":[0,0,"Did not Play",0,0,"Did not Play",0,0,0,0,"Did not Play",0,0,0,0,0],</v>
       </c>
     </row>
     <row r="47" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q47" s="40" t="str">
         <f>CHAR(34)&amp;"ThreePointers"&amp;CHAR(34)&amp;":["&amp;U23&amp;U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30&amp;U31&amp;U32&amp;U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;"]"</f>
-        <v>"ThreePointers":[0,0,"Did not Play",0,0,"Did not Play",2,0,0,0,"Did not Play",0,0,0,0,0]</v>
+        <v>"ThreePointers":[0,0,"Did not Play",0,0,"Did not Play",0,0,0,0,"Did not Play",0,0,0,0,0]</v>
       </c>
     </row>
     <row r="48" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5525,8 +5289,9 @@
   <dimension ref="B1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5626,27 +5391,27 @@
       </c>
       <c r="D3" s="14">
         <f>'Stats Global'!R8</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <f>'Stats Global'!Q8</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="14">
         <f>'Stats Global'!T8</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="G3" s="24">
         <f>'Stats Global'!S8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="14">
         <f>'Stats Global'!V8</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="I3" s="24">
         <f>'Stats Global'!U8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="14">
         <f>'Stats Global'!X8</f>
@@ -5680,19 +5445,19 @@
       </c>
       <c r="D4" s="14">
         <f>'Stats Global'!R9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="24">
         <f>'Stats Global'!Q9</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="14">
         <f>'Stats Global'!T9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="24">
         <f>'Stats Global'!S9</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="14">
         <f>'Stats Global'!V9</f>
@@ -5738,7 +5503,7 @@
       </c>
       <c r="E5" s="24">
         <f>'Stats Global'!Q10</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="14">
         <f>'Stats Global'!T10</f>
@@ -5746,7 +5511,7 @@
       </c>
       <c r="G5" s="24">
         <f>'Stats Global'!S10</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" s="14">
         <f>'Stats Global'!V10</f>
@@ -5797,19 +5562,19 @@
       </c>
       <c r="D6" s="14">
         <f>'Stats Global'!R11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="24">
         <f>'Stats Global'!Q11</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="14">
         <f>'Stats Global'!T11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="24">
         <f>'Stats Global'!S11</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H6" s="14">
         <f>'Stats Global'!V11</f>
@@ -5860,19 +5625,19 @@
       </c>
       <c r="D7" s="14">
         <f>'Stats Global'!R12</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E7" s="24">
         <f>'Stats Global'!Q12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="14">
         <f>'Stats Global'!T12</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="G7" s="24">
         <f>'Stats Global'!S12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="14">
         <f>'Stats Global'!V12</f>
@@ -5921,27 +5686,27 @@
       </c>
       <c r="D8" s="14">
         <f>'Stats Global'!R13</f>
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="E8" s="24">
         <f>'Stats Global'!Q13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="14">
         <f>'Stats Global'!T13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="24">
         <f>'Stats Global'!S13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="14">
         <f>'Stats Global'!V13</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="I8" s="24">
         <f>'Stats Global'!U13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="14">
         <f>'Stats Global'!X13</f>
@@ -5978,19 +5743,19 @@
       </c>
       <c r="D9" s="14">
         <f>'Stats Global'!R14</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="24">
         <f>'Stats Global'!Q14</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9" s="14">
         <f>'Stats Global'!T14</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="24">
         <f>'Stats Global'!S14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="14">
         <f>'Stats Global'!V14</f>
@@ -6002,11 +5767,11 @@
       </c>
       <c r="J9" s="14">
         <f>'Stats Global'!X14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="24">
         <f>'Stats Global'!W14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>42</v>
@@ -6038,27 +5803,27 @@
       </c>
       <c r="D10" s="14">
         <f>'Stats Global'!R15</f>
-        <v>1.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E10" s="24">
         <f>'Stats Global'!Q15</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10" s="14">
         <f>'Stats Global'!T15</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="G10" s="24">
         <f>'Stats Global'!S15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="14">
         <f>'Stats Global'!V15</f>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" s="24">
         <f>'Stats Global'!U15</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" s="14">
         <f>'Stats Global'!X15</f>
@@ -6101,27 +5866,27 @@
       </c>
       <c r="D11" s="14">
         <f>'Stats Global'!R16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="24">
         <f>'Stats Global'!Q16</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F11" s="14">
         <f>'Stats Global'!T16</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="G11" s="24">
         <f>'Stats Global'!S16</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="14">
         <f>'Stats Global'!V16</f>
-        <v>2.3333333333333335</v>
+        <v>1</v>
       </c>
       <c r="I11" s="24">
         <f>'Stats Global'!U16</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J11" s="14">
         <f>'Stats Global'!X16</f>
@@ -6162,11 +5927,11 @@
       </c>
       <c r="D12" s="14">
         <f>'Stats Global'!R17</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E12" s="24">
         <f>'Stats Global'!Q17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="14">
         <f>'Stats Global'!T17</f>
@@ -6178,11 +5943,11 @@
       </c>
       <c r="H12" s="14">
         <f>'Stats Global'!V17</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="I12" s="24">
         <f>'Stats Global'!U17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="14">
         <f>'Stats Global'!X17</f>
@@ -6222,19 +5987,19 @@
       </c>
       <c r="D13" s="14">
         <f>'Stats Global'!R18</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E13" s="24">
         <f>'Stats Global'!Q18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="14">
         <f>'Stats Global'!T18</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G13" s="24">
         <f>'Stats Global'!S18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="14">
         <f>'Stats Global'!V18</f>
@@ -6282,19 +6047,19 @@
       </c>
       <c r="D14" s="14">
         <f>'Stats Global'!R19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="24">
         <f>'Stats Global'!Q19</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="14">
         <f>'Stats Global'!T19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="24">
         <f>'Stats Global'!S19</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="14">
         <f>'Stats Global'!V19</f>
@@ -6339,27 +6104,27 @@
       </c>
       <c r="D15" s="14">
         <f>'Stats Global'!R20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="24">
         <f>'Stats Global'!Q20</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15" s="14">
         <f>'Stats Global'!T20</f>
-        <v>1.6666666666666667</v>
+        <v>3</v>
       </c>
       <c r="G15" s="24">
         <f>'Stats Global'!S20</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="14">
         <f>'Stats Global'!V20</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="I15" s="24">
         <f>'Stats Global'!U20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="14">
         <f>'Stats Global'!X20</f>
@@ -6406,19 +6171,19 @@
       </c>
       <c r="D16" s="14">
         <f>'Stats Global'!R21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="24">
         <f>'Stats Global'!Q21</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="14">
         <f>'Stats Global'!T21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="24">
         <f>'Stats Global'!S21</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" s="14">
         <f>'Stats Global'!V21</f>
@@ -6578,11 +6343,11 @@
       <c r="I20" s="38"/>
       <c r="J20" s="41"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
+      <c r="L20" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
       <c r="X20" s="3" t="s">
         <v>83</v>
       </c>
@@ -6622,9 +6387,9 @@
         <f>CHAR(34)&amp;"TT"&amp;CHAR(34)</f>
         <v>"TT"</v>
       </c>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
       <c r="X21" s="3" t="s">
         <v>85</v>
       </c>
@@ -6633,27 +6398,27 @@
       <c r="B22" s="4"/>
       <c r="D22" s="41" t="str">
         <f>CHAR(34)&amp;ROUND(D3,2)&amp;CHAR(34)&amp;","</f>
-        <v>"0.67",</v>
+        <v>"0",</v>
       </c>
       <c r="E22" s="41" t="str">
         <f t="shared" ref="E22:K22" si="2">CHAR(34)&amp;E3&amp;CHAR(34)&amp;","</f>
-        <v>"2",</v>
+        <v>"0",</v>
       </c>
       <c r="F22" s="41" t="str">
         <f>CHAR(34)&amp;ROUND(F3,2)&amp;CHAR(34)&amp;","</f>
-        <v>"0.33",</v>
+        <v>"0",</v>
       </c>
       <c r="G22" s="41" t="str">
         <f t="shared" si="2"/>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="H22" s="41" t="str">
         <f>CHAR(34)&amp;ROUND(H3,2)&amp;CHAR(34)&amp;","</f>
-        <v>"0.33",</v>
+        <v>"0",</v>
       </c>
       <c r="I22" s="41" t="str">
         <f t="shared" si="2"/>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="J22" s="41" t="str">
         <f>CHAR(34)&amp;ROUND(J3,2)&amp;CHAR(34)&amp;","</f>
@@ -6665,7 +6430,7 @@
       </c>
       <c r="L22" s="41" t="str">
         <f>D21&amp;":["&amp;D22&amp;D23&amp;D24&amp;D25&amp;D26&amp;D27&amp;D28&amp;D29&amp;D30&amp;D31&amp;D32&amp;D33&amp;D34&amp;D35&amp;D36&amp;D37&amp;"],"</f>
-        <v>"PPG":["0.67","1","3","2","0.33","0.33","2.5","1.67","3","0.33","1","1","2","1","0","0",],</v>
+        <v>"PPG":["0","0","3","1","0","2","0","0","2","0","-2","0","3","0","0","0",],</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>86</v>
@@ -6675,19 +6440,19 @@
       <c r="B23" s="4"/>
       <c r="D23" s="41" t="str">
         <f t="shared" ref="D23:D37" si="3">CHAR(34)&amp;ROUND(D4,2)&amp;CHAR(34)&amp;","</f>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="E23" s="41" t="str">
         <f t="shared" ref="E23:K23" si="4">CHAR(34)&amp;E4&amp;CHAR(34)&amp;","</f>
-        <v>"3",</v>
+        <v>"0",</v>
       </c>
       <c r="F23" s="41" t="str">
         <f t="shared" ref="F23:F37" si="5">CHAR(34)&amp;ROUND(F4,2)&amp;CHAR(34)&amp;","</f>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="G23" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>"3",</v>
+        <v>"0",</v>
       </c>
       <c r="H23" s="41" t="str">
         <f t="shared" ref="H23:H37" si="6">CHAR(34)&amp;ROUND(H4,2)&amp;CHAR(34)&amp;","</f>
@@ -6707,7 +6472,7 @@
       </c>
       <c r="L23" t="str">
         <f>E21&amp;":["&amp;E22&amp;E23&amp;E24&amp;E25&amp;E26&amp;E27&amp;E28&amp;E29&amp;E30&amp;E31&amp;E32&amp;E33&amp;E34&amp;E35&amp;E36&amp;E37&amp;"],"</f>
-        <v>"TP":["2","3","6","6","1","1","5","5","9","1","1","3","6","3","0","0"],</v>
+        <v>"TP":["0","0","3","1","0","2","0","0","2","0","2","0","3","0","0","0"],</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>87</v>
@@ -6720,7 +6485,7 @@
       </c>
       <c r="E24" s="41" t="str">
         <f t="shared" ref="E24:K24" si="8">CHAR(34)&amp;E5&amp;CHAR(34)&amp;","</f>
-        <v>"6",</v>
+        <v>"3",</v>
       </c>
       <c r="F24" s="41" t="str">
         <f t="shared" si="5"/>
@@ -6728,7 +6493,7 @@
       </c>
       <c r="G24" s="41" t="str">
         <f t="shared" si="8"/>
-        <v>"6",</v>
+        <v>"3",</v>
       </c>
       <c r="H24" s="41" t="str">
         <f t="shared" si="6"/>
@@ -6748,7 +6513,7 @@
       </c>
       <c r="L24" t="str">
         <f>F21&amp;":["&amp;F22&amp;F23&amp;F24&amp;F25&amp;F26&amp;F27&amp;F28&amp;F29&amp;F30&amp;F31&amp;F32&amp;F33&amp;F34&amp;F35&amp;F36&amp;F37&amp;"],"</f>
-        <v>"FPG":["0.33","1","3","2","0.33","0","0.5","0.33","0.67","0","1","1","1.67","1","0","0",],</v>
+        <v>"FPG":["0","0","3","1","0","2","0","0","1","0","-2","0","3","0","0","0",],</v>
       </c>
       <c r="X24" s="40" t="s">
         <v>107</v>
@@ -6757,19 +6522,19 @@
     <row r="25" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D25" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"2",</v>
+        <v>"1",</v>
       </c>
       <c r="E25" s="41" t="str">
         <f t="shared" ref="E25:K25" si="9">CHAR(34)&amp;E6&amp;CHAR(34)&amp;","</f>
-        <v>"6",</v>
+        <v>"1",</v>
       </c>
       <c r="F25" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"2",</v>
+        <v>"1",</v>
       </c>
       <c r="G25" s="41" t="str">
         <f t="shared" si="9"/>
-        <v>"6",</v>
+        <v>"1",</v>
       </c>
       <c r="H25" s="41" t="str">
         <f t="shared" si="6"/>
@@ -6789,25 +6554,25 @@
       </c>
       <c r="L25" t="str">
         <f>G21&amp;":["&amp;G22&amp;G23&amp;G24&amp;G25&amp;G26&amp;G27&amp;G28&amp;G29&amp;G30&amp;G31&amp;G32&amp;G33&amp;G34&amp;G35&amp;G36&amp;G37&amp;"],"</f>
-        <v>"TF":["1","3","6","6","1","0","1","1","2","0","1","3","5","3","0","0"],</v>
+        <v>"TF":["0","0","3","1","0","2","0","0","1","0","2","0","3","0","0","0"],</v>
       </c>
     </row>
     <row r="26" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D26" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"0.33",</v>
+        <v>"0",</v>
       </c>
       <c r="E26" s="41" t="str">
         <f t="shared" ref="E26:K26" si="10">CHAR(34)&amp;E7&amp;CHAR(34)&amp;","</f>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="F26" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"0.33",</v>
+        <v>"0",</v>
       </c>
       <c r="G26" s="41" t="str">
         <f t="shared" si="10"/>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="H26" s="41" t="str">
         <f t="shared" si="6"/>
@@ -6827,33 +6592,33 @@
       </c>
       <c r="L26" t="str">
         <f>H21&amp;":["&amp;H22&amp;H23&amp;H24&amp;H25&amp;H26&amp;H27&amp;H28&amp;H29&amp;H30&amp;H31&amp;H32&amp;H33&amp;H34&amp;H35&amp;H36&amp;H37&amp;"],"</f>
-        <v>"MPG":["0.33","0","0","0","0","0.33","0","1.33","2.33","0.33","0","0","0.33","0","0","0",],</v>
+        <v>"MPG":["0","0","0","0","0","0","0","0","1","0","0","0","0","0","0","0",],</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D27" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"0.33",</v>
+        <v>"2",</v>
       </c>
       <c r="E27" s="41" t="str">
         <f t="shared" ref="E27:K27" si="11">CHAR(34)&amp;E8&amp;CHAR(34)&amp;","</f>
-        <v>"1",</v>
+        <v>"2",</v>
       </c>
       <c r="F27" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"0",</v>
+        <v>"2",</v>
       </c>
       <c r="G27" s="41" t="str">
         <f t="shared" si="11"/>
-        <v>"0",</v>
+        <v>"2",</v>
       </c>
       <c r="H27" s="41" t="str">
         <f t="shared" si="6"/>
-        <v>"0.33",</v>
+        <v>"0",</v>
       </c>
       <c r="I27" s="41" t="str">
         <f t="shared" si="11"/>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="J27" s="41" t="str">
         <f t="shared" si="7"/>
@@ -6865,25 +6630,25 @@
       </c>
       <c r="L27" t="str">
         <f>I21&amp;":["&amp;I22&amp;I23&amp;I24&amp;I25&amp;I26&amp;I27&amp;I28&amp;I29&amp;I30&amp;I31&amp;I32&amp;I33&amp;I34&amp;I35&amp;I36&amp;I37&amp;"],"</f>
-        <v>"TM":["1","0","0","0","0","1","0","4","7","1","0","0","1","0","0","0"],</v>
+        <v>"TM":["0","0","0","0","0","0","0","0","1","0","0","0","0","0","0","0"],</v>
       </c>
     </row>
     <row r="28" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D28" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"2.5",</v>
+        <v>"0",</v>
       </c>
       <c r="E28" s="41" t="str">
         <f t="shared" ref="E28:K28" si="12">CHAR(34)&amp;E9&amp;CHAR(34)&amp;","</f>
-        <v>"5",</v>
+        <v>"0",</v>
       </c>
       <c r="F28" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"0.5",</v>
+        <v>"0",</v>
       </c>
       <c r="G28" s="41" t="str">
         <f t="shared" si="12"/>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="H28" s="41" t="str">
         <f t="shared" si="6"/>
@@ -6895,41 +6660,41 @@
       </c>
       <c r="J28" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="K28" s="41" t="str">
         <f t="shared" si="12"/>
-        <v>"2",</v>
+        <v>"0",</v>
       </c>
       <c r="L28" t="str">
         <f>J21&amp;":["&amp;J22&amp;J23&amp;J24&amp;J25&amp;J26&amp;J27&amp;J28&amp;J29&amp;J30&amp;J31&amp;J32&amp;J33&amp;J34&amp;J35&amp;J36&amp;J37&amp;"],"</f>
-        <v>"TPG":["0","0","0","0","0","0","1","0","0","0","0","0","0","0","0","0",],</v>
+        <v>"TPG":["0","0","0","0","0","0","0","0","0","0","0","0","0","0","0","0",],</v>
       </c>
     </row>
     <row r="29" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D29" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"1.67",</v>
+        <v>"0",</v>
       </c>
       <c r="E29" s="41" t="str">
         <f t="shared" ref="E29:K29" si="13">CHAR(34)&amp;E10&amp;CHAR(34)&amp;","</f>
-        <v>"5",</v>
+        <v>"0",</v>
       </c>
       <c r="F29" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"0.33",</v>
+        <v>"0",</v>
       </c>
       <c r="G29" s="41" t="str">
         <f t="shared" si="13"/>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="H29" s="41" t="str">
         <f t="shared" si="6"/>
-        <v>"1.33",</v>
+        <v>"0",</v>
       </c>
       <c r="I29" s="41" t="str">
         <f t="shared" si="13"/>
-        <v>"4",</v>
+        <v>"0",</v>
       </c>
       <c r="J29" s="41" t="str">
         <f t="shared" si="7"/>
@@ -6941,34 +6706,34 @@
       </c>
       <c r="L29" t="str">
         <f>K21&amp;":["&amp;K22&amp;K23&amp;K24&amp;K25&amp;K26&amp;K27&amp;K28&amp;K29&amp;K30&amp;K31&amp;K32&amp;K33&amp;K34&amp;K35&amp;K36&amp;K37&amp;"],"</f>
-        <v>"TT":["0","0","0","0","0","0","2","0","0","0","0","0","0","0","0","0"],</v>
+        <v>"TT":["0","0","0","0","0","0","0","0","0","0","0","0","0","0","0","0"],</v>
       </c>
     </row>
     <row r="30" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="41"/>
       <c r="D30" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"3",</v>
+        <v>"2",</v>
       </c>
       <c r="E30" s="41" t="str">
         <f t="shared" ref="E30:K30" si="14">CHAR(34)&amp;E11&amp;CHAR(34)&amp;","</f>
-        <v>"9",</v>
+        <v>"2",</v>
       </c>
       <c r="F30" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"0.67",</v>
+        <v>"1",</v>
       </c>
       <c r="G30" s="41" t="str">
         <f t="shared" si="14"/>
-        <v>"2",</v>
+        <v>"1",</v>
       </c>
       <c r="H30" s="41" t="str">
         <f t="shared" si="6"/>
-        <v>"2.33",</v>
+        <v>"1",</v>
       </c>
       <c r="I30" s="41" t="str">
         <f t="shared" si="14"/>
-        <v>"7",</v>
+        <v>"1",</v>
       </c>
       <c r="J30" s="41" t="str">
         <f t="shared" si="7"/>
@@ -6983,11 +6748,11 @@
       <c r="C31" s="41"/>
       <c r="D31" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"0.33",</v>
+        <v>"0",</v>
       </c>
       <c r="E31" s="41" t="str">
         <f t="shared" ref="E31:K31" si="15">CHAR(34)&amp;E12&amp;CHAR(34)&amp;","</f>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="F31" s="41" t="str">
         <f t="shared" si="5"/>
@@ -6999,11 +6764,11 @@
       </c>
       <c r="H31" s="41" t="str">
         <f t="shared" si="6"/>
-        <v>"0.33",</v>
+        <v>"0",</v>
       </c>
       <c r="I31" s="41" t="str">
         <f t="shared" si="15"/>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="J31" s="41" t="str">
         <f t="shared" si="7"/>
@@ -7018,19 +6783,19 @@
       <c r="C32" s="41"/>
       <c r="D32" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"1",</v>
+        <v>"-2",</v>
       </c>
       <c r="E32" s="41" t="str">
         <f t="shared" ref="E32:K32" si="16">CHAR(34)&amp;E13&amp;CHAR(34)&amp;","</f>
-        <v>"1",</v>
+        <v>"2",</v>
       </c>
       <c r="F32" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"1",</v>
+        <v>"-2",</v>
       </c>
       <c r="G32" s="41" t="str">
         <f t="shared" si="16"/>
-        <v>"1",</v>
+        <v>"2",</v>
       </c>
       <c r="H32" s="41" t="str">
         <f t="shared" si="6"/>
@@ -7053,19 +6818,19 @@
       <c r="C33" s="41"/>
       <c r="D33" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="E33" s="41" t="str">
         <f t="shared" ref="E33:K33" si="17">CHAR(34)&amp;E14&amp;CHAR(34)&amp;","</f>
-        <v>"3",</v>
+        <v>"0",</v>
       </c>
       <c r="F33" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="G33" s="41" t="str">
         <f t="shared" si="17"/>
-        <v>"3",</v>
+        <v>"0",</v>
       </c>
       <c r="H33" s="41" t="str">
         <f t="shared" si="6"/>
@@ -7088,27 +6853,27 @@
       <c r="C34" s="41"/>
       <c r="D34" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"2",</v>
+        <v>"3",</v>
       </c>
       <c r="E34" s="41" t="str">
         <f t="shared" ref="E34:K34" si="18">CHAR(34)&amp;E15&amp;CHAR(34)&amp;","</f>
-        <v>"6",</v>
+        <v>"3",</v>
       </c>
       <c r="F34" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"1.67",</v>
+        <v>"3",</v>
       </c>
       <c r="G34" s="41" t="str">
         <f t="shared" si="18"/>
-        <v>"5",</v>
+        <v>"3",</v>
       </c>
       <c r="H34" s="41" t="str">
         <f t="shared" si="6"/>
-        <v>"0.33",</v>
+        <v>"0",</v>
       </c>
       <c r="I34" s="41" t="str">
         <f t="shared" si="18"/>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="J34" s="41" t="str">
         <f t="shared" si="7"/>
@@ -7123,19 +6888,19 @@
       <c r="C35" s="41"/>
       <c r="D35" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="E35" s="41" t="str">
         <f t="shared" ref="E35:K35" si="19">CHAR(34)&amp;E16&amp;CHAR(34)&amp;","</f>
-        <v>"3",</v>
+        <v>"0",</v>
       </c>
       <c r="F35" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"1",</v>
+        <v>"0",</v>
       </c>
       <c r="G35" s="41" t="str">
         <f t="shared" si="19"/>
-        <v>"3",</v>
+        <v>"0",</v>
       </c>
       <c r="H35" s="41" t="str">
         <f t="shared" si="6"/>
@@ -8210,8 +7975,9 @@
   <dimension ref="B1:AL1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8257,24 +8023,24 @@
     </row>
     <row r="5" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="36">
-        <f>'1804'!$C$2</f>
-        <v>45034</v>
+        <f>'2404'!$C$2</f>
+        <v>45040</v>
       </c>
       <c r="C5" s="3">
-        <f>COUNT('1804'!$B$3:$B$30)</f>
-        <v>12</v>
+        <f>COUNT('2404'!$B$3:$B$30)</f>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
-        <f>MAX('1804'!$L$3:$L$5)</f>
-        <v>6</v>
+        <f>MAX('2404'!$L$3:$L$5)</f>
+        <v>7</v>
       </c>
       <c r="E5" s="3">
         <f>C5-D5-F5</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
-        <f>MIN('1804'!$L$3:$L$5)</f>
-        <v>2</v>
+        <f>MIN('2404'!$L$3:$L$5)</f>
+        <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>94</v>
@@ -8293,7 +8059,7 @@
       </c>
       <c r="Q5" s="1">
         <f>Q26</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
@@ -8306,35 +8072,35 @@
       </c>
       <c r="C6" s="3">
         <f>COUNT('1904'!$B$3:$B$30)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
         <f>MAX('1904'!$L$3:$L$5)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
         <f>C6-D6-F6</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <f>MIN('1904'!$L$3:$L$5)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" ref="I6:L6" si="0">AVERAGE(C5:C30)</f>
-        <v>17</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
@@ -8347,34 +8113,34 @@
       </c>
       <c r="C7" s="3">
         <f>COUNT('2004'!$B$3:$B$30)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <f>MAX('2004'!$L$3:$L$5)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <f>C7-D7-F7</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <f>MIN('2004'!$L$3:$L$5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>96</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:L7" si="1">J6/$I$6</f>
-        <v>0.47058823529411764</v>
+        <v>0.53846153846153855</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="1"/>
-        <v>0.29411764705882354</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="1"/>
-        <v>0.23529411764705882</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="P7" s="45" t="s">
         <v>97</v>
@@ -8395,19 +8161,19 @@
         <v>10</v>
       </c>
       <c r="V7" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W7" s="47" t="s">
         <v>11</v>
       </c>
       <c r="X7" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y7" s="49" t="s">
         <v>13</v>
       </c>
       <c r="Z7" s="48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
@@ -8426,27 +8192,27 @@
       </c>
       <c r="Q8" s="59">
         <f t="shared" ref="Q8:Q23" si="2">Q29</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="S8" s="60">
         <f t="shared" ref="S8:S23" si="3">S29</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="U8" s="60">
         <f t="shared" ref="U8:U23" si="4">U29</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="50">
         <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="W8" s="60">
         <f t="shared" ref="W8:W23" si="5">W29</f>
@@ -8476,19 +8242,19 @@
       </c>
       <c r="Q9" s="59">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R9" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="60">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T9" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="60">
         <f t="shared" si="4"/>
@@ -8526,7 +8292,7 @@
       </c>
       <c r="Q10" s="59">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R10" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
@@ -8534,7 +8300,7 @@
       </c>
       <c r="S10" s="60">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T10" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
@@ -8561,7 +8327,7 @@
       </c>
       <c r="Z10" s="20">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="7"/>
       <c r="AH10" s="7"/>
@@ -8576,19 +8342,19 @@
       </c>
       <c r="Q11" s="59">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R11" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11" s="60">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T11" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11" s="60">
         <f t="shared" si="4"/>
@@ -8626,19 +8392,19 @@
       </c>
       <c r="Q12" s="59">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="S12" s="60">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="U12" s="60">
         <f t="shared" si="4"/>
@@ -8676,27 +8442,27 @@
       </c>
       <c r="Q13" s="59">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="S13" s="60">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="50">
         <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="W13" s="60">
         <f t="shared" si="5"/>
@@ -8726,19 +8492,19 @@
       </c>
       <c r="Q14" s="59">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R14" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="S14" s="60">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U14" s="60">
         <f t="shared" si="4"/>
@@ -8750,18 +8516,18 @@
       </c>
       <c r="W14" s="60">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X14" s="50">
         <f>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="62" t="s">
         <v>57</v>
       </c>
       <c r="Z14" s="20">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="7"/>
       <c r="AH14" s="7"/>
@@ -8776,27 +8542,27 @@
       </c>
       <c r="Q15" s="59">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R15" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>1.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="S15" s="60">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="U15" s="60">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V15" s="50">
         <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W15" s="60">
         <f t="shared" si="5"/>
@@ -8826,27 +8592,27 @@
       </c>
       <c r="Q16" s="59">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R16" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S16" s="60">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T16" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="U16" s="60">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V16" s="50">
         <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>2.3333333333333335</v>
+        <v>1</v>
       </c>
       <c r="W16" s="60">
         <f t="shared" si="5"/>
@@ -8876,11 +8642,11 @@
       </c>
       <c r="Q17" s="59">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="S17" s="60">
         <f t="shared" si="3"/>
@@ -8892,11 +8658,11 @@
       </c>
       <c r="U17" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="50">
         <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="W17" s="60">
         <f t="shared" si="5"/>
@@ -8926,19 +8692,19 @@
       </c>
       <c r="Q18" s="59">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="S18" s="60">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U18" s="60">
         <f t="shared" si="4"/>
@@ -8976,19 +8742,19 @@
       </c>
       <c r="Q19" s="59">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R19" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="60">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T19" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="60">
         <f t="shared" si="4"/>
@@ -9026,27 +8792,27 @@
       </c>
       <c r="Q20" s="59">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R20" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S20" s="60">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>1.6666666666666667</v>
+        <v>3</v>
       </c>
       <c r="U20" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="50">
         <f>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="W20" s="60">
         <f t="shared" si="5"/>
@@ -9076,19 +8842,19 @@
       </c>
       <c r="Q21" s="59">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R21" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="60">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T21" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="60">
         <f t="shared" si="4"/>
@@ -9209,7 +8975,7 @@
       </c>
       <c r="Z23" s="20">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="7"/>
       <c r="AH23" s="7"/>
@@ -9233,7 +8999,7 @@
         <v>153</v>
       </c>
       <c r="Q26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9277,7 +9043,7 @@
         <v>93</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9291,31 +9057,31 @@
         <v>55</v>
       </c>
       <c r="Q29" s="44">
-        <f>'1804'!R3+'1904'!R3+'2004'!R3</f>
-        <v>2</v>
+        <f>'2404'!R3+'1904'!R3+'2004'!R3</f>
+        <v>0</v>
       </c>
       <c r="R29" s="29">
         <f>Q29/(Q$26-Y29)</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="S29" s="27">
-        <f>'1804'!S3+'1904'!S3+'2004'!S3</f>
-        <v>1</v>
+        <f>'2404'!S3+'1904'!S3+'2004'!S3</f>
+        <v>0</v>
       </c>
       <c r="T29" s="28">
         <f>S29/($Q$26-Y29)</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="U29" s="27">
-        <f>'1804'!T3+'1904'!T3+'2004'!T3</f>
-        <v>1</v>
+        <f>'2404'!T3+'1904'!T3+'2004'!T3</f>
+        <v>0</v>
       </c>
       <c r="V29" s="28">
         <f>U29/($Q$26-Y29)</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="W29" s="27">
-        <f>'1804'!U3+'1904'!U3+'2004'!U3</f>
+        <f>'2404'!U3+'1904'!U3+'2004'!U3</f>
         <v>0</v>
       </c>
       <c r="X29" s="28">
@@ -9335,23 +9101,23 @@
         <v>59</v>
       </c>
       <c r="Q30" s="44">
-        <f>'1804'!R4+'1904'!R4+'2004'!R4</f>
-        <v>3</v>
+        <f>'2404'!R4+'1904'!R4+'2004'!R4</f>
+        <v>0</v>
       </c>
       <c r="R30" s="29">
         <f t="shared" ref="R30:R44" si="7">Q30/(Q$26-Y30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="27">
-        <f>'1804'!S4+'1904'!S4+'2004'!S4</f>
-        <v>3</v>
+        <f>'2404'!S4+'1904'!S4+'2004'!S4</f>
+        <v>0</v>
       </c>
       <c r="T30" s="28">
         <f t="shared" ref="T30:T44" si="8">S30/($Q$26-Y30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="27">
-        <f>'1804'!T4+'1904'!T4+'2004'!T4</f>
+        <f>'2404'!T4+'1904'!T4+'2004'!T4</f>
         <v>0</v>
       </c>
       <c r="V30" s="28">
@@ -9359,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="27">
-        <f>'1804'!U4+'1904'!U4+'2004'!U4</f>
+        <f>'2404'!U4+'1904'!U4+'2004'!U4</f>
         <v>0</v>
       </c>
       <c r="X30" s="28">
@@ -9379,23 +9145,23 @@
         <v>62</v>
       </c>
       <c r="Q31" s="44">
-        <f>'1804'!R5+'1904'!R5+'2004'!R5</f>
-        <v>6</v>
+        <f>'2404'!R5+'1904'!R5+'2004'!R5</f>
+        <v>3</v>
       </c>
       <c r="R31" s="29">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S31" s="27">
-        <f>'1804'!S5+'1904'!S5+'2004'!S5</f>
-        <v>6</v>
+        <f>'2404'!S5+'1904'!S5+'2004'!S5</f>
+        <v>3</v>
       </c>
       <c r="T31" s="28">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="U31" s="27">
-        <f>'1804'!T5+'1904'!T5+'2004'!T5</f>
+        <f>'2404'!T5+'1904'!T5+'2004'!T5</f>
         <v>0</v>
       </c>
       <c r="V31" s="28">
@@ -9403,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="27">
-        <f>'1804'!U5+'1904'!U5+'2004'!U5</f>
+        <f>'2404'!U5+'1904'!U5+'2004'!U5</f>
         <v>0</v>
       </c>
       <c r="X31" s="28">
@@ -9411,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9423,23 +9189,23 @@
         <v>65</v>
       </c>
       <c r="Q32" s="44">
-        <f>'1804'!R6+'1904'!R6+'2004'!R6</f>
-        <v>6</v>
+        <f>'2404'!R6+'1904'!R6+'2004'!R6</f>
+        <v>1</v>
       </c>
       <c r="R32" s="29">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S32" s="27">
-        <f>'1804'!S6+'1904'!S6+'2004'!S6</f>
-        <v>6</v>
+        <f>'2404'!S6+'1904'!S6+'2004'!S6</f>
+        <v>1</v>
       </c>
       <c r="T32" s="28">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U32" s="27">
-        <f>'1804'!T6+'1904'!T6+'2004'!T6</f>
+        <f>'2404'!T6+'1904'!T6+'2004'!T6</f>
         <v>0</v>
       </c>
       <c r="V32" s="28">
@@ -9447,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="27">
-        <f>'1804'!U6+'1904'!U6+'2004'!U6</f>
+        <f>'2404'!U6+'1904'!U6+'2004'!U6</f>
         <v>0</v>
       </c>
       <c r="X32" s="28">
@@ -9466,23 +9232,23 @@
         <v>68</v>
       </c>
       <c r="Q33" s="44">
-        <f>'1804'!R7+'1904'!R7+'2004'!R7</f>
-        <v>1</v>
+        <f>'2404'!R7+'1904'!R7+'2004'!R7</f>
+        <v>0</v>
       </c>
       <c r="R33" s="29">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="S33" s="27">
-        <f>'1804'!S7+'1904'!S7+'2004'!S7</f>
-        <v>1</v>
+        <f>'2404'!S7+'1904'!S7+'2004'!S7</f>
+        <v>0</v>
       </c>
       <c r="T33" s="28">
         <f t="shared" si="8"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="U33" s="27">
-        <f>'1804'!T7+'1904'!T7+'2004'!T7</f>
+        <f>'2404'!T7+'1904'!T7+'2004'!T7</f>
         <v>0</v>
       </c>
       <c r="V33" s="28">
@@ -9490,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="27">
-        <f>'1804'!U7+'1904'!U7+'2004'!U7</f>
+        <f>'2404'!U7+'1904'!U7+'2004'!U7</f>
         <v>0</v>
       </c>
       <c r="X33" s="28">
@@ -9509,31 +9275,31 @@
         <v>71</v>
       </c>
       <c r="Q34" s="44">
-        <f>'1804'!R8+'1904'!R8+'2004'!R8</f>
-        <v>1</v>
+        <f>'2404'!R8+'1904'!R8+'2004'!R8</f>
+        <v>2</v>
       </c>
       <c r="R34" s="29">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="S34" s="27">
-        <f>'1804'!S8+'1904'!S8+'2004'!S8</f>
-        <v>0</v>
+        <f>'2404'!S8+'1904'!S8+'2004'!S8</f>
+        <v>2</v>
       </c>
       <c r="T34" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" s="27">
-        <f>'1804'!T8+'1904'!T8+'2004'!T8</f>
-        <v>1</v>
+        <f>'2404'!T8+'1904'!T8+'2004'!T8</f>
+        <v>0</v>
       </c>
       <c r="V34" s="28">
         <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="W34" s="27">
-        <f>'1804'!U8+'1904'!U8+'2004'!U8</f>
+        <f>'2404'!U8+'1904'!U8+'2004'!U8</f>
         <v>0</v>
       </c>
       <c r="X34" s="28">
@@ -9552,23 +9318,23 @@
         <v>75</v>
       </c>
       <c r="Q35" s="44">
-        <f>'1804'!R9+'1904'!R9+'2004'!R9</f>
-        <v>5</v>
+        <f>'2404'!R9+'1904'!R9+'2004'!R9</f>
+        <v>0</v>
       </c>
       <c r="R35" s="29">
         <f t="shared" si="7"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="S35" s="27">
-        <f>'1804'!S9+'1904'!S9+'2004'!S9</f>
-        <v>1</v>
+        <f>'2404'!S9+'1904'!S9+'2004'!S9</f>
+        <v>0</v>
       </c>
       <c r="T35" s="28">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U35" s="27">
-        <f>'1804'!T9+'1904'!T9+'2004'!T9</f>
+        <f>'2404'!T9+'1904'!T9+'2004'!T9</f>
         <v>0</v>
       </c>
       <c r="V35" s="28">
@@ -9576,15 +9342,15 @@
         <v>0</v>
       </c>
       <c r="W35" s="27">
-        <f>'1804'!U9+'1904'!U9+'2004'!U9</f>
-        <v>2</v>
+        <f>'2404'!U9+'1904'!U9+'2004'!U9</f>
+        <v>0</v>
       </c>
       <c r="X35" s="28">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9595,31 +9361,31 @@
         <v>78</v>
       </c>
       <c r="Q36" s="44">
-        <f>'1804'!R10+'1904'!R10+'2004'!R10</f>
-        <v>5</v>
+        <f>'2404'!R10+'1904'!R10+'2004'!R10</f>
+        <v>0</v>
       </c>
       <c r="R36" s="29">
         <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="S36" s="27">
-        <f>'1804'!S10+'1904'!S10+'2004'!S10</f>
-        <v>1</v>
+        <f>'2404'!S10+'1904'!S10+'2004'!S10</f>
+        <v>0</v>
       </c>
       <c r="T36" s="28">
         <f t="shared" si="8"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="U36" s="27">
-        <f>'1804'!T10+'1904'!T10+'2004'!T10</f>
-        <v>4</v>
+        <f>'2404'!T10+'1904'!T10+'2004'!T10</f>
+        <v>0</v>
       </c>
       <c r="V36" s="28">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W36" s="27">
-        <f>'1804'!U10+'1904'!U10+'2004'!U10</f>
+        <f>'2404'!U10+'1904'!U10+'2004'!U10</f>
         <v>0</v>
       </c>
       <c r="X36" s="28">
@@ -9638,31 +9404,31 @@
         <v>80</v>
       </c>
       <c r="Q37" s="44">
-        <f>'1804'!R11+'1904'!R11+'2004'!R11</f>
-        <v>9</v>
+        <f>'2404'!R11+'1904'!R11+'2004'!R11</f>
+        <v>2</v>
       </c>
       <c r="R37" s="29">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S37" s="27">
-        <f>'1804'!S11+'1904'!S11+'2004'!S11</f>
-        <v>2</v>
+        <f>'2404'!S11+'1904'!S11+'2004'!S11</f>
+        <v>1</v>
       </c>
       <c r="T37" s="28">
         <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="U37" s="27">
-        <f>'1804'!T11+'1904'!T11+'2004'!T11</f>
-        <v>7</v>
+        <f>'2404'!T11+'1904'!T11+'2004'!T11</f>
+        <v>1</v>
       </c>
       <c r="V37" s="28">
         <f t="shared" si="9"/>
-        <v>2.3333333333333335</v>
+        <v>1</v>
       </c>
       <c r="W37" s="27">
-        <f>'1804'!U11+'1904'!U11+'2004'!U11</f>
+        <f>'2404'!U11+'1904'!U11+'2004'!U11</f>
         <v>0</v>
       </c>
       <c r="X37" s="28">
@@ -9675,21 +9441,21 @@
     </row>
     <row r="38" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P38" s="30" t="s">
         <v>81</v>
       </c>
       <c r="Q38" s="44">
-        <f>'1804'!R12+'1904'!R12+'2004'!R12</f>
-        <v>1</v>
+        <f>'2404'!R12+'1904'!R12+'2004'!R12</f>
+        <v>0</v>
       </c>
       <c r="R38" s="29">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="S38" s="27">
-        <f>'1804'!S12+'1904'!S12+'2004'!S12</f>
+        <f>'2404'!S12+'1904'!S12+'2004'!S12</f>
         <v>0</v>
       </c>
       <c r="T38" s="28">
@@ -9697,15 +9463,15 @@
         <v>0</v>
       </c>
       <c r="U38" s="27">
-        <f>'1804'!T12+'1904'!T12+'2004'!T12</f>
-        <v>1</v>
+        <f>'2404'!T12+'1904'!T12+'2004'!T12</f>
+        <v>0</v>
       </c>
       <c r="V38" s="28">
         <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="W38" s="27">
-        <f>'1804'!U12+'1904'!U12+'2004'!U12</f>
+        <f>'2404'!U12+'1904'!U12+'2004'!U12</f>
         <v>0</v>
       </c>
       <c r="X38" s="28">
@@ -9721,23 +9487,23 @@
         <v>82</v>
       </c>
       <c r="Q39" s="44">
-        <f>'1804'!R13+'1904'!R13+'2004'!R13</f>
-        <v>1</v>
+        <f>'2404'!R13+'1904'!R13+'2004'!R13</f>
+        <v>2</v>
       </c>
       <c r="R39" s="29">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="S39" s="27">
-        <f>'1804'!S13+'1904'!S13+'2004'!S13</f>
-        <v>1</v>
+        <f>'2404'!S13+'1904'!S13+'2004'!S13</f>
+        <v>2</v>
       </c>
       <c r="T39" s="28">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U39" s="27">
-        <f>'1804'!T13+'1904'!T13+'2004'!T13</f>
+        <f>'2404'!T13+'1904'!T13+'2004'!T13</f>
         <v>0</v>
       </c>
       <c r="V39" s="28">
@@ -9745,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="27">
-        <f>'1804'!U13+'1904'!U13+'2004'!U13</f>
+        <f>'2404'!U13+'1904'!U13+'2004'!U13</f>
         <v>0</v>
       </c>
       <c r="X39" s="28">
@@ -9760,29 +9526,29 @@
     </row>
     <row r="40" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I40" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P40" s="30" t="s">
         <v>83</v>
       </c>
       <c r="Q40" s="44">
-        <f>'1804'!R14+'1904'!R14+'2004'!R14</f>
-        <v>3</v>
+        <f>'2404'!R14+'1904'!R14+'2004'!R14</f>
+        <v>0</v>
       </c>
       <c r="R40" s="29">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="27">
-        <f>'1804'!S14+'1904'!S14+'2004'!S14</f>
-        <v>3</v>
+        <f>'2404'!S14+'1904'!S14+'2004'!S14</f>
+        <v>0</v>
       </c>
       <c r="T40" s="28">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="27">
-        <f>'1804'!T14+'1904'!T14+'2004'!T14</f>
+        <f>'2404'!T14+'1904'!T14+'2004'!T14</f>
         <v>0</v>
       </c>
       <c r="V40" s="28">
@@ -9790,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="27">
-        <f>'1804'!U14+'1904'!U14+'2004'!U14</f>
+        <f>'2404'!U14+'1904'!U14+'2004'!U14</f>
         <v>0</v>
       </c>
       <c r="X40" s="28">
@@ -9805,39 +9571,39 @@
       <c r="I41" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="e">
         <f>'Statistics LG'!H4</f>
-        <v>5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P41" s="30" t="s">
         <v>85</v>
       </c>
       <c r="Q41" s="44">
-        <f>'1804'!R15+'1904'!R15+'2004'!R15</f>
-        <v>6</v>
+        <f>'2404'!R15+'1904'!R15+'2004'!R15</f>
+        <v>3</v>
       </c>
       <c r="R41" s="29">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S41" s="27">
-        <f>'1804'!S15+'1904'!S15+'2004'!S15</f>
-        <v>5</v>
+        <f>'2404'!S15+'1904'!S15+'2004'!S15</f>
+        <v>3</v>
       </c>
       <c r="T41" s="28">
         <f t="shared" si="8"/>
-        <v>1.6666666666666667</v>
+        <v>3</v>
       </c>
       <c r="U41" s="27">
-        <f>'1804'!T15+'1904'!T15+'2004'!T15</f>
-        <v>1</v>
+        <f>'2404'!T15+'1904'!T15+'2004'!T15</f>
+        <v>0</v>
       </c>
       <c r="V41" s="28">
         <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="W41" s="27">
-        <f>'1804'!U15+'1904'!U15+'2004'!U15</f>
+        <f>'2404'!U15+'1904'!U15+'2004'!U15</f>
         <v>0</v>
       </c>
       <c r="X41" s="28">
@@ -9852,31 +9618,31 @@
       <c r="I42" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="e">
         <f>'Statistics WW'!H4</f>
-        <v>6</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P42" s="30" t="s">
         <v>86</v>
       </c>
       <c r="Q42" s="44">
-        <f>'1804'!R16+'1904'!R16+'2004'!R16</f>
-        <v>3</v>
+        <f>'2404'!R16+'1904'!R16+'2004'!R16</f>
+        <v>0</v>
       </c>
       <c r="R42" s="29">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="27">
-        <f>'1804'!S16+'1904'!S16+'2004'!S16</f>
-        <v>3</v>
+        <f>'2404'!S16+'1904'!S16+'2004'!S16</f>
+        <v>0</v>
       </c>
       <c r="T42" s="28">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="27">
-        <f>'1804'!T16+'1904'!T16+'2004'!T16</f>
+        <f>'2404'!T16+'1904'!T16+'2004'!T16</f>
         <v>0</v>
       </c>
       <c r="V42" s="28">
@@ -9884,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="27">
-        <f>'1804'!U16+'1904'!U16+'2004'!U16</f>
+        <f>'2404'!U16+'1904'!U16+'2004'!U16</f>
         <v>0</v>
       </c>
       <c r="X42" s="28">
@@ -9899,15 +9665,15 @@
       <c r="I43" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="e">
         <f>'Statistics 5M'!H4</f>
-        <v>7</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P43" s="30" t="s">
         <v>87</v>
       </c>
       <c r="Q43" s="44">
-        <f>'1804'!R17+'1904'!R17+'2004'!R17</f>
+        <f>'2404'!R17+'1904'!R17+'2004'!R17</f>
         <v>0</v>
       </c>
       <c r="R43" s="29">
@@ -9915,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="27">
-        <f>'1804'!S17+'1904'!S17+'2004'!S17</f>
+        <f>'2404'!S17+'1904'!S17+'2004'!S17</f>
         <v>0</v>
       </c>
       <c r="T43" s="28">
@@ -9923,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="27">
-        <f>'1804'!T17+'1904'!T17+'2004'!T17</f>
+        <f>'2404'!T17+'1904'!T17+'2004'!T17</f>
         <v>0</v>
       </c>
       <c r="V43" s="28">
@@ -9931,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="27">
-        <f>'1804'!U17+'1904'!U17+'2004'!U17</f>
+        <f>'2404'!U17+'1904'!U17+'2004'!U17</f>
         <v>0</v>
       </c>
       <c r="X43" s="28">
@@ -9947,7 +9713,7 @@
         <v>107</v>
       </c>
       <c r="Q44" s="44">
-        <f>'1804'!R18+'1904'!R18+'2004'!R18</f>
+        <f>'2404'!R18+'1904'!R18+'2004'!R18</f>
         <v>0</v>
       </c>
       <c r="R44" s="29">
@@ -9955,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="27">
-        <f>'1804'!S18+'1904'!S18+'2004'!S18</f>
+        <f>'2404'!S18+'1904'!S18+'2004'!S18</f>
         <v>0</v>
       </c>
       <c r="T44" s="28">
@@ -9963,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="27">
-        <f>'1804'!T18+'1904'!T18+'2004'!T18</f>
+        <f>'2404'!T18+'1904'!T18+'2004'!T18</f>
         <v>0</v>
       </c>
       <c r="V44" s="28">
@@ -9971,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="27">
-        <f>'1804'!U18+'1904'!U18+'2004'!U18</f>
+        <f>'2404'!U18+'1904'!U18+'2004'!U18</f>
         <v>0</v>
       </c>
       <c r="X44" s="28">
@@ -9979,12 +9745,12 @@
         <v>0</v>
       </c>
       <c r="Y44" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I45" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9993,15 +9759,15 @@
       </c>
       <c r="J46" s="42">
         <f>SUM(Table1[Finishes])</f>
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="K46">
         <f>J46/Q5</f>
-        <v>11</v>
-      </c>
-      <c r="L46" s="70">
+        <v>12</v>
+      </c>
+      <c r="L46" s="69">
         <f>J46/SUM($J$46:$J$48)</f>
-        <v>0.66</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
@@ -10014,15 +9780,15 @@
       </c>
       <c r="J47" s="42">
         <f>SUM(Table1[Midranges])</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <f>Q5</f>
-        <v>3</v>
-      </c>
-      <c r="L47" s="70">
+        <v>1</v>
+      </c>
+      <c r="L47" s="69">
         <f t="shared" ref="L47:L48" si="11">J47/SUM($J$46:$J$48)</f>
-        <v>0.3</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
@@ -10035,15 +9801,15 @@
       </c>
       <c r="J48" s="42">
         <f>SUM(Table1[Threes])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <f>J48/Q5</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L48" s="70">
+        <v>0</v>
+      </c>
+      <c r="L48" s="69">
         <f t="shared" si="11"/>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="P48" s="13"/>
       <c r="Q48" s="15"/>
@@ -11099,8 +10865,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+    <sheetView topLeftCell="P1" workbookViewId="1">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11190,70 +10959,68 @@
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <f>'1804'!$C$2</f>
-        <v>45034</v>
+        <f>'2404'!$C$2</f>
+        <v>45040</v>
       </c>
       <c r="B4" s="16">
-        <f>'1804'!$L$3</f>
+        <f>'2404'!$L$3</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="16">
+        <f>'2404'!$M$3</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="16">
+        <f>'2404'!$O$3</f>
         <v>2</v>
-      </c>
-      <c r="C4" s="16">
-        <f>'1804'!$M$3</f>
-        <v>5</v>
-      </c>
-      <c r="D4" s="16">
-        <f>'1804'!$O$3</f>
-        <v>1</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J4" s="17">
         <v>1</v>
       </c>
-      <c r="K4" s="55">
-        <v>1</v>
-      </c>
+      <c r="K4" s="55"/>
       <c r="L4" s="55"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="55"/>
       <c r="Q4" s="17">
-        <f>COUNTIF('1804'!$X$4:$X$26,"LG/WW")</f>
+        <f>COUNTIF('2404'!$X$4:$X$26,"LG/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="R4" s="17">
+        <f>COUNTIF('2404'!$Y$4:$Y$26,"WW/LG")</f>
         <v>1</v>
-      </c>
-      <c r="R4" s="17">
-        <f>COUNTIF('1804'!$Y$4:$Y$26,"WW/LG")</f>
-        <v>2</v>
       </c>
       <c r="S4" s="17" t="s">
         <v>85</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="V4" s="17">
-        <f>COUNTIF('1804'!$X$4:$X$26,"LG/5M")</f>
+        <f>COUNTIF('2404'!$X$4:$X$26,"LG/5M")</f>
         <v>1</v>
       </c>
       <c r="W4" s="17">
-        <f>COUNTIF('1804'!$Z$4:$Z$26,"5M/LG")</f>
-        <v>3</v>
+        <f>COUNTIF('2404'!$Z$4:$Z$26,"5M/LG")</f>
+        <v>4</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -11263,56 +11030,42 @@
       </c>
       <c r="B5" s="16">
         <f>'1904'!$L$3</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" s="16">
         <f>'1904'!$M$3</f>
-        <v>9</v>
-      </c>
-      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="e">
         <f>'1904'!$O$3</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="17">
-        <v>1</v>
-      </c>
-      <c r="K5" s="55">
-        <v>2</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="55"/>
-      <c r="M5" s="17">
-        <v>1</v>
-      </c>
+      <c r="M5" s="17"/>
       <c r="N5" s="17"/>
       <c r="O5" s="55"/>
       <c r="Q5" s="17">
         <f>COUNTIF('1904'!$X$4:$X$26,"LG/WW")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R5" s="17">
         <f>COUNTIF('1904'!$Y$4:$Y$26,"WW/LG")</f>
-        <v>3</v>
-      </c>
-      <c r="S5" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="T5" s="67" t="s">
-        <v>169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
       <c r="V5" s="17">
         <f>COUNTIF('1904'!$X$4:$X$26,"LG/5M")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W5" s="17">
         <f>COUNTIF('1904'!$Z$4:$Z$26,"5M/LG")</f>
-        <v>5</v>
-      </c>
-      <c r="X5" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="67" t="s">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
@@ -11321,60 +11074,46 @@
       </c>
       <c r="B6" s="16">
         <f>'2004'!$L$3</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" s="16">
         <f>'2004'!$M$3</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="e">
         <f>'2004'!$O$3</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="18"/>
-      <c r="J6" s="17">
-        <v>3</v>
-      </c>
+      <c r="J6" s="17"/>
       <c r="K6" s="55"/>
-      <c r="L6" s="55">
-        <v>3</v>
-      </c>
-      <c r="M6" s="17">
-        <v>1</v>
-      </c>
+      <c r="L6" s="55"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="55"/>
       <c r="Q6" s="17">
         <f>COUNTIF('2004'!$X$4:$X$26,"LG/WW")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R6" s="17">
         <f>COUNTIF('2004'!$Y$4:$Y$26,"WW/LG")</f>
-        <v>1</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
       <c r="V6" s="17">
         <f>COUNTIF('2004'!$X$4:$X$26,"LG/5M")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W6" s="17">
         <f>COUNTIF('2004'!$Z$4:$Z$26,"5M/LG")</f>
-        <v>2</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
     </row>
     <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
@@ -11862,21 +11601,21 @@
       </c>
       <c r="Q30" s="17">
         <f t="shared" ref="Q30:R30" si="1">SUM(Q4:Q29)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R30" s="17">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="V30" s="17">
         <f t="shared" ref="V30:W30" si="2">SUM(V4:V29)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W30" s="17">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
@@ -11885,11 +11624,11 @@
       <c r="I31" s="1"/>
       <c r="Q31" s="22">
         <f>Q30/(R30+Q30)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V31" s="22">
         <f>V30/(W30+V30)</f>
-        <v>0.44444444444444442</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -12884,6 +12623,9 @@
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
+    <sheetView topLeftCell="G1" workbookViewId="1">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12970,62 +12712,58 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <f>'1804'!C$2</f>
-        <v>45034</v>
+        <f>'2404'!C$2</f>
+        <v>45040</v>
       </c>
       <c r="B4" s="16">
-        <f>'1804'!L$5</f>
-        <v>4</v>
+        <f>'2404'!L$5</f>
+        <v>3</v>
       </c>
       <c r="C4" s="16">
-        <f>'1804'!M$5</f>
-        <v>4</v>
+        <f>'2404'!M$5</f>
+        <v>5</v>
       </c>
       <c r="D4" s="16">
-        <f>'1804'!O$5</f>
-        <v>2</v>
+        <f>'2404'!O$5</f>
+        <v>1</v>
       </c>
       <c r="F4" s="24">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G4" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="H4" s="24">
+        <v>5</v>
+      </c>
+      <c r="H4" s="24" t="e">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J4" s="17">
-        <v>1</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="17"/>
       <c r="K4" s="55">
         <v>1</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="17">
-        <v>1</v>
-      </c>
-      <c r="N4" s="17">
-        <v>1</v>
-      </c>
+      <c r="L4" s="55">
+        <v>2</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
       <c r="P4" s="17">
-        <f>COUNTIF('1804'!X4:X26,"WW/LG")</f>
+        <f>COUNTIF('2404'!X4:X26,"WW/LG")</f>
         <v>0</v>
       </c>
       <c r="Q4" s="17">
-        <f>COUNTIF('1804'!W4:W26,"LG/WW")</f>
+        <f>COUNTIF('2404'!W4:W26,"LG/WW")</f>
         <v>0</v>
       </c>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="U4" s="17">
-        <f>COUNTIF('1804'!X4:X26,"WW/5M")</f>
+        <f>COUNTIF('2404'!X4:X26,"WW/5M")</f>
         <v>0</v>
       </c>
       <c r="V4" s="17">
-        <f>COUNTIF('1804'!Y4:Y26,"5M/WW")</f>
+        <f>COUNTIF('2404'!Y4:Y26,"5M/WW")</f>
         <v>0</v>
       </c>
       <c r="W4" s="17"/>
@@ -13038,15 +12776,15 @@
       </c>
       <c r="B5" s="16">
         <f>'1904'!L$5</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5" s="16">
         <f>'1904'!M$5</f>
-        <v>8</v>
-      </c>
-      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="e">
         <f>'1904'!O$5</f>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="55"/>
@@ -13069,31 +12807,25 @@
       </c>
       <c r="B6" s="16">
         <f>'2004'!L$5</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="16">
         <f>'2004'!M$5</f>
-        <v>5</v>
-      </c>
-      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="e">
         <f>'2004'!O$5</f>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="18"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="55">
-        <v>1</v>
-      </c>
+      <c r="K6" s="55"/>
       <c r="L6" s="55"/>
-      <c r="M6" s="17">
-        <v>1</v>
-      </c>
-      <c r="N6" s="17">
-        <v>1</v>
-      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
@@ -14587,6 +14319,9 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="1">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -14673,60 +14408,60 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <f>'1804'!C$2</f>
-        <v>45034</v>
+        <f>'2404'!C$2</f>
+        <v>45040</v>
       </c>
       <c r="B4" s="16">
-        <f>'1804'!L$4</f>
-        <v>6</v>
+        <f>'2404'!L$4</f>
+        <v>7</v>
       </c>
       <c r="C4" s="16">
-        <f>'1804'!M$4</f>
+        <f>'2404'!M$4</f>
         <v>3</v>
       </c>
       <c r="D4" s="16">
-        <f>'1804'!O$4</f>
+        <f>'2404'!O$4</f>
         <v>3</v>
       </c>
       <c r="F4" s="24">
         <f t="shared" ref="F4:H4" si="0">SUM(B4:B30)</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G4" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="H4" s="24">
+        <v>3</v>
+      </c>
+      <c r="H4" s="24" t="e">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="55">
+        <v>1</v>
+      </c>
+      <c r="L4" s="55">
         <v>2</v>
-      </c>
-      <c r="K4" s="55">
-        <v>2</v>
-      </c>
-      <c r="L4" s="55">
-        <v>1</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="P4" s="17">
-        <f>COUNTIF('1804'!Y4:Y26,"5M/LG")</f>
+        <f>COUNTIF('2404'!Y4:Y26,"5M/LG")</f>
         <v>0</v>
       </c>
       <c r="Q4" s="17">
-        <f>COUNTIF('1804'!W4:W26,"LG/WW")</f>
+        <f>COUNTIF('2404'!W4:W26,"LG/WW")</f>
         <v>0</v>
       </c>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="U4" s="17">
-        <f>COUNTIF('1804'!Y4:Y26,"5M/WW")</f>
+        <f>COUNTIF('2404'!Y4:Y26,"5M/WW")</f>
         <v>0</v>
       </c>
       <c r="V4" s="17">
-        <f>COUNTIF('1804'!X4:X26,"WW/5M")</f>
+        <f>COUNTIF('2404'!X4:X26,"WW/5M")</f>
         <v>0</v>
       </c>
       <c r="W4" s="17"/>
@@ -14739,15 +14474,15 @@
       </c>
       <c r="B5" s="16">
         <f>'1904'!L$4</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="16">
         <f>'1904'!M$4</f>
-        <v>8</v>
-      </c>
-      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="e">
         <f>'1904'!O$4</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="55"/>
@@ -14770,15 +14505,15 @@
       </c>
       <c r="B6" s="16">
         <f>'2004'!L$4</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="16">
         <f>'2004'!M$4</f>
-        <v>6</v>
-      </c>
-      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="e">
         <f>'2004'!O$4</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>110</v>
@@ -16281,6 +16016,7 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V22" sqref="V22"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -16299,7 +16035,7 @@
         <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>123</v>
@@ -16332,7 +16068,7 @@
         <v>125</v>
       </c>
       <c r="V2" s="40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="W2" s="40"/>
       <c r="X2" s="40"/>
@@ -17708,11 +17444,11 @@
       <c r="Z40" s="40"/>
     </row>
     <row r="41" spans="17:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q41" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
+      <c r="Q41" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
       <c r="V41" s="40"/>
@@ -17722,9 +17458,9 @@
       <c r="Z41" s="40"/>
     </row>
     <row r="42" spans="17:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
       <c r="T42" s="40"/>
       <c r="U42" s="40"/>
       <c r="V42" s="40"/>
@@ -18774,9 +18510,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E7D6EA-0942-4896-8FCD-5B2FCE43B119}">
   <dimension ref="B1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -18796,7 +18533,7 @@
         <v>122</v>
       </c>
       <c r="C2" s="4">
-        <v>45034</v>
+        <v>45040</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>123</v>
@@ -18829,7 +18566,7 @@
         <v>125</v>
       </c>
       <c r="V2" s="40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -18862,7 +18599,7 @@
       </c>
       <c r="L3" s="24">
         <f>COUNTIF(C3:C30, "Loose Gooses")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" s="24">
         <f>COUNTIF(D3:D30, "Loose Gooses")</f>
@@ -18870,11 +18607,10 @@
       </c>
       <c r="N3" s="23">
         <f t="shared" ref="N3:N5" si="0">L3/(L3+M3)</f>
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="O3" s="24">
-        <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>33</v>
@@ -18916,10 +18652,10 @@
         <v>39</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F4" s="58" t="s">
         <v>160</v>
@@ -18938,7 +18674,7 @@
       </c>
       <c r="L4" s="24">
         <f>COUNTIF(C3:C30, "5 Musketeers")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4" s="24">
         <f>COUNTIF(D3:D30, "5 Musketeers")</f>
@@ -18946,7 +18682,7 @@
       </c>
       <c r="N4" s="23">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.7</v>
       </c>
       <c r="O4" s="24">
         <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
@@ -18957,11 +18693,11 @@
       </c>
       <c r="R4" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="20">
         <f t="shared" si="3"/>
@@ -18980,7 +18716,7 @@
       </c>
       <c r="Y4" s="24" t="str">
         <f t="shared" ref="Y4:Y28" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
-        <v>WW/LG</v>
+        <v>WW/5M</v>
       </c>
       <c r="Z4" s="24" t="str">
         <f t="shared" ref="Z4:Z28" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
@@ -18992,19 +18728,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" s="58" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F5" s="58" t="s">
         <v>160</v>
       </c>
       <c r="G5" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="58">
         <v>1</v>
@@ -19017,30 +18753,30 @@
       </c>
       <c r="L5" s="24">
         <f>COUNTIF(C3:C30, "Wet Willies")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" s="24">
         <f>COUNTIF(D3:D30, "Wet Willies")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" s="23">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="O5" s="24">
         <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="R5" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="3"/>
@@ -19055,11 +18791,11 @@
       </c>
       <c r="X5" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y5" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Z5" s="24" t="str">
         <f t="shared" si="7"/>
@@ -19071,22 +18807,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="58" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F6" s="58" t="s">
         <v>160</v>
       </c>
       <c r="G6" s="58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="58">
         <v>1</v>
@@ -19119,11 +18855,11 @@
       </c>
       <c r="Y6" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/LG</v>
+        <v/>
       </c>
       <c r="Z6" s="24" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -19137,16 +18873,16 @@
         <v>39</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="G7" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="58">
         <v>1</v>
@@ -19156,11 +18892,11 @@
       </c>
       <c r="R7" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="20">
         <f t="shared" si="3"/>
@@ -19197,30 +18933,30 @@
         <v>57</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="G8" s="58">
+        <v>3</v>
+      </c>
+      <c r="H8" s="58">
         <v>2</v>
       </c>
-      <c r="H8" s="58">
-        <v>3</v>
-      </c>
       <c r="I8" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" s="20">
         <f t="shared" si="3"/>
@@ -19257,7 +18993,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F9" s="58" t="s">
         <v>160</v>
@@ -19336,7 +19072,7 @@
       </c>
       <c r="R10" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="2"/>
@@ -19344,7 +19080,7 @@
       </c>
       <c r="T10" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="20">
         <f t="shared" si="4"/>
@@ -19377,7 +19113,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F11" s="58" t="s">
         <v>160</v>
@@ -19396,7 +19132,7 @@
       </c>
       <c r="R11" s="19">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="2"/>
@@ -19404,7 +19140,7 @@
       </c>
       <c r="T11" s="20">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U11" s="20">
         <f t="shared" si="4"/>
@@ -19497,10 +19233,10 @@
         <v>57</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="G13" s="58">
         <v>3</v>
@@ -19509,18 +19245,18 @@
         <v>2</v>
       </c>
       <c r="I13" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>136</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13" s="20">
         <f t="shared" si="3"/>
@@ -19560,7 +19296,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="G14" s="58">
         <v>4</v>
@@ -19569,7 +19305,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>137</v>
@@ -19617,10 +19353,10 @@
         <v>34</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="G15" s="58">
         <v>1</v>
@@ -19636,11 +19372,11 @@
       </c>
       <c r="R15" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T15" s="20">
         <f t="shared" si="3"/>
@@ -19667,24 +19403,40 @@
       </c>
     </row>
     <row r="16" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="B16" s="58">
+        <v>13</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="58">
+        <v>1</v>
+      </c>
+      <c r="H16" s="58">
+        <v>1</v>
+      </c>
+      <c r="I16" s="58">
+        <v>1</v>
+      </c>
       <c r="Q16" s="3" t="s">
         <v>76</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="20">
         <f t="shared" si="3"/>
@@ -19703,7 +19455,7 @@
       </c>
       <c r="Y16" s="24" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>WW/LG</v>
       </c>
       <c r="Z16" s="24" t="str">
         <f t="shared" si="7"/>
@@ -19911,11 +19663,11 @@
       <c r="I24" s="24"/>
       <c r="R24" s="40" t="str">
         <f t="shared" ref="R24:U37" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S24" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T24" s="40" t="str">
         <f t="shared" si="9"/>
@@ -19947,11 +19699,11 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>3,</v>
       </c>
       <c r="S25" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>3,</v>
       </c>
       <c r="T25" s="40" t="str">
         <f t="shared" si="9"/>
@@ -20018,11 +19770,11 @@
       <c r="I27" s="24"/>
       <c r="R27" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S27" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T27" s="40" t="str">
         <f t="shared" si="9"/>
@@ -20053,11 +19805,11 @@
       <c r="I28" s="24"/>
       <c r="R28" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="S28" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="T28" s="40" t="str">
         <f t="shared" si="9"/>
@@ -20111,7 +19863,7 @@
       <c r="I30" s="24"/>
       <c r="R30" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S30" s="40" t="str">
         <f t="shared" si="9"/>
@@ -20119,7 +19871,7 @@
       </c>
       <c r="T30" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="U30" s="40" t="str">
         <f t="shared" si="9"/>
@@ -20129,7 +19881,7 @@
     <row r="31" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R31" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>4,</v>
+        <v>2,</v>
       </c>
       <c r="S31" s="40" t="str">
         <f t="shared" si="9"/>
@@ -20137,7 +19889,7 @@
       </c>
       <c r="T31" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>3,</v>
+        <v>1,</v>
       </c>
       <c r="U31" s="40" t="str">
         <f t="shared" si="9"/>
@@ -20165,11 +19917,11 @@
     <row r="33" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R33" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>2,</v>
       </c>
       <c r="S33" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>2,</v>
       </c>
       <c r="T33" s="40" t="str">
         <f t="shared" si="9"/>
@@ -20201,11 +19953,11 @@
     <row r="35" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>3,</v>
       </c>
       <c r="S35" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>3,</v>
       </c>
       <c r="T35" s="40" t="str">
         <f t="shared" si="9"/>
@@ -20219,11 +19971,11 @@
     <row r="36" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S36" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T36" s="40" t="str">
         <f t="shared" si="9"/>
@@ -20281,41 +20033,41 @@
       <c r="U40" s="19"/>
     </row>
     <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q41" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
+      <c r="Q41" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
     </row>
     <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
     </row>
     <row r="43" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q43" s="40" t="str">
-        <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;"20-Apr"&amp;CHAR(34)&amp;"],"</f>
-        <v>"Date":["20-Apr"],</v>
+        <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;"24-Apr"&amp;CHAR(34)&amp;"],"</f>
+        <v>"Date":["24-Apr"],</v>
       </c>
     </row>
     <row r="44" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q44" s="40" t="str">
         <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;"],"</f>
-        <v>"Points":[0,1,1,1,1,0,0,1,4,0,1,0,1,1,0,0],</v>
+        <v>"Points":[0,0,3,1,0,2,0,0,2,0,2,0,3,0,0,0],</v>
       </c>
     </row>
     <row r="45" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q45" s="40" t="str">
         <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;"],"</f>
-        <v>"Finishes":[0,1,1,1,1,0,0,0,1,0,1,0,1,1,0,0],</v>
+        <v>"Finishes":[0,0,3,1,0,2,0,0,1,0,2,0,3,0,0,0],</v>
       </c>
     </row>
     <row r="46" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q46" s="40" t="str">
         <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;"],"</f>
-        <v>"Midrange":[0,0,0,0,0,0,0,1,3,0,0,0,0,0,0,0],</v>
+        <v>"Midrange":[0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="47" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -21291,8 +21043,9 @@
   <dimension ref="B1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="B4" sqref="B4:I29"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -21345,7 +21098,7 @@
         <v>125</v>
       </c>
       <c r="V2" s="40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -21378,30 +21131,30 @@
       </c>
       <c r="L3" s="24">
         <f>COUNTIF(C3:C30, "Loose Gooses")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M3" s="24">
         <f>COUNTIF(D3:D30, "Loose Gooses")</f>
-        <v>9</v>
-      </c>
-      <c r="N3" s="23">
+        <v>0</v>
+      </c>
+      <c r="N3" s="23" t="e">
         <f t="shared" ref="N3:N5" si="0">L3/(L3+M3)</f>
-        <v>0.4375</v>
-      </c>
-      <c r="O3" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="24" t="e">
         <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="19">
         <f t="shared" ref="R3:R18" si="1">COUNTIF($E$3:$E$27, Q3)+U3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="20">
         <f t="shared" ref="S3:S18" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="20">
         <f t="shared" ref="T3:T18" si="3">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
@@ -21425,59 +21178,43 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="58">
-        <v>1</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="58">
-        <v>1</v>
-      </c>
-      <c r="H4" s="58">
-        <v>1</v>
-      </c>
-      <c r="I4" s="58">
-        <v>1</v>
-      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
       <c r="K4" s="24" t="s">
         <v>135</v>
       </c>
       <c r="L4" s="24">
         <f>COUNTIF(C3:C30, "5 Musketeers")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M4" s="24">
         <f>COUNTIF(D3:D30, "5 Musketeers")</f>
-        <v>8</v>
-      </c>
-      <c r="N4" s="23">
+        <v>0</v>
+      </c>
+      <c r="N4" s="23" t="e">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="O4" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="24" t="e">
         <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="20">
         <f t="shared" si="3"/>
@@ -21500,63 +21237,47 @@
       </c>
       <c r="Z4" s="24" t="str">
         <f t="shared" ref="Z4:Z28" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="58">
-        <v>2</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="58">
-        <v>1</v>
-      </c>
-      <c r="H5" s="58">
-        <v>1</v>
-      </c>
-      <c r="I5" s="58">
-        <v>1</v>
-      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
       <c r="K5" s="24" t="s">
         <v>134</v>
       </c>
       <c r="L5" s="24">
         <f>COUNTIF(C3:C30, "Wet Willies")</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M5" s="24">
         <f>COUNTIF(D3:D30, "Wet Willies")</f>
-        <v>8</v>
-      </c>
-      <c r="N5" s="23">
+        <v>0</v>
+      </c>
+      <c r="N5" s="23" t="e">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="24" t="e">
         <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="R5" s="19">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="3"/>
@@ -21575,7 +21296,7 @@
       </c>
       <c r="Y5" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Z5" s="24" t="str">
         <f t="shared" si="7"/>
@@ -21583,40 +21304,24 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="58">
-        <v>3</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="58">
-        <v>2</v>
-      </c>
-      <c r="H6" s="58">
-        <v>2</v>
-      </c>
-      <c r="I6" s="58">
-        <v>1</v>
-      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
       <c r="Q6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="R6" s="19">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="20">
         <f t="shared" si="3"/>
@@ -21635,7 +21340,7 @@
       </c>
       <c r="Y6" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/LG</v>
+        <v/>
       </c>
       <c r="Z6" s="24" t="str">
         <f t="shared" si="7"/>
@@ -21643,30 +21348,14 @@
       </c>
     </row>
     <row r="7" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="58">
-        <v>4</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="58">
-        <v>3</v>
-      </c>
-      <c r="H7" s="58">
-        <v>2</v>
-      </c>
-      <c r="I7" s="58">
-        <v>1</v>
-      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
       <c r="Q7" s="3" t="s">
         <v>46</v>
       </c>
@@ -21695,7 +21384,7 @@
       </c>
       <c r="Y7" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Z7" s="24" t="str">
         <f t="shared" si="7"/>
@@ -21703,36 +21392,20 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="58">
-        <v>5</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="58">
-        <v>4</v>
-      </c>
-      <c r="H8" s="58">
-        <v>3</v>
-      </c>
-      <c r="I8" s="58">
-        <v>1</v>
-      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
       <c r="Q8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="2"/>
@@ -21740,7 +21413,7 @@
       </c>
       <c r="T8" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="20">
         <f t="shared" si="4"/>
@@ -21755,7 +21428,7 @@
       </c>
       <c r="Y8" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/LG</v>
+        <v/>
       </c>
       <c r="Z8" s="24" t="str">
         <f t="shared" si="7"/>
@@ -21763,30 +21436,14 @@
       </c>
     </row>
     <row r="9" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="58">
-        <v>6</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="58">
-        <v>5</v>
-      </c>
-      <c r="H9" s="58">
-        <v>3</v>
-      </c>
-      <c r="I9" s="58">
-        <v>1</v>
-      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
       <c r="Q9" s="3" t="s">
         <v>53</v>
       </c>
@@ -21815,7 +21472,7 @@
       </c>
       <c r="Y9" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Z9" s="24" t="str">
         <f t="shared" si="7"/>
@@ -21823,44 +21480,28 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="58">
-        <v>7</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="58">
-        <v>1</v>
-      </c>
-      <c r="H10" s="58">
-        <v>1</v>
-      </c>
-      <c r="I10" s="58">
-        <v>1</v>
-      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
       <c r="Q10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="20">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U10" s="20">
         <f t="shared" si="4"/>
@@ -21871,7 +21512,7 @@
       </c>
       <c r="X10" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="Y10" s="24" t="str">
         <f t="shared" si="6"/>
@@ -21883,36 +21524,20 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="58">
-        <v>8</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="58">
-        <v>1</v>
-      </c>
-      <c r="H11" s="58">
-        <v>1</v>
-      </c>
-      <c r="I11" s="58">
-        <v>1</v>
-      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
       <c r="Q11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="R11" s="19">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="2"/>
@@ -21920,7 +21545,7 @@
       </c>
       <c r="T11" s="20">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U11" s="20">
         <f t="shared" si="4"/>
@@ -21939,40 +21564,24 @@
       </c>
       <c r="Z11" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="58">
-        <v>9</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="58">
-        <v>2</v>
-      </c>
-      <c r="H12" s="58">
-        <v>2</v>
-      </c>
-      <c r="I12" s="58">
-        <v>2</v>
-      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
       <c r="Q12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="20">
         <f t="shared" si="2"/>
@@ -21980,7 +21589,7 @@
       </c>
       <c r="T12" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="20">
         <f t="shared" si="4"/>
@@ -21999,34 +21608,18 @@
       </c>
       <c r="Z12" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="58">
-        <v>10</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="58">
-        <v>1</v>
-      </c>
-      <c r="H13" s="58">
-        <v>1</v>
-      </c>
-      <c r="I13" s="58">
-        <v>1</v>
-      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
       <c r="Q13" s="3" t="s">
         <v>136</v>
       </c>
@@ -22051,7 +21644,7 @@
       </c>
       <c r="X13" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="Y13" s="24" t="str">
         <f t="shared" si="6"/>
@@ -22063,40 +21656,24 @@
       </c>
     </row>
     <row r="14" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="58">
-        <v>11</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="58">
-        <v>2</v>
-      </c>
-      <c r="H14" s="58">
-        <v>3</v>
-      </c>
-      <c r="I14" s="58">
-        <v>2</v>
-      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
       <c r="Q14" s="3" t="s">
         <v>137</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="20">
         <f t="shared" si="3"/>
@@ -22111,7 +21688,7 @@
       </c>
       <c r="X14" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="Y14" s="24" t="str">
         <f t="shared" si="6"/>
@@ -22123,40 +21700,24 @@
       </c>
     </row>
     <row r="15" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="58">
-        <v>12</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="58">
-        <v>1</v>
-      </c>
-      <c r="H15" s="58">
-        <v>1</v>
-      </c>
-      <c r="I15" s="58">
-        <v>1</v>
-      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
       <c r="Q15" s="3" t="s">
         <v>72</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15" s="20">
         <f t="shared" si="3"/>
@@ -22179,44 +21740,28 @@
       </c>
       <c r="Z15" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="58">
-        <v>13</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="58">
-        <v>2</v>
-      </c>
-      <c r="H16" s="58">
-        <v>4</v>
-      </c>
-      <c r="I16" s="58">
-        <v>1</v>
-      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
       <c r="Q16" s="3" t="s">
         <v>76</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="20">
         <f t="shared" si="3"/>
@@ -22239,34 +21784,18 @@
       </c>
       <c r="Z16" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="58">
-        <v>14</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="58">
-        <v>3</v>
-      </c>
-      <c r="H17" s="58">
-        <v>2</v>
-      </c>
-      <c r="I17" s="58">
-        <v>1</v>
-      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
       <c r="Q17" s="3" t="s">
         <v>79</v>
       </c>
@@ -22299,34 +21828,18 @@
       </c>
       <c r="Z17" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="58">
-        <v>15</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="58">
-        <v>4</v>
-      </c>
-      <c r="H18" s="58">
-        <v>5</v>
-      </c>
-      <c r="I18" s="58">
-        <v>1</v>
-      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
       <c r="Q18" s="40" t="s">
         <v>154</v>
       </c>
@@ -22359,40 +21872,24 @@
       </c>
       <c r="Z18" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="58">
-        <v>16</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="58">
-        <v>1</v>
-      </c>
-      <c r="H19" s="58">
-        <v>1</v>
-      </c>
-      <c r="I19" s="58">
-        <v>1</v>
-      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="X19" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="Y19" s="24" t="str">
         <f t="shared" si="6"/>
@@ -22404,37 +21901,21 @@
       </c>
     </row>
     <row r="20" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="58">
-        <v>17</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="58">
-        <v>1</v>
-      </c>
-      <c r="H20" s="58">
-        <v>1</v>
-      </c>
-      <c r="I20" s="58">
-        <v>1</v>
-      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
       <c r="X20" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y20" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/LG</v>
+        <v/>
       </c>
       <c r="Z20" s="24" t="str">
         <f t="shared" si="7"/>
@@ -22442,37 +21923,21 @@
       </c>
     </row>
     <row r="21" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="58">
-        <v>18</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="58">
-        <v>2</v>
-      </c>
-      <c r="H21" s="58">
-        <v>2</v>
-      </c>
-      <c r="I21" s="58">
-        <v>2</v>
-      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
       <c r="X21" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y21" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Z21" s="24" t="str">
         <f t="shared" si="7"/>
@@ -22480,33 +21945,17 @@
       </c>
     </row>
     <row r="22" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="58">
-        <v>19</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="58">
-        <v>1</v>
-      </c>
-      <c r="H22" s="58">
-        <v>1</v>
-      </c>
-      <c r="I22" s="58">
-        <v>1</v>
-      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
       <c r="X22" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="Y22" s="24" t="str">
         <f t="shared" si="6"/>
@@ -22518,38 +21967,22 @@
       </c>
     </row>
     <row r="23" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="58">
-        <v>20</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="58">
-        <v>1</v>
-      </c>
-      <c r="H23" s="58">
-        <v>1</v>
-      </c>
-      <c r="I23" s="58">
-        <v>1</v>
-      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="40" t="str">
         <f>IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R3)&amp;","</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S23" s="40" t="str">
         <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T23" s="40" t="str">
         <f t="shared" si="8"/>
@@ -22569,41 +22002,25 @@
       </c>
       <c r="Z23" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="58">
-        <v>21</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="58">
-        <v>2</v>
-      </c>
-      <c r="H24" s="58">
-        <v>2</v>
-      </c>
-      <c r="I24" s="58">
-        <v>1</v>
-      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
       <c r="R24" s="40" t="str">
         <f t="shared" ref="R24:U37" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S24" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T24" s="40" t="str">
         <f t="shared" si="9"/>
@@ -22623,42 +22040,26 @@
       </c>
       <c r="Z24" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="58">
-        <v>22</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="58">
-        <v>1</v>
-      </c>
-      <c r="H25" s="58">
-        <v>1</v>
-      </c>
-      <c r="I25" s="58">
-        <v>1</v>
-      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>5,</v>
+        <v>0,</v>
       </c>
       <c r="S25" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>5,</v>
+        <v>0,</v>
       </c>
       <c r="T25" s="40" t="str">
         <f t="shared" si="9"/>
@@ -22670,7 +22071,7 @@
       </c>
       <c r="X25" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="Y25" s="24" t="str">
         <f t="shared" si="6"/>
@@ -22682,38 +22083,22 @@
       </c>
     </row>
     <row r="26" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="58">
-        <v>23</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="58">
-        <v>2</v>
-      </c>
-      <c r="H26" s="58">
-        <v>3</v>
-      </c>
-      <c r="I26" s="58">
-        <v>1</v>
-      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
       <c r="Q26" s="26"/>
       <c r="R26" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>4,</v>
+        <v>0,</v>
       </c>
       <c r="S26" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>4,</v>
+        <v>0,</v>
       </c>
       <c r="T26" s="40" t="str">
         <f t="shared" si="9"/>
@@ -22725,7 +22110,7 @@
       </c>
       <c r="X26" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="Y26" s="24" t="str">
         <f t="shared" si="6"/>
@@ -22737,30 +22122,14 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="58">
-        <v>24</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="58">
-        <v>1</v>
-      </c>
-      <c r="H27" s="58">
-        <v>1</v>
-      </c>
-      <c r="I27" s="58">
-        <v>1</v>
-      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
       <c r="R27" s="40" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
@@ -22787,37 +22156,21 @@
       </c>
       <c r="Z27" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="58">
-        <v>25</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" s="58">
-        <v>1</v>
-      </c>
-      <c r="H28" s="58">
-        <v>1</v>
-      </c>
-      <c r="I28" s="58">
-        <v>1</v>
-      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
       <c r="R28" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S28" s="40" t="str">
         <f t="shared" si="9"/>
@@ -22825,7 +22178,7 @@
       </c>
       <c r="T28" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="U28" s="40" t="str">
         <f t="shared" si="9"/>
@@ -22837,7 +22190,7 @@
       </c>
       <c r="Y28" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>WW/5M</v>
+        <v/>
       </c>
       <c r="Z28" s="24" t="str">
         <f t="shared" si="7"/>
@@ -22875,15 +22228,15 @@
       <c r="I30" s="24"/>
       <c r="R30" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>4,</v>
+        <v>0,</v>
       </c>
       <c r="S30" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T30" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>3,</v>
+        <v>0,</v>
       </c>
       <c r="U30" s="40" t="str">
         <f t="shared" si="9"/>
@@ -22893,7 +22246,7 @@
     <row r="31" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R31" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>3,</v>
+        <v>0,</v>
       </c>
       <c r="S31" s="40" t="str">
         <f t="shared" si="9"/>
@@ -22901,7 +22254,7 @@
       </c>
       <c r="T31" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>3,</v>
+        <v>0,</v>
       </c>
       <c r="U31" s="40" t="str">
         <f t="shared" si="9"/>
@@ -22911,7 +22264,7 @@
     <row r="32" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R32" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S32" s="40" t="str">
         <f t="shared" si="9"/>
@@ -22919,7 +22272,7 @@
       </c>
       <c r="T32" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="U32" s="40" t="str">
         <f t="shared" si="9"/>
@@ -22947,11 +22300,11 @@
     <row r="34" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R34" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S34" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T34" s="40" t="str">
         <f t="shared" si="9"/>
@@ -22965,11 +22318,11 @@
     <row r="35" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
+        <v>0,</v>
       </c>
       <c r="S35" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
+        <v>0,</v>
       </c>
       <c r="T35" s="40" t="str">
         <f t="shared" si="9"/>
@@ -22983,11 +22336,11 @@
     <row r="36" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S36" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T36" s="40" t="str">
         <f t="shared" si="9"/>
@@ -23045,18 +22398,18 @@
       <c r="U40" s="19"/>
     </row>
     <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q41" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
+      <c r="Q41" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
     </row>
     <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
     </row>
     <row r="43" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q43" s="40" t="str">
@@ -23067,19 +22420,19 @@
     <row r="44" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q44" s="40" t="str">
         <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;"],"</f>
-        <v>"Points":[1,1,5,4,0,1,0,4,3,1,0,1,2,1,0,0],</v>
+        <v>"Points":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="45" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q45" s="40" t="str">
         <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;"],"</f>
-        <v>"Finishes":[1,1,5,4,0,0,0,1,0,0,0,1,2,1,0,0],</v>
+        <v>"Finishes":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="46" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q46" s="40" t="str">
         <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;"],"</f>
-        <v>"Midrange":[0,0,0,0,0,1,0,3,3,1,0,0,0,0,0,0],</v>
+        <v>"Midrange":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="47" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E1040-4A14-4C9B-A256-D04518AEBB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A8382B-D63B-4188-ACD0-11816A1D8A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="16875" windowHeight="10522" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="2512" yWindow="2512" windowWidth="16876" windowHeight="10523" firstSheet="3" activeTab="5" xr2:uid="{7886D0A9-E56D-4F3C-AC93-1698D45AF0BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="2" activeTab="3" xr2:uid="{7886D0A9-E56D-4F3C-AC93-1698D45AF0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="175">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -600,6 +599,21 @@
   <si>
     <t>Did not Play</t>
   </si>
+  <si>
+    <t>Scores Against Us</t>
+  </si>
+  <si>
+    <t>Avg F</t>
+  </si>
+  <si>
+    <t>Avg M</t>
+  </si>
+  <si>
+    <t>Avg 3</t>
+  </si>
+  <si>
+    <t>Avg P</t>
+  </si>
 </sst>
 </file>
 
@@ -858,7 +872,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -936,13 +950,289 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E4ED72E7-E964-4884-BAF1-D3A03BDB6523}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1634,37 +1924,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="P7:Z23" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="P7:Z23" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="P7:Z23" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="20">
       <calculatedColumnFormula>Q29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="19">
       <calculatedColumnFormula>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="18">
       <calculatedColumnFormula>S29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="17">
       <calculatedColumnFormula>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="16">
       <calculatedColumnFormula>U29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="15">
       <calculatedColumnFormula>Table1[[#This Row],[Midranges]]/($Q$5-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="14">
       <calculatedColumnFormula>W29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[Threes]]/($Q$5-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="11">
       <calculatedColumnFormula>Y29</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{587B90AE-8257-4DD1-B916-54A097BDCDB9}" name="Table2" displayName="Table2" ref="AA3:AI13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="AA3:AI13" xr:uid="{587B90AE-8257-4DD1-B916-54A097BDCDB9}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9C18B4B0-9A37-408A-98B5-B414F029A26A}" name="Scoring" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{CC6666B6-FDFB-4B1A-846E-17C28664C92E}" name="Points" dataDxfId="9">
+      <calculatedColumnFormula>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{B5D40421-D55D-4F90-92A6-7ACDF9A81BB9}" name="Avg P" dataDxfId="3">
+      <calculatedColumnFormula>Table2[[#This Row],[Points]]/$AC$2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{FA85A798-E688-4A4F-A92F-2DD56D710025}" name="Finishes" dataDxfId="8">
+      <calculatedColumnFormula>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA4, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{14C722B6-CCC7-4AA5-A077-4781282133B0}" name="Avg F" dataDxfId="2">
+      <calculatedColumnFormula>Table2[[#This Row],[Finishes]]/$AC$2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{1E54054E-9F21-4987-99FC-EF35338EC708}" name="Midranges" dataDxfId="4">
+      <calculatedColumnFormula>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA4, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3BC984C2-EE5E-43C7-8014-7F0DA5F9EB7A}" name="Avg M" dataDxfId="1">
+      <calculatedColumnFormula>Table2[[#This Row],[Midranges]]/$AC$2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{9FAC1FFA-039C-4124-88C5-1A3BE26F7F04}" name="Threes" dataDxfId="7">
+      <calculatedColumnFormula>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA4, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{44E19C86-A8F7-4165-82A8-E143251937CE}" name="Avg 3" dataDxfId="0">
+      <calculatedColumnFormula>Table2[[#This Row],[Threes]]/$AC$2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1873,7 +2197,6 @@
   <dimension ref="B1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2922,10 +3245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796D4537-85EB-4C68-BF6F-CE095710B21E}">
   <dimension ref="B1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I25"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5288,10 +5608,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7975,9 +8292,8 @@
   <dimension ref="B1:AL1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10863,22 +11179,26 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-    <sheetView topLeftCell="P1" workbookViewId="1">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="32" width="8.73046875" customWidth="1"/>
+    <col min="1" max="28" width="8.73046875" customWidth="1"/>
+    <col min="29" max="29" width="9.53125" customWidth="1"/>
+    <col min="30" max="30" width="9.265625" customWidth="1"/>
+    <col min="31" max="31" width="10.265625" customWidth="1"/>
+    <col min="32" max="32" width="11.33203125" customWidth="1"/>
+    <col min="33" max="33" width="12.46484375" customWidth="1"/>
+    <col min="34" max="34" width="11.06640625" customWidth="1"/>
+    <col min="35" max="35" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>138</v>
       </c>
@@ -10891,8 +11211,14 @@
       <c r="V2" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -10956,8 +11282,36 @@
       <c r="Y3" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA3" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB3" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD3" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF3" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH3" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI3" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ3" s="5"/>
+    </row>
+    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <f>'2404'!$C$2</f>
         <v>45040</v>
@@ -11022,8 +11376,44 @@
       <c r="Y4" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA4" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="75">
+        <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="76">
+        <f>Table2[[#This Row],[Points]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA4, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="78">
+        <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA4, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="78">
+        <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA4, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="78">
+        <f>Table2[[#This Row],[Threes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="40"/>
+    </row>
+    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <f>'1904'!$C$2</f>
         <v>45035</v>
@@ -11066,8 +11456,44 @@
       </c>
       <c r="X5" s="67"/>
       <c r="Y5" s="67"/>
-    </row>
-    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA5" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="75">
+        <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="76">
+        <f>Table2[[#This Row],[Points]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA5, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="78">
+        <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA5, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="78">
+        <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA5, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="78">
+        <f>Table2[[#This Row],[Threes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="40"/>
+    </row>
+    <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <f>'2004'!$C$2</f>
         <v>45036</v>
@@ -11114,8 +11540,44 @@
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
-    </row>
-    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA6" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" s="75">
+        <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
+        <v>3</v>
+      </c>
+      <c r="AC6" s="76">
+        <f>Table2[[#This Row],[Points]]/$AC$2</f>
+        <v>3</v>
+      </c>
+      <c r="AD6" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA6, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>3</v>
+      </c>
+      <c r="AE6" s="78">
+        <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
+        <v>3</v>
+      </c>
+      <c r="AF6" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA6, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="78">
+        <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA6, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="78">
+        <f>Table2[[#This Row],[Threes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="40"/>
+    </row>
+    <row r="7" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11138,8 +11600,44 @@
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
-    </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA7" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="75">
+        <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
+        <v>1</v>
+      </c>
+      <c r="AC7" s="76">
+        <f>Table2[[#This Row],[Points]]/$AC$2</f>
+        <v>1</v>
+      </c>
+      <c r="AD7" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA7, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>1</v>
+      </c>
+      <c r="AE7" s="78">
+        <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
+        <v>1</v>
+      </c>
+      <c r="AF7" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA7, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="78">
+        <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA7, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="78">
+        <f>Table2[[#This Row],[Threes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="40"/>
+    </row>
+    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11162,8 +11660,44 @@
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
       <c r="Y8" s="17"/>
-    </row>
-    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA8" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" s="75">
+        <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="76">
+        <f>Table2[[#This Row],[Points]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA8, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="78">
+        <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA8, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="78">
+        <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA8, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="78">
+        <f>Table2[[#This Row],[Threes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="40"/>
+    </row>
+    <row r="9" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -11186,8 +11720,44 @@
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
       <c r="Y9" s="17"/>
-    </row>
-    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA9" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB9" s="75">
+        <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="76">
+        <f>Table2[[#This Row],[Points]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA9, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="78">
+        <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA9, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="78">
+        <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA9, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="78">
+        <f>Table2[[#This Row],[Threes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="40"/>
+    </row>
+    <row r="10" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11210,8 +11780,44 @@
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
-    </row>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA10" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB10" s="75">
+        <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="76">
+        <f>Table2[[#This Row],[Points]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA10, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="78">
+        <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA10, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="78">
+        <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA10, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="78">
+        <f>Table2[[#This Row],[Threes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="40"/>
+    </row>
+    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11234,8 +11840,44 @@
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
-    </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA11" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB11" s="75">
+        <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="76">
+        <f>Table2[[#This Row],[Points]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA11, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="78">
+        <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA11, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="78">
+        <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA11, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="78">
+        <f>Table2[[#This Row],[Threes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="40"/>
+    </row>
+    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -11258,8 +11900,44 @@
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
-    </row>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA12" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB12" s="75">
+        <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
+        <v>1</v>
+      </c>
+      <c r="AC12" s="76">
+        <f>Table2[[#This Row],[Points]]/$AC$2</f>
+        <v>1</v>
+      </c>
+      <c r="AD12" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA12, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>1</v>
+      </c>
+      <c r="AE12" s="78">
+        <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
+        <v>1</v>
+      </c>
+      <c r="AF12" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA12, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="78">
+        <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA12, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="78">
+        <f>Table2[[#This Row],[Threes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="40"/>
+    </row>
+    <row r="13" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -11282,8 +11960,44 @@
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
-    </row>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA13" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB13" s="75">
+        <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="76">
+        <f>Table2[[#This Row],[Points]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA13, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="78">
+        <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA13, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="78">
+        <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="77">
+        <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA13, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="78">
+        <f>Table2[[#This Row],[Threes]]/$AC$2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="40"/>
+    </row>
+    <row r="14" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11302,8 +12016,9 @@
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
-    </row>
-    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AJ14" s="40"/>
+    </row>
+    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11322,8 +12037,9 @@
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
-    </row>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AJ15" s="40"/>
+    </row>
+    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11342,8 +12058,9 @@
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
-    </row>
-    <row r="17" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AJ16" s="40"/>
+    </row>
+    <row r="17" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -11362,8 +12079,9 @@
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
-    </row>
-    <row r="18" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AJ17" s="40"/>
+    </row>
+    <row r="18" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -11382,8 +12100,9 @@
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
       <c r="Y18" s="17"/>
-    </row>
-    <row r="19" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AJ18" s="40"/>
+    </row>
+    <row r="19" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -11402,8 +12121,9 @@
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
-    </row>
-    <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AJ19" s="40"/>
+    </row>
+    <row r="20" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -11423,7 +12143,7 @@
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
     </row>
-    <row r="21" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -11443,7 +12163,7 @@
       <c r="X21" s="17"/>
       <c r="Y21" s="17"/>
     </row>
-    <row r="22" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
@@ -11459,7 +12179,7 @@
       <c r="X22" s="17"/>
       <c r="Y22" s="17"/>
     </row>
-    <row r="23" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="23" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -11481,7 +12201,7 @@
       <c r="X23" s="17"/>
       <c r="Y23" s="17"/>
     </row>
-    <row r="24" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="24" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -11503,7 +12223,7 @@
       <c r="X24" s="17"/>
       <c r="Y24" s="17"/>
     </row>
-    <row r="25" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="25" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -11525,7 +12245,7 @@
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
     </row>
-    <row r="26" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -11541,7 +12261,7 @@
       <c r="X26" s="17"/>
       <c r="Y26" s="17"/>
     </row>
-    <row r="27" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
@@ -11557,7 +12277,7 @@
       <c r="X27" s="17"/>
       <c r="Y27" s="17"/>
     </row>
-    <row r="28" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
@@ -11573,7 +12293,7 @@
       <c r="X28" s="17"/>
       <c r="Y28" s="17"/>
     </row>
-    <row r="29" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
@@ -11589,7 +12309,7 @@
       <c r="X29" s="17"/>
       <c r="Y29" s="17"/>
     </row>
-    <row r="30" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
@@ -11620,7 +12340,7 @@
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
     </row>
-    <row r="31" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I31" s="1"/>
       <c r="Q31" s="22">
         <f>Q30/(R30+Q30)</f>
@@ -11631,7 +12351,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -11641,977 +12361,980 @@
       <c r="O32" s="1"/>
       <c r="V32" s="22"/>
     </row>
-    <row r="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="210" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="211" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="212" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="213" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="214" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="215" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="216" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="217" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="218" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="220" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="221" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="222" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="223" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="224" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="225" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="226" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="228" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="229" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="230" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="231" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="232" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="233" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="234" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="235" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="236" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="237" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="238" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="239" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="240" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="241" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="243" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="244" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="245" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="246" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="247" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="248" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="249" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="250" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="251" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="253" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="254" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="255" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="256" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="257" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="258" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="259" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="260" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="261" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="262" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="264" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="265" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="266" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="267" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="268" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="269" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="270" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="271" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="272" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="273" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="274" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="275" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="276" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="277" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="278" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="279" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="280" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="281" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="282" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="283" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="284" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="285" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="286" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="287" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="288" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="289" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="290" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="291" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="292" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="293" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="294" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="295" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="296" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="297" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="298" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="299" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="300" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="301" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="302" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="303" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="304" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="305" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="306" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="307" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="308" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="309" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="310" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="311" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="312" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="313" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="314" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="315" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="316" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="317" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="318" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="319" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="320" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="321" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="322" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="323" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="324" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="325" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="326" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="327" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="328" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="329" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="330" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="331" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="332" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="333" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="334" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="335" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="336" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="337" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="338" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="339" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="340" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="341" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="342" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="343" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="344" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="345" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="346" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="347" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="348" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="349" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="350" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="351" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="352" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="353" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="354" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="355" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="356" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="357" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="358" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="359" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="360" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="361" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="362" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="363" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="364" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="365" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="366" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="367" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="368" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="369" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="370" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="371" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="372" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="373" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="374" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="375" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="376" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="377" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="378" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="379" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="380" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="381" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="382" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="383" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="384" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="385" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="386" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="387" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="388" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="389" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="390" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="391" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="392" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="393" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="394" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="395" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="396" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="397" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="398" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="399" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="400" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="401" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="402" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="403" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="404" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="405" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="406" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="407" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="408" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="409" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="410" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="411" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="412" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="413" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="414" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="415" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="416" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="417" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="418" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="419" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="420" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="421" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="422" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="423" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="424" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="425" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="426" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="427" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="428" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="429" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="430" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="431" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="432" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="434" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="435" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="436" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="437" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="438" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="439" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="440" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="441" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="442" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="443" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="444" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="445" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="446" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="447" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="448" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="449" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="450" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="451" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="452" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="453" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="454" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="455" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="456" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="457" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="458" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="459" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="460" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="461" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="462" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="463" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="464" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="465" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="466" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="467" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="468" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="469" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="470" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="471" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="472" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="473" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="474" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="475" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="476" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="477" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="478" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="479" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="480" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="481" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="482" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="483" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="484" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="485" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="486" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="487" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="488" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="489" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="490" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="491" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="492" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="493" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="494" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="495" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="496" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="497" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="498" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="499" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="500" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="501" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="502" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="503" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="504" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="505" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="506" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="507" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="508" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="509" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="510" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="511" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="512" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="513" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="514" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="515" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="516" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="517" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="518" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="519" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="520" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="521" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="522" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="523" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="524" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="525" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="526" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="527" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="528" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="529" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="530" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="531" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="532" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="533" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="534" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="535" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="536" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="537" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="538" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="539" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="540" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="541" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="542" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="543" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="544" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="545" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="546" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="547" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="548" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="549" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="550" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="551" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="552" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="553" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="554" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="555" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="556" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="557" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="558" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="559" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="560" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="561" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="562" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="563" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="564" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="565" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="566" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="567" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="568" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="569" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="570" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="571" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="572" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="573" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="574" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="575" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="576" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="577" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="578" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="579" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="580" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="581" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="582" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="583" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="584" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="585" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="586" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="587" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="588" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="589" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="590" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="591" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="592" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="593" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="594" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="595" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="596" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="597" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="598" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="599" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="600" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="601" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="602" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="603" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="604" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="605" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="606" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="607" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="608" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="609" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="610" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="611" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="612" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="613" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="614" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="615" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="616" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="617" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="618" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="619" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="620" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="621" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="622" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="623" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="624" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="625" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="626" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="627" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="628" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="629" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="630" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="631" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="632" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="633" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="634" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="635" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="636" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="637" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="638" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="639" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="640" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="641" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="642" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="643" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="644" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="645" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="646" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="647" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="648" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="649" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="650" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="651" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="652" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="653" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="654" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="655" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="656" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="657" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="658" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="659" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="660" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="661" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="662" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="663" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="664" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="665" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="666" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="667" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="668" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="669" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="670" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="671" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="672" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="673" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="674" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="675" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="676" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="677" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="678" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="679" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="680" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="681" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="682" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="683" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="684" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="685" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="686" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="687" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="688" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="689" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="690" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="691" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="692" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="693" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="694" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="695" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="696" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="697" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="698" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="699" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="700" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="701" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="702" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="703" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="704" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="705" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="706" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="707" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="708" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="709" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="710" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="711" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="712" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="713" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="714" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="715" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="716" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="717" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="718" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="719" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="720" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="721" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="722" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="723" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="724" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="725" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="726" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="727" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="728" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="729" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="730" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="731" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="732" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="733" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="734" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="735" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="736" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="737" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="738" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="739" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="740" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="741" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="742" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="743" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="744" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="745" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="746" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="747" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="748" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="749" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="750" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="751" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="752" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="753" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="754" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="755" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="756" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="757" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="758" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="759" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="760" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="761" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="762" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="763" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="764" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="765" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="766" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="767" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="768" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="769" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="770" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="771" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="772" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="773" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="774" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="775" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="776" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="777" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="778" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="779" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="780" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="781" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="782" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="783" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="784" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="785" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="786" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="787" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="788" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="789" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="790" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="791" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="792" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="793" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="794" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="795" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="796" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="797" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="798" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="799" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="800" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="801" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="802" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="803" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="804" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="805" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="806" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="807" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="808" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="809" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="810" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="811" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="812" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="813" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="814" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="815" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="816" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="817" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="818" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="819" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="820" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="821" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="822" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="823" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="824" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="825" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="826" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="827" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="828" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="829" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="830" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="831" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="832" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="833" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="834" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="835" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="836" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="837" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="838" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="839" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="840" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="841" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="842" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="843" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="844" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="845" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="846" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="847" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="848" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="849" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="850" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="851" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="852" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="853" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="854" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="855" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="856" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="857" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="858" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="859" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="860" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="861" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="862" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="863" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="864" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="865" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="866" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="867" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="868" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="869" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="870" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="871" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="872" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="873" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="874" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="875" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="876" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="877" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="878" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="879" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="880" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="881" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="882" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="883" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="884" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="885" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="886" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="887" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="888" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="889" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="890" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="891" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="892" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="893" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="894" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="895" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="896" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="897" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="898" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="899" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="900" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="901" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="902" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="903" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="904" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="905" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="906" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="907" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="908" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="909" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="910" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="911" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="912" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="913" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="914" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="915" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="916" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="917" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="918" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="919" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="920" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="921" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="922" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="923" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="924" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="925" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="926" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="927" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="928" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="929" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="930" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="931" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="932" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="933" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="934" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="935" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="936" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="937" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="938" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="939" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="940" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="941" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="942" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="943" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="944" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="945" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="946" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="947" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="948" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="949" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="950" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="951" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="952" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="953" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="954" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="955" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="956" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="957" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="958" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="959" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="960" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="961" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="962" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="963" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="964" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="965" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="966" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="967" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="968" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="969" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="970" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="971" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="972" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="973" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="974" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="975" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="976" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="977" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="978" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="979" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="980" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="981" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="982" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="983" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="984" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="985" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="986" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="987" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="988" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="989" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="990" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="991" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="992" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="993" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="994" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="995" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="996" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="997" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="998" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="999" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="1000" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -12620,10 +13343,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
-    <sheetView topLeftCell="G1" workbookViewId="1">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -14316,10 +15036,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -16013,10 +16730,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -18510,10 +19224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E7D6EA-0942-4896-8FCD-5B2FCE43B119}">
   <dimension ref="B1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -18620,15 +19333,15 @@
         <v>0</v>
       </c>
       <c r="S3" s="20">
-        <f t="shared" ref="S3:S18" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
+        <f>COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Finish")</f>
         <v>0</v>
       </c>
       <c r="T3" s="20">
-        <f t="shared" ref="T3:T18" si="3">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
+        <f t="shared" ref="T3:T18" si="2">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="U3" s="20">
-        <f t="shared" ref="U3:U18" si="4">COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
+        <f>COUNTIFS($E$3:$E$27, $Q3,$F$3:$F$27,"Three Pointer")</f>
         <v>0</v>
       </c>
       <c r="V3" s="68" t="b">
@@ -18696,15 +19409,15 @@
         <v>0</v>
       </c>
       <c r="S4" s="20">
+        <f t="shared" ref="S3:S18" si="3">COUNTIFS($E$3:$E$27, $Q4,$F$3:$F$27,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T4" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="U4" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="U3:U18" si="4">COUNTIFS($E$3:$E$27, $Q4,$F$3:$F$27,"Three Pointer")</f>
         <v>0</v>
       </c>
       <c r="V4" s="68" t="b">
@@ -18775,11 +19488,11 @@
         <v>3</v>
       </c>
       <c r="S5" s="20">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T5" s="20">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="T5" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U5" s="20">
@@ -18835,11 +19548,11 @@
         <v>1</v>
       </c>
       <c r="S6" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U6" s="20">
@@ -18895,11 +19608,11 @@
         <v>0</v>
       </c>
       <c r="S7" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U7" s="20">
@@ -18955,11 +19668,11 @@
         <v>2</v>
       </c>
       <c r="S8" s="20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T8" s="20">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="T8" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U8" s="20">
@@ -19015,11 +19728,11 @@
         <v>0</v>
       </c>
       <c r="S9" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U9" s="20">
@@ -19075,11 +19788,11 @@
         <v>0</v>
       </c>
       <c r="S10" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U10" s="20">
@@ -19135,11 +19848,11 @@
         <v>2</v>
       </c>
       <c r="S11" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T11" s="20">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U11" s="20">
@@ -19195,11 +19908,11 @@
         <v>0</v>
       </c>
       <c r="S12" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U12" s="20">
@@ -19255,11 +19968,11 @@
         <v>2</v>
       </c>
       <c r="S13" s="20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T13" s="20">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="T13" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U13" s="20">
@@ -19315,11 +20028,11 @@
         <v>0</v>
       </c>
       <c r="S14" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14" s="20">
@@ -19375,11 +20088,11 @@
         <v>3</v>
       </c>
       <c r="S15" s="20">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T15" s="20">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="T15" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U15" s="20">
@@ -19435,11 +20148,11 @@
         <v>0</v>
       </c>
       <c r="S16" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U16" s="20">
@@ -19479,11 +20192,11 @@
         <v>0</v>
       </c>
       <c r="S17" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U17" s="20">
@@ -19523,11 +20236,11 @@
         <v>0</v>
       </c>
       <c r="S18" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U18" s="20">
@@ -21042,10 +21755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64907ADA-4AE3-448A-96DF-C6B453B6FF51}">
   <dimension ref="B1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I29"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A8382B-D63B-4188-ACD0-11816A1D8A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E6741E-3881-4063-9EB7-851725267C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="2" activeTab="3" xr2:uid="{7886D0A9-E56D-4F3C-AC93-1698D45AF0BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="2" xr2:uid="{7886D0A9-E56D-4F3C-AC93-1698D45AF0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Statistics 5M" sheetId="6" r:id="rId6"/>
     <sheet name="Template" sheetId="7" r:id="rId7"/>
     <sheet name="2404" sheetId="8" r:id="rId8"/>
-    <sheet name="1904" sheetId="9" r:id="rId9"/>
-    <sheet name="2004" sheetId="10" r:id="rId10"/>
+    <sheet name="2604" sheetId="9" r:id="rId9"/>
+    <sheet name="2704" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="173">
   <si>
     <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
   </si>
@@ -531,15 +531,6 @@
     <t>Put records on team page</t>
   </si>
   <si>
-    <t>Upload new stats to website</t>
-  </si>
-  <si>
-    <t>Upload new day stats to website</t>
-  </si>
-  <si>
-    <t>Add &lt;tr&gt; for day stats</t>
-  </si>
-  <si>
     <t>Retained by 5 Musketeers</t>
   </si>
   <si>
@@ -576,9 +567,6 @@
     <t>Ladder Points:</t>
   </si>
   <si>
-    <t>Change on results.js</t>
-  </si>
-  <si>
     <t>Averages2</t>
   </si>
   <si>
@@ -613,6 +601,12 @@
   </si>
   <si>
     <t>Avg P</t>
+  </si>
+  <si>
+    <t>Change results.js</t>
+  </si>
+  <si>
+    <t>Change array.js</t>
   </si>
 </sst>
 </file>
@@ -947,9 +941,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -958,6 +949,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,6 +999,31 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -1029,6 +1048,31 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -1036,6 +1080,31 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1108,30 +1177,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1150,18 +1195,16 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1173,57 +1216,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1962,29 +1956,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{587B90AE-8257-4DD1-B916-54A097BDCDB9}" name="Table2" displayName="Table2" ref="AA3:AI13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{587B90AE-8257-4DD1-B916-54A097BDCDB9}" name="Table2" displayName="Table2" ref="AA3:AI13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="AA3:AI13" xr:uid="{587B90AE-8257-4DD1-B916-54A097BDCDB9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9C18B4B0-9A37-408A-98B5-B414F029A26A}" name="Scoring" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{CC6666B6-FDFB-4B1A-846E-17C28664C92E}" name="Points" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{9C18B4B0-9A37-408A-98B5-B414F029A26A}" name="Scoring" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CC6666B6-FDFB-4B1A-846E-17C28664C92E}" name="Points" dataDxfId="7">
       <calculatedColumnFormula>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B5D40421-D55D-4F90-92A6-7ACDF9A81BB9}" name="Avg P" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{B5D40421-D55D-4F90-92A6-7ACDF9A81BB9}" name="Avg P" dataDxfId="6">
       <calculatedColumnFormula>Table2[[#This Row],[Points]]/$AC$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FA85A798-E688-4A4F-A92F-2DD56D710025}" name="Finishes" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{FA85A798-E688-4A4F-A92F-2DD56D710025}" name="Finishes" dataDxfId="5">
       <calculatedColumnFormula>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA4, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{14C722B6-CCC7-4AA5-A077-4781282133B0}" name="Avg F" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{14C722B6-CCC7-4AA5-A077-4781282133B0}" name="Avg F" dataDxfId="4">
       <calculatedColumnFormula>Table2[[#This Row],[Finishes]]/$AC$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1E54054E-9F21-4987-99FC-EF35338EC708}" name="Midranges" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{1E54054E-9F21-4987-99FC-EF35338EC708}" name="Midranges" dataDxfId="3">
       <calculatedColumnFormula>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA4, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3BC984C2-EE5E-43C7-8014-7F0DA5F9EB7A}" name="Avg M" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{3BC984C2-EE5E-43C7-8014-7F0DA5F9EB7A}" name="Avg M" dataDxfId="2">
       <calculatedColumnFormula>Table2[[#This Row],[Midranges]]/$AC$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9FAC1FFA-039C-4124-88C5-1A3BE26F7F04}" name="Threes" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{9FAC1FFA-039C-4124-88C5-1A3BE26F7F04}" name="Threes" dataDxfId="1">
       <calculatedColumnFormula>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA4, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{44E19C86-A8F7-4165-82A8-E143251937CE}" name="Avg 3" dataDxfId="0">
@@ -3245,7 +3239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796D4537-85EB-4C68-BF6F-CE095710B21E}">
   <dimension ref="B1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3265,7 +3261,7 @@
         <v>122</v>
       </c>
       <c r="C2" s="4">
-        <v>45036</v>
+        <v>45043</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>123</v>
@@ -3298,7 +3294,7 @@
         <v>125</v>
       </c>
       <c r="V2" s="40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3424,7 +3420,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V4" s="40" t="b">
+      <c r="V4" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X4" s="24" t="str">
@@ -3487,8 +3483,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V5" s="40" t="b">
-        <v>1</v>
+      <c r="V5" s="68" t="b">
+        <v>0</v>
       </c>
       <c r="X5" s="24" t="str">
         <f t="shared" si="5"/>
@@ -3531,7 +3527,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V6" s="40" t="b">
+      <c r="V6" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X6" s="24" t="str">
@@ -3575,7 +3571,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V7" s="40" t="b">
+      <c r="V7" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X7" s="24" t="str">
@@ -3619,8 +3615,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V8" s="40" t="b">
-        <v>1</v>
+      <c r="V8" s="68" t="b">
+        <v>0</v>
       </c>
       <c r="X8" s="24" t="str">
         <f t="shared" si="5"/>
@@ -3663,7 +3659,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V9" s="40" t="b">
+      <c r="V9" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X9" s="24" t="str">
@@ -3707,7 +3703,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V10" s="40" t="b">
+      <c r="V10" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X10" s="24" t="str">
@@ -3751,7 +3747,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V11" s="40" t="b">
+      <c r="V11" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X11" s="24" t="str">
@@ -3795,7 +3791,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V12" s="40" t="b">
+      <c r="V12" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X12" s="24" t="str">
@@ -3839,8 +3835,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V13" s="40" t="b">
-        <v>1</v>
+      <c r="V13" s="68" t="b">
+        <v>0</v>
       </c>
       <c r="X13" s="24" t="str">
         <f t="shared" si="5"/>
@@ -3883,7 +3879,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V14" s="40" t="b">
+      <c r="V14" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X14" s="24" t="str">
@@ -3927,7 +3923,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V15" s="40" t="b">
+      <c r="V15" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X15" s="24" t="str">
@@ -3971,7 +3967,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V16" s="40" t="b">
+      <c r="V16" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X16" s="24" t="str">
@@ -4015,7 +4011,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V17" s="40" t="b">
+      <c r="V17" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X17" s="24" t="str">
@@ -4041,7 +4037,7 @@
       <c r="H18" s="58"/>
       <c r="I18" s="58"/>
       <c r="Q18" s="40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R18" s="42">
         <f t="shared" si="1"/>
@@ -4059,7 +4055,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V18" s="40" t="b">
+      <c r="V18" s="68" t="b">
         <v>0</v>
       </c>
       <c r="X18" s="24" t="str">
@@ -4255,19 +4251,19 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="S25" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="T25" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="U25" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="X25" s="24" t="str">
         <f t="shared" si="5"/>
@@ -4370,19 +4366,19 @@
       <c r="I28" s="58"/>
       <c r="R28" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="S28" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="T28" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="U28" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="X28" s="24" t="str">
         <f t="shared" si="5"/>
@@ -4482,19 +4478,19 @@
     <row r="33" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R33" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="S33" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="T33" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="U33" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
     </row>
     <row r="34" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -4598,47 +4594,47 @@
       <c r="U40" s="19"/>
     </row>
     <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q41" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="R41" s="70"/>
-      <c r="S41" s="70"/>
+      <c r="Q41" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
     </row>
     <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
-      <c r="S42" s="70"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="78"/>
     </row>
     <row r="43" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q43" s="40" t="str">
-        <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;"20-Apr"&amp;CHAR(34)&amp;"],"</f>
-        <v>"Date":["20-Apr"],</v>
+        <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;"27-Apr"&amp;CHAR(34)&amp;"],"</f>
+        <v>"Date":["27-Apr"],</v>
       </c>
     </row>
     <row r="44" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q44" s="40" t="str">
         <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;"],"</f>
-        <v>"Points":[0,0,"Did not Play",0,0,"Did not Play",0,0,0,0,"Did not Play",0,0,0,0,0],</v>
+        <v>"Points":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="45" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q45" s="40" t="str">
         <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;"],"</f>
-        <v>"Finishes":[0,0,"Did not Play",0,0,"Did not Play",0,0,0,0,"Did not Play",0,0,0,0,0],</v>
+        <v>"Finishes":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="46" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q46" s="40" t="str">
         <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;"],"</f>
-        <v>"Midrange":[0,0,"Did not Play",0,0,"Did not Play",0,0,0,0,"Did not Play",0,0,0,0,0],</v>
+        <v>"Midrange":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="47" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q47" s="40" t="str">
         <f>CHAR(34)&amp;"ThreePointers"&amp;CHAR(34)&amp;":["&amp;U23&amp;U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30&amp;U31&amp;U32&amp;U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;"]"</f>
-        <v>"ThreePointers":[0,0,"Did not Play",0,0,"Did not Play",0,0,0,0,"Did not Play",0,0,0,0,0]</v>
+        <v>"ThreePointers":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</v>
       </c>
     </row>
     <row r="48" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5608,7 +5604,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5739,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="U3" s="1" t="str">
         <f t="shared" ref="U3:U18" si="0">IF(C3="5 Musketeers", $X$3, IF(C3="Loose Gooses", $X$4, $X$5))</f>
@@ -5793,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="U4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5856,7 +5854,7 @@
         <v>42</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5922,7 +5920,7 @@
         <v>42</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="U6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6040,7 +6038,7 @@
         <v>45</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="U8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6097,7 +6095,7 @@
         <v>54</v>
       </c>
       <c r="T9" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6160,7 +6158,7 @@
         <v>41</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="U10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6281,7 +6279,7 @@
         <v>42</v>
       </c>
       <c r="T12" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="U12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6304,7 +6302,7 @@
       </c>
       <c r="D13" s="14">
         <f>'Stats Global'!R18</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E13" s="24">
         <f>'Stats Global'!Q18</f>
@@ -6312,7 +6310,7 @@
       </c>
       <c r="F13" s="14">
         <f>'Stats Global'!T18</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G13" s="24">
         <f>'Stats Global'!S18</f>
@@ -6341,7 +6339,7 @@
         <v>42</v>
       </c>
       <c r="T13" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="U13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6398,7 +6396,7 @@
         <v>70</v>
       </c>
       <c r="T14" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6525,7 +6523,7 @@
         <v>42</v>
       </c>
       <c r="T16" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="U16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6579,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6595,7 +6593,7 @@
     </row>
     <row r="18" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>57</v>
@@ -6633,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U18" s="40" t="str">
         <f t="shared" si="0"/>
@@ -6660,11 +6658,11 @@
       <c r="I20" s="38"/>
       <c r="J20" s="41"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
+      <c r="L20" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
       <c r="X20" s="3" t="s">
         <v>83</v>
       </c>
@@ -6704,9 +6702,9 @@
         <f>CHAR(34)&amp;"TT"&amp;CHAR(34)</f>
         <v>"TT"</v>
       </c>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
       <c r="X21" s="3" t="s">
         <v>85</v>
       </c>
@@ -6747,7 +6745,7 @@
       </c>
       <c r="L22" s="41" t="str">
         <f>D21&amp;":["&amp;D22&amp;D23&amp;D24&amp;D25&amp;D26&amp;D27&amp;D28&amp;D29&amp;D30&amp;D31&amp;D32&amp;D33&amp;D34&amp;D35&amp;D36&amp;D37&amp;"],"</f>
-        <v>"PPG":["0","0","3","1","0","2","0","0","2","0","-2","0","3","0","0","0",],</v>
+        <v>"PPG":["0","0","3","1","0","2","0","0","2","0","2","0","3","0","0","0",],</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>86</v>
@@ -6830,7 +6828,7 @@
       </c>
       <c r="L24" t="str">
         <f>F21&amp;":["&amp;F22&amp;F23&amp;F24&amp;F25&amp;F26&amp;F27&amp;F28&amp;F29&amp;F30&amp;F31&amp;F32&amp;F33&amp;F34&amp;F35&amp;F36&amp;F37&amp;"],"</f>
-        <v>"FPG":["0","0","3","1","0","2","0","0","1","0","-2","0","3","0","0","0",],</v>
+        <v>"FPG":["0","0","3","1","0","2","0","0","1","0","2","0","3","0","0","0",],</v>
       </c>
       <c r="X24" s="40" t="s">
         <v>107</v>
@@ -7100,7 +7098,7 @@
       <c r="C32" s="41"/>
       <c r="D32" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>"-2",</v>
+        <v>"2",</v>
       </c>
       <c r="E32" s="41" t="str">
         <f t="shared" ref="E32:K32" si="16">CHAR(34)&amp;E13&amp;CHAR(34)&amp;","</f>
@@ -7108,7 +7106,7 @@
       </c>
       <c r="F32" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>"-2",</v>
+        <v>"2",</v>
       </c>
       <c r="G32" s="41" t="str">
         <f t="shared" si="16"/>
@@ -8291,8 +8289,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AL1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8383,15 +8381,15 @@
     </row>
     <row r="6" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="36">
-        <f>'1904'!$C$2</f>
-        <v>45035</v>
+        <f>'2604'!$C$2</f>
+        <v>45042</v>
       </c>
       <c r="C6" s="3">
-        <f>COUNT('1904'!$B$3:$B$30)</f>
+        <f>COUNT('2604'!$B$3:$B$30)</f>
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <f>MAX('1904'!$L$3:$L$5)</f>
+        <f>MAX('2604'!$L$3:$L$5)</f>
         <v>0</v>
       </c>
       <c r="E6" s="3">
@@ -8399,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <f>MIN('1904'!$L$3:$L$5)</f>
+        <f>MIN('2604'!$L$3:$L$5)</f>
         <v>0</v>
       </c>
       <c r="I6" s="7">
@@ -8424,15 +8422,15 @@
     </row>
     <row r="7" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="36">
-        <f>'2004'!$C$2</f>
-        <v>45036</v>
+        <f>'2704'!$C$2</f>
+        <v>45043</v>
       </c>
       <c r="C7" s="3">
-        <f>COUNT('2004'!$B$3:$B$30)</f>
+        <f>COUNT('2704'!$B$3:$B$30)</f>
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f>MAX('2004'!$L$3:$L$5)</f>
+        <f>MAX('2704'!$L$3:$L$5)</f>
         <v>0</v>
       </c>
       <c r="E7" s="3">
@@ -8440,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f>MIN('2004'!$L$3:$L$5)</f>
+        <f>MIN('2704'!$L$3:$L$5)</f>
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -8477,19 +8475,19 @@
         <v>10</v>
       </c>
       <c r="V7" s="48" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="W7" s="47" t="s">
         <v>11</v>
       </c>
       <c r="X7" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Y7" s="49" t="s">
         <v>13</v>
       </c>
       <c r="Z7" s="48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
@@ -9012,7 +9010,7 @@
       </c>
       <c r="R18" s="51">
         <f>Table1[[#This Row],[Points]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="S18" s="60">
         <f t="shared" si="3"/>
@@ -9020,7 +9018,7 @@
       </c>
       <c r="T18" s="50">
         <f>Table1[[#This Row],[Finishes]]/($Q$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="U18" s="60">
         <f t="shared" si="4"/>
@@ -9043,7 +9041,7 @@
       </c>
       <c r="Z18" s="20">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="7"/>
       <c r="AH18" s="7"/>
@@ -9312,7 +9310,7 @@
     <row r="25" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P26" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -9359,7 +9357,7 @@
         <v>93</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9373,7 +9371,7 @@
         <v>55</v>
       </c>
       <c r="Q29" s="44">
-        <f>'2404'!R3+'1904'!R3+'2004'!R3</f>
+        <f>'2404'!R3+'2604'!R3+'2704'!R3</f>
         <v>0</v>
       </c>
       <c r="R29" s="29">
@@ -9381,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="27">
-        <f>'2404'!S3+'1904'!S3+'2004'!S3</f>
+        <f>'2404'!S3+'2604'!S3+'2704'!S3</f>
         <v>0</v>
       </c>
       <c r="T29" s="28">
@@ -9389,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="27">
-        <f>'2404'!T3+'1904'!T3+'2004'!T3</f>
+        <f>'2404'!T3+'2604'!T3+'2704'!T3</f>
         <v>0</v>
       </c>
       <c r="V29" s="28">
@@ -9397,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="27">
-        <f>'2404'!U3+'1904'!U3+'2004'!U3</f>
+        <f>'2404'!U3+'2604'!U3+'2704'!U3</f>
         <v>0</v>
       </c>
       <c r="X29" s="28">
@@ -9417,7 +9415,7 @@
         <v>59</v>
       </c>
       <c r="Q30" s="44">
-        <f>'2404'!R4+'1904'!R4+'2004'!R4</f>
+        <f>'2404'!R4+'2604'!R4+'2704'!R4</f>
         <v>0</v>
       </c>
       <c r="R30" s="29">
@@ -9425,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="27">
-        <f>'2404'!S4+'1904'!S4+'2004'!S4</f>
+        <f>'2404'!S4+'2604'!S4+'2704'!S4</f>
         <v>0</v>
       </c>
       <c r="T30" s="28">
@@ -9433,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="27">
-        <f>'2404'!T4+'1904'!T4+'2004'!T4</f>
+        <f>'2404'!T4+'2604'!T4+'2704'!T4</f>
         <v>0</v>
       </c>
       <c r="V30" s="28">
@@ -9441,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="27">
-        <f>'2404'!U4+'1904'!U4+'2004'!U4</f>
+        <f>'2404'!U4+'2604'!U4+'2704'!U4</f>
         <v>0</v>
       </c>
       <c r="X30" s="28">
@@ -9461,7 +9459,7 @@
         <v>62</v>
       </c>
       <c r="Q31" s="44">
-        <f>'2404'!R5+'1904'!R5+'2004'!R5</f>
+        <f>'2404'!R5+'2604'!R5+'2704'!R5</f>
         <v>3</v>
       </c>
       <c r="R31" s="29">
@@ -9469,7 +9467,7 @@
         <v>3</v>
       </c>
       <c r="S31" s="27">
-        <f>'2404'!S5+'1904'!S5+'2004'!S5</f>
+        <f>'2404'!S5+'2604'!S5+'2704'!S5</f>
         <v>3</v>
       </c>
       <c r="T31" s="28">
@@ -9477,7 +9475,7 @@
         <v>3</v>
       </c>
       <c r="U31" s="27">
-        <f>'2404'!T5+'1904'!T5+'2004'!T5</f>
+        <f>'2404'!T5+'2604'!T5+'2704'!T5</f>
         <v>0</v>
       </c>
       <c r="V31" s="28">
@@ -9485,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="27">
-        <f>'2404'!U5+'1904'!U5+'2004'!U5</f>
+        <f>'2404'!U5+'2604'!U5+'2704'!U5</f>
         <v>0</v>
       </c>
       <c r="X31" s="28">
@@ -9505,7 +9503,7 @@
         <v>65</v>
       </c>
       <c r="Q32" s="44">
-        <f>'2404'!R6+'1904'!R6+'2004'!R6</f>
+        <f>'2404'!R6+'2604'!R6+'2704'!R6</f>
         <v>1</v>
       </c>
       <c r="R32" s="29">
@@ -9513,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="27">
-        <f>'2404'!S6+'1904'!S6+'2004'!S6</f>
+        <f>'2404'!S6+'2604'!S6+'2704'!S6</f>
         <v>1</v>
       </c>
       <c r="T32" s="28">
@@ -9521,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="U32" s="27">
-        <f>'2404'!T6+'1904'!T6+'2004'!T6</f>
+        <f>'2404'!T6+'2604'!T6+'2704'!T6</f>
         <v>0</v>
       </c>
       <c r="V32" s="28">
@@ -9529,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="27">
-        <f>'2404'!U6+'1904'!U6+'2004'!U6</f>
+        <f>'2404'!U6+'2604'!U6+'2704'!U6</f>
         <v>0</v>
       </c>
       <c r="X32" s="28">
@@ -9548,7 +9546,7 @@
         <v>68</v>
       </c>
       <c r="Q33" s="44">
-        <f>'2404'!R7+'1904'!R7+'2004'!R7</f>
+        <f>'2404'!R7+'2604'!R7+'2704'!R7</f>
         <v>0</v>
       </c>
       <c r="R33" s="29">
@@ -9556,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="27">
-        <f>'2404'!S7+'1904'!S7+'2004'!S7</f>
+        <f>'2404'!S7+'2604'!S7+'2704'!S7</f>
         <v>0</v>
       </c>
       <c r="T33" s="28">
@@ -9564,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="27">
-        <f>'2404'!T7+'1904'!T7+'2004'!T7</f>
+        <f>'2404'!T7+'2604'!T7+'2704'!T7</f>
         <v>0</v>
       </c>
       <c r="V33" s="28">
@@ -9572,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="27">
-        <f>'2404'!U7+'1904'!U7+'2004'!U7</f>
+        <f>'2404'!U7+'2604'!U7+'2704'!U7</f>
         <v>0</v>
       </c>
       <c r="X33" s="28">
@@ -9591,7 +9589,7 @@
         <v>71</v>
       </c>
       <c r="Q34" s="44">
-        <f>'2404'!R8+'1904'!R8+'2004'!R8</f>
+        <f>'2404'!R8+'2604'!R8+'2704'!R8</f>
         <v>2</v>
       </c>
       <c r="R34" s="29">
@@ -9599,7 +9597,7 @@
         <v>2</v>
       </c>
       <c r="S34" s="27">
-        <f>'2404'!S8+'1904'!S8+'2004'!S8</f>
+        <f>'2404'!S8+'2604'!S8+'2704'!S8</f>
         <v>2</v>
       </c>
       <c r="T34" s="28">
@@ -9607,7 +9605,7 @@
         <v>2</v>
       </c>
       <c r="U34" s="27">
-        <f>'2404'!T8+'1904'!T8+'2004'!T8</f>
+        <f>'2404'!T8+'2604'!T8+'2704'!T8</f>
         <v>0</v>
       </c>
       <c r="V34" s="28">
@@ -9615,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="27">
-        <f>'2404'!U8+'1904'!U8+'2004'!U8</f>
+        <f>'2404'!U8+'2604'!U8+'2704'!U8</f>
         <v>0</v>
       </c>
       <c r="X34" s="28">
@@ -9628,13 +9626,13 @@
     </row>
     <row r="35" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="P35" s="30" t="s">
         <v>75</v>
       </c>
       <c r="Q35" s="44">
-        <f>'2404'!R9+'1904'!R9+'2004'!R9</f>
+        <f>'2404'!R9+'2604'!R9+'2704'!R9</f>
         <v>0</v>
       </c>
       <c r="R35" s="29">
@@ -9642,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="27">
-        <f>'2404'!S9+'1904'!S9+'2004'!S9</f>
+        <f>'2404'!S9+'2604'!S9+'2704'!S9</f>
         <v>0</v>
       </c>
       <c r="T35" s="28">
@@ -9650,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="27">
-        <f>'2404'!T9+'1904'!T9+'2004'!T9</f>
+        <f>'2404'!T9+'2604'!T9+'2704'!T9</f>
         <v>0</v>
       </c>
       <c r="V35" s="28">
@@ -9658,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="27">
-        <f>'2404'!U9+'1904'!U9+'2004'!U9</f>
+        <f>'2404'!U9+'2604'!U9+'2704'!U9</f>
         <v>0</v>
       </c>
       <c r="X35" s="28">
@@ -9671,13 +9669,13 @@
     </row>
     <row r="36" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="P36" s="30" t="s">
         <v>78</v>
       </c>
       <c r="Q36" s="44">
-        <f>'2404'!R10+'1904'!R10+'2004'!R10</f>
+        <f>'2404'!R10+'2604'!R10+'2704'!R10</f>
         <v>0</v>
       </c>
       <c r="R36" s="29">
@@ -9685,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="27">
-        <f>'2404'!S10+'1904'!S10+'2004'!S10</f>
+        <f>'2404'!S10+'2604'!S10+'2704'!S10</f>
         <v>0</v>
       </c>
       <c r="T36" s="28">
@@ -9693,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="27">
-        <f>'2404'!T10+'1904'!T10+'2004'!T10</f>
+        <f>'2404'!T10+'2604'!T10+'2704'!T10</f>
         <v>0</v>
       </c>
       <c r="V36" s="28">
@@ -9701,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="27">
-        <f>'2404'!U10+'1904'!U10+'2004'!U10</f>
+        <f>'2404'!U10+'2604'!U10+'2704'!U10</f>
         <v>0</v>
       </c>
       <c r="X36" s="28">
@@ -9713,14 +9711,11 @@
       </c>
     </row>
     <row r="37" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I37" t="s">
-        <v>149</v>
-      </c>
       <c r="P37" s="30" t="s">
         <v>80</v>
       </c>
       <c r="Q37" s="44">
-        <f>'2404'!R11+'1904'!R11+'2004'!R11</f>
+        <f>'2404'!R11+'2604'!R11+'2704'!R11</f>
         <v>2</v>
       </c>
       <c r="R37" s="29">
@@ -9728,7 +9723,7 @@
         <v>2</v>
       </c>
       <c r="S37" s="27">
-        <f>'2404'!S11+'1904'!S11+'2004'!S11</f>
+        <f>'2404'!S11+'2604'!S11+'2704'!S11</f>
         <v>1</v>
       </c>
       <c r="T37" s="28">
@@ -9736,7 +9731,7 @@
         <v>1</v>
       </c>
       <c r="U37" s="27">
-        <f>'2404'!T11+'1904'!T11+'2004'!T11</f>
+        <f>'2404'!T11+'2604'!T11+'2704'!T11</f>
         <v>1</v>
       </c>
       <c r="V37" s="28">
@@ -9744,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="W37" s="27">
-        <f>'2404'!U11+'1904'!U11+'2004'!U11</f>
+        <f>'2404'!U11+'2604'!U11+'2704'!U11</f>
         <v>0</v>
       </c>
       <c r="X37" s="28">
@@ -9756,14 +9751,11 @@
       </c>
     </row>
     <row r="38" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I38" t="s">
-        <v>162</v>
-      </c>
       <c r="P38" s="30" t="s">
         <v>81</v>
       </c>
       <c r="Q38" s="44">
-        <f>'2404'!R12+'1904'!R12+'2004'!R12</f>
+        <f>'2404'!R12+'2604'!R12+'2704'!R12</f>
         <v>0</v>
       </c>
       <c r="R38" s="29">
@@ -9771,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="27">
-        <f>'2404'!S12+'1904'!S12+'2004'!S12</f>
+        <f>'2404'!S12+'2604'!S12+'2704'!S12</f>
         <v>0</v>
       </c>
       <c r="T38" s="28">
@@ -9779,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="27">
-        <f>'2404'!T12+'1904'!T12+'2004'!T12</f>
+        <f>'2404'!T12+'2604'!T12+'2704'!T12</f>
         <v>0</v>
       </c>
       <c r="V38" s="28">
@@ -9787,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="27">
-        <f>'2404'!U12+'1904'!U12+'2004'!U12</f>
+        <f>'2404'!U12+'2604'!U12+'2704'!U12</f>
         <v>0</v>
       </c>
       <c r="X38" s="28">
@@ -9803,23 +9795,23 @@
         <v>82</v>
       </c>
       <c r="Q39" s="44">
-        <f>'2404'!R13+'1904'!R13+'2004'!R13</f>
+        <f>'2404'!R13+'2604'!R13+'2704'!R13</f>
         <v>2</v>
       </c>
       <c r="R39" s="29">
         <f t="shared" si="7"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="S39" s="27">
-        <f>'2404'!S13+'1904'!S13+'2004'!S13</f>
+        <f>'2404'!S13+'2604'!S13+'2704'!S13</f>
         <v>2</v>
       </c>
       <c r="T39" s="28">
         <f t="shared" si="8"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="U39" s="27">
-        <f>'2404'!T13+'1904'!T13+'2004'!T13</f>
+        <f>'2404'!T13+'2604'!T13+'2704'!T13</f>
         <v>0</v>
       </c>
       <c r="V39" s="28">
@@ -9827,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="27">
-        <f>'2404'!U13+'1904'!U13+'2004'!U13</f>
+        <f>'2404'!U13+'2604'!U13+'2704'!U13</f>
         <v>0</v>
       </c>
       <c r="X39" s="28">
@@ -9835,20 +9827,20 @@
         <v>0</v>
       </c>
       <c r="Y39" s="40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
     </row>
     <row r="40" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I40" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P40" s="30" t="s">
         <v>83</v>
       </c>
       <c r="Q40" s="44">
-        <f>'2404'!R14+'1904'!R14+'2004'!R14</f>
+        <f>'2404'!R14+'2604'!R14+'2704'!R14</f>
         <v>0</v>
       </c>
       <c r="R40" s="29">
@@ -9856,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="27">
-        <f>'2404'!S14+'1904'!S14+'2004'!S14</f>
+        <f>'2404'!S14+'2604'!S14+'2704'!S14</f>
         <v>0</v>
       </c>
       <c r="T40" s="28">
@@ -9864,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="27">
-        <f>'2404'!T14+'1904'!T14+'2004'!T14</f>
+        <f>'2404'!T14+'2604'!T14+'2704'!T14</f>
         <v>0</v>
       </c>
       <c r="V40" s="28">
@@ -9872,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="27">
-        <f>'2404'!U14+'1904'!U14+'2004'!U14</f>
+        <f>'2404'!U14+'2604'!U14+'2704'!U14</f>
         <v>0</v>
       </c>
       <c r="X40" s="28">
@@ -9895,7 +9887,7 @@
         <v>85</v>
       </c>
       <c r="Q41" s="44">
-        <f>'2404'!R15+'1904'!R15+'2004'!R15</f>
+        <f>'2404'!R15+'2604'!R15+'2704'!R15</f>
         <v>3</v>
       </c>
       <c r="R41" s="29">
@@ -9903,7 +9895,7 @@
         <v>3</v>
       </c>
       <c r="S41" s="27">
-        <f>'2404'!S15+'1904'!S15+'2004'!S15</f>
+        <f>'2404'!S15+'2604'!S15+'2704'!S15</f>
         <v>3</v>
       </c>
       <c r="T41" s="28">
@@ -9911,7 +9903,7 @@
         <v>3</v>
       </c>
       <c r="U41" s="27">
-        <f>'2404'!T15+'1904'!T15+'2004'!T15</f>
+        <f>'2404'!T15+'2604'!T15+'2704'!T15</f>
         <v>0</v>
       </c>
       <c r="V41" s="28">
@@ -9919,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="27">
-        <f>'2404'!U15+'1904'!U15+'2004'!U15</f>
+        <f>'2404'!U15+'2604'!U15+'2704'!U15</f>
         <v>0</v>
       </c>
       <c r="X41" s="28">
@@ -9942,7 +9934,7 @@
         <v>86</v>
       </c>
       <c r="Q42" s="44">
-        <f>'2404'!R16+'1904'!R16+'2004'!R16</f>
+        <f>'2404'!R16+'2604'!R16+'2704'!R16</f>
         <v>0</v>
       </c>
       <c r="R42" s="29">
@@ -9950,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="27">
-        <f>'2404'!S16+'1904'!S16+'2004'!S16</f>
+        <f>'2404'!S16+'2604'!S16+'2704'!S16</f>
         <v>0</v>
       </c>
       <c r="T42" s="28">
@@ -9958,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="27">
-        <f>'2404'!T16+'1904'!T16+'2004'!T16</f>
+        <f>'2404'!T16+'2604'!T16+'2704'!T16</f>
         <v>0</v>
       </c>
       <c r="V42" s="28">
@@ -9966,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="27">
-        <f>'2404'!U16+'1904'!U16+'2004'!U16</f>
+        <f>'2404'!U16+'2604'!U16+'2704'!U16</f>
         <v>0</v>
       </c>
       <c r="X42" s="28">
@@ -9989,7 +9981,7 @@
         <v>87</v>
       </c>
       <c r="Q43" s="44">
-        <f>'2404'!R17+'1904'!R17+'2004'!R17</f>
+        <f>'2404'!R17+'2604'!R17+'2704'!R17</f>
         <v>0</v>
       </c>
       <c r="R43" s="29">
@@ -9997,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="27">
-        <f>'2404'!S17+'1904'!S17+'2004'!S17</f>
+        <f>'2404'!S17+'2604'!S17+'2704'!S17</f>
         <v>0</v>
       </c>
       <c r="T43" s="28">
@@ -10005,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="27">
-        <f>'2404'!T17+'1904'!T17+'2004'!T17</f>
+        <f>'2404'!T17+'2604'!T17+'2704'!T17</f>
         <v>0</v>
       </c>
       <c r="V43" s="28">
@@ -10013,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="27">
-        <f>'2404'!U17+'1904'!U17+'2004'!U17</f>
+        <f>'2404'!U17+'2604'!U17+'2704'!U17</f>
         <v>0</v>
       </c>
       <c r="X43" s="28">
@@ -10029,7 +10021,7 @@
         <v>107</v>
       </c>
       <c r="Q44" s="44">
-        <f>'2404'!R18+'1904'!R18+'2004'!R18</f>
+        <f>'2404'!R18+'2604'!R18+'2704'!R18</f>
         <v>0</v>
       </c>
       <c r="R44" s="29">
@@ -10037,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="27">
-        <f>'2404'!S18+'1904'!S18+'2004'!S18</f>
+        <f>'2404'!S18+'2604'!S18+'2704'!S18</f>
         <v>0</v>
       </c>
       <c r="T44" s="28">
@@ -10045,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="27">
-        <f>'2404'!T18+'1904'!T18+'2004'!T18</f>
+        <f>'2404'!T18+'2604'!T18+'2704'!T18</f>
         <v>0</v>
       </c>
       <c r="V44" s="28">
@@ -10053,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="27">
-        <f>'2404'!U18+'1904'!U18+'2004'!U18</f>
+        <f>'2404'!U18+'2604'!U18+'2704'!U18</f>
         <v>0</v>
       </c>
       <c r="X44" s="28">
@@ -10066,7 +10058,7 @@
     </row>
     <row r="45" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I45" s="33" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="9:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -11181,8 +11173,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11212,7 +11204,7 @@
         <v>101</v>
       </c>
       <c r="AA2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -11256,7 +11248,7 @@
         <v>87</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>102</v>
@@ -11282,32 +11274,32 @@
       <c r="Y3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AA3" s="71" t="s">
+      <c r="AA3" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" s="71" t="s">
+      <c r="AB3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD3" s="72" t="s">
+      <c r="AC3" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF3" s="73" t="s">
+      <c r="AE3" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH3" s="72" t="s">
+      <c r="AG3" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AI3" s="73" t="s">
-        <v>173</v>
+      <c r="AI3" s="72" t="s">
+        <v>169</v>
       </c>
       <c r="AJ3" s="5"/>
     </row>
@@ -11376,38 +11368,38 @@
       <c r="Y4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AA4" s="74" t="s">
+      <c r="AA4" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="75">
+      <c r="AB4" s="74">
         <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="76">
+      <c r="AC4" s="75">
         <f>Table2[[#This Row],[Points]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="77">
+      <c r="AD4" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA4, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="78">
+      <c r="AE4" s="77">
         <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="77">
+      <c r="AF4" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA4, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="78">
+      <c r="AG4" s="77">
         <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="77">
+      <c r="AH4" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA4, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="78">
+      <c r="AI4" s="77">
         <f>Table2[[#This Row],[Threes]]/$AC$2</f>
         <v>0</v>
       </c>
@@ -11415,19 +11407,19 @@
     </row>
     <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <f>'1904'!$C$2</f>
-        <v>45035</v>
+        <f>'2604'!$C$2</f>
+        <v>45042</v>
       </c>
       <c r="B5" s="16">
-        <f>'1904'!$L$3</f>
+        <f>'2604'!$L$3</f>
         <v>0</v>
       </c>
       <c r="C5" s="16">
-        <f>'1904'!$M$3</f>
+        <f>'2604'!$M$3</f>
         <v>0</v>
       </c>
       <c r="D5" s="16" t="e">
-        <f>'1904'!$O$3</f>
+        <f>'2604'!$O$3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J5" s="17"/>
@@ -11437,57 +11429,57 @@
       <c r="N5" s="17"/>
       <c r="O5" s="55"/>
       <c r="Q5" s="17">
-        <f>COUNTIF('1904'!$X$4:$X$26,"LG/WW")</f>
+        <f>COUNTIF('2604'!$X$4:$X$26,"LG/WW")</f>
         <v>0</v>
       </c>
       <c r="R5" s="17">
-        <f>COUNTIF('1904'!$Y$4:$Y$26,"WW/LG")</f>
+        <f>COUNTIF('2604'!$Y$4:$Y$26,"WW/LG")</f>
         <v>0</v>
       </c>
       <c r="S5" s="67"/>
       <c r="T5" s="67"/>
       <c r="V5" s="17">
-        <f>COUNTIF('1904'!$X$4:$X$26,"LG/5M")</f>
+        <f>COUNTIF('2604'!$X$4:$X$26,"LG/5M")</f>
         <v>0</v>
       </c>
       <c r="W5" s="17">
-        <f>COUNTIF('1904'!$Z$4:$Z$26,"5M/LG")</f>
+        <f>COUNTIF('2604'!$Z$4:$Z$26,"5M/LG")</f>
         <v>0</v>
       </c>
       <c r="X5" s="67"/>
       <c r="Y5" s="67"/>
-      <c r="AA5" s="74" t="s">
+      <c r="AA5" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="75">
+      <c r="AB5" s="74">
         <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="76">
+      <c r="AC5" s="75">
         <f>Table2[[#This Row],[Points]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="77">
+      <c r="AD5" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA5, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="78">
+      <c r="AE5" s="77">
         <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="77">
+      <c r="AF5" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA5, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="78">
+      <c r="AG5" s="77">
         <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="77">
+      <c r="AH5" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA5, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="78">
+      <c r="AI5" s="77">
         <f>Table2[[#This Row],[Threes]]/$AC$2</f>
         <v>0</v>
       </c>
@@ -11495,25 +11487,28 @@
     </row>
     <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
-        <f>'2004'!$C$2</f>
-        <v>45036</v>
+        <f>'2704'!$C$2</f>
+        <v>45043</v>
       </c>
       <c r="B6" s="16">
-        <f>'2004'!$L$3</f>
+        <f>'2704'!$L$3</f>
         <v>0</v>
       </c>
       <c r="C6" s="16">
-        <f>'2004'!$M$3</f>
+        <f>'2704'!$M$3</f>
         <v>0</v>
       </c>
       <c r="D6" s="16" t="e">
-        <f>'2004'!$O$3</f>
+        <f>'2704'!$O$3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="18">
+        <f>SUM(B4:B6)/SUM(B4:C6)</f>
+        <v>0.375</v>
+      </c>
       <c r="J6" s="17"/>
       <c r="K6" s="55"/>
       <c r="L6" s="55"/>
@@ -11521,57 +11516,57 @@
       <c r="N6" s="17"/>
       <c r="O6" s="55"/>
       <c r="Q6" s="17">
-        <f>COUNTIF('2004'!$X$4:$X$26,"LG/WW")</f>
+        <f>COUNTIF('2704'!$X$4:$X$26,"LG/WW")</f>
         <v>0</v>
       </c>
       <c r="R6" s="17">
-        <f>COUNTIF('2004'!$Y$4:$Y$26,"WW/LG")</f>
+        <f>COUNTIF('2704'!$Y$4:$Y$26,"WW/LG")</f>
         <v>0</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="V6" s="17">
-        <f>COUNTIF('2004'!$X$4:$X$26,"LG/5M")</f>
+        <f>COUNTIF('2704'!$X$4:$X$26,"LG/5M")</f>
         <v>0</v>
       </c>
       <c r="W6" s="17">
-        <f>COUNTIF('2004'!$Z$4:$Z$26,"5M/LG")</f>
+        <f>COUNTIF('2704'!$Z$4:$Z$26,"5M/LG")</f>
         <v>0</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
-      <c r="AA6" s="74" t="s">
+      <c r="AA6" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AB6" s="75">
+      <c r="AB6" s="74">
         <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
         <v>3</v>
       </c>
-      <c r="AC6" s="76">
+      <c r="AC6" s="75">
         <f>Table2[[#This Row],[Points]]/$AC$2</f>
         <v>3</v>
       </c>
-      <c r="AD6" s="77">
+      <c r="AD6" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA6, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>3</v>
       </c>
-      <c r="AE6" s="78">
+      <c r="AE6" s="77">
         <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
         <v>3</v>
       </c>
-      <c r="AF6" s="77">
+      <c r="AF6" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA6, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="78">
+      <c r="AG6" s="77">
         <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="77">
+      <c r="AH6" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA6, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="78">
+      <c r="AI6" s="77">
         <f>Table2[[#This Row],[Threes]]/$AC$2</f>
         <v>0</v>
       </c>
@@ -11600,38 +11595,38 @@
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
-      <c r="AA7" s="74" t="s">
+      <c r="AA7" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="75">
+      <c r="AB7" s="74">
         <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
         <v>1</v>
       </c>
-      <c r="AC7" s="76">
+      <c r="AC7" s="75">
         <f>Table2[[#This Row],[Points]]/$AC$2</f>
         <v>1</v>
       </c>
-      <c r="AD7" s="77">
+      <c r="AD7" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA7, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>1</v>
       </c>
-      <c r="AE7" s="78">
+      <c r="AE7" s="77">
         <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
         <v>1</v>
       </c>
-      <c r="AF7" s="77">
+      <c r="AF7" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA7, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="78">
+      <c r="AG7" s="77">
         <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="77">
+      <c r="AH7" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA7, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="78">
+      <c r="AI7" s="77">
         <f>Table2[[#This Row],[Threes]]/$AC$2</f>
         <v>0</v>
       </c>
@@ -11660,38 +11655,38 @@
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
       <c r="Y8" s="17"/>
-      <c r="AA8" s="74" t="s">
+      <c r="AA8" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="AB8" s="75">
+      <c r="AB8" s="74">
         <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="76">
+      <c r="AC8" s="75">
         <f>Table2[[#This Row],[Points]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="77">
+      <c r="AD8" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA8, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="78">
+      <c r="AE8" s="77">
         <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="77">
+      <c r="AF8" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA8, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="78">
+      <c r="AG8" s="77">
         <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="77">
+      <c r="AH8" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA8, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="78">
+      <c r="AI8" s="77">
         <f>Table2[[#This Row],[Threes]]/$AC$2</f>
         <v>0</v>
       </c>
@@ -11720,38 +11715,38 @@
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
       <c r="Y9" s="17"/>
-      <c r="AA9" s="74" t="s">
+      <c r="AA9" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="AB9" s="75">
+      <c r="AB9" s="74">
         <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="76">
+      <c r="AC9" s="75">
         <f>Table2[[#This Row],[Points]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="77">
+      <c r="AD9" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA9, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="78">
+      <c r="AE9" s="77">
         <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="77">
+      <c r="AF9" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA9, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="78">
+      <c r="AG9" s="77">
         <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="77">
+      <c r="AH9" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA9, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="78">
+      <c r="AI9" s="77">
         <f>Table2[[#This Row],[Threes]]/$AC$2</f>
         <v>0</v>
       </c>
@@ -11780,38 +11775,38 @@
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
-      <c r="AA10" s="74" t="s">
+      <c r="AA10" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="AB10" s="75">
+      <c r="AB10" s="74">
         <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="76">
+      <c r="AC10" s="75">
         <f>Table2[[#This Row],[Points]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="77">
+      <c r="AD10" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA10, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="78">
+      <c r="AE10" s="77">
         <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="77">
+      <c r="AF10" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA10, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="78">
+      <c r="AG10" s="77">
         <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="77">
+      <c r="AH10" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA10, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="78">
+      <c r="AI10" s="77">
         <f>Table2[[#This Row],[Threes]]/$AC$2</f>
         <v>0</v>
       </c>
@@ -11840,38 +11835,38 @@
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
-      <c r="AA11" s="74" t="s">
+      <c r="AA11" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="AB11" s="75">
+      <c r="AB11" s="74">
         <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="76">
+      <c r="AC11" s="75">
         <f>Table2[[#This Row],[Points]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="77">
+      <c r="AD11" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA11, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="78">
+      <c r="AE11" s="77">
         <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="77">
+      <c r="AF11" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA11, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="78">
+      <c r="AG11" s="77">
         <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="77">
+      <c r="AH11" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA11, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="78">
+      <c r="AI11" s="77">
         <f>Table2[[#This Row],[Threes]]/$AC$2</f>
         <v>0</v>
       </c>
@@ -11900,38 +11895,38 @@
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
-      <c r="AA12" s="74" t="s">
+      <c r="AA12" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="AB12" s="75">
+      <c r="AB12" s="74">
         <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
         <v>1</v>
       </c>
-      <c r="AC12" s="76">
+      <c r="AC12" s="75">
         <f>Table2[[#This Row],[Points]]/$AC$2</f>
         <v>1</v>
       </c>
-      <c r="AD12" s="77">
+      <c r="AD12" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA12, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>1</v>
       </c>
-      <c r="AE12" s="78">
+      <c r="AE12" s="77">
         <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
         <v>1</v>
       </c>
-      <c r="AF12" s="77">
+      <c r="AF12" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA12, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="78">
+      <c r="AG12" s="77">
         <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="77">
+      <c r="AH12" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA12, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="78">
+      <c r="AI12" s="77">
         <f>Table2[[#This Row],[Threes]]/$AC$2</f>
         <v>0</v>
       </c>
@@ -11960,38 +11955,38 @@
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
-      <c r="AA13" s="74" t="s">
+      <c r="AA13" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="AB13" s="75">
+      <c r="AB13" s="74">
         <f>Table2[[#This Row],[Finishes]]+Table2[[#This Row],[Midranges]]+Table2[[#This Row],[Threes]]+Table2[[#This Row],[Threes]]</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="76">
+      <c r="AC13" s="75">
         <f>Table2[[#This Row],[Points]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="77">
+      <c r="AD13" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA13, '2404'!$F$4:$F$33, "Finish", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="78">
+      <c r="AE13" s="77">
         <f>Table2[[#This Row],[Finishes]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="77">
+      <c r="AF13" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA13, '2404'!$F$4:$F$33, "Midrange", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="78">
+      <c r="AG13" s="77">
         <f>Table2[[#This Row],[Midranges]]/$AC$2</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="77">
+      <c r="AH13" s="76">
         <f>COUNTIFS('2404'!$E$4:$E$33, 'Statistics LG'!$AA13, '2404'!$F$4:$F$33, "Three Pointer", '2404'!$D$4:$D$33, "Loose Gooses")</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="78">
+      <c r="AI13" s="77">
         <f>Table2[[#This Row],[Threes]]/$AC$2</f>
         <v>0</v>
       </c>
@@ -13343,8 +13338,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -13362,10 +13357,10 @@
         <v>99</v>
       </c>
       <c r="P2" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="24" t="s">
         <v>120</v>
-      </c>
-      <c r="U2" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -13469,21 +13464,21 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="P4" s="17">
-        <f>COUNTIF('2404'!X4:X26,"WW/LG")</f>
+        <f>COUNTIF('2404'!$X$4:$X$26,"WW/5M")</f>
         <v>0</v>
       </c>
       <c r="Q4" s="17">
-        <f>COUNTIF('2404'!W4:W26,"LG/WW")</f>
+        <f>COUNTIF('2404'!$Y$4:$Y$26,"5M/WW")</f>
         <v>0</v>
       </c>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="U4" s="17">
-        <f>COUNTIF('2404'!X4:X26,"WW/5M")</f>
+        <f>COUNTIF('2404'!$X$4:$X$26,"WW/LG")</f>
         <v>0</v>
       </c>
       <c r="V4" s="17">
-        <f>COUNTIF('2404'!Y4:Y26,"5M/WW")</f>
+        <f>COUNTIF('2404'!$W$4:$W$26,"LG/WW")</f>
         <v>0</v>
       </c>
       <c r="W4" s="17"/>
@@ -13491,19 +13486,19 @@
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <f>'1904'!C$2</f>
-        <v>45035</v>
+        <f>'2604'!C$2</f>
+        <v>45042</v>
       </c>
       <c r="B5" s="16">
-        <f>'1904'!L$5</f>
+        <f>'2604'!L$5</f>
         <v>0</v>
       </c>
       <c r="C5" s="16">
-        <f>'1904'!M$5</f>
+        <f>'2604'!M$5</f>
         <v>0</v>
       </c>
       <c r="D5" s="16" t="e">
-        <f>'1904'!O$5</f>
+        <f>'2604'!O$5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J5" s="17"/>
@@ -13522,25 +13517,28 @@
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
-        <f>'2004'!C$2</f>
-        <v>45036</v>
+        <f>'2704'!C$2</f>
+        <v>45043</v>
       </c>
       <c r="B6" s="16">
-        <f>'2004'!L$5</f>
+        <f>'2704'!L$5</f>
         <v>0</v>
       </c>
       <c r="C6" s="16">
-        <f>'2004'!M$5</f>
+        <f>'2704'!M$5</f>
         <v>0</v>
       </c>
       <c r="D6" s="16" t="e">
-        <f>'2004'!O$5</f>
+        <f>'2704'!O$5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="18">
+        <f>SUM(B4:B6)/SUM(B4:C6)</f>
+        <v>0.375</v>
+      </c>
       <c r="J6" s="17"/>
       <c r="K6" s="55"/>
       <c r="L6" s="55"/>
@@ -14012,7 +14010,7 @@
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
-      <c r="O30" s="24" t="s">
+      <c r="O30" s="40" t="s">
         <v>118</v>
       </c>
       <c r="P30" s="17">
@@ -15036,8 +15034,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15084,7 +15082,7 @@
         <v>106</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>62</v>
@@ -15186,19 +15184,19 @@
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <f>'1904'!C$2</f>
-        <v>45035</v>
+        <f>'2604'!C$2</f>
+        <v>45042</v>
       </c>
       <c r="B5" s="16">
-        <f>'1904'!L$4</f>
+        <f>'2604'!L$4</f>
         <v>0</v>
       </c>
       <c r="C5" s="16">
-        <f>'1904'!M$4</f>
+        <f>'2604'!M$4</f>
         <v>0</v>
       </c>
       <c r="D5" s="16" t="e">
-        <f>'1904'!O$4</f>
+        <f>'2604'!O$4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J5" s="17"/>
@@ -15217,25 +15215,28 @@
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
-        <f>'2004'!C$2</f>
-        <v>45036</v>
+        <f>'2704'!C$2</f>
+        <v>45043</v>
       </c>
       <c r="B6" s="16">
-        <f>'2004'!L$4</f>
+        <f>'2704'!L$4</f>
         <v>0</v>
       </c>
       <c r="C6" s="16">
-        <f>'2004'!M$4</f>
+        <f>'2704'!M$4</f>
         <v>0</v>
       </c>
       <c r="D6" s="16" t="e">
-        <f>'2004'!O$4</f>
+        <f>'2704'!O$4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="18">
+        <f>SUM(B4:B6)/SUM(B4:C6)</f>
+        <v>0.7</v>
+      </c>
       <c r="J6" s="17"/>
       <c r="K6" s="55"/>
       <c r="L6" s="55"/>
@@ -16749,7 +16750,7 @@
         <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>123</v>
@@ -16782,7 +16783,7 @@
         <v>125</v>
       </c>
       <c r="V2" s="40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="W2" s="40"/>
       <c r="X2" s="40"/>
@@ -17529,7 +17530,7 @@
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
       <c r="Q18" s="40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R18" s="42">
         <f t="shared" si="1"/>
@@ -18158,11 +18159,11 @@
       <c r="Z40" s="40"/>
     </row>
     <row r="41" spans="17:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q41" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="R41" s="70"/>
-      <c r="S41" s="70"/>
+      <c r="Q41" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
       <c r="V41" s="40"/>
@@ -18172,9 +18173,9 @@
       <c r="Z41" s="40"/>
     </row>
     <row r="42" spans="17:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
-      <c r="S42" s="70"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="78"/>
       <c r="T42" s="40"/>
       <c r="U42" s="40"/>
       <c r="V42" s="40"/>
@@ -19279,7 +19280,7 @@
         <v>125</v>
       </c>
       <c r="V2" s="40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -19371,7 +19372,7 @@
         <v>51</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G4" s="58">
         <v>1</v>
@@ -19409,7 +19410,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="20">
-        <f t="shared" ref="S3:S18" si="3">COUNTIFS($E$3:$E$27, $Q4,$F$3:$F$27,"Finish")</f>
+        <f t="shared" ref="S4:S18" si="3">COUNTIFS($E$3:$E$27, $Q4,$F$3:$F$27,"Finish")</f>
         <v>0</v>
       </c>
       <c r="T4" s="20">
@@ -19417,7 +19418,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="20">
-        <f t="shared" ref="U3:U18" si="4">COUNTIFS($E$3:$E$27, $Q4,$F$3:$F$27,"Three Pointer")</f>
+        <f t="shared" ref="U4:U18" si="4">COUNTIFS($E$3:$E$27, $Q4,$F$3:$F$27,"Three Pointer")</f>
         <v>0</v>
       </c>
       <c r="V4" s="68" t="b">
@@ -19450,7 +19451,7 @@
         <v>72</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G5" s="58">
         <v>1</v>
@@ -19529,7 +19530,7 @@
         <v>38</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G6" s="58">
         <v>1</v>
@@ -19649,7 +19650,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G8" s="58">
         <v>3</v>
@@ -19709,7 +19710,7 @@
         <v>51</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G9" s="58">
         <v>1</v>
@@ -19769,7 +19770,7 @@
         <v>72</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G10" s="58">
         <v>1</v>
@@ -19829,7 +19830,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G11" s="58">
         <v>1</v>
@@ -19889,7 +19890,7 @@
         <v>136</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G12" s="58">
         <v>2</v>
@@ -19949,7 +19950,7 @@
         <v>136</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G13" s="58">
         <v>3</v>
@@ -20009,7 +20010,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G14" s="58">
         <v>4</v>
@@ -20069,7 +20070,7 @@
         <v>72</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G15" s="58">
         <v>1</v>
@@ -20129,7 +20130,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G16" s="58">
         <v>1</v>
@@ -20229,7 +20230,7 @@
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
       <c r="Q18" s="40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R18" s="42">
         <f t="shared" si="1"/>
@@ -20746,18 +20747,18 @@
       <c r="U40" s="19"/>
     </row>
     <row r="41" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q41" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="R41" s="70"/>
-      <c r="S41" s="70"/>
+      <c r="Q41" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
     </row>
     <row r="42" spans="17:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
-      <c r="S42" s=